--- a/設計書/画面レイアウト/チャット選択面（変更）.xlsx
+++ b/設計書/画面レイアウト/チャット選択面（変更）.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10812"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/egoshiiori/Desktop/SAKURA/設計書/画面レイアウト/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81702\Desktop\SAKURA\設計書\画面レイアウト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93A53636-E350-C946-A1E3-6350B7BC7728}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0CC73ED-0D12-4A69-8E0D-65B668C4F23A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="（G6-1)チャット選択画面" sheetId="12" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="63">
   <si>
     <t>画面レイアウト</t>
     <rPh sb="0" eb="2">
@@ -252,17 +252,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>④を押下した時に押下した相手のチャット画面へ遷移する</t>
-    <rPh sb="2" eb="4">
-      <t>オウカ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>④を押下し相手のチャット画面へ遷移する</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>G6-1</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -376,16 +365,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>①のプロフィール画像を押下し相手のプロフィール閲覧画面げ遷移する</t>
-    <rPh sb="14" eb="16">
-      <t>シアイテ</t>
-    </rPh>
-    <rPh sb="23" eb="27">
-      <t>エツラn</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>戻るボタン</t>
     <rPh sb="0" eb="1">
       <t>モドル</t>
@@ -430,19 +409,52 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>プロフィール画像押下　→ プロフィール閲覧画面</t>
-    <rPh sb="8" eb="10">
-      <t>オウカ</t>
+    <t>→プロフィール閲覧画面へ遷移する</t>
+    <rPh sb="7" eb="11">
+      <t>エツランガメン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>センイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>④を押下　→ チャット画面</t>
-    <rPh sb="0" eb="1">
-      <t>④ヲオウカ</t>
+    <t>④でチャットを選択する</t>
+    <rPh sb="7" eb="9">
+      <t>センタク</t>
     </rPh>
-    <rPh sb="1" eb="2">
-      <t>ヲオウカ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>→チャット画面へ遷移する</t>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アイコン</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>①のアイコンを押下</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>トークリスト</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>タグ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>④を押下した時に押下した相手とのチャット画面へ遷移する</t>
+    <rPh sb="2" eb="4">
+      <t>オウカ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -666,7 +678,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -727,28 +739,13 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -767,6 +764,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -811,17 +823,26 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -875,8 +896,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="241904" y="781992"/>
-          <a:ext cx="4658421" cy="4846550"/>
+          <a:off x="241904" y="777125"/>
+          <a:ext cx="4790801" cy="5256875"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -925,7 +946,7 @@
               <a:latin typeface="HGS創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
               <a:ea typeface="HGS創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>　　　　　新田　真剣佑</a:t>
+            <a:t>　　　　　</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
             <a:latin typeface="HGS創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
@@ -956,7 +977,7 @@
               <a:latin typeface="HGS創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
               <a:ea typeface="HGS創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>　　　　　　　　　　俺よりイケメンなんていないだろ</a:t>
+            <a:t>　　　　　　　　　　</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
             <a:latin typeface="HGS創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
@@ -970,52 +991,7 @@
               <a:latin typeface="HGS創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
               <a:ea typeface="HGS創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>　　　　　明日花　キララ</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
-            <a:latin typeface="HGS創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="HGS創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
-              <a:latin typeface="HGS創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="HGS創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>	</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
-              <a:latin typeface="HGS創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="HGS創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>　　　　　　　　　　整形でも関係ないよね？</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
-            <a:latin typeface="HGS創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
-            <a:ea typeface="HGS創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
-              <a:latin typeface="HGS創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="HGS創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>　　　</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
-              <a:latin typeface="HGS創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
-              <a:ea typeface="HGS創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
-            </a:rPr>
-            <a:t>　　　バラク　オバマ</a:t>
+            <a:t>　　　　　</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
             <a:latin typeface="HGS創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
@@ -1041,20 +1017,55 @@
             </a:rPr>
             <a:t>　　　　　　　　　　</a:t>
           </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
+            <a:latin typeface="HGS創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="HGS創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+              <a:latin typeface="HGS創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGS創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>　　　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000">
+              <a:latin typeface="HGS創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="HGS創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>　　　</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2000">
+            <a:latin typeface="HGS創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="HGS創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000">
               <a:latin typeface="HGS創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
               <a:ea typeface="HGS創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t>Yes</a:t>
+            <a:t>	</a:t>
           </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" baseline="0">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
               <a:latin typeface="HGS創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
               <a:ea typeface="HGS創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
             </a:rPr>
-            <a:t> we can!!</a:t>
+            <a:t>　　　　　　　　　　</a:t>
           </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" baseline="0">
+            <a:latin typeface="HGS創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="HGS創英角ﾎﾟｯﾌﾟ体" panose="040B0A00000000000000" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -1382,8 +1393,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="252061" y="1880763"/>
-          <a:ext cx="5244809" cy="9696"/>
+          <a:off x="252061" y="1833874"/>
+          <a:ext cx="4788415" cy="9696"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1810,9 +1821,9 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>213282</xdr:colOff>
+      <xdr:colOff>250336</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>87252</xdr:rowOff>
+      <xdr:rowOff>97692</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
@@ -1833,8 +1844,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="533206" y="1929237"/>
-          <a:ext cx="775573" cy="756183"/>
+          <a:off x="543413" y="1892788"/>
+          <a:ext cx="657979" cy="763921"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1941,8 +1952,8 @@
       <xdr:rowOff>5543</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>300425</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>3034</xdr:colOff>
       <xdr:row>37</xdr:row>
       <xdr:rowOff>126423</xdr:rowOff>
     </xdr:to>
@@ -2005,7 +2016,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>302816</xdr:colOff>
+      <xdr:colOff>290116</xdr:colOff>
       <xdr:row>37</xdr:row>
       <xdr:rowOff>128253</xdr:rowOff>
     </xdr:to>
@@ -2260,15 +2271,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>213282</xdr:colOff>
+      <xdr:colOff>243811</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>96948</xdr:rowOff>
+      <xdr:rowOff>151900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>38778</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>96946</xdr:rowOff>
+      <xdr:rowOff>151898</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2283,271 +2294,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1492977" y="1938933"/>
-          <a:ext cx="1745038" cy="310227"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="12700">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-          <a:prstDash val="dash"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:endParaRPr lang="ja-JP" altLang="en-US"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>48011</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>25809</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>188100</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>120407</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="33" name="直線コネクタ 32">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75EB05EF-54B2-0347-93D6-4ED3581D4D4A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="3247248" y="2178023"/>
-          <a:ext cx="140089" cy="94598"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>164346</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>64587</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>37056</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>111236</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="34" name="正方形/長方形 33">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DDBE1A6-54F1-1549-A7B8-7C5F8F4ADAC1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3363583" y="2216801"/>
-          <a:ext cx="192633" cy="201763"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="12700">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>②</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>96946</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>29084</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>289579</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>75733</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="35" name="正方形/長方形 34">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B53A285C-5459-E845-8EC8-08F920915BFC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3936030" y="2491527"/>
-          <a:ext cx="192633" cy="201763"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="12700">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>③</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>203586</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>48473</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>145420</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>116337</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="36" name="正方形/長方形 35">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C84075A-A7EB-AC42-8AF6-5348D58A56E9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1483281" y="2510916"/>
-          <a:ext cx="2181299" cy="222978"/>
+          <a:off x="1416119" y="1946996"/>
+          <a:ext cx="1807727" cy="317498"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2589,70 +2337,345 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>155114</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>135725</xdr:rowOff>
+      <xdr:colOff>12213</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>91587</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>116336</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>19389</xdr:rowOff>
+      <xdr:colOff>128221</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>24424</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="37" name="直線コネクタ 36">
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="8" name="グループ化 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BE0C9F7-F2CC-6B48-B15B-1D628C40B36B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F03C20A-4C55-4CBA-9DD3-87C7CAD125A1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="3236059" y="1886683"/>
+          <a:ext cx="409085" cy="250337"/>
+          <a:chOff x="3601569" y="1953932"/>
+          <a:chExt cx="298610" cy="205399"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="33" name="直線コネクタ 32">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75EB05EF-54B2-0347-93D6-4ED3581D4D4A}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr>
+            <a:stCxn id="34" idx="1"/>
+          </xdr:cNvCxnSpPr>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="3601569" y="2056632"/>
+            <a:ext cx="132823" cy="32928"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="34" name="正方形/長方形 33">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DDBE1A6-54F1-1549-A7B8-7C5F8F4ADAC1}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3734392" y="1953932"/>
+            <a:ext cx="165787" cy="205399"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>②</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>270750</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>97692</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>244231</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>24751</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="正方形/長方形 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C84075A-A7EB-AC42-8AF6-5348D58A56E9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="3674274" y="2598168"/>
-          <a:ext cx="281146" cy="38778"/>
+        <a:xfrm>
+          <a:off x="1443058" y="2369038"/>
+          <a:ext cx="1438865" cy="244559"/>
         </a:xfrm>
-        <a:prstGeom prst="line">
+        <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln>
+        <a:noFill/>
+        <a:ln w="12700">
           <a:solidFill>
             <a:srgbClr val="FF0000"/>
           </a:solidFill>
+          <a:prstDash val="dash"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
         </a:lnRef>
-        <a:fillRef idx="0">
+        <a:fillRef idx="1">
           <a:schemeClr val="accent1"/>
         </a:fillRef>
         <a:effectRef idx="0">
           <a:schemeClr val="accent1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
+          <a:schemeClr val="lt1"/>
         </a:fontRef>
       </xdr:style>
-    </xdr:cxnSp>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>164809</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>96946</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>252806</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>96248</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>37518</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>143595</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>94194</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>142897</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="12" name="グループ化 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C291A84F-B181-4075-B877-82AD241487D8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="2890498" y="2367594"/>
+          <a:ext cx="427542" cy="205399"/>
+          <a:chOff x="3378960" y="2459180"/>
+          <a:chExt cx="427542" cy="205399"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="35" name="正方形/長方形 34">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B53A285C-5459-E845-8EC8-08F920915BFC}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3613869" y="2459180"/>
+            <a:ext cx="192633" cy="205399"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="12700">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>③</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="37" name="直線コネクタ 36">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BE0C9F7-F2CC-6B48-B15B-1D628C40B36B}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="3378960" y="2565821"/>
+            <a:ext cx="254299" cy="42414"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>286924</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>23677</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>159633</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>70326</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2667,8 +2690,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5603511" y="2249160"/>
-          <a:ext cx="192633" cy="201763"/>
+          <a:off x="4683078" y="1501273"/>
+          <a:ext cx="165786" cy="205399"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2780,16 +2803,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>9695</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>103367</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>158750</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>36203</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>203127</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>67863</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>38271</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>18317</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2804,8 +2827,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="5448397" y="2410695"/>
-          <a:ext cx="193432" cy="119611"/>
+          <a:off x="4554904" y="1672549"/>
+          <a:ext cx="172598" cy="140864"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2833,6 +2856,474 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>255558</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>73587</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2363815" cy="521425"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="正方形/長方形 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6F494C8-C982-468F-B5E6-4B18912C3124}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1134789" y="1868683"/>
+          <a:ext cx="2363815" cy="521425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="2000" b="1" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>バラク　オバマ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>164857</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>24423</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1618028" cy="405432"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="正方形/長方形 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{506DD148-0FB7-4A88-B390-56B074790565}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1337165" y="2295769"/>
+          <a:ext cx="1618028" cy="405432"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="2000" b="1" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>Yes</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="2000" b="1" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="2000" b="1" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>we</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="2000" b="1" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="2000" b="1" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>can!!</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="2000" b="1" cap="none" spc="0">
+            <a:ln w="0"/>
+            <a:solidFill>
+              <a:schemeClr val="bg2">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:effectLst>
+              <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                <a:schemeClr val="dk1">
+                  <a:alpha val="40000"/>
+                </a:schemeClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>286971</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>12212</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2363815" cy="521425"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="正方形/長方形 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B87FEEF-AEF2-40F4-AF85-4C71FFC88266}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="873125" y="2759808"/>
+          <a:ext cx="2363815" cy="521425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="2000" b="1" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>宮崎　台地</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>128220</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>140432</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2698752" cy="435697"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="正方形/長方形 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9197E569-D40F-48AE-BAB4-5FFCF7ED7DC1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1300528" y="3205528"/>
+          <a:ext cx="2698752" cy="435697"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1600" b="1" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>俺のまいやけん、離れんで</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>79375</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>109904</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3852740" cy="435697"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="44" name="正方形/長方形 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95712EFC-083C-4B90-914F-7C90062DDBD7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1251683" y="4127500"/>
+          <a:ext cx="3852740" cy="435697"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1600" b="1" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>昨日はありがとう。おーくんすごかっ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1600" b="1" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>...</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1600" b="1" cap="none" spc="0">
+            <a:ln w="0"/>
+            <a:solidFill>
+              <a:schemeClr val="bg2">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:effectLst>
+              <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                <a:schemeClr val="dk1">
+                  <a:alpha val="40000"/>
+                </a:schemeClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>256443</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>140433</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1319728" cy="521425"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="45" name="正方形/長方形 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC7A2A3F-A541-4C64-918F-CFDD278DF7F8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1135674" y="3681779"/>
+          <a:ext cx="1319728" cy="521425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="2000" b="1" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="19050" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="dk1">
+                    <a:alpha val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>えりか</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -5618,60 +6109,60 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB6FAF31-7FA1-4843-A935-57F7BF0F397F}">
   <dimension ref="A1:AQ59"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="131" zoomScaleNormal="135" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="V24" sqref="V24"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="104" zoomScaleNormal="135" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="Y46" sqref="Y46:AK46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="4" width="4.1640625" style="1" customWidth="1"/>
-    <col min="5" max="6" width="4.1640625" style="18" customWidth="1"/>
-    <col min="7" max="33" width="4.1640625" style="1" customWidth="1"/>
-    <col min="34" max="37" width="4.1640625" style="19" customWidth="1"/>
+    <col min="1" max="4" width="4.1796875" style="1" customWidth="1"/>
+    <col min="5" max="6" width="4.1796875" style="18" customWidth="1"/>
+    <col min="7" max="33" width="4.1796875" style="1" customWidth="1"/>
+    <col min="34" max="37" width="4.1796875" style="19" customWidth="1"/>
     <col min="38" max="41" width="4" style="1" customWidth="1"/>
     <col min="42" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="12.75" customHeight="1">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
-      <c r="N1" s="28"/>
-      <c r="O1" s="28"/>
-      <c r="P1" s="28"/>
-      <c r="Q1" s="28"/>
-      <c r="R1" s="28"/>
-      <c r="S1" s="28"/>
-      <c r="T1" s="28"/>
-      <c r="U1" s="28"/>
-      <c r="V1" s="28"/>
-      <c r="W1" s="28"/>
-      <c r="X1" s="28"/>
-      <c r="Y1" s="28"/>
-      <c r="Z1" s="28"/>
-      <c r="AA1" s="28"/>
-      <c r="AB1" s="28"/>
-      <c r="AC1" s="28"/>
-      <c r="AD1" s="28"/>
-      <c r="AE1" s="28"/>
-      <c r="AF1" s="28"/>
-      <c r="AG1" s="28"/>
-      <c r="AH1" s="28"/>
-      <c r="AI1" s="28"/>
-      <c r="AJ1" s="28"/>
-      <c r="AK1" s="28"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="56"/>
+      <c r="L1" s="56"/>
+      <c r="M1" s="56"/>
+      <c r="N1" s="56"/>
+      <c r="O1" s="56"/>
+      <c r="P1" s="56"/>
+      <c r="Q1" s="56"/>
+      <c r="R1" s="56"/>
+      <c r="S1" s="56"/>
+      <c r="T1" s="56"/>
+      <c r="U1" s="56"/>
+      <c r="V1" s="56"/>
+      <c r="W1" s="56"/>
+      <c r="X1" s="56"/>
+      <c r="Y1" s="56"/>
+      <c r="Z1" s="56"/>
+      <c r="AA1" s="56"/>
+      <c r="AB1" s="56"/>
+      <c r="AC1" s="56"/>
+      <c r="AD1" s="56"/>
+      <c r="AE1" s="56"/>
+      <c r="AF1" s="56"/>
+      <c r="AG1" s="56"/>
+      <c r="AH1" s="56"/>
+      <c r="AI1" s="56"/>
+      <c r="AJ1" s="56"/>
+      <c r="AK1" s="56"/>
     </row>
     <row r="2" spans="1:37" ht="6" customHeight="1">
       <c r="A2" s="2"/>
@@ -5712,60 +6203,60 @@
       <c r="AJ2" s="2"/>
       <c r="AK2" s="2"/>
     </row>
-    <row r="3" spans="1:37" ht="14">
-      <c r="A3" s="29" t="s">
+    <row r="3" spans="1:37" ht="12">
+      <c r="A3" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="29" t="s">
+      <c r="B3" s="58"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="59"/>
+      <c r="I3" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30"/>
-      <c r="M3" s="30"/>
-      <c r="N3" s="30"/>
-      <c r="O3" s="31"/>
-      <c r="P3" s="29" t="s">
+      <c r="J3" s="58"/>
+      <c r="K3" s="58"/>
+      <c r="L3" s="58"/>
+      <c r="M3" s="58"/>
+      <c r="N3" s="58"/>
+      <c r="O3" s="59"/>
+      <c r="P3" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="Q3" s="30"/>
-      <c r="R3" s="31"/>
-      <c r="S3" s="29" t="s">
+      <c r="Q3" s="58"/>
+      <c r="R3" s="59"/>
+      <c r="S3" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="T3" s="30"/>
-      <c r="U3" s="30"/>
-      <c r="V3" s="30"/>
-      <c r="W3" s="30"/>
-      <c r="X3" s="30"/>
-      <c r="Y3" s="31"/>
-      <c r="Z3" s="29" t="s">
+      <c r="T3" s="58"/>
+      <c r="U3" s="58"/>
+      <c r="V3" s="58"/>
+      <c r="W3" s="58"/>
+      <c r="X3" s="58"/>
+      <c r="Y3" s="59"/>
+      <c r="Z3" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="AA3" s="30"/>
-      <c r="AB3" s="31"/>
-      <c r="AC3" s="29" t="s">
+      <c r="AA3" s="58"/>
+      <c r="AB3" s="59"/>
+      <c r="AC3" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="AD3" s="30"/>
-      <c r="AE3" s="31"/>
-      <c r="AF3" s="29" t="s">
+      <c r="AD3" s="58"/>
+      <c r="AE3" s="59"/>
+      <c r="AF3" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="AG3" s="30"/>
-      <c r="AH3" s="31"/>
-      <c r="AI3" s="29" t="s">
+      <c r="AG3" s="58"/>
+      <c r="AH3" s="59"/>
+      <c r="AI3" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="AJ3" s="30"/>
-      <c r="AK3" s="31"/>
+      <c r="AJ3" s="58"/>
+      <c r="AK3" s="59"/>
     </row>
     <row r="4" spans="1:37" ht="12" customHeight="1">
       <c r="A4" s="43" t="s">
@@ -5779,7 +6270,7 @@
       <c r="G4" s="43"/>
       <c r="H4" s="43"/>
       <c r="I4" s="44" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J4" s="44"/>
       <c r="K4" s="44"/>
@@ -5788,12 +6279,12 @@
       <c r="N4" s="44"/>
       <c r="O4" s="45"/>
       <c r="P4" s="48" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q4" s="44"/>
       <c r="R4" s="45"/>
       <c r="S4" s="50" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="T4" s="51"/>
       <c r="U4" s="51"/>
@@ -5802,27 +6293,27 @@
       <c r="X4" s="51"/>
       <c r="Y4" s="52"/>
       <c r="Z4" s="48" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AA4" s="44"/>
       <c r="AB4" s="45"/>
       <c r="AC4" s="48" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AD4" s="44"/>
       <c r="AE4" s="45"/>
-      <c r="AF4" s="36" t="s">
+      <c r="AF4" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="AG4" s="37"/>
-      <c r="AH4" s="38"/>
-      <c r="AI4" s="36" t="s">
+      <c r="AG4" s="32"/>
+      <c r="AH4" s="33"/>
+      <c r="AI4" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="AJ4" s="37"/>
-      <c r="AK4" s="38"/>
-    </row>
-    <row r="5" spans="1:37" ht="14">
+      <c r="AJ4" s="32"/>
+      <c r="AK4" s="33"/>
+    </row>
+    <row r="5" spans="1:37" ht="12">
       <c r="A5" s="43"/>
       <c r="B5" s="43"/>
       <c r="C5" s="43"/>
@@ -5854,14 +6345,14 @@
       <c r="AC5" s="49"/>
       <c r="AD5" s="46"/>
       <c r="AE5" s="47"/>
-      <c r="AF5" s="39"/>
-      <c r="AG5" s="40"/>
-      <c r="AH5" s="41"/>
-      <c r="AI5" s="39"/>
-      <c r="AJ5" s="40"/>
-      <c r="AK5" s="41"/>
-    </row>
-    <row r="6" spans="1:37" ht="14">
+      <c r="AF5" s="34"/>
+      <c r="AG5" s="35"/>
+      <c r="AH5" s="36"/>
+      <c r="AI5" s="34"/>
+      <c r="AJ5" s="35"/>
+      <c r="AK5" s="36"/>
+    </row>
+    <row r="6" spans="1:37" ht="12">
       <c r="A6" s="3"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -6004,7 +6495,7 @@
         <v>1</v>
       </c>
       <c r="U9" s="9" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="V9" s="9"/>
       <c r="W9" s="9"/>
@@ -6043,13 +6534,2582 @@
       <c r="Q10" s="9"/>
       <c r="R10" s="10"/>
       <c r="S10" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="T10" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
+      </c>
+      <c r="V10" s="9"/>
+      <c r="W10" s="9"/>
+      <c r="X10" s="9"/>
+      <c r="Y10" s="9"/>
+      <c r="Z10" s="9"/>
+      <c r="AA10" s="9"/>
+      <c r="AB10" s="9"/>
+      <c r="AC10" s="9"/>
+      <c r="AD10" s="9"/>
+      <c r="AE10" s="9"/>
+      <c r="AF10" s="9"/>
+      <c r="AG10" s="9"/>
+      <c r="AH10" s="9"/>
+      <c r="AI10" s="9"/>
+      <c r="AJ10" s="9"/>
+      <c r="AK10" s="10"/>
+    </row>
+    <row r="11" spans="1:37" ht="12.75" customHeight="1">
+      <c r="A11" s="7"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="9"/>
+      <c r="P11" s="9"/>
+      <c r="Q11" s="9"/>
+      <c r="R11" s="10"/>
+      <c r="S11" s="9"/>
+      <c r="T11" s="9"/>
+      <c r="U11" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="V11" s="9"/>
+      <c r="W11" s="9"/>
+      <c r="X11" s="9"/>
+      <c r="Y11" s="9"/>
+      <c r="Z11" s="9"/>
+      <c r="AA11" s="9"/>
+      <c r="AB11" s="9"/>
+      <c r="AC11" s="9"/>
+      <c r="AD11" s="9"/>
+      <c r="AE11" s="9"/>
+      <c r="AF11" s="9"/>
+      <c r="AG11" s="9"/>
+      <c r="AH11" s="9"/>
+      <c r="AI11" s="9"/>
+      <c r="AJ11" s="9"/>
+      <c r="AK11" s="10"/>
+    </row>
+    <row r="12" spans="1:37" ht="12.75" customHeight="1">
+      <c r="A12" s="7"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="9"/>
+      <c r="R12" s="10"/>
+      <c r="S12" s="9"/>
+      <c r="T12" s="9"/>
+      <c r="U12" s="9"/>
+      <c r="V12" s="9"/>
+      <c r="W12" s="9"/>
+      <c r="X12" s="9"/>
+      <c r="Y12" s="9"/>
+      <c r="Z12" s="9"/>
+      <c r="AA12" s="9"/>
+      <c r="AB12" s="9"/>
+      <c r="AC12" s="9"/>
+      <c r="AD12" s="9"/>
+      <c r="AE12" s="9"/>
+      <c r="AF12" s="9"/>
+      <c r="AG12" s="9"/>
+      <c r="AH12" s="9"/>
+      <c r="AI12" s="9"/>
+      <c r="AJ12" s="9"/>
+      <c r="AK12" s="10"/>
+    </row>
+    <row r="13" spans="1:37" ht="12.75" customHeight="1">
+      <c r="A13" s="7"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="9"/>
+      <c r="P13" s="9"/>
+      <c r="Q13" s="9"/>
+      <c r="R13" s="10"/>
+      <c r="S13" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="T13" s="9">
+        <v>2</v>
+      </c>
+      <c r="U13" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="V13" s="9"/>
+      <c r="W13" s="9"/>
+      <c r="X13" s="9"/>
+      <c r="Y13" s="9"/>
+      <c r="Z13" s="9"/>
+      <c r="AA13" s="9"/>
+      <c r="AB13" s="9"/>
+      <c r="AC13" s="9"/>
+      <c r="AD13" s="9"/>
+      <c r="AE13" s="9"/>
+      <c r="AF13" s="9"/>
+      <c r="AG13" s="9"/>
+      <c r="AH13" s="9"/>
+      <c r="AI13" s="9"/>
+      <c r="AJ13" s="9"/>
+      <c r="AK13" s="10"/>
+    </row>
+    <row r="14" spans="1:37" ht="12.75" customHeight="1">
+      <c r="A14" s="7"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="9"/>
+      <c r="Q14" s="9"/>
+      <c r="R14" s="10"/>
+      <c r="S14" s="9"/>
+      <c r="T14" s="9"/>
+      <c r="U14" s="9"/>
+      <c r="V14" s="9"/>
+      <c r="W14" s="9"/>
+      <c r="X14" s="9"/>
+      <c r="Y14" s="9"/>
+      <c r="Z14" s="9"/>
+      <c r="AA14" s="9"/>
+      <c r="AB14" s="9"/>
+      <c r="AC14" s="9"/>
+      <c r="AD14" s="9"/>
+      <c r="AE14" s="9"/>
+      <c r="AF14" s="9"/>
+      <c r="AG14" s="9"/>
+      <c r="AH14" s="9"/>
+      <c r="AI14" s="9"/>
+      <c r="AJ14" s="9"/>
+      <c r="AK14" s="10"/>
+    </row>
+    <row r="15" spans="1:37" ht="12.75" customHeight="1">
+      <c r="A15" s="7"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="9"/>
+      <c r="P15" s="9"/>
+      <c r="Q15" s="9"/>
+      <c r="R15" s="10"/>
+      <c r="S15" s="9"/>
+      <c r="U15" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="V15" s="9"/>
+      <c r="W15" s="9"/>
+      <c r="X15" s="9"/>
+      <c r="Y15" s="9"/>
+      <c r="Z15" s="9"/>
+      <c r="AA15" s="9"/>
+      <c r="AB15" s="9"/>
+      <c r="AC15" s="9"/>
+      <c r="AD15" s="9"/>
+      <c r="AE15" s="9"/>
+      <c r="AF15" s="9"/>
+      <c r="AG15" s="9"/>
+      <c r="AH15" s="9"/>
+      <c r="AI15" s="9"/>
+      <c r="AJ15" s="9"/>
+      <c r="AK15" s="10"/>
+    </row>
+    <row r="16" spans="1:37" ht="12.75" customHeight="1">
+      <c r="A16" s="7"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="9"/>
+      <c r="P16" s="9"/>
+      <c r="Q16" s="9"/>
+      <c r="R16" s="10"/>
+      <c r="S16" s="9"/>
+      <c r="V16" s="9"/>
+      <c r="W16" s="9"/>
+      <c r="X16" s="9"/>
+      <c r="Y16" s="9"/>
+      <c r="Z16" s="9"/>
+      <c r="AA16" s="9"/>
+      <c r="AB16" s="9"/>
+      <c r="AC16" s="9"/>
+      <c r="AD16" s="9"/>
+      <c r="AE16" s="9"/>
+      <c r="AF16" s="9"/>
+      <c r="AG16" s="9"/>
+      <c r="AH16" s="9"/>
+      <c r="AI16" s="9"/>
+      <c r="AJ16" s="9"/>
+      <c r="AK16" s="10"/>
+    </row>
+    <row r="17" spans="1:37" ht="12.75" customHeight="1">
+      <c r="A17" s="7"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="9"/>
+      <c r="P17" s="9"/>
+      <c r="Q17" s="9"/>
+      <c r="R17" s="10"/>
+      <c r="S17" s="9"/>
+      <c r="T17" s="9"/>
+      <c r="U17" s="9"/>
+      <c r="V17" s="9"/>
+      <c r="W17" s="9"/>
+      <c r="X17" s="9"/>
+      <c r="Y17" s="9"/>
+      <c r="Z17" s="9"/>
+      <c r="AA17" s="9"/>
+      <c r="AB17" s="9"/>
+      <c r="AC17" s="9"/>
+      <c r="AD17" s="9"/>
+      <c r="AE17" s="9"/>
+      <c r="AF17" s="9"/>
+      <c r="AG17" s="9"/>
+      <c r="AH17" s="9"/>
+      <c r="AI17" s="9"/>
+      <c r="AJ17" s="9"/>
+      <c r="AK17" s="10"/>
+    </row>
+    <row r="18" spans="1:37" ht="12.75" customHeight="1">
+      <c r="A18" s="7"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="12"/>
+      <c r="O18" s="9"/>
+      <c r="P18" s="9"/>
+      <c r="Q18" s="9"/>
+      <c r="R18" s="10"/>
+      <c r="S18" s="9"/>
+      <c r="T18" s="9"/>
+      <c r="U18" s="9"/>
+      <c r="V18" s="9"/>
+      <c r="W18" s="9"/>
+      <c r="X18" s="9"/>
+      <c r="Y18" s="9"/>
+      <c r="Z18" s="9"/>
+      <c r="AA18" s="9"/>
+      <c r="AB18" s="9"/>
+      <c r="AC18" s="9"/>
+      <c r="AD18" s="9"/>
+      <c r="AE18" s="9"/>
+      <c r="AF18" s="9"/>
+      <c r="AG18" s="9"/>
+      <c r="AH18" s="9"/>
+      <c r="AI18" s="9"/>
+      <c r="AJ18" s="9"/>
+      <c r="AK18" s="10"/>
+    </row>
+    <row r="19" spans="1:37" ht="12.75" customHeight="1">
+      <c r="A19" s="7"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="12"/>
+      <c r="O19" s="9"/>
+      <c r="P19" s="9"/>
+      <c r="Q19" s="9"/>
+      <c r="R19" s="10"/>
+      <c r="S19" s="9"/>
+      <c r="T19" s="9"/>
+      <c r="U19" s="9"/>
+      <c r="V19" s="9"/>
+      <c r="W19" s="9"/>
+      <c r="X19" s="9"/>
+      <c r="Y19" s="9"/>
+      <c r="Z19" s="9"/>
+      <c r="AA19" s="9"/>
+      <c r="AB19" s="9"/>
+      <c r="AC19" s="9"/>
+      <c r="AD19" s="9"/>
+      <c r="AE19" s="9"/>
+      <c r="AF19" s="9"/>
+      <c r="AG19" s="9"/>
+      <c r="AH19" s="9"/>
+      <c r="AI19" s="9"/>
+      <c r="AJ19" s="9"/>
+      <c r="AK19" s="10"/>
+    </row>
+    <row r="20" spans="1:37" ht="12.75" customHeight="1">
+      <c r="A20" s="7"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="13"/>
+      <c r="O20" s="9"/>
+      <c r="P20" s="9"/>
+      <c r="Q20" s="9"/>
+      <c r="R20" s="10"/>
+      <c r="S20" s="9"/>
+      <c r="T20" s="9"/>
+      <c r="U20" s="9"/>
+      <c r="V20" s="9"/>
+      <c r="W20" s="9"/>
+      <c r="X20" s="9"/>
+      <c r="Y20" s="9"/>
+      <c r="Z20" s="9"/>
+      <c r="AA20" s="9"/>
+      <c r="AB20" s="9"/>
+      <c r="AC20" s="9"/>
+      <c r="AD20" s="9"/>
+      <c r="AE20" s="9"/>
+      <c r="AF20" s="9"/>
+      <c r="AG20" s="9"/>
+      <c r="AH20" s="9"/>
+      <c r="AI20" s="9"/>
+      <c r="AJ20" s="9"/>
+      <c r="AK20" s="10"/>
+    </row>
+    <row r="21" spans="1:37" ht="12.75" customHeight="1">
+      <c r="A21" s="7"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="12"/>
+      <c r="O21" s="9"/>
+      <c r="P21" s="9"/>
+      <c r="Q21" s="9"/>
+      <c r="R21" s="10"/>
+      <c r="S21" s="9"/>
+      <c r="T21" s="9"/>
+      <c r="U21" s="9"/>
+      <c r="V21" s="9"/>
+      <c r="W21" s="9"/>
+      <c r="X21" s="9"/>
+      <c r="Y21" s="9"/>
+      <c r="Z21" s="9"/>
+      <c r="AA21" s="9"/>
+      <c r="AB21" s="9"/>
+      <c r="AC21" s="9"/>
+      <c r="AD21" s="9"/>
+      <c r="AE21" s="9"/>
+      <c r="AF21" s="9"/>
+      <c r="AG21" s="9"/>
+      <c r="AH21" s="9"/>
+      <c r="AI21" s="9"/>
+      <c r="AJ21" s="9"/>
+      <c r="AK21" s="10"/>
+    </row>
+    <row r="22" spans="1:37" ht="12.75" customHeight="1">
+      <c r="A22" s="7"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="9"/>
+      <c r="O22" s="9"/>
+      <c r="P22" s="9"/>
+      <c r="Q22" s="9"/>
+      <c r="R22" s="10"/>
+      <c r="S22" s="9"/>
+      <c r="T22" s="9"/>
+      <c r="U22" s="9"/>
+      <c r="V22" s="9"/>
+      <c r="W22" s="9"/>
+      <c r="X22" s="9"/>
+      <c r="Y22" s="9"/>
+      <c r="Z22" s="9"/>
+      <c r="AA22" s="9"/>
+      <c r="AB22" s="9"/>
+      <c r="AC22" s="9"/>
+      <c r="AD22" s="9"/>
+      <c r="AE22" s="9"/>
+      <c r="AF22" s="9"/>
+      <c r="AG22" s="9"/>
+      <c r="AH22" s="9"/>
+      <c r="AI22" s="9"/>
+      <c r="AJ22" s="9"/>
+      <c r="AK22" s="10"/>
+    </row>
+    <row r="23" spans="1:37" ht="12.75" customHeight="1">
+      <c r="A23" s="7"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="9"/>
+      <c r="O23" s="9"/>
+      <c r="P23" s="9"/>
+      <c r="Q23" s="9"/>
+      <c r="R23" s="10"/>
+      <c r="S23" s="9"/>
+      <c r="T23" s="9"/>
+      <c r="U23" s="9"/>
+      <c r="V23" s="9"/>
+      <c r="W23" s="9"/>
+      <c r="X23" s="9"/>
+      <c r="Y23" s="9"/>
+      <c r="Z23" s="9"/>
+      <c r="AA23" s="9"/>
+      <c r="AB23" s="9"/>
+      <c r="AC23" s="9"/>
+      <c r="AD23" s="9"/>
+      <c r="AE23" s="9"/>
+      <c r="AF23" s="9"/>
+      <c r="AG23" s="9"/>
+      <c r="AH23" s="9"/>
+      <c r="AI23" s="9"/>
+      <c r="AJ23" s="9"/>
+      <c r="AK23" s="10"/>
+    </row>
+    <row r="24" spans="1:37" ht="12.75" customHeight="1">
+      <c r="A24" s="7"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="9"/>
+      <c r="O24" s="9"/>
+      <c r="P24" s="9"/>
+      <c r="Q24" s="9"/>
+      <c r="R24" s="10"/>
+      <c r="S24" s="9"/>
+      <c r="T24" s="9"/>
+      <c r="U24" s="9"/>
+      <c r="V24" s="9"/>
+      <c r="W24" s="9"/>
+      <c r="X24" s="9"/>
+      <c r="Y24" s="9"/>
+      <c r="Z24" s="9"/>
+      <c r="AA24" s="9"/>
+      <c r="AB24" s="9"/>
+      <c r="AC24" s="9"/>
+      <c r="AD24" s="9"/>
+      <c r="AE24" s="9"/>
+      <c r="AF24" s="9"/>
+      <c r="AG24" s="9"/>
+      <c r="AH24" s="9"/>
+      <c r="AI24" s="9"/>
+      <c r="AJ24" s="9"/>
+      <c r="AK24" s="10"/>
+    </row>
+    <row r="25" spans="1:37" ht="12.75" customHeight="1">
+      <c r="A25" s="7"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="9"/>
+      <c r="N25" s="9"/>
+      <c r="O25" s="9"/>
+      <c r="P25" s="9"/>
+      <c r="Q25" s="9"/>
+      <c r="R25" s="10"/>
+      <c r="S25" s="9"/>
+      <c r="T25" s="9"/>
+      <c r="U25" s="9"/>
+      <c r="V25" s="9"/>
+      <c r="W25" s="9"/>
+      <c r="X25" s="9"/>
+      <c r="Y25" s="9"/>
+      <c r="Z25" s="9"/>
+      <c r="AA25" s="9"/>
+      <c r="AB25" s="9"/>
+      <c r="AC25" s="9"/>
+      <c r="AD25" s="9"/>
+      <c r="AE25" s="9"/>
+      <c r="AF25" s="9"/>
+      <c r="AG25" s="9"/>
+      <c r="AH25" s="9"/>
+      <c r="AI25" s="9"/>
+      <c r="AJ25" s="9"/>
+      <c r="AK25" s="10"/>
+    </row>
+    <row r="26" spans="1:37" ht="12.75" customHeight="1">
+      <c r="A26" s="7"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="9"/>
+      <c r="N26" s="12"/>
+      <c r="O26" s="9"/>
+      <c r="P26" s="9"/>
+      <c r="Q26" s="9"/>
+      <c r="R26" s="10"/>
+      <c r="S26" s="9"/>
+      <c r="T26" s="9"/>
+      <c r="U26" s="9"/>
+      <c r="V26" s="9"/>
+      <c r="W26" s="9"/>
+      <c r="X26" s="9"/>
+      <c r="Y26" s="9"/>
+      <c r="Z26" s="9"/>
+      <c r="AA26" s="9"/>
+      <c r="AB26" s="9"/>
+      <c r="AC26" s="9"/>
+      <c r="AD26" s="9"/>
+      <c r="AE26" s="9"/>
+      <c r="AF26" s="9"/>
+      <c r="AG26" s="9"/>
+      <c r="AH26" s="9"/>
+      <c r="AI26" s="9"/>
+      <c r="AJ26" s="9"/>
+      <c r="AK26" s="10"/>
+    </row>
+    <row r="27" spans="1:37" ht="12.75" customHeight="1">
+      <c r="A27" s="7"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="9"/>
+      <c r="M27" s="9"/>
+      <c r="N27" s="9"/>
+      <c r="O27" s="9"/>
+      <c r="P27" s="9"/>
+      <c r="Q27" s="9"/>
+      <c r="R27" s="10"/>
+      <c r="S27" s="9"/>
+      <c r="T27" s="9"/>
+      <c r="U27" s="9"/>
+      <c r="V27" s="9"/>
+      <c r="W27" s="9"/>
+      <c r="X27" s="9"/>
+      <c r="Y27" s="9"/>
+      <c r="Z27" s="9"/>
+      <c r="AA27" s="9"/>
+      <c r="AB27" s="9"/>
+      <c r="AC27" s="9"/>
+      <c r="AD27" s="9"/>
+      <c r="AE27" s="9"/>
+      <c r="AF27" s="9"/>
+      <c r="AG27" s="9"/>
+      <c r="AH27" s="9"/>
+      <c r="AI27" s="9"/>
+      <c r="AJ27" s="9"/>
+      <c r="AK27" s="10"/>
+    </row>
+    <row r="28" spans="1:37" ht="12.75" customHeight="1">
+      <c r="A28" s="7"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="9"/>
+      <c r="M28" s="8"/>
+      <c r="N28" s="8"/>
+      <c r="O28" s="9"/>
+      <c r="P28" s="9"/>
+      <c r="Q28" s="9"/>
+      <c r="R28" s="10"/>
+      <c r="S28" s="9"/>
+      <c r="T28" s="9"/>
+      <c r="U28" s="9"/>
+      <c r="V28" s="9"/>
+      <c r="W28" s="9"/>
+      <c r="X28" s="9"/>
+      <c r="Y28" s="9"/>
+      <c r="Z28" s="9"/>
+      <c r="AA28" s="9"/>
+      <c r="AB28" s="9"/>
+      <c r="AC28" s="9"/>
+      <c r="AD28" s="9"/>
+      <c r="AE28" s="9"/>
+      <c r="AF28" s="9"/>
+      <c r="AG28" s="9"/>
+      <c r="AH28" s="9"/>
+      <c r="AI28" s="9"/>
+      <c r="AJ28" s="9"/>
+      <c r="AK28" s="10"/>
+    </row>
+    <row r="29" spans="1:37" ht="12.75" customHeight="1">
+      <c r="A29" s="7"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c r="L29" s="9"/>
+      <c r="M29" s="8"/>
+      <c r="N29" s="8"/>
+      <c r="O29" s="9"/>
+      <c r="P29" s="9"/>
+      <c r="Q29" s="9"/>
+      <c r="R29" s="10"/>
+      <c r="S29" s="9"/>
+      <c r="T29" s="9"/>
+      <c r="U29" s="9"/>
+      <c r="V29" s="9"/>
+      <c r="W29" s="9"/>
+      <c r="X29" s="9"/>
+      <c r="Y29" s="9"/>
+      <c r="Z29" s="9"/>
+      <c r="AA29" s="9"/>
+      <c r="AB29" s="9"/>
+      <c r="AC29" s="9"/>
+      <c r="AD29" s="9"/>
+      <c r="AE29" s="9"/>
+      <c r="AF29" s="9"/>
+      <c r="AG29" s="9"/>
+      <c r="AH29" s="9"/>
+      <c r="AI29" s="9"/>
+      <c r="AJ29" s="9"/>
+      <c r="AK29" s="10"/>
+    </row>
+    <row r="30" spans="1:37" ht="12.75" customHeight="1">
+      <c r="A30" s="7"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c r="L30" s="9"/>
+      <c r="M30" s="8"/>
+      <c r="N30" s="8"/>
+      <c r="O30" s="9"/>
+      <c r="P30" s="9"/>
+      <c r="Q30" s="9"/>
+      <c r="R30" s="10"/>
+      <c r="S30" s="9"/>
+      <c r="T30" s="9"/>
+      <c r="U30" s="9"/>
+      <c r="V30" s="9"/>
+      <c r="W30" s="9"/>
+      <c r="X30" s="9"/>
+      <c r="Y30" s="9"/>
+      <c r="Z30" s="9"/>
+      <c r="AA30" s="9"/>
+      <c r="AB30" s="9"/>
+      <c r="AC30" s="9"/>
+      <c r="AD30" s="9"/>
+      <c r="AE30" s="9"/>
+      <c r="AF30" s="9"/>
+      <c r="AG30" s="9"/>
+      <c r="AH30" s="9"/>
+      <c r="AI30" s="9"/>
+      <c r="AJ30" s="9"/>
+      <c r="AK30" s="10"/>
+    </row>
+    <row r="31" spans="1:37" ht="12.75" customHeight="1">
+      <c r="A31" s="7"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c r="L31" s="9"/>
+      <c r="M31" s="8"/>
+      <c r="N31" s="8"/>
+      <c r="O31" s="9"/>
+      <c r="P31" s="9"/>
+      <c r="Q31" s="9"/>
+      <c r="R31" s="10"/>
+      <c r="S31" s="9"/>
+      <c r="T31" s="9"/>
+      <c r="U31" s="9"/>
+      <c r="V31" s="9"/>
+      <c r="W31" s="9"/>
+      <c r="X31" s="9"/>
+      <c r="Y31" s="9"/>
+      <c r="Z31" s="9"/>
+      <c r="AA31" s="9"/>
+      <c r="AB31" s="9"/>
+      <c r="AC31" s="9"/>
+      <c r="AD31" s="9"/>
+      <c r="AE31" s="9"/>
+      <c r="AF31" s="9"/>
+      <c r="AG31" s="9"/>
+      <c r="AH31" s="9"/>
+      <c r="AI31" s="9"/>
+      <c r="AJ31" s="9"/>
+      <c r="AK31" s="10"/>
+    </row>
+    <row r="32" spans="1:37" ht="12.75" customHeight="1">
+      <c r="A32" s="7"/>
+      <c r="B32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c r="L32" s="9"/>
+      <c r="M32" s="9"/>
+      <c r="N32" s="9"/>
+      <c r="Q32" s="9"/>
+      <c r="R32" s="10"/>
+      <c r="S32" s="9"/>
+      <c r="T32" s="9"/>
+      <c r="U32" s="9"/>
+      <c r="V32" s="9"/>
+      <c r="W32" s="9"/>
+      <c r="X32" s="9"/>
+      <c r="Y32" s="9"/>
+      <c r="Z32" s="9"/>
+      <c r="AA32" s="9"/>
+      <c r="AB32" s="9"/>
+      <c r="AC32" s="9"/>
+      <c r="AD32" s="9"/>
+      <c r="AE32" s="9"/>
+      <c r="AF32" s="9"/>
+      <c r="AG32" s="9"/>
+      <c r="AH32" s="9"/>
+      <c r="AI32" s="9"/>
+      <c r="AJ32" s="9"/>
+      <c r="AK32" s="10"/>
+    </row>
+    <row r="33" spans="1:43" ht="12.75" customHeight="1">
+      <c r="A33" s="7"/>
+      <c r="B33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c r="L33" s="9"/>
+      <c r="M33" s="9"/>
+      <c r="N33" s="9"/>
+      <c r="Q33" s="9"/>
+      <c r="R33" s="10"/>
+      <c r="S33" s="9"/>
+      <c r="T33" s="9"/>
+      <c r="U33" s="9"/>
+      <c r="V33" s="9"/>
+      <c r="W33" s="9"/>
+      <c r="X33" s="9"/>
+      <c r="Y33" s="9"/>
+      <c r="Z33" s="9"/>
+      <c r="AA33" s="9"/>
+      <c r="AB33" s="9"/>
+      <c r="AC33" s="9"/>
+      <c r="AD33" s="9"/>
+      <c r="AE33" s="9"/>
+      <c r="AF33" s="9"/>
+      <c r="AG33" s="9"/>
+      <c r="AH33" s="9"/>
+      <c r="AI33" s="9"/>
+      <c r="AJ33" s="9"/>
+      <c r="AK33" s="10"/>
+    </row>
+    <row r="34" spans="1:43" ht="12.75" customHeight="1">
+      <c r="A34" s="7"/>
+      <c r="B34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c r="L34" s="9"/>
+      <c r="M34" s="9"/>
+      <c r="N34" s="9"/>
+      <c r="O34" s="9"/>
+      <c r="P34" s="9"/>
+      <c r="Q34" s="9"/>
+      <c r="R34" s="10"/>
+      <c r="S34" s="9"/>
+      <c r="T34" s="9"/>
+      <c r="U34" s="9"/>
+      <c r="V34" s="9"/>
+      <c r="W34" s="9"/>
+      <c r="X34" s="9"/>
+      <c r="Y34" s="9"/>
+      <c r="Z34" s="9"/>
+      <c r="AA34" s="9"/>
+      <c r="AB34" s="9"/>
+      <c r="AC34" s="9"/>
+      <c r="AD34" s="9"/>
+      <c r="AE34" s="9"/>
+      <c r="AF34" s="9"/>
+      <c r="AG34" s="9"/>
+      <c r="AH34" s="9"/>
+      <c r="AI34" s="9"/>
+      <c r="AJ34" s="9"/>
+      <c r="AK34" s="10"/>
+    </row>
+    <row r="35" spans="1:43" ht="12.75" customHeight="1">
+      <c r="A35" s="7"/>
+      <c r="B35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c r="L35" s="9"/>
+      <c r="M35" s="9"/>
+      <c r="N35" s="9"/>
+      <c r="O35" s="9"/>
+      <c r="P35" s="9"/>
+      <c r="Q35" s="9"/>
+      <c r="R35" s="10"/>
+      <c r="S35" s="9"/>
+      <c r="T35" s="9"/>
+      <c r="U35" s="9"/>
+      <c r="V35" s="9"/>
+      <c r="W35" s="9"/>
+      <c r="X35" s="9"/>
+      <c r="Y35" s="9"/>
+      <c r="Z35" s="9"/>
+      <c r="AA35" s="9"/>
+      <c r="AB35" s="9"/>
+      <c r="AC35" s="9"/>
+      <c r="AD35" s="9"/>
+      <c r="AE35" s="9"/>
+      <c r="AF35" s="9"/>
+      <c r="AG35" s="9"/>
+      <c r="AH35" s="9"/>
+      <c r="AI35" s="9"/>
+      <c r="AJ35" s="9"/>
+      <c r="AK35" s="10"/>
+    </row>
+    <row r="36" spans="1:43" ht="12.75" customHeight="1">
+      <c r="A36" s="7"/>
+      <c r="B36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c r="L36" s="9"/>
+      <c r="M36" s="9"/>
+      <c r="N36" s="9"/>
+      <c r="O36" s="9"/>
+      <c r="P36" s="9"/>
+      <c r="Q36" s="9"/>
+      <c r="R36" s="10"/>
+      <c r="S36" s="9"/>
+      <c r="T36" s="9"/>
+      <c r="U36" s="9"/>
+      <c r="V36" s="9"/>
+      <c r="W36" s="9"/>
+      <c r="X36" s="9"/>
+      <c r="Y36" s="9"/>
+      <c r="Z36" s="9"/>
+      <c r="AA36" s="9"/>
+      <c r="AB36" s="9"/>
+      <c r="AC36" s="9"/>
+      <c r="AD36" s="9"/>
+      <c r="AE36" s="9"/>
+      <c r="AF36" s="9"/>
+      <c r="AG36" s="9"/>
+      <c r="AH36" s="9"/>
+      <c r="AI36" s="9"/>
+      <c r="AJ36" s="9"/>
+      <c r="AK36" s="10"/>
+    </row>
+    <row r="37" spans="1:43" ht="12.75" customHeight="1">
+      <c r="A37" s="7"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c r="L37" s="9"/>
+      <c r="M37" s="9"/>
+      <c r="N37" s="9"/>
+      <c r="O37" s="42"/>
+      <c r="P37" s="42"/>
+      <c r="Q37" s="9"/>
+      <c r="R37" s="10"/>
+      <c r="S37" s="9"/>
+      <c r="T37" s="9"/>
+      <c r="U37" s="9"/>
+      <c r="V37" s="9"/>
+      <c r="W37" s="9"/>
+      <c r="X37" s="9"/>
+      <c r="Y37" s="9"/>
+      <c r="Z37" s="9"/>
+      <c r="AA37" s="9"/>
+      <c r="AB37" s="9"/>
+      <c r="AC37" s="9"/>
+      <c r="AD37" s="9"/>
+      <c r="AE37" s="9"/>
+      <c r="AF37" s="9"/>
+      <c r="AG37" s="9"/>
+      <c r="AH37" s="9"/>
+      <c r="AI37" s="9"/>
+      <c r="AJ37" s="9"/>
+      <c r="AK37" s="10"/>
+    </row>
+    <row r="38" spans="1:43" ht="12.75" customHeight="1">
+      <c r="A38" s="7"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c r="L38" s="9"/>
+      <c r="M38" s="9"/>
+      <c r="N38" s="9"/>
+      <c r="O38" s="9"/>
+      <c r="P38" s="9"/>
+      <c r="Q38" s="9"/>
+      <c r="R38" s="10"/>
+      <c r="S38" s="9"/>
+      <c r="T38" s="9"/>
+      <c r="U38" s="9"/>
+      <c r="V38" s="9"/>
+      <c r="W38" s="9"/>
+      <c r="X38" s="9"/>
+      <c r="Y38" s="9"/>
+      <c r="Z38" s="9"/>
+      <c r="AA38" s="9"/>
+      <c r="AB38" s="9"/>
+      <c r="AC38" s="9"/>
+      <c r="AD38" s="9"/>
+      <c r="AE38" s="9"/>
+      <c r="AF38" s="9"/>
+      <c r="AG38" s="9"/>
+      <c r="AH38" s="9"/>
+      <c r="AI38" s="9"/>
+      <c r="AJ38" s="9"/>
+      <c r="AK38" s="10"/>
+    </row>
+    <row r="39" spans="1:43" ht="12.75" customHeight="1">
+      <c r="A39" s="7"/>
+      <c r="B39" s="9"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c r="L39" s="9"/>
+      <c r="M39" s="9"/>
+      <c r="N39" s="9"/>
+      <c r="O39" s="9"/>
+      <c r="P39" s="9"/>
+      <c r="Q39" s="9"/>
+      <c r="R39" s="10"/>
+      <c r="S39" s="9"/>
+      <c r="T39" s="9"/>
+      <c r="U39" s="9"/>
+      <c r="V39" s="9"/>
+      <c r="W39" s="9"/>
+      <c r="X39" s="9"/>
+      <c r="Y39" s="9"/>
+      <c r="Z39" s="9"/>
+      <c r="AA39" s="9"/>
+      <c r="AB39" s="9"/>
+      <c r="AC39" s="9"/>
+      <c r="AD39" s="9"/>
+      <c r="AE39" s="9"/>
+      <c r="AF39" s="9"/>
+      <c r="AG39" s="9"/>
+      <c r="AH39" s="9"/>
+      <c r="AI39" s="9"/>
+      <c r="AJ39" s="9"/>
+      <c r="AK39" s="10"/>
+    </row>
+    <row r="40" spans="1:43" ht="12.75" customHeight="1">
+      <c r="A40" s="14"/>
+      <c r="B40" s="15"/>
+      <c r="C40" s="15"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="15"/>
+      <c r="F40" s="15"/>
+      <c r="G40" s="15"/>
+      <c r="H40" s="15"/>
+      <c r="I40" s="15"/>
+      <c r="J40" s="15"/>
+      <c r="K40" s="15"/>
+      <c r="L40" s="15"/>
+      <c r="M40" s="15"/>
+      <c r="N40" s="15"/>
+      <c r="O40" s="15"/>
+      <c r="P40" s="15"/>
+      <c r="Q40" s="15"/>
+      <c r="R40" s="16"/>
+      <c r="S40" s="15"/>
+      <c r="T40" s="15"/>
+      <c r="U40" s="15"/>
+      <c r="V40" s="15"/>
+      <c r="W40" s="15"/>
+      <c r="X40" s="15"/>
+      <c r="Y40" s="15"/>
+      <c r="Z40" s="15"/>
+      <c r="AA40" s="15"/>
+      <c r="AB40" s="15"/>
+      <c r="AC40" s="15"/>
+      <c r="AD40" s="15"/>
+      <c r="AE40" s="15"/>
+      <c r="AF40" s="15"/>
+      <c r="AG40" s="15"/>
+      <c r="AH40" s="15"/>
+      <c r="AI40" s="15"/>
+      <c r="AJ40" s="15"/>
+      <c r="AK40" s="16"/>
+    </row>
+    <row r="41" spans="1:43" ht="12.75" customHeight="1">
+      <c r="A41" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="B41" s="33"/>
+      <c r="C41" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="D41" s="32"/>
+      <c r="E41" s="32"/>
+      <c r="F41" s="32"/>
+      <c r="G41" s="32"/>
+      <c r="H41" s="33"/>
+      <c r="I41" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="J41" s="32"/>
+      <c r="K41" s="32"/>
+      <c r="L41" s="33"/>
+      <c r="M41" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="N41" s="33"/>
+      <c r="O41" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="P41" s="33"/>
+      <c r="Q41" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="R41" s="41"/>
+      <c r="S41" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="T41" s="32"/>
+      <c r="U41" s="33"/>
+      <c r="V41" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="W41" s="32"/>
+      <c r="X41" s="33"/>
+      <c r="Y41" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z41" s="32"/>
+      <c r="AA41" s="32"/>
+      <c r="AB41" s="32"/>
+      <c r="AC41" s="32"/>
+      <c r="AD41" s="32"/>
+      <c r="AE41" s="32"/>
+      <c r="AF41" s="32"/>
+      <c r="AG41" s="32"/>
+      <c r="AH41" s="32"/>
+      <c r="AI41" s="32"/>
+      <c r="AJ41" s="32"/>
+      <c r="AK41" s="33"/>
+      <c r="AL41" s="24"/>
+      <c r="AM41" s="24"/>
+      <c r="AN41" s="24"/>
+      <c r="AO41" s="24"/>
+      <c r="AP41" s="24"/>
+      <c r="AQ41" s="24"/>
+    </row>
+    <row r="42" spans="1:43" ht="12.75" customHeight="1">
+      <c r="A42" s="34"/>
+      <c r="B42" s="36"/>
+      <c r="C42" s="34"/>
+      <c r="D42" s="35"/>
+      <c r="E42" s="35"/>
+      <c r="F42" s="35"/>
+      <c r="G42" s="35"/>
+      <c r="H42" s="36"/>
+      <c r="I42" s="34"/>
+      <c r="J42" s="35"/>
+      <c r="K42" s="35"/>
+      <c r="L42" s="36"/>
+      <c r="M42" s="34"/>
+      <c r="N42" s="36"/>
+      <c r="O42" s="34"/>
+      <c r="P42" s="36"/>
+      <c r="Q42" s="41"/>
+      <c r="R42" s="41"/>
+      <c r="S42" s="34"/>
+      <c r="T42" s="35"/>
+      <c r="U42" s="36"/>
+      <c r="V42" s="34"/>
+      <c r="W42" s="35"/>
+      <c r="X42" s="36"/>
+      <c r="Y42" s="34"/>
+      <c r="Z42" s="35"/>
+      <c r="AA42" s="35"/>
+      <c r="AB42" s="35"/>
+      <c r="AC42" s="35"/>
+      <c r="AD42" s="35"/>
+      <c r="AE42" s="35"/>
+      <c r="AF42" s="35"/>
+      <c r="AG42" s="35"/>
+      <c r="AH42" s="35"/>
+      <c r="AI42" s="35"/>
+      <c r="AJ42" s="35"/>
+      <c r="AK42" s="36"/>
+      <c r="AL42" s="24"/>
+      <c r="AM42" s="24"/>
+      <c r="AN42" s="24"/>
+      <c r="AO42" s="24"/>
+      <c r="AP42" s="24"/>
+      <c r="AQ42" s="24"/>
+    </row>
+    <row r="43" spans="1:43" ht="12.75" customHeight="1">
+      <c r="A43" s="28">
+        <v>1</v>
+      </c>
+      <c r="B43" s="30"/>
+      <c r="C43" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="D43" s="29"/>
+      <c r="E43" s="29"/>
+      <c r="F43" s="29"/>
+      <c r="G43" s="29"/>
+      <c r="H43" s="30"/>
+      <c r="I43" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="J43" s="29"/>
+      <c r="K43" s="29"/>
+      <c r="L43" s="30"/>
+      <c r="M43" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="N43" s="30"/>
+      <c r="O43" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="P43" s="30"/>
+      <c r="Q43" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="R43" s="41"/>
+      <c r="S43" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="T43" s="29"/>
+      <c r="U43" s="30"/>
+      <c r="V43" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="W43" s="29"/>
+      <c r="X43" s="30"/>
+      <c r="Y43" s="60" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z43" s="61"/>
+      <c r="AA43" s="61"/>
+      <c r="AB43" s="61"/>
+      <c r="AC43" s="61"/>
+      <c r="AD43" s="61"/>
+      <c r="AE43" s="61"/>
+      <c r="AF43" s="61"/>
+      <c r="AG43" s="61"/>
+      <c r="AH43" s="61"/>
+      <c r="AI43" s="61"/>
+      <c r="AJ43" s="61"/>
+      <c r="AK43" s="62"/>
+      <c r="AL43" s="24"/>
+      <c r="AM43" s="24"/>
+      <c r="AN43" s="24"/>
+      <c r="AO43" s="24"/>
+      <c r="AP43" s="24"/>
+      <c r="AQ43" s="24"/>
+    </row>
+    <row r="44" spans="1:43" ht="12.75" customHeight="1">
+      <c r="A44" s="28">
+        <v>2</v>
+      </c>
+      <c r="B44" s="30"/>
+      <c r="C44" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="D44" s="29"/>
+      <c r="E44" s="29"/>
+      <c r="F44" s="29"/>
+      <c r="G44" s="29"/>
+      <c r="H44" s="30"/>
+      <c r="I44" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="J44" s="29"/>
+      <c r="K44" s="29"/>
+      <c r="L44" s="30"/>
+      <c r="M44" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="N44" s="30"/>
+      <c r="O44" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="P44" s="30"/>
+      <c r="Q44" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="R44" s="41"/>
+      <c r="S44" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="T44" s="29"/>
+      <c r="U44" s="30"/>
+      <c r="V44" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="W44" s="29"/>
+      <c r="X44" s="30"/>
+      <c r="Y44" s="60" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z44" s="61"/>
+      <c r="AA44" s="61"/>
+      <c r="AB44" s="61"/>
+      <c r="AC44" s="61"/>
+      <c r="AD44" s="61"/>
+      <c r="AE44" s="61"/>
+      <c r="AF44" s="61"/>
+      <c r="AG44" s="61"/>
+      <c r="AH44" s="61"/>
+      <c r="AI44" s="61"/>
+      <c r="AJ44" s="61"/>
+      <c r="AK44" s="62"/>
+      <c r="AL44" s="24"/>
+      <c r="AM44" s="24"/>
+      <c r="AN44" s="24"/>
+      <c r="AO44" s="24"/>
+      <c r="AP44" s="24"/>
+      <c r="AQ44" s="24"/>
+    </row>
+    <row r="45" spans="1:43" ht="12.75" customHeight="1">
+      <c r="A45" s="28">
+        <v>3</v>
+      </c>
+      <c r="B45" s="30"/>
+      <c r="C45" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D45" s="29"/>
+      <c r="E45" s="29"/>
+      <c r="F45" s="29"/>
+      <c r="G45" s="29"/>
+      <c r="H45" s="30"/>
+      <c r="I45" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="J45" s="29"/>
+      <c r="K45" s="29"/>
+      <c r="L45" s="30"/>
+      <c r="M45" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="N45" s="30"/>
+      <c r="O45" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="P45" s="30"/>
+      <c r="Q45" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="R45" s="41"/>
+      <c r="S45" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="T45" s="29"/>
+      <c r="U45" s="30"/>
+      <c r="V45" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="W45" s="29"/>
+      <c r="X45" s="30"/>
+      <c r="Y45" s="60" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z45" s="61"/>
+      <c r="AA45" s="61"/>
+      <c r="AB45" s="61"/>
+      <c r="AC45" s="61"/>
+      <c r="AD45" s="61"/>
+      <c r="AE45" s="61"/>
+      <c r="AF45" s="61"/>
+      <c r="AG45" s="61"/>
+      <c r="AH45" s="61"/>
+      <c r="AI45" s="61"/>
+      <c r="AJ45" s="61"/>
+      <c r="AK45" s="62"/>
+      <c r="AL45" s="24"/>
+      <c r="AM45" s="24"/>
+      <c r="AN45" s="24"/>
+      <c r="AO45" s="24"/>
+      <c r="AP45" s="24"/>
+      <c r="AQ45" s="24"/>
+    </row>
+    <row r="46" spans="1:43" ht="12.75" customHeight="1">
+      <c r="A46" s="28">
+        <v>4</v>
+      </c>
+      <c r="B46" s="30"/>
+      <c r="C46" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="D46" s="29"/>
+      <c r="E46" s="29"/>
+      <c r="F46" s="29"/>
+      <c r="G46" s="29"/>
+      <c r="H46" s="30"/>
+      <c r="I46" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="J46" s="29"/>
+      <c r="K46" s="29"/>
+      <c r="L46" s="30"/>
+      <c r="M46" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="N46" s="30"/>
+      <c r="O46" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="P46" s="30"/>
+      <c r="Q46" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="R46" s="30"/>
+      <c r="S46" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="T46" s="29"/>
+      <c r="U46" s="30"/>
+      <c r="V46" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="W46" s="29"/>
+      <c r="X46" s="30"/>
+      <c r="Y46" s="60" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z46" s="61"/>
+      <c r="AA46" s="61"/>
+      <c r="AB46" s="61"/>
+      <c r="AC46" s="61"/>
+      <c r="AD46" s="61"/>
+      <c r="AE46" s="61"/>
+      <c r="AF46" s="61"/>
+      <c r="AG46" s="61"/>
+      <c r="AH46" s="61"/>
+      <c r="AI46" s="61"/>
+      <c r="AJ46" s="61"/>
+      <c r="AK46" s="62"/>
+      <c r="AL46" s="24"/>
+      <c r="AM46" s="24"/>
+      <c r="AN46" s="24"/>
+      <c r="AO46" s="24"/>
+      <c r="AP46" s="24"/>
+      <c r="AQ46" s="24"/>
+    </row>
+    <row r="47" spans="1:43" ht="12.75" customHeight="1">
+      <c r="A47" s="28">
+        <v>5</v>
+      </c>
+      <c r="B47" s="30"/>
+      <c r="C47" s="28"/>
+      <c r="D47" s="29"/>
+      <c r="E47" s="29"/>
+      <c r="F47" s="29"/>
+      <c r="G47" s="29"/>
+      <c r="H47" s="30"/>
+      <c r="I47" s="28"/>
+      <c r="J47" s="29"/>
+      <c r="K47" s="29"/>
+      <c r="L47" s="30"/>
+      <c r="M47" s="28"/>
+      <c r="N47" s="30"/>
+      <c r="O47" s="28"/>
+      <c r="P47" s="30"/>
+      <c r="Q47" s="41"/>
+      <c r="R47" s="41"/>
+      <c r="S47" s="28"/>
+      <c r="T47" s="29"/>
+      <c r="U47" s="30"/>
+      <c r="V47" s="28"/>
+      <c r="W47" s="29"/>
+      <c r="X47" s="30"/>
+      <c r="Y47" s="28"/>
+      <c r="Z47" s="29"/>
+      <c r="AA47" s="29"/>
+      <c r="AB47" s="29"/>
+      <c r="AC47" s="29"/>
+      <c r="AD47" s="29"/>
+      <c r="AE47" s="29"/>
+      <c r="AF47" s="29"/>
+      <c r="AG47" s="29"/>
+      <c r="AH47" s="29"/>
+      <c r="AI47" s="29"/>
+      <c r="AJ47" s="29"/>
+      <c r="AK47" s="30"/>
+      <c r="AL47" s="24"/>
+      <c r="AM47" s="24"/>
+      <c r="AN47" s="24"/>
+      <c r="AO47" s="24"/>
+      <c r="AP47" s="24"/>
+      <c r="AQ47" s="24"/>
+    </row>
+    <row r="48" spans="1:43" ht="12.75" customHeight="1">
+      <c r="A48" s="28">
+        <v>6</v>
+      </c>
+      <c r="B48" s="30"/>
+      <c r="C48" s="28"/>
+      <c r="D48" s="29"/>
+      <c r="E48" s="29"/>
+      <c r="F48" s="29"/>
+      <c r="G48" s="29"/>
+      <c r="H48" s="30"/>
+      <c r="I48" s="28"/>
+      <c r="J48" s="29"/>
+      <c r="K48" s="29"/>
+      <c r="L48" s="30"/>
+      <c r="M48" s="28"/>
+      <c r="N48" s="30"/>
+      <c r="O48" s="28"/>
+      <c r="P48" s="30"/>
+      <c r="Q48" s="41"/>
+      <c r="R48" s="41"/>
+      <c r="S48" s="28"/>
+      <c r="T48" s="29"/>
+      <c r="U48" s="30"/>
+      <c r="V48" s="28"/>
+      <c r="W48" s="29"/>
+      <c r="X48" s="30"/>
+      <c r="Y48" s="28"/>
+      <c r="Z48" s="29"/>
+      <c r="AA48" s="29"/>
+      <c r="AB48" s="29"/>
+      <c r="AC48" s="29"/>
+      <c r="AD48" s="29"/>
+      <c r="AE48" s="29"/>
+      <c r="AF48" s="29"/>
+      <c r="AG48" s="29"/>
+      <c r="AH48" s="29"/>
+      <c r="AI48" s="29"/>
+      <c r="AJ48" s="29"/>
+      <c r="AK48" s="30"/>
+      <c r="AL48" s="24"/>
+      <c r="AM48" s="24"/>
+      <c r="AN48" s="24"/>
+      <c r="AO48" s="24"/>
+      <c r="AP48" s="24"/>
+      <c r="AQ48" s="24"/>
+    </row>
+    <row r="49" spans="1:43" ht="12.75" customHeight="1">
+      <c r="A49" s="41">
+        <v>7</v>
+      </c>
+      <c r="B49" s="41"/>
+      <c r="C49" s="41"/>
+      <c r="D49" s="41"/>
+      <c r="E49" s="41"/>
+      <c r="F49" s="41"/>
+      <c r="G49" s="41"/>
+      <c r="H49" s="41"/>
+      <c r="I49" s="41"/>
+      <c r="J49" s="41"/>
+      <c r="K49" s="41"/>
+      <c r="L49" s="41"/>
+      <c r="M49" s="41"/>
+      <c r="N49" s="41"/>
+      <c r="O49" s="28"/>
+      <c r="P49" s="30"/>
+      <c r="Q49" s="41"/>
+      <c r="R49" s="41"/>
+      <c r="S49" s="28"/>
+      <c r="T49" s="29"/>
+      <c r="U49" s="30"/>
+      <c r="V49" s="28"/>
+      <c r="W49" s="29"/>
+      <c r="X49" s="30"/>
+      <c r="Y49" s="28"/>
+      <c r="Z49" s="29"/>
+      <c r="AA49" s="29"/>
+      <c r="AB49" s="29"/>
+      <c r="AC49" s="29"/>
+      <c r="AD49" s="29"/>
+      <c r="AE49" s="29"/>
+      <c r="AF49" s="29"/>
+      <c r="AG49" s="29"/>
+      <c r="AH49" s="29"/>
+      <c r="AI49" s="29"/>
+      <c r="AJ49" s="29"/>
+      <c r="AK49" s="30"/>
+      <c r="AL49" s="24"/>
+      <c r="AM49" s="24"/>
+      <c r="AN49" s="24"/>
+      <c r="AO49" s="24"/>
+      <c r="AP49" s="24"/>
+      <c r="AQ49" s="24"/>
+    </row>
+    <row r="50" spans="1:43" ht="12.75" customHeight="1">
+      <c r="A50" s="41">
+        <v>8</v>
+      </c>
+      <c r="B50" s="41"/>
+      <c r="C50" s="41"/>
+      <c r="D50" s="41"/>
+      <c r="E50" s="41"/>
+      <c r="F50" s="41"/>
+      <c r="G50" s="41"/>
+      <c r="H50" s="41"/>
+      <c r="I50" s="41"/>
+      <c r="J50" s="41"/>
+      <c r="K50" s="41"/>
+      <c r="L50" s="41"/>
+      <c r="M50" s="41"/>
+      <c r="N50" s="41"/>
+      <c r="O50" s="28"/>
+      <c r="P50" s="30"/>
+      <c r="Q50" s="41"/>
+      <c r="R50" s="41"/>
+      <c r="S50" s="28"/>
+      <c r="T50" s="29"/>
+      <c r="U50" s="30"/>
+      <c r="V50" s="28"/>
+      <c r="W50" s="29"/>
+      <c r="X50" s="30"/>
+      <c r="Y50" s="28"/>
+      <c r="Z50" s="29"/>
+      <c r="AA50" s="29"/>
+      <c r="AB50" s="29"/>
+      <c r="AC50" s="29"/>
+      <c r="AD50" s="29"/>
+      <c r="AE50" s="29"/>
+      <c r="AF50" s="29"/>
+      <c r="AG50" s="29"/>
+      <c r="AH50" s="29"/>
+      <c r="AI50" s="29"/>
+      <c r="AJ50" s="29"/>
+      <c r="AK50" s="30"/>
+      <c r="AL50" s="24"/>
+      <c r="AM50" s="24"/>
+      <c r="AN50" s="24"/>
+      <c r="AO50" s="24"/>
+      <c r="AP50" s="24"/>
+      <c r="AQ50" s="24"/>
+    </row>
+    <row r="51" spans="1:43" ht="12.75" customHeight="1">
+      <c r="A51" s="41">
+        <v>9</v>
+      </c>
+      <c r="B51" s="41"/>
+      <c r="C51" s="41"/>
+      <c r="D51" s="41"/>
+      <c r="E51" s="41"/>
+      <c r="F51" s="41"/>
+      <c r="G51" s="41"/>
+      <c r="H51" s="41"/>
+      <c r="I51" s="41"/>
+      <c r="J51" s="41"/>
+      <c r="K51" s="41"/>
+      <c r="L51" s="41"/>
+      <c r="M51" s="41"/>
+      <c r="N51" s="41"/>
+      <c r="O51" s="28"/>
+      <c r="P51" s="30"/>
+      <c r="Q51" s="41"/>
+      <c r="R51" s="41"/>
+      <c r="S51" s="28"/>
+      <c r="T51" s="29"/>
+      <c r="U51" s="30"/>
+      <c r="V51" s="28"/>
+      <c r="W51" s="29"/>
+      <c r="X51" s="30"/>
+      <c r="Y51" s="28"/>
+      <c r="Z51" s="29"/>
+      <c r="AA51" s="29"/>
+      <c r="AB51" s="29"/>
+      <c r="AC51" s="29"/>
+      <c r="AD51" s="29"/>
+      <c r="AE51" s="29"/>
+      <c r="AF51" s="29"/>
+      <c r="AG51" s="29"/>
+      <c r="AH51" s="29"/>
+      <c r="AI51" s="29"/>
+      <c r="AJ51" s="29"/>
+      <c r="AK51" s="30"/>
+      <c r="AL51" s="24"/>
+      <c r="AM51" s="24"/>
+      <c r="AN51" s="24"/>
+      <c r="AO51" s="24"/>
+      <c r="AP51" s="24"/>
+      <c r="AQ51" s="24"/>
+    </row>
+    <row r="52" spans="1:43" ht="12.75" customHeight="1">
+      <c r="A52" s="37"/>
+      <c r="B52" s="38"/>
+      <c r="C52" s="37"/>
+      <c r="D52" s="39"/>
+      <c r="E52" s="39"/>
+      <c r="F52" s="39"/>
+      <c r="G52" s="39"/>
+      <c r="H52" s="38"/>
+      <c r="I52" s="37"/>
+      <c r="J52" s="39"/>
+      <c r="K52" s="39"/>
+      <c r="L52" s="38"/>
+      <c r="M52" s="37"/>
+      <c r="N52" s="38"/>
+      <c r="O52" s="37"/>
+      <c r="P52" s="38"/>
+      <c r="Q52" s="40"/>
+      <c r="R52" s="40"/>
+      <c r="S52" s="37"/>
+      <c r="T52" s="39"/>
+      <c r="U52" s="39"/>
+      <c r="V52" s="40"/>
+      <c r="W52" s="40"/>
+      <c r="X52" s="40"/>
+      <c r="Y52" s="37"/>
+      <c r="Z52" s="39"/>
+      <c r="AA52" s="39"/>
+      <c r="AB52" s="39"/>
+      <c r="AC52" s="39"/>
+      <c r="AD52" s="39"/>
+      <c r="AE52" s="39"/>
+      <c r="AF52" s="39"/>
+      <c r="AG52" s="39"/>
+      <c r="AH52" s="39"/>
+      <c r="AI52" s="39"/>
+      <c r="AJ52" s="39"/>
+      <c r="AK52" s="38"/>
+    </row>
+    <row r="53" spans="1:43" ht="12.75" customHeight="1">
+      <c r="A53" s="37"/>
+      <c r="B53" s="38"/>
+      <c r="C53" s="37"/>
+      <c r="D53" s="39"/>
+      <c r="E53" s="39"/>
+      <c r="F53" s="39"/>
+      <c r="G53" s="39"/>
+      <c r="H53" s="38"/>
+      <c r="I53" s="37"/>
+      <c r="J53" s="39"/>
+      <c r="K53" s="39"/>
+      <c r="L53" s="38"/>
+      <c r="M53" s="37"/>
+      <c r="N53" s="38"/>
+      <c r="O53" s="37"/>
+      <c r="P53" s="38"/>
+      <c r="Q53" s="37"/>
+      <c r="R53" s="38"/>
+      <c r="S53" s="37"/>
+      <c r="T53" s="39"/>
+      <c r="U53" s="39"/>
+      <c r="V53" s="40"/>
+      <c r="W53" s="40"/>
+      <c r="X53" s="40"/>
+      <c r="Y53" s="37"/>
+      <c r="Z53" s="39"/>
+      <c r="AA53" s="39"/>
+      <c r="AB53" s="39"/>
+      <c r="AC53" s="39"/>
+      <c r="AD53" s="39"/>
+      <c r="AE53" s="39"/>
+      <c r="AF53" s="39"/>
+      <c r="AG53" s="39"/>
+      <c r="AH53" s="39"/>
+      <c r="AI53" s="39"/>
+      <c r="AJ53" s="39"/>
+      <c r="AK53" s="38"/>
+    </row>
+    <row r="54" spans="1:43" ht="12.75" customHeight="1">
+      <c r="A54" s="37"/>
+      <c r="B54" s="38"/>
+      <c r="C54" s="37"/>
+      <c r="D54" s="39"/>
+      <c r="E54" s="39"/>
+      <c r="F54" s="39"/>
+      <c r="G54" s="39"/>
+      <c r="H54" s="38"/>
+      <c r="I54" s="37"/>
+      <c r="J54" s="39"/>
+      <c r="K54" s="39"/>
+      <c r="L54" s="38"/>
+      <c r="M54" s="37"/>
+      <c r="N54" s="38"/>
+      <c r="O54" s="37"/>
+      <c r="P54" s="38"/>
+      <c r="Q54" s="40"/>
+      <c r="R54" s="40"/>
+      <c r="S54" s="37"/>
+      <c r="T54" s="39"/>
+      <c r="U54" s="39"/>
+      <c r="V54" s="40"/>
+      <c r="W54" s="40"/>
+      <c r="X54" s="40"/>
+      <c r="Y54" s="37"/>
+      <c r="Z54" s="39"/>
+      <c r="AA54" s="39"/>
+      <c r="AB54" s="39"/>
+      <c r="AC54" s="39"/>
+      <c r="AD54" s="39"/>
+      <c r="AE54" s="39"/>
+      <c r="AF54" s="39"/>
+      <c r="AG54" s="39"/>
+      <c r="AH54" s="39"/>
+      <c r="AI54" s="39"/>
+      <c r="AJ54" s="39"/>
+      <c r="AK54" s="38"/>
+    </row>
+    <row r="55" spans="1:43" ht="12.75" customHeight="1">
+      <c r="A55" s="37"/>
+      <c r="B55" s="38"/>
+      <c r="C55" s="37"/>
+      <c r="D55" s="39"/>
+      <c r="E55" s="39"/>
+      <c r="F55" s="39"/>
+      <c r="G55" s="39"/>
+      <c r="H55" s="38"/>
+      <c r="I55" s="37"/>
+      <c r="J55" s="39"/>
+      <c r="K55" s="39"/>
+      <c r="L55" s="38"/>
+      <c r="M55" s="37"/>
+      <c r="N55" s="38"/>
+      <c r="O55" s="37"/>
+      <c r="P55" s="38"/>
+      <c r="Q55" s="37"/>
+      <c r="R55" s="38"/>
+      <c r="S55" s="37"/>
+      <c r="T55" s="39"/>
+      <c r="U55" s="39"/>
+      <c r="V55" s="40"/>
+      <c r="W55" s="40"/>
+      <c r="X55" s="40"/>
+      <c r="Y55" s="37"/>
+      <c r="Z55" s="39"/>
+      <c r="AA55" s="39"/>
+      <c r="AB55" s="39"/>
+      <c r="AC55" s="39"/>
+      <c r="AD55" s="39"/>
+      <c r="AE55" s="39"/>
+      <c r="AF55" s="39"/>
+      <c r="AG55" s="39"/>
+      <c r="AH55" s="39"/>
+      <c r="AI55" s="39"/>
+      <c r="AJ55" s="39"/>
+      <c r="AK55" s="38"/>
+    </row>
+    <row r="56" spans="1:43" ht="12.75" customHeight="1">
+      <c r="A56" s="37"/>
+      <c r="B56" s="38"/>
+      <c r="C56" s="37"/>
+      <c r="D56" s="39"/>
+      <c r="E56" s="39"/>
+      <c r="F56" s="39"/>
+      <c r="G56" s="39"/>
+      <c r="H56" s="38"/>
+      <c r="I56" s="37"/>
+      <c r="J56" s="39"/>
+      <c r="K56" s="39"/>
+      <c r="L56" s="38"/>
+      <c r="M56" s="37"/>
+      <c r="N56" s="38"/>
+      <c r="O56" s="37"/>
+      <c r="P56" s="38"/>
+      <c r="Q56" s="37"/>
+      <c r="R56" s="38"/>
+      <c r="S56" s="37"/>
+      <c r="T56" s="39"/>
+      <c r="U56" s="39"/>
+      <c r="V56" s="40"/>
+      <c r="W56" s="40"/>
+      <c r="X56" s="40"/>
+      <c r="Y56" s="37"/>
+      <c r="Z56" s="39"/>
+      <c r="AA56" s="39"/>
+      <c r="AB56" s="39"/>
+      <c r="AC56" s="39"/>
+      <c r="AD56" s="39"/>
+      <c r="AE56" s="39"/>
+      <c r="AF56" s="39"/>
+      <c r="AG56" s="39"/>
+      <c r="AH56" s="39"/>
+      <c r="AI56" s="39"/>
+      <c r="AJ56" s="39"/>
+      <c r="AK56" s="38"/>
+    </row>
+    <row r="59" spans="1:43" ht="12.75" customHeight="1">
+      <c r="B59" s="17"/>
+    </row>
+  </sheetData>
+  <mergeCells count="153">
+    <mergeCell ref="A1:AK1"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="I3:O3"/>
+    <mergeCell ref="P3:R3"/>
+    <mergeCell ref="S3:Y3"/>
+    <mergeCell ref="Z3:AB3"/>
+    <mergeCell ref="AC3:AE3"/>
+    <mergeCell ref="AF3:AH3"/>
+    <mergeCell ref="AI3:AK3"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:H43"/>
+    <mergeCell ref="I43:L43"/>
+    <mergeCell ref="M43:N43"/>
+    <mergeCell ref="Q43:R43"/>
+    <mergeCell ref="AF4:AH5"/>
+    <mergeCell ref="AI4:AK5"/>
+    <mergeCell ref="O37:P37"/>
+    <mergeCell ref="A41:B42"/>
+    <mergeCell ref="C41:H42"/>
+    <mergeCell ref="I41:L42"/>
+    <mergeCell ref="M41:N42"/>
+    <mergeCell ref="Q41:R42"/>
+    <mergeCell ref="A4:H5"/>
+    <mergeCell ref="I4:O5"/>
+    <mergeCell ref="P4:R5"/>
+    <mergeCell ref="S4:Y5"/>
+    <mergeCell ref="Z4:AB5"/>
+    <mergeCell ref="AC4:AE5"/>
+    <mergeCell ref="Y43:AK43"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:H45"/>
+    <mergeCell ref="I45:L45"/>
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="O45:P45"/>
+    <mergeCell ref="Q45:R45"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:H44"/>
+    <mergeCell ref="I44:L44"/>
+    <mergeCell ref="M44:N44"/>
+    <mergeCell ref="Q44:R44"/>
+    <mergeCell ref="O44:P44"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:H47"/>
+    <mergeCell ref="I47:L47"/>
+    <mergeCell ref="M47:N47"/>
+    <mergeCell ref="Q47:R47"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:H46"/>
+    <mergeCell ref="I46:L46"/>
+    <mergeCell ref="M46:N46"/>
+    <mergeCell ref="O46:P46"/>
+    <mergeCell ref="Q46:R46"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:H49"/>
+    <mergeCell ref="I49:L49"/>
+    <mergeCell ref="M49:N49"/>
+    <mergeCell ref="Q49:R49"/>
+    <mergeCell ref="O49:P49"/>
+    <mergeCell ref="S49:U49"/>
+    <mergeCell ref="V49:X49"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:H48"/>
+    <mergeCell ref="I48:L48"/>
+    <mergeCell ref="M48:N48"/>
+    <mergeCell ref="Q48:R48"/>
+    <mergeCell ref="O48:P48"/>
+    <mergeCell ref="S48:U48"/>
+    <mergeCell ref="V48:X48"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:H51"/>
+    <mergeCell ref="I51:L51"/>
+    <mergeCell ref="M51:N51"/>
+    <mergeCell ref="Q51:R51"/>
+    <mergeCell ref="O51:P51"/>
+    <mergeCell ref="S51:U51"/>
+    <mergeCell ref="V51:X51"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:H50"/>
+    <mergeCell ref="I50:L50"/>
+    <mergeCell ref="M50:N50"/>
+    <mergeCell ref="Q50:R50"/>
+    <mergeCell ref="O50:P50"/>
+    <mergeCell ref="S50:U50"/>
+    <mergeCell ref="V50:X50"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:H52"/>
+    <mergeCell ref="I52:L52"/>
+    <mergeCell ref="M52:N52"/>
+    <mergeCell ref="Q52:R52"/>
+    <mergeCell ref="O52:P52"/>
+    <mergeCell ref="S52:U52"/>
+    <mergeCell ref="V52:X52"/>
+    <mergeCell ref="Y52:AK52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C53:H53"/>
+    <mergeCell ref="I53:L53"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="Q53:R53"/>
+    <mergeCell ref="O53:P53"/>
+    <mergeCell ref="S53:U53"/>
+    <mergeCell ref="V53:X53"/>
+    <mergeCell ref="Y53:AK53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="C54:H54"/>
+    <mergeCell ref="I54:L54"/>
+    <mergeCell ref="M54:N54"/>
+    <mergeCell ref="Q54:R54"/>
+    <mergeCell ref="O54:P54"/>
+    <mergeCell ref="S54:U54"/>
+    <mergeCell ref="V54:X54"/>
+    <mergeCell ref="Y54:AK54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="C55:H55"/>
+    <mergeCell ref="I55:L55"/>
+    <mergeCell ref="M55:N55"/>
+    <mergeCell ref="Q55:R55"/>
+    <mergeCell ref="O55:P55"/>
+    <mergeCell ref="S55:U55"/>
+    <mergeCell ref="V55:X55"/>
+    <mergeCell ref="Y55:AK55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="C56:H56"/>
+    <mergeCell ref="I56:L56"/>
+    <mergeCell ref="M56:N56"/>
+    <mergeCell ref="Q56:R56"/>
+    <mergeCell ref="O56:P56"/>
+    <mergeCell ref="S56:U56"/>
+    <mergeCell ref="V56:X56"/>
+    <mergeCell ref="Y56:AK56"/>
+    <mergeCell ref="S46:U46"/>
+    <mergeCell ref="V46:X46"/>
+    <mergeCell ref="O47:P47"/>
+    <mergeCell ref="S47:U47"/>
+    <mergeCell ref="V47:X47"/>
+    <mergeCell ref="O41:P42"/>
+    <mergeCell ref="S41:U42"/>
+    <mergeCell ref="V41:X42"/>
+    <mergeCell ref="O43:P43"/>
+    <mergeCell ref="S43:U43"/>
+    <mergeCell ref="V43:X43"/>
+    <mergeCell ref="S45:U45"/>
+    <mergeCell ref="V45:X45"/>
+    <mergeCell ref="S44:U44"/>
+    <mergeCell ref="V44:X44"/>
+    <mergeCell ref="Y46:AK46"/>
+    <mergeCell ref="Y51:AK51"/>
+    <mergeCell ref="Y50:AK50"/>
+    <mergeCell ref="Y49:AK49"/>
+    <mergeCell ref="Y48:AK48"/>
+    <mergeCell ref="Y47:AK47"/>
+    <mergeCell ref="Y41:AK42"/>
+    <mergeCell ref="Y45:AK45"/>
+    <mergeCell ref="Y44:AK44"/>
+  </mergeCells>
+  <phoneticPr fontId="2"/>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.19685039370078741" header="0.51181102362204722" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81980269-4B89-CA4B-B703-7E6B1AF9D3E8}">
+  <dimension ref="A1:AQ59"/>
+  <sheetViews>
+    <sheetView zoomScale="83" zoomScaleNormal="135" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="W35" sqref="W35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
+  <cols>
+    <col min="1" max="4" width="4.1796875" style="1" customWidth="1"/>
+    <col min="5" max="6" width="4.1796875" style="18" customWidth="1"/>
+    <col min="7" max="33" width="4.1796875" style="1" customWidth="1"/>
+    <col min="34" max="37" width="4.1796875" style="19" customWidth="1"/>
+    <col min="38" max="41" width="4" style="1" customWidth="1"/>
+    <col min="42" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:37" ht="12.75" customHeight="1">
+      <c r="A1" s="56" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="56"/>
+      <c r="L1" s="56"/>
+      <c r="M1" s="56"/>
+      <c r="N1" s="56"/>
+      <c r="O1" s="56"/>
+      <c r="P1" s="56"/>
+      <c r="Q1" s="56"/>
+      <c r="R1" s="56"/>
+      <c r="S1" s="56"/>
+      <c r="T1" s="56"/>
+      <c r="U1" s="56"/>
+      <c r="V1" s="56"/>
+      <c r="W1" s="56"/>
+      <c r="X1" s="56"/>
+      <c r="Y1" s="56"/>
+      <c r="Z1" s="56"/>
+      <c r="AA1" s="56"/>
+      <c r="AB1" s="56"/>
+      <c r="AC1" s="56"/>
+      <c r="AD1" s="56"/>
+      <c r="AE1" s="56"/>
+      <c r="AF1" s="56"/>
+      <c r="AG1" s="56"/>
+      <c r="AH1" s="56"/>
+      <c r="AI1" s="56"/>
+      <c r="AJ1" s="56"/>
+      <c r="AK1" s="56"/>
+    </row>
+    <row r="2" spans="1:37" ht="6" customHeight="1">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2"/>
+      <c r="AA2" s="2"/>
+      <c r="AB2" s="2"/>
+      <c r="AC2" s="2"/>
+      <c r="AD2" s="2"/>
+      <c r="AE2" s="2"/>
+      <c r="AF2" s="2"/>
+      <c r="AG2" s="2"/>
+      <c r="AH2" s="2"/>
+      <c r="AI2" s="2"/>
+      <c r="AJ2" s="2"/>
+      <c r="AK2" s="2"/>
+    </row>
+    <row r="3" spans="1:37" ht="12">
+      <c r="A3" s="57" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="58"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="59"/>
+      <c r="I3" s="57" t="s">
+        <v>2</v>
+      </c>
+      <c r="J3" s="58"/>
+      <c r="K3" s="58"/>
+      <c r="L3" s="58"/>
+      <c r="M3" s="58"/>
+      <c r="N3" s="58"/>
+      <c r="O3" s="59"/>
+      <c r="P3" s="57" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q3" s="58"/>
+      <c r="R3" s="59"/>
+      <c r="S3" s="57" t="s">
+        <v>4</v>
+      </c>
+      <c r="T3" s="58"/>
+      <c r="U3" s="58"/>
+      <c r="V3" s="58"/>
+      <c r="W3" s="58"/>
+      <c r="X3" s="58"/>
+      <c r="Y3" s="59"/>
+      <c r="Z3" s="57" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA3" s="58"/>
+      <c r="AB3" s="59"/>
+      <c r="AC3" s="57" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD3" s="58"/>
+      <c r="AE3" s="59"/>
+      <c r="AF3" s="57" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG3" s="58"/>
+      <c r="AH3" s="59"/>
+      <c r="AI3" s="57" t="s">
+        <v>6</v>
+      </c>
+      <c r="AJ3" s="58"/>
+      <c r="AK3" s="59"/>
+    </row>
+    <row r="4" spans="1:37" ht="12" customHeight="1">
+      <c r="A4" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="43"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="43"/>
+      <c r="I4" s="44" t="s">
+        <v>44</v>
+      </c>
+      <c r="J4" s="44"/>
+      <c r="K4" s="44"/>
+      <c r="L4" s="44"/>
+      <c r="M4" s="44"/>
+      <c r="N4" s="44"/>
+      <c r="O4" s="45"/>
+      <c r="P4" s="48" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q4" s="44"/>
+      <c r="R4" s="45"/>
+      <c r="S4" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="T4" s="51"/>
+      <c r="U4" s="51"/>
+      <c r="V4" s="51"/>
+      <c r="W4" s="51"/>
+      <c r="X4" s="51"/>
+      <c r="Y4" s="52"/>
+      <c r="Z4" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA4" s="44"/>
+      <c r="AB4" s="45"/>
+      <c r="AC4" s="48" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD4" s="44"/>
+      <c r="AE4" s="45"/>
+      <c r="AF4" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="AG4" s="32"/>
+      <c r="AH4" s="33"/>
+      <c r="AI4" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="AJ4" s="32"/>
+      <c r="AK4" s="33"/>
+    </row>
+    <row r="5" spans="1:37" ht="12">
+      <c r="A5" s="43"/>
+      <c r="B5" s="43"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="43"/>
+      <c r="H5" s="43"/>
+      <c r="I5" s="46"/>
+      <c r="J5" s="46"/>
+      <c r="K5" s="46"/>
+      <c r="L5" s="46"/>
+      <c r="M5" s="46"/>
+      <c r="N5" s="46"/>
+      <c r="O5" s="47"/>
+      <c r="P5" s="49"/>
+      <c r="Q5" s="46"/>
+      <c r="R5" s="47"/>
+      <c r="S5" s="53"/>
+      <c r="T5" s="54"/>
+      <c r="U5" s="54"/>
+      <c r="V5" s="54"/>
+      <c r="W5" s="54"/>
+      <c r="X5" s="54"/>
+      <c r="Y5" s="55"/>
+      <c r="Z5" s="49"/>
+      <c r="AA5" s="46"/>
+      <c r="AB5" s="47"/>
+      <c r="AC5" s="49"/>
+      <c r="AD5" s="46"/>
+      <c r="AE5" s="47"/>
+      <c r="AF5" s="34"/>
+      <c r="AG5" s="35"/>
+      <c r="AH5" s="36"/>
+      <c r="AI5" s="34"/>
+      <c r="AJ5" s="35"/>
+      <c r="AK5" s="36"/>
+    </row>
+    <row r="6" spans="1:37" ht="12">
+      <c r="A6" s="3"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="25"/>
+      <c r="N6" s="25"/>
+      <c r="O6" s="25"/>
+      <c r="P6" s="25"/>
+      <c r="Q6" s="25"/>
+      <c r="R6" s="26"/>
+      <c r="S6" s="27"/>
+      <c r="T6" s="27"/>
+      <c r="U6" s="27"/>
+      <c r="V6" s="27"/>
+      <c r="W6" s="27"/>
+      <c r="X6" s="27"/>
+      <c r="Y6" s="27"/>
+      <c r="Z6" s="5"/>
+      <c r="AA6" s="5"/>
+      <c r="AB6" s="5"/>
+      <c r="AC6" s="5"/>
+      <c r="AD6" s="5"/>
+      <c r="AE6" s="5"/>
+      <c r="AF6" s="6"/>
+      <c r="AG6" s="6"/>
+      <c r="AH6" s="6"/>
+      <c r="AI6" s="6"/>
+      <c r="AJ6" s="6"/>
+      <c r="AK6" s="23"/>
+    </row>
+    <row r="7" spans="1:37" ht="12.75" customHeight="1">
+      <c r="A7" s="7"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="9"/>
+      <c r="R7" s="10"/>
+      <c r="S7" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="T7" s="9"/>
+      <c r="U7" s="9"/>
+      <c r="V7" s="9"/>
+      <c r="W7" s="9"/>
+      <c r="X7" s="9"/>
+      <c r="Y7" s="9"/>
+      <c r="Z7" s="9"/>
+      <c r="AA7" s="9"/>
+      <c r="AB7" s="9"/>
+      <c r="AC7" s="9"/>
+      <c r="AD7" s="9"/>
+      <c r="AE7" s="9"/>
+      <c r="AF7" s="9"/>
+      <c r="AG7" s="9"/>
+      <c r="AH7" s="9"/>
+      <c r="AI7" s="9"/>
+      <c r="AJ7" s="9"/>
+      <c r="AK7" s="10"/>
+    </row>
+    <row r="8" spans="1:37" ht="12.75" customHeight="1">
+      <c r="A8" s="7"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="9"/>
+      <c r="R8" s="10"/>
+      <c r="S8" s="9"/>
+      <c r="T8" s="9"/>
+      <c r="U8" s="9"/>
+      <c r="V8" s="9"/>
+      <c r="W8" s="9"/>
+      <c r="X8" s="9"/>
+      <c r="Y8" s="9"/>
+      <c r="Z8" s="9"/>
+      <c r="AA8" s="9"/>
+      <c r="AB8" s="9"/>
+      <c r="AC8" s="9"/>
+      <c r="AD8" s="9"/>
+      <c r="AE8" s="9"/>
+      <c r="AF8" s="9"/>
+      <c r="AG8" s="9"/>
+      <c r="AH8" s="9"/>
+      <c r="AI8" s="9"/>
+      <c r="AJ8" s="9"/>
+      <c r="AK8" s="10"/>
+    </row>
+    <row r="9" spans="1:37" ht="12.75" customHeight="1">
+      <c r="A9" s="7"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="10"/>
+      <c r="S9" s="9"/>
+      <c r="T9" s="9">
+        <v>1</v>
+      </c>
+      <c r="U9" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="V9" s="9"/>
+      <c r="W9" s="9"/>
+      <c r="X9" s="9"/>
+      <c r="Y9" s="9"/>
+      <c r="Z9" s="9"/>
+      <c r="AA9" s="9"/>
+      <c r="AB9" s="9"/>
+      <c r="AC9" s="9"/>
+      <c r="AD9" s="9"/>
+      <c r="AE9" s="9"/>
+      <c r="AF9" s="9"/>
+      <c r="AG9" s="9"/>
+      <c r="AH9" s="9"/>
+      <c r="AI9" s="9"/>
+      <c r="AJ9" s="9"/>
+      <c r="AK9" s="10"/>
+    </row>
+    <row r="10" spans="1:37" ht="12.75" customHeight="1">
+      <c r="A10" s="7"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="9"/>
+      <c r="P10" s="9"/>
+      <c r="Q10" s="9"/>
+      <c r="R10" s="10"/>
+      <c r="S10" s="9"/>
+      <c r="T10" s="9" t="s">
+        <v>49</v>
       </c>
       <c r="U10" s="1" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="V10" s="9"/>
       <c r="W10" s="9"/>
@@ -6131,7 +9191,7 @@
         <v>2</v>
       </c>
       <c r="U12" s="9" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="V12" s="9"/>
       <c r="W12" s="9"/>
@@ -6170,13 +9230,13 @@
       <c r="Q13" s="9"/>
       <c r="R13" s="10"/>
       <c r="S13" s="9" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="T13" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="U13" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="U13" s="9" t="s">
-        <v>59</v>
       </c>
       <c r="V13" s="9"/>
       <c r="W13" s="9"/>
@@ -6485,7 +9545,6 @@
       <c r="R21" s="10"/>
       <c r="S21" s="9"/>
       <c r="T21" s="9"/>
-      <c r="U21" s="9"/>
       <c r="V21" s="9"/>
       <c r="W21" s="9"/>
       <c r="X21" s="9"/>
@@ -7233,61 +10292,61 @@
       <c r="AK40" s="16"/>
     </row>
     <row r="41" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A41" s="36" t="s">
+      <c r="A41" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="B41" s="38"/>
-      <c r="C41" s="36" t="s">
+      <c r="B41" s="33"/>
+      <c r="C41" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="D41" s="37"/>
-      <c r="E41" s="37"/>
-      <c r="F41" s="37"/>
-      <c r="G41" s="37"/>
-      <c r="H41" s="38"/>
-      <c r="I41" s="36" t="s">
+      <c r="D41" s="32"/>
+      <c r="E41" s="32"/>
+      <c r="F41" s="32"/>
+      <c r="G41" s="32"/>
+      <c r="H41" s="33"/>
+      <c r="I41" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="J41" s="37"/>
-      <c r="K41" s="37"/>
-      <c r="L41" s="38"/>
-      <c r="M41" s="36" t="s">
+      <c r="J41" s="32"/>
+      <c r="K41" s="32"/>
+      <c r="L41" s="33"/>
+      <c r="M41" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="N41" s="38"/>
-      <c r="O41" s="36" t="s">
+      <c r="N41" s="33"/>
+      <c r="O41" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="P41" s="38"/>
-      <c r="Q41" s="35" t="s">
+      <c r="P41" s="33"/>
+      <c r="Q41" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="R41" s="35"/>
-      <c r="S41" s="36" t="s">
+      <c r="R41" s="41"/>
+      <c r="S41" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="T41" s="37"/>
-      <c r="U41" s="38"/>
-      <c r="V41" s="36" t="s">
+      <c r="T41" s="32"/>
+      <c r="U41" s="33"/>
+      <c r="V41" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="W41" s="37"/>
-      <c r="X41" s="38"/>
-      <c r="Y41" s="36" t="s">
+      <c r="W41" s="32"/>
+      <c r="X41" s="33"/>
+      <c r="Y41" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="Z41" s="37"/>
-      <c r="AA41" s="37"/>
-      <c r="AB41" s="37"/>
-      <c r="AC41" s="37"/>
-      <c r="AD41" s="37"/>
-      <c r="AE41" s="37"/>
-      <c r="AF41" s="37"/>
-      <c r="AG41" s="37"/>
-      <c r="AH41" s="37"/>
-      <c r="AI41" s="37"/>
-      <c r="AJ41" s="37"/>
-      <c r="AK41" s="38"/>
+      <c r="Z41" s="32"/>
+      <c r="AA41" s="32"/>
+      <c r="AB41" s="32"/>
+      <c r="AC41" s="32"/>
+      <c r="AD41" s="32"/>
+      <c r="AE41" s="32"/>
+      <c r="AF41" s="32"/>
+      <c r="AG41" s="32"/>
+      <c r="AH41" s="32"/>
+      <c r="AI41" s="32"/>
+      <c r="AJ41" s="32"/>
+      <c r="AK41" s="33"/>
       <c r="AL41" s="24"/>
       <c r="AM41" s="24"/>
       <c r="AN41" s="24"/>
@@ -7296,43 +10355,43 @@
       <c r="AQ41" s="24"/>
     </row>
     <row r="42" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A42" s="39"/>
-      <c r="B42" s="41"/>
-      <c r="C42" s="39"/>
-      <c r="D42" s="40"/>
-      <c r="E42" s="40"/>
-      <c r="F42" s="40"/>
-      <c r="G42" s="40"/>
-      <c r="H42" s="41"/>
-      <c r="I42" s="39"/>
-      <c r="J42" s="40"/>
-      <c r="K42" s="40"/>
-      <c r="L42" s="41"/>
-      <c r="M42" s="39"/>
-      <c r="N42" s="41"/>
-      <c r="O42" s="39"/>
-      <c r="P42" s="41"/>
-      <c r="Q42" s="35"/>
-      <c r="R42" s="35"/>
-      <c r="S42" s="39"/>
-      <c r="T42" s="40"/>
-      <c r="U42" s="41"/>
-      <c r="V42" s="39"/>
-      <c r="W42" s="40"/>
-      <c r="X42" s="41"/>
-      <c r="Y42" s="39"/>
-      <c r="Z42" s="40"/>
-      <c r="AA42" s="40"/>
-      <c r="AB42" s="40"/>
-      <c r="AC42" s="40"/>
-      <c r="AD42" s="40"/>
-      <c r="AE42" s="40"/>
-      <c r="AF42" s="40"/>
-      <c r="AG42" s="40"/>
-      <c r="AH42" s="40"/>
-      <c r="AI42" s="40"/>
-      <c r="AJ42" s="40"/>
-      <c r="AK42" s="41"/>
+      <c r="A42" s="34"/>
+      <c r="B42" s="36"/>
+      <c r="C42" s="34"/>
+      <c r="D42" s="35"/>
+      <c r="E42" s="35"/>
+      <c r="F42" s="35"/>
+      <c r="G42" s="35"/>
+      <c r="H42" s="36"/>
+      <c r="I42" s="34"/>
+      <c r="J42" s="35"/>
+      <c r="K42" s="35"/>
+      <c r="L42" s="36"/>
+      <c r="M42" s="34"/>
+      <c r="N42" s="36"/>
+      <c r="O42" s="34"/>
+      <c r="P42" s="36"/>
+      <c r="Q42" s="41"/>
+      <c r="R42" s="41"/>
+      <c r="S42" s="34"/>
+      <c r="T42" s="35"/>
+      <c r="U42" s="36"/>
+      <c r="V42" s="34"/>
+      <c r="W42" s="35"/>
+      <c r="X42" s="36"/>
+      <c r="Y42" s="34"/>
+      <c r="Z42" s="35"/>
+      <c r="AA42" s="35"/>
+      <c r="AB42" s="35"/>
+      <c r="AC42" s="35"/>
+      <c r="AD42" s="35"/>
+      <c r="AE42" s="35"/>
+      <c r="AF42" s="35"/>
+      <c r="AG42" s="35"/>
+      <c r="AH42" s="35"/>
+      <c r="AI42" s="35"/>
+      <c r="AJ42" s="35"/>
+      <c r="AK42" s="36"/>
       <c r="AL42" s="24"/>
       <c r="AM42" s="24"/>
       <c r="AN42" s="24"/>
@@ -7341,61 +10400,61 @@
       <c r="AQ42" s="24"/>
     </row>
     <row r="43" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A43" s="32">
+      <c r="A43" s="28">
         <v>1</v>
       </c>
-      <c r="B43" s="33"/>
-      <c r="C43" s="32" t="s">
+      <c r="B43" s="30"/>
+      <c r="C43" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="D43" s="34"/>
-      <c r="E43" s="34"/>
-      <c r="F43" s="34"/>
-      <c r="G43" s="34"/>
-      <c r="H43" s="33"/>
-      <c r="I43" s="32" t="s">
+      <c r="D43" s="29"/>
+      <c r="E43" s="29"/>
+      <c r="F43" s="29"/>
+      <c r="G43" s="29"/>
+      <c r="H43" s="30"/>
+      <c r="I43" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="J43" s="34"/>
-      <c r="K43" s="34"/>
-      <c r="L43" s="33"/>
-      <c r="M43" s="32" t="s">
+      <c r="J43" s="29"/>
+      <c r="K43" s="29"/>
+      <c r="L43" s="30"/>
+      <c r="M43" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="N43" s="33"/>
-      <c r="O43" s="32" t="s">
+      <c r="N43" s="30"/>
+      <c r="O43" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="P43" s="33"/>
-      <c r="Q43" s="35" t="s">
+      <c r="P43" s="30"/>
+      <c r="Q43" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="R43" s="35"/>
-      <c r="S43" s="32" t="s">
+      <c r="R43" s="41"/>
+      <c r="S43" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="T43" s="34"/>
-      <c r="U43" s="33"/>
-      <c r="V43" s="32" t="s">
+      <c r="T43" s="29"/>
+      <c r="U43" s="30"/>
+      <c r="V43" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="W43" s="34"/>
-      <c r="X43" s="33"/>
-      <c r="Y43" s="32" t="s">
+      <c r="W43" s="29"/>
+      <c r="X43" s="30"/>
+      <c r="Y43" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="Z43" s="34"/>
-      <c r="AA43" s="34"/>
-      <c r="AB43" s="34"/>
-      <c r="AC43" s="34"/>
-      <c r="AD43" s="34"/>
-      <c r="AE43" s="34"/>
-      <c r="AF43" s="34"/>
-      <c r="AG43" s="34"/>
-      <c r="AH43" s="34"/>
-      <c r="AI43" s="34"/>
-      <c r="AJ43" s="34"/>
-      <c r="AK43" s="33"/>
+      <c r="Z43" s="29"/>
+      <c r="AA43" s="29"/>
+      <c r="AB43" s="29"/>
+      <c r="AC43" s="29"/>
+      <c r="AD43" s="29"/>
+      <c r="AE43" s="29"/>
+      <c r="AF43" s="29"/>
+      <c r="AG43" s="29"/>
+      <c r="AH43" s="29"/>
+      <c r="AI43" s="29"/>
+      <c r="AJ43" s="29"/>
+      <c r="AK43" s="30"/>
       <c r="AL43" s="24"/>
       <c r="AM43" s="24"/>
       <c r="AN43" s="24"/>
@@ -7404,61 +10463,61 @@
       <c r="AQ43" s="24"/>
     </row>
     <row r="44" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A44" s="32">
+      <c r="A44" s="28">
         <v>2</v>
       </c>
-      <c r="B44" s="33"/>
-      <c r="C44" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="D44" s="34"/>
-      <c r="E44" s="34"/>
-      <c r="F44" s="34"/>
-      <c r="G44" s="34"/>
-      <c r="H44" s="33"/>
-      <c r="I44" s="32" t="s">
+      <c r="B44" s="30"/>
+      <c r="C44" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="D44" s="29"/>
+      <c r="E44" s="29"/>
+      <c r="F44" s="29"/>
+      <c r="G44" s="29"/>
+      <c r="H44" s="30"/>
+      <c r="I44" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="J44" s="34"/>
-      <c r="K44" s="34"/>
-      <c r="L44" s="33"/>
-      <c r="M44" s="32" t="s">
+      <c r="J44" s="29"/>
+      <c r="K44" s="29"/>
+      <c r="L44" s="30"/>
+      <c r="M44" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="N44" s="33"/>
-      <c r="O44" s="32" t="s">
+      <c r="N44" s="30"/>
+      <c r="O44" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="P44" s="33"/>
-      <c r="Q44" s="35" t="s">
+      <c r="P44" s="30"/>
+      <c r="Q44" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="R44" s="35"/>
-      <c r="S44" s="32" t="s">
+      <c r="R44" s="41"/>
+      <c r="S44" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="T44" s="34"/>
-      <c r="U44" s="33"/>
-      <c r="V44" s="32" t="s">
+      <c r="T44" s="29"/>
+      <c r="U44" s="30"/>
+      <c r="V44" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="W44" s="34"/>
-      <c r="X44" s="33"/>
-      <c r="Y44" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="Z44" s="34"/>
-      <c r="AA44" s="34"/>
-      <c r="AB44" s="34"/>
-      <c r="AC44" s="34"/>
-      <c r="AD44" s="34"/>
-      <c r="AE44" s="34"/>
-      <c r="AF44" s="34"/>
-      <c r="AG44" s="34"/>
-      <c r="AH44" s="34"/>
-      <c r="AI44" s="34"/>
-      <c r="AJ44" s="34"/>
-      <c r="AK44" s="33"/>
+      <c r="W44" s="29"/>
+      <c r="X44" s="30"/>
+      <c r="Y44" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z44" s="29"/>
+      <c r="AA44" s="29"/>
+      <c r="AB44" s="29"/>
+      <c r="AC44" s="29"/>
+      <c r="AD44" s="29"/>
+      <c r="AE44" s="29"/>
+      <c r="AF44" s="29"/>
+      <c r="AG44" s="29"/>
+      <c r="AH44" s="29"/>
+      <c r="AI44" s="29"/>
+      <c r="AJ44" s="29"/>
+      <c r="AK44" s="30"/>
       <c r="AL44" s="24"/>
       <c r="AM44" s="24"/>
       <c r="AN44" s="24"/>
@@ -7467,61 +10526,61 @@
       <c r="AQ44" s="24"/>
     </row>
     <row r="45" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A45" s="32">
+      <c r="A45" s="28">
         <v>3</v>
       </c>
-      <c r="B45" s="33"/>
-      <c r="C45" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="D45" s="34"/>
-      <c r="E45" s="34"/>
-      <c r="F45" s="34"/>
-      <c r="G45" s="34"/>
-      <c r="H45" s="33"/>
-      <c r="I45" s="32" t="s">
+      <c r="B45" s="30"/>
+      <c r="C45" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="D45" s="29"/>
+      <c r="E45" s="29"/>
+      <c r="F45" s="29"/>
+      <c r="G45" s="29"/>
+      <c r="H45" s="30"/>
+      <c r="I45" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="J45" s="34"/>
-      <c r="K45" s="34"/>
-      <c r="L45" s="33"/>
-      <c r="M45" s="32" t="s">
+      <c r="J45" s="29"/>
+      <c r="K45" s="29"/>
+      <c r="L45" s="30"/>
+      <c r="M45" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="N45" s="33"/>
-      <c r="O45" s="32" t="s">
+      <c r="N45" s="30"/>
+      <c r="O45" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="P45" s="33"/>
-      <c r="Q45" s="35" t="s">
+      <c r="P45" s="30"/>
+      <c r="Q45" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="R45" s="35"/>
-      <c r="S45" s="32" t="s">
+      <c r="R45" s="41"/>
+      <c r="S45" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="T45" s="34"/>
-      <c r="U45" s="33"/>
-      <c r="V45" s="32" t="s">
+      <c r="T45" s="29"/>
+      <c r="U45" s="30"/>
+      <c r="V45" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="W45" s="34"/>
-      <c r="X45" s="33"/>
-      <c r="Y45" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z45" s="34"/>
-      <c r="AA45" s="34"/>
-      <c r="AB45" s="34"/>
-      <c r="AC45" s="34"/>
-      <c r="AD45" s="34"/>
-      <c r="AE45" s="34"/>
-      <c r="AF45" s="34"/>
-      <c r="AG45" s="34"/>
-      <c r="AH45" s="34"/>
-      <c r="AI45" s="34"/>
-      <c r="AJ45" s="34"/>
-      <c r="AK45" s="33"/>
+      <c r="W45" s="29"/>
+      <c r="X45" s="30"/>
+      <c r="Y45" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z45" s="29"/>
+      <c r="AA45" s="29"/>
+      <c r="AB45" s="29"/>
+      <c r="AC45" s="29"/>
+      <c r="AD45" s="29"/>
+      <c r="AE45" s="29"/>
+      <c r="AF45" s="29"/>
+      <c r="AG45" s="29"/>
+      <c r="AH45" s="29"/>
+      <c r="AI45" s="29"/>
+      <c r="AJ45" s="29"/>
+      <c r="AK45" s="30"/>
       <c r="AL45" s="24"/>
       <c r="AM45" s="24"/>
       <c r="AN45" s="24"/>
@@ -7530,61 +10589,61 @@
       <c r="AQ45" s="24"/>
     </row>
     <row r="46" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A46" s="32">
+      <c r="A46" s="28">
         <v>4</v>
       </c>
-      <c r="B46" s="33"/>
-      <c r="C46" s="32" t="s">
+      <c r="B46" s="30"/>
+      <c r="C46" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="D46" s="29"/>
+      <c r="E46" s="29"/>
+      <c r="F46" s="29"/>
+      <c r="G46" s="29"/>
+      <c r="H46" s="30"/>
+      <c r="I46" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="D46" s="34"/>
-      <c r="E46" s="34"/>
-      <c r="F46" s="34"/>
-      <c r="G46" s="34"/>
-      <c r="H46" s="33"/>
-      <c r="I46" s="32" t="s">
+      <c r="J46" s="29"/>
+      <c r="K46" s="29"/>
+      <c r="L46" s="30"/>
+      <c r="M46" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="J46" s="34"/>
-      <c r="K46" s="34"/>
-      <c r="L46" s="33"/>
-      <c r="M46" s="32" t="s">
+      <c r="N46" s="30"/>
+      <c r="O46" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="N46" s="33"/>
-      <c r="O46" s="32" t="s">
+      <c r="P46" s="30"/>
+      <c r="Q46" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="P46" s="33"/>
-      <c r="Q46" s="32" t="s">
+      <c r="R46" s="30"/>
+      <c r="S46" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="R46" s="33"/>
-      <c r="S46" s="32" t="s">
+      <c r="T46" s="29"/>
+      <c r="U46" s="30"/>
+      <c r="V46" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="T46" s="34"/>
-      <c r="U46" s="33"/>
-      <c r="V46" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="W46" s="34"/>
-      <c r="X46" s="33"/>
-      <c r="Y46" s="32" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z46" s="34"/>
-      <c r="AA46" s="34"/>
-      <c r="AB46" s="34"/>
-      <c r="AC46" s="34"/>
-      <c r="AD46" s="34"/>
-      <c r="AE46" s="34"/>
-      <c r="AF46" s="34"/>
-      <c r="AG46" s="34"/>
-      <c r="AH46" s="34"/>
-      <c r="AI46" s="34"/>
-      <c r="AJ46" s="34"/>
-      <c r="AK46" s="33"/>
+      <c r="W46" s="29"/>
+      <c r="X46" s="30"/>
+      <c r="Y46" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z46" s="29"/>
+      <c r="AA46" s="29"/>
+      <c r="AB46" s="29"/>
+      <c r="AC46" s="29"/>
+      <c r="AD46" s="29"/>
+      <c r="AE46" s="29"/>
+      <c r="AF46" s="29"/>
+      <c r="AG46" s="29"/>
+      <c r="AH46" s="29"/>
+      <c r="AI46" s="29"/>
+      <c r="AJ46" s="29"/>
+      <c r="AK46" s="30"/>
       <c r="AL46" s="24"/>
       <c r="AM46" s="24"/>
       <c r="AN46" s="24"/>
@@ -7593,45 +10652,61 @@
       <c r="AQ46" s="24"/>
     </row>
     <row r="47" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A47" s="32">
+      <c r="A47" s="28">
         <v>5</v>
       </c>
-      <c r="B47" s="33"/>
-      <c r="C47" s="32"/>
-      <c r="D47" s="34"/>
-      <c r="E47" s="34"/>
-      <c r="F47" s="34"/>
-      <c r="G47" s="34"/>
-      <c r="H47" s="33"/>
-      <c r="I47" s="32"/>
-      <c r="J47" s="34"/>
-      <c r="K47" s="34"/>
-      <c r="L47" s="33"/>
-      <c r="M47" s="32"/>
-      <c r="N47" s="33"/>
-      <c r="O47" s="32"/>
-      <c r="P47" s="33"/>
-      <c r="Q47" s="35"/>
-      <c r="R47" s="35"/>
-      <c r="S47" s="32"/>
-      <c r="T47" s="34"/>
-      <c r="U47" s="33"/>
-      <c r="V47" s="32"/>
-      <c r="W47" s="34"/>
-      <c r="X47" s="33"/>
-      <c r="Y47" s="32"/>
-      <c r="Z47" s="34"/>
-      <c r="AA47" s="34"/>
-      <c r="AB47" s="34"/>
-      <c r="AC47" s="34"/>
-      <c r="AD47" s="34"/>
-      <c r="AE47" s="34"/>
-      <c r="AF47" s="34"/>
-      <c r="AG47" s="34"/>
-      <c r="AH47" s="34"/>
-      <c r="AI47" s="34"/>
-      <c r="AJ47" s="34"/>
-      <c r="AK47" s="33"/>
+      <c r="B47" s="30"/>
+      <c r="C47" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="D47" s="29"/>
+      <c r="E47" s="29"/>
+      <c r="F47" s="29"/>
+      <c r="G47" s="29"/>
+      <c r="H47" s="30"/>
+      <c r="I47" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="J47" s="29"/>
+      <c r="K47" s="29"/>
+      <c r="L47" s="30"/>
+      <c r="M47" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="N47" s="30"/>
+      <c r="O47" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="P47" s="30"/>
+      <c r="Q47" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="R47" s="41"/>
+      <c r="S47" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="T47" s="29"/>
+      <c r="U47" s="30"/>
+      <c r="V47" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="W47" s="29"/>
+      <c r="X47" s="30"/>
+      <c r="Y47" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z47" s="29"/>
+      <c r="AA47" s="29"/>
+      <c r="AB47" s="29"/>
+      <c r="AC47" s="29"/>
+      <c r="AD47" s="29"/>
+      <c r="AE47" s="29"/>
+      <c r="AF47" s="29"/>
+      <c r="AG47" s="29"/>
+      <c r="AH47" s="29"/>
+      <c r="AI47" s="29"/>
+      <c r="AJ47" s="29"/>
+      <c r="AK47" s="30"/>
       <c r="AL47" s="24"/>
       <c r="AM47" s="24"/>
       <c r="AN47" s="24"/>
@@ -7640,45 +10715,61 @@
       <c r="AQ47" s="24"/>
     </row>
     <row r="48" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A48" s="32">
+      <c r="A48" s="28">
         <v>6</v>
       </c>
-      <c r="B48" s="33"/>
-      <c r="C48" s="32"/>
-      <c r="D48" s="34"/>
-      <c r="E48" s="34"/>
-      <c r="F48" s="34"/>
-      <c r="G48" s="34"/>
-      <c r="H48" s="33"/>
-      <c r="I48" s="32"/>
-      <c r="J48" s="34"/>
-      <c r="K48" s="34"/>
-      <c r="L48" s="33"/>
-      <c r="M48" s="32"/>
-      <c r="N48" s="33"/>
-      <c r="O48" s="32"/>
-      <c r="P48" s="33"/>
-      <c r="Q48" s="35"/>
-      <c r="R48" s="35"/>
-      <c r="S48" s="32"/>
-      <c r="T48" s="34"/>
-      <c r="U48" s="33"/>
-      <c r="V48" s="32"/>
-      <c r="W48" s="34"/>
-      <c r="X48" s="33"/>
-      <c r="Y48" s="32"/>
-      <c r="Z48" s="34"/>
-      <c r="AA48" s="34"/>
-      <c r="AB48" s="34"/>
-      <c r="AC48" s="34"/>
-      <c r="AD48" s="34"/>
-      <c r="AE48" s="34"/>
-      <c r="AF48" s="34"/>
-      <c r="AG48" s="34"/>
-      <c r="AH48" s="34"/>
-      <c r="AI48" s="34"/>
-      <c r="AJ48" s="34"/>
-      <c r="AK48" s="33"/>
+      <c r="B48" s="30"/>
+      <c r="C48" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="D48" s="29"/>
+      <c r="E48" s="29"/>
+      <c r="F48" s="29"/>
+      <c r="G48" s="29"/>
+      <c r="H48" s="30"/>
+      <c r="I48" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="J48" s="29"/>
+      <c r="K48" s="29"/>
+      <c r="L48" s="30"/>
+      <c r="M48" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="N48" s="30"/>
+      <c r="O48" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="P48" s="30"/>
+      <c r="Q48" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="R48" s="41"/>
+      <c r="S48" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="T48" s="29"/>
+      <c r="U48" s="30"/>
+      <c r="V48" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="W48" s="29"/>
+      <c r="X48" s="30"/>
+      <c r="Y48" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z48" s="29"/>
+      <c r="AA48" s="29"/>
+      <c r="AB48" s="29"/>
+      <c r="AC48" s="29"/>
+      <c r="AD48" s="29"/>
+      <c r="AE48" s="29"/>
+      <c r="AF48" s="29"/>
+      <c r="AG48" s="29"/>
+      <c r="AH48" s="29"/>
+      <c r="AI48" s="29"/>
+      <c r="AJ48" s="29"/>
+      <c r="AK48" s="30"/>
       <c r="AL48" s="24"/>
       <c r="AM48" s="24"/>
       <c r="AN48" s="24"/>
@@ -7687,45 +10778,61 @@
       <c r="AQ48" s="24"/>
     </row>
     <row r="49" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A49" s="35">
+      <c r="A49" s="41">
         <v>7</v>
       </c>
-      <c r="B49" s="35"/>
-      <c r="C49" s="35"/>
-      <c r="D49" s="35"/>
-      <c r="E49" s="35"/>
-      <c r="F49" s="35"/>
-      <c r="G49" s="35"/>
-      <c r="H49" s="35"/>
-      <c r="I49" s="35"/>
-      <c r="J49" s="35"/>
-      <c r="K49" s="35"/>
-      <c r="L49" s="35"/>
-      <c r="M49" s="35"/>
-      <c r="N49" s="35"/>
-      <c r="O49" s="32"/>
-      <c r="P49" s="33"/>
-      <c r="Q49" s="35"/>
-      <c r="R49" s="35"/>
-      <c r="S49" s="32"/>
-      <c r="T49" s="34"/>
-      <c r="U49" s="33"/>
-      <c r="V49" s="32"/>
-      <c r="W49" s="34"/>
-      <c r="X49" s="33"/>
-      <c r="Y49" s="32"/>
-      <c r="Z49" s="34"/>
-      <c r="AA49" s="34"/>
-      <c r="AB49" s="34"/>
-      <c r="AC49" s="34"/>
-      <c r="AD49" s="34"/>
-      <c r="AE49" s="34"/>
-      <c r="AF49" s="34"/>
-      <c r="AG49" s="34"/>
-      <c r="AH49" s="34"/>
-      <c r="AI49" s="34"/>
-      <c r="AJ49" s="34"/>
-      <c r="AK49" s="33"/>
+      <c r="B49" s="41"/>
+      <c r="C49" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="D49" s="41"/>
+      <c r="E49" s="41"/>
+      <c r="F49" s="41"/>
+      <c r="G49" s="41"/>
+      <c r="H49" s="41"/>
+      <c r="I49" s="41" t="s">
+        <v>53</v>
+      </c>
+      <c r="J49" s="41"/>
+      <c r="K49" s="41"/>
+      <c r="L49" s="41"/>
+      <c r="M49" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="N49" s="41"/>
+      <c r="O49" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="P49" s="30"/>
+      <c r="Q49" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="R49" s="41"/>
+      <c r="S49" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="T49" s="29"/>
+      <c r="U49" s="30"/>
+      <c r="V49" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="W49" s="29"/>
+      <c r="X49" s="30"/>
+      <c r="Y49" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z49" s="29"/>
+      <c r="AA49" s="29"/>
+      <c r="AB49" s="29"/>
+      <c r="AC49" s="29"/>
+      <c r="AD49" s="29"/>
+      <c r="AE49" s="29"/>
+      <c r="AF49" s="29"/>
+      <c r="AG49" s="29"/>
+      <c r="AH49" s="29"/>
+      <c r="AI49" s="29"/>
+      <c r="AJ49" s="29"/>
+      <c r="AK49" s="30"/>
       <c r="AL49" s="24"/>
       <c r="AM49" s="24"/>
       <c r="AN49" s="24"/>
@@ -7734,45 +10841,45 @@
       <c r="AQ49" s="24"/>
     </row>
     <row r="50" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A50" s="35">
+      <c r="A50" s="41">
         <v>8</v>
       </c>
-      <c r="B50" s="35"/>
-      <c r="C50" s="35"/>
-      <c r="D50" s="35"/>
-      <c r="E50" s="35"/>
-      <c r="F50" s="35"/>
-      <c r="G50" s="35"/>
-      <c r="H50" s="35"/>
-      <c r="I50" s="35"/>
-      <c r="J50" s="35"/>
-      <c r="K50" s="35"/>
-      <c r="L50" s="35"/>
-      <c r="M50" s="35"/>
-      <c r="N50" s="35"/>
-      <c r="O50" s="32"/>
-      <c r="P50" s="33"/>
-      <c r="Q50" s="35"/>
-      <c r="R50" s="35"/>
-      <c r="S50" s="32"/>
-      <c r="T50" s="34"/>
-      <c r="U50" s="33"/>
-      <c r="V50" s="32"/>
-      <c r="W50" s="34"/>
-      <c r="X50" s="33"/>
-      <c r="Y50" s="32"/>
-      <c r="Z50" s="34"/>
-      <c r="AA50" s="34"/>
-      <c r="AB50" s="34"/>
-      <c r="AC50" s="34"/>
-      <c r="AD50" s="34"/>
-      <c r="AE50" s="34"/>
-      <c r="AF50" s="34"/>
-      <c r="AG50" s="34"/>
-      <c r="AH50" s="34"/>
-      <c r="AI50" s="34"/>
-      <c r="AJ50" s="34"/>
-      <c r="AK50" s="33"/>
+      <c r="B50" s="41"/>
+      <c r="C50" s="41"/>
+      <c r="D50" s="41"/>
+      <c r="E50" s="41"/>
+      <c r="F50" s="41"/>
+      <c r="G50" s="41"/>
+      <c r="H50" s="41"/>
+      <c r="I50" s="41"/>
+      <c r="J50" s="41"/>
+      <c r="K50" s="41"/>
+      <c r="L50" s="41"/>
+      <c r="M50" s="41"/>
+      <c r="N50" s="41"/>
+      <c r="O50" s="28"/>
+      <c r="P50" s="30"/>
+      <c r="Q50" s="41"/>
+      <c r="R50" s="41"/>
+      <c r="S50" s="28"/>
+      <c r="T50" s="29"/>
+      <c r="U50" s="30"/>
+      <c r="V50" s="28"/>
+      <c r="W50" s="29"/>
+      <c r="X50" s="30"/>
+      <c r="Y50" s="28"/>
+      <c r="Z50" s="29"/>
+      <c r="AA50" s="29"/>
+      <c r="AB50" s="29"/>
+      <c r="AC50" s="29"/>
+      <c r="AD50" s="29"/>
+      <c r="AE50" s="29"/>
+      <c r="AF50" s="29"/>
+      <c r="AG50" s="29"/>
+      <c r="AH50" s="29"/>
+      <c r="AI50" s="29"/>
+      <c r="AJ50" s="29"/>
+      <c r="AK50" s="30"/>
       <c r="AL50" s="24"/>
       <c r="AM50" s="24"/>
       <c r="AN50" s="24"/>
@@ -7781,45 +10888,45 @@
       <c r="AQ50" s="24"/>
     </row>
     <row r="51" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A51" s="35">
+      <c r="A51" s="41">
         <v>9</v>
       </c>
-      <c r="B51" s="35"/>
-      <c r="C51" s="35"/>
-      <c r="D51" s="35"/>
-      <c r="E51" s="35"/>
-      <c r="F51" s="35"/>
-      <c r="G51" s="35"/>
-      <c r="H51" s="35"/>
-      <c r="I51" s="35"/>
-      <c r="J51" s="35"/>
-      <c r="K51" s="35"/>
-      <c r="L51" s="35"/>
-      <c r="M51" s="35"/>
-      <c r="N51" s="35"/>
-      <c r="O51" s="32"/>
-      <c r="P51" s="33"/>
-      <c r="Q51" s="35"/>
-      <c r="R51" s="35"/>
-      <c r="S51" s="32"/>
-      <c r="T51" s="34"/>
-      <c r="U51" s="33"/>
-      <c r="V51" s="32"/>
-      <c r="W51" s="34"/>
-      <c r="X51" s="33"/>
-      <c r="Y51" s="32"/>
-      <c r="Z51" s="34"/>
-      <c r="AA51" s="34"/>
-      <c r="AB51" s="34"/>
-      <c r="AC51" s="34"/>
-      <c r="AD51" s="34"/>
-      <c r="AE51" s="34"/>
-      <c r="AF51" s="34"/>
-      <c r="AG51" s="34"/>
-      <c r="AH51" s="34"/>
-      <c r="AI51" s="34"/>
-      <c r="AJ51" s="34"/>
-      <c r="AK51" s="33"/>
+      <c r="B51" s="41"/>
+      <c r="C51" s="41"/>
+      <c r="D51" s="41"/>
+      <c r="E51" s="41"/>
+      <c r="F51" s="41"/>
+      <c r="G51" s="41"/>
+      <c r="H51" s="41"/>
+      <c r="I51" s="41"/>
+      <c r="J51" s="41"/>
+      <c r="K51" s="41"/>
+      <c r="L51" s="41"/>
+      <c r="M51" s="41"/>
+      <c r="N51" s="41"/>
+      <c r="O51" s="28"/>
+      <c r="P51" s="30"/>
+      <c r="Q51" s="41"/>
+      <c r="R51" s="41"/>
+      <c r="S51" s="28"/>
+      <c r="T51" s="29"/>
+      <c r="U51" s="30"/>
+      <c r="V51" s="28"/>
+      <c r="W51" s="29"/>
+      <c r="X51" s="30"/>
+      <c r="Y51" s="28"/>
+      <c r="Z51" s="29"/>
+      <c r="AA51" s="29"/>
+      <c r="AB51" s="29"/>
+      <c r="AC51" s="29"/>
+      <c r="AD51" s="29"/>
+      <c r="AE51" s="29"/>
+      <c r="AF51" s="29"/>
+      <c r="AG51" s="29"/>
+      <c r="AH51" s="29"/>
+      <c r="AI51" s="29"/>
+      <c r="AJ51" s="29"/>
+      <c r="AK51" s="30"/>
       <c r="AL51" s="24"/>
       <c r="AM51" s="24"/>
       <c r="AN51" s="24"/>
@@ -7828,349 +10935,205 @@
       <c r="AQ51" s="24"/>
     </row>
     <row r="52" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A52" s="56"/>
-      <c r="B52" s="57"/>
-      <c r="C52" s="56"/>
-      <c r="D52" s="58"/>
-      <c r="E52" s="58"/>
-      <c r="F52" s="58"/>
-      <c r="G52" s="58"/>
-      <c r="H52" s="57"/>
-      <c r="I52" s="56"/>
-      <c r="J52" s="58"/>
-      <c r="K52" s="58"/>
-      <c r="L52" s="57"/>
-      <c r="M52" s="56"/>
-      <c r="N52" s="57"/>
-      <c r="O52" s="56"/>
-      <c r="P52" s="57"/>
-      <c r="Q52" s="59"/>
-      <c r="R52" s="59"/>
-      <c r="S52" s="56"/>
-      <c r="T52" s="58"/>
-      <c r="U52" s="58"/>
-      <c r="V52" s="59"/>
-      <c r="W52" s="59"/>
-      <c r="X52" s="59"/>
-      <c r="Y52" s="56"/>
-      <c r="Z52" s="58"/>
-      <c r="AA52" s="58"/>
-      <c r="AB52" s="58"/>
-      <c r="AC52" s="58"/>
-      <c r="AD52" s="58"/>
-      <c r="AE52" s="58"/>
-      <c r="AF52" s="58"/>
-      <c r="AG52" s="58"/>
-      <c r="AH52" s="58"/>
-      <c r="AI52" s="58"/>
-      <c r="AJ52" s="58"/>
-      <c r="AK52" s="57"/>
+      <c r="A52" s="37"/>
+      <c r="B52" s="38"/>
+      <c r="C52" s="37"/>
+      <c r="D52" s="39"/>
+      <c r="E52" s="39"/>
+      <c r="F52" s="39"/>
+      <c r="G52" s="39"/>
+      <c r="H52" s="38"/>
+      <c r="I52" s="37"/>
+      <c r="J52" s="39"/>
+      <c r="K52" s="39"/>
+      <c r="L52" s="38"/>
+      <c r="M52" s="37"/>
+      <c r="N52" s="38"/>
+      <c r="O52" s="37"/>
+      <c r="P52" s="38"/>
+      <c r="Q52" s="40"/>
+      <c r="R52" s="40"/>
+      <c r="S52" s="37"/>
+      <c r="T52" s="39"/>
+      <c r="U52" s="39"/>
+      <c r="V52" s="40"/>
+      <c r="W52" s="40"/>
+      <c r="X52" s="40"/>
+      <c r="Y52" s="37"/>
+      <c r="Z52" s="39"/>
+      <c r="AA52" s="39"/>
+      <c r="AB52" s="39"/>
+      <c r="AC52" s="39"/>
+      <c r="AD52" s="39"/>
+      <c r="AE52" s="39"/>
+      <c r="AF52" s="39"/>
+      <c r="AG52" s="39"/>
+      <c r="AH52" s="39"/>
+      <c r="AI52" s="39"/>
+      <c r="AJ52" s="39"/>
+      <c r="AK52" s="38"/>
     </row>
     <row r="53" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A53" s="56"/>
-      <c r="B53" s="57"/>
-      <c r="C53" s="56"/>
-      <c r="D53" s="58"/>
-      <c r="E53" s="58"/>
-      <c r="F53" s="58"/>
-      <c r="G53" s="58"/>
-      <c r="H53" s="57"/>
-      <c r="I53" s="56"/>
-      <c r="J53" s="58"/>
-      <c r="K53" s="58"/>
-      <c r="L53" s="57"/>
-      <c r="M53" s="56"/>
-      <c r="N53" s="57"/>
-      <c r="O53" s="56"/>
-      <c r="P53" s="57"/>
-      <c r="Q53" s="56"/>
-      <c r="R53" s="57"/>
-      <c r="S53" s="56"/>
-      <c r="T53" s="58"/>
-      <c r="U53" s="58"/>
-      <c r="V53" s="59"/>
-      <c r="W53" s="59"/>
-      <c r="X53" s="59"/>
-      <c r="Y53" s="56"/>
-      <c r="Z53" s="58"/>
-      <c r="AA53" s="58"/>
-      <c r="AB53" s="58"/>
-      <c r="AC53" s="58"/>
-      <c r="AD53" s="58"/>
-      <c r="AE53" s="58"/>
-      <c r="AF53" s="58"/>
-      <c r="AG53" s="58"/>
-      <c r="AH53" s="58"/>
-      <c r="AI53" s="58"/>
-      <c r="AJ53" s="58"/>
-      <c r="AK53" s="57"/>
+      <c r="A53" s="37"/>
+      <c r="B53" s="38"/>
+      <c r="C53" s="37"/>
+      <c r="D53" s="39"/>
+      <c r="E53" s="39"/>
+      <c r="F53" s="39"/>
+      <c r="G53" s="39"/>
+      <c r="H53" s="38"/>
+      <c r="I53" s="37"/>
+      <c r="J53" s="39"/>
+      <c r="K53" s="39"/>
+      <c r="L53" s="38"/>
+      <c r="M53" s="37"/>
+      <c r="N53" s="38"/>
+      <c r="O53" s="37"/>
+      <c r="P53" s="38"/>
+      <c r="Q53" s="37"/>
+      <c r="R53" s="38"/>
+      <c r="S53" s="37"/>
+      <c r="T53" s="39"/>
+      <c r="U53" s="39"/>
+      <c r="V53" s="40"/>
+      <c r="W53" s="40"/>
+      <c r="X53" s="40"/>
+      <c r="Y53" s="37"/>
+      <c r="Z53" s="39"/>
+      <c r="AA53" s="39"/>
+      <c r="AB53" s="39"/>
+      <c r="AC53" s="39"/>
+      <c r="AD53" s="39"/>
+      <c r="AE53" s="39"/>
+      <c r="AF53" s="39"/>
+      <c r="AG53" s="39"/>
+      <c r="AH53" s="39"/>
+      <c r="AI53" s="39"/>
+      <c r="AJ53" s="39"/>
+      <c r="AK53" s="38"/>
     </row>
     <row r="54" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A54" s="56"/>
-      <c r="B54" s="57"/>
-      <c r="C54" s="56"/>
-      <c r="D54" s="58"/>
-      <c r="E54" s="58"/>
-      <c r="F54" s="58"/>
-      <c r="G54" s="58"/>
-      <c r="H54" s="57"/>
-      <c r="I54" s="56"/>
-      <c r="J54" s="58"/>
-      <c r="K54" s="58"/>
-      <c r="L54" s="57"/>
-      <c r="M54" s="56"/>
-      <c r="N54" s="57"/>
-      <c r="O54" s="56"/>
-      <c r="P54" s="57"/>
-      <c r="Q54" s="59"/>
-      <c r="R54" s="59"/>
-      <c r="S54" s="56"/>
-      <c r="T54" s="58"/>
-      <c r="U54" s="58"/>
-      <c r="V54" s="59"/>
-      <c r="W54" s="59"/>
-      <c r="X54" s="59"/>
-      <c r="Y54" s="56"/>
-      <c r="Z54" s="58"/>
-      <c r="AA54" s="58"/>
-      <c r="AB54" s="58"/>
-      <c r="AC54" s="58"/>
-      <c r="AD54" s="58"/>
-      <c r="AE54" s="58"/>
-      <c r="AF54" s="58"/>
-      <c r="AG54" s="58"/>
-      <c r="AH54" s="58"/>
-      <c r="AI54" s="58"/>
-      <c r="AJ54" s="58"/>
-      <c r="AK54" s="57"/>
+      <c r="A54" s="37"/>
+      <c r="B54" s="38"/>
+      <c r="C54" s="37"/>
+      <c r="D54" s="39"/>
+      <c r="E54" s="39"/>
+      <c r="F54" s="39"/>
+      <c r="G54" s="39"/>
+      <c r="H54" s="38"/>
+      <c r="I54" s="37"/>
+      <c r="J54" s="39"/>
+      <c r="K54" s="39"/>
+      <c r="L54" s="38"/>
+      <c r="M54" s="37"/>
+      <c r="N54" s="38"/>
+      <c r="O54" s="37"/>
+      <c r="P54" s="38"/>
+      <c r="Q54" s="40"/>
+      <c r="R54" s="40"/>
+      <c r="S54" s="37"/>
+      <c r="T54" s="39"/>
+      <c r="U54" s="39"/>
+      <c r="V54" s="40"/>
+      <c r="W54" s="40"/>
+      <c r="X54" s="40"/>
+      <c r="Y54" s="37"/>
+      <c r="Z54" s="39"/>
+      <c r="AA54" s="39"/>
+      <c r="AB54" s="39"/>
+      <c r="AC54" s="39"/>
+      <c r="AD54" s="39"/>
+      <c r="AE54" s="39"/>
+      <c r="AF54" s="39"/>
+      <c r="AG54" s="39"/>
+      <c r="AH54" s="39"/>
+      <c r="AI54" s="39"/>
+      <c r="AJ54" s="39"/>
+      <c r="AK54" s="38"/>
     </row>
     <row r="55" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A55" s="56"/>
-      <c r="B55" s="57"/>
-      <c r="C55" s="56"/>
-      <c r="D55" s="58"/>
-      <c r="E55" s="58"/>
-      <c r="F55" s="58"/>
-      <c r="G55" s="58"/>
-      <c r="H55" s="57"/>
-      <c r="I55" s="56"/>
-      <c r="J55" s="58"/>
-      <c r="K55" s="58"/>
-      <c r="L55" s="57"/>
-      <c r="M55" s="56"/>
-      <c r="N55" s="57"/>
-      <c r="O55" s="56"/>
-      <c r="P55" s="57"/>
-      <c r="Q55" s="56"/>
-      <c r="R55" s="57"/>
-      <c r="S55" s="56"/>
-      <c r="T55" s="58"/>
-      <c r="U55" s="58"/>
-      <c r="V55" s="59"/>
-      <c r="W55" s="59"/>
-      <c r="X55" s="59"/>
-      <c r="Y55" s="56"/>
-      <c r="Z55" s="58"/>
-      <c r="AA55" s="58"/>
-      <c r="AB55" s="58"/>
-      <c r="AC55" s="58"/>
-      <c r="AD55" s="58"/>
-      <c r="AE55" s="58"/>
-      <c r="AF55" s="58"/>
-      <c r="AG55" s="58"/>
-      <c r="AH55" s="58"/>
-      <c r="AI55" s="58"/>
-      <c r="AJ55" s="58"/>
-      <c r="AK55" s="57"/>
+      <c r="A55" s="37"/>
+      <c r="B55" s="38"/>
+      <c r="C55" s="37"/>
+      <c r="D55" s="39"/>
+      <c r="E55" s="39"/>
+      <c r="F55" s="39"/>
+      <c r="G55" s="39"/>
+      <c r="H55" s="38"/>
+      <c r="I55" s="37"/>
+      <c r="J55" s="39"/>
+      <c r="K55" s="39"/>
+      <c r="L55" s="38"/>
+      <c r="M55" s="37"/>
+      <c r="N55" s="38"/>
+      <c r="O55" s="37"/>
+      <c r="P55" s="38"/>
+      <c r="Q55" s="37"/>
+      <c r="R55" s="38"/>
+      <c r="S55" s="37"/>
+      <c r="T55" s="39"/>
+      <c r="U55" s="39"/>
+      <c r="V55" s="40"/>
+      <c r="W55" s="40"/>
+      <c r="X55" s="40"/>
+      <c r="Y55" s="37"/>
+      <c r="Z55" s="39"/>
+      <c r="AA55" s="39"/>
+      <c r="AB55" s="39"/>
+      <c r="AC55" s="39"/>
+      <c r="AD55" s="39"/>
+      <c r="AE55" s="39"/>
+      <c r="AF55" s="39"/>
+      <c r="AG55" s="39"/>
+      <c r="AH55" s="39"/>
+      <c r="AI55" s="39"/>
+      <c r="AJ55" s="39"/>
+      <c r="AK55" s="38"/>
     </row>
     <row r="56" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A56" s="56"/>
-      <c r="B56" s="57"/>
-      <c r="C56" s="56"/>
-      <c r="D56" s="58"/>
-      <c r="E56" s="58"/>
-      <c r="F56" s="58"/>
-      <c r="G56" s="58"/>
-      <c r="H56" s="57"/>
-      <c r="I56" s="56"/>
-      <c r="J56" s="58"/>
-      <c r="K56" s="58"/>
-      <c r="L56" s="57"/>
-      <c r="M56" s="56"/>
-      <c r="N56" s="57"/>
-      <c r="O56" s="56"/>
-      <c r="P56" s="57"/>
-      <c r="Q56" s="56"/>
-      <c r="R56" s="57"/>
-      <c r="S56" s="56"/>
-      <c r="T56" s="58"/>
-      <c r="U56" s="58"/>
-      <c r="V56" s="59"/>
-      <c r="W56" s="59"/>
-      <c r="X56" s="59"/>
-      <c r="Y56" s="56"/>
-      <c r="Z56" s="58"/>
-      <c r="AA56" s="58"/>
-      <c r="AB56" s="58"/>
-      <c r="AC56" s="58"/>
-      <c r="AD56" s="58"/>
-      <c r="AE56" s="58"/>
-      <c r="AF56" s="58"/>
-      <c r="AG56" s="58"/>
-      <c r="AH56" s="58"/>
-      <c r="AI56" s="58"/>
-      <c r="AJ56" s="58"/>
-      <c r="AK56" s="57"/>
+      <c r="A56" s="37"/>
+      <c r="B56" s="38"/>
+      <c r="C56" s="37"/>
+      <c r="D56" s="39"/>
+      <c r="E56" s="39"/>
+      <c r="F56" s="39"/>
+      <c r="G56" s="39"/>
+      <c r="H56" s="38"/>
+      <c r="I56" s="37"/>
+      <c r="J56" s="39"/>
+      <c r="K56" s="39"/>
+      <c r="L56" s="38"/>
+      <c r="M56" s="37"/>
+      <c r="N56" s="38"/>
+      <c r="O56" s="37"/>
+      <c r="P56" s="38"/>
+      <c r="Q56" s="37"/>
+      <c r="R56" s="38"/>
+      <c r="S56" s="37"/>
+      <c r="T56" s="39"/>
+      <c r="U56" s="39"/>
+      <c r="V56" s="40"/>
+      <c r="W56" s="40"/>
+      <c r="X56" s="40"/>
+      <c r="Y56" s="37"/>
+      <c r="Z56" s="39"/>
+      <c r="AA56" s="39"/>
+      <c r="AB56" s="39"/>
+      <c r="AC56" s="39"/>
+      <c r="AD56" s="39"/>
+      <c r="AE56" s="39"/>
+      <c r="AF56" s="39"/>
+      <c r="AG56" s="39"/>
+      <c r="AH56" s="39"/>
+      <c r="AI56" s="39"/>
+      <c r="AJ56" s="39"/>
+      <c r="AK56" s="38"/>
     </row>
     <row r="59" spans="1:43" ht="12.75" customHeight="1">
       <c r="B59" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="153">
-    <mergeCell ref="Y46:AK46"/>
-    <mergeCell ref="Y51:AK51"/>
-    <mergeCell ref="Y50:AK50"/>
-    <mergeCell ref="Y49:AK49"/>
-    <mergeCell ref="Y48:AK48"/>
-    <mergeCell ref="Y47:AK47"/>
-    <mergeCell ref="Y41:AK42"/>
-    <mergeCell ref="Y45:AK45"/>
-    <mergeCell ref="Y44:AK44"/>
-    <mergeCell ref="S46:U46"/>
-    <mergeCell ref="V46:X46"/>
-    <mergeCell ref="O47:P47"/>
-    <mergeCell ref="S47:U47"/>
-    <mergeCell ref="V47:X47"/>
-    <mergeCell ref="O41:P42"/>
-    <mergeCell ref="S41:U42"/>
-    <mergeCell ref="V41:X42"/>
-    <mergeCell ref="O43:P43"/>
-    <mergeCell ref="S43:U43"/>
-    <mergeCell ref="V43:X43"/>
-    <mergeCell ref="S45:U45"/>
-    <mergeCell ref="V45:X45"/>
-    <mergeCell ref="S44:U44"/>
-    <mergeCell ref="V44:X44"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="C56:H56"/>
-    <mergeCell ref="I56:L56"/>
-    <mergeCell ref="M56:N56"/>
-    <mergeCell ref="Q56:R56"/>
-    <mergeCell ref="O56:P56"/>
-    <mergeCell ref="S56:U56"/>
-    <mergeCell ref="V56:X56"/>
-    <mergeCell ref="Y56:AK56"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="C55:H55"/>
-    <mergeCell ref="I55:L55"/>
-    <mergeCell ref="M55:N55"/>
-    <mergeCell ref="Q55:R55"/>
-    <mergeCell ref="O55:P55"/>
-    <mergeCell ref="S55:U55"/>
-    <mergeCell ref="V55:X55"/>
-    <mergeCell ref="Y55:AK55"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="C54:H54"/>
-    <mergeCell ref="I54:L54"/>
-    <mergeCell ref="M54:N54"/>
-    <mergeCell ref="Q54:R54"/>
-    <mergeCell ref="O54:P54"/>
-    <mergeCell ref="S54:U54"/>
-    <mergeCell ref="V54:X54"/>
-    <mergeCell ref="Y54:AK54"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="C53:H53"/>
-    <mergeCell ref="I53:L53"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="Q53:R53"/>
-    <mergeCell ref="O53:P53"/>
-    <mergeCell ref="S53:U53"/>
-    <mergeCell ref="V53:X53"/>
-    <mergeCell ref="Y53:AK53"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="C52:H52"/>
-    <mergeCell ref="I52:L52"/>
-    <mergeCell ref="M52:N52"/>
-    <mergeCell ref="Q52:R52"/>
-    <mergeCell ref="O52:P52"/>
-    <mergeCell ref="S52:U52"/>
-    <mergeCell ref="V52:X52"/>
-    <mergeCell ref="Y52:AK52"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="C51:H51"/>
-    <mergeCell ref="I51:L51"/>
-    <mergeCell ref="M51:N51"/>
-    <mergeCell ref="Q51:R51"/>
-    <mergeCell ref="O51:P51"/>
-    <mergeCell ref="S51:U51"/>
-    <mergeCell ref="V51:X51"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="C50:H50"/>
-    <mergeCell ref="I50:L50"/>
-    <mergeCell ref="M50:N50"/>
-    <mergeCell ref="Q50:R50"/>
-    <mergeCell ref="O50:P50"/>
-    <mergeCell ref="S50:U50"/>
-    <mergeCell ref="V50:X50"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="C49:H49"/>
-    <mergeCell ref="I49:L49"/>
-    <mergeCell ref="M49:N49"/>
-    <mergeCell ref="Q49:R49"/>
-    <mergeCell ref="O49:P49"/>
-    <mergeCell ref="S49:U49"/>
-    <mergeCell ref="V49:X49"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="C48:H48"/>
-    <mergeCell ref="I48:L48"/>
-    <mergeCell ref="M48:N48"/>
-    <mergeCell ref="Q48:R48"/>
-    <mergeCell ref="O48:P48"/>
-    <mergeCell ref="S48:U48"/>
-    <mergeCell ref="V48:X48"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="C47:H47"/>
-    <mergeCell ref="I47:L47"/>
-    <mergeCell ref="M47:N47"/>
-    <mergeCell ref="Q47:R47"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="C46:H46"/>
-    <mergeCell ref="I46:L46"/>
-    <mergeCell ref="M46:N46"/>
-    <mergeCell ref="O46:P46"/>
-    <mergeCell ref="Q46:R46"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="C45:H45"/>
-    <mergeCell ref="I45:L45"/>
-    <mergeCell ref="M45:N45"/>
-    <mergeCell ref="O45:P45"/>
-    <mergeCell ref="Q45:R45"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="C44:H44"/>
-    <mergeCell ref="I44:L44"/>
-    <mergeCell ref="M44:N44"/>
-    <mergeCell ref="Q44:R44"/>
-    <mergeCell ref="O44:P44"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="C43:H43"/>
-    <mergeCell ref="I43:L43"/>
-    <mergeCell ref="M43:N43"/>
-    <mergeCell ref="Q43:R43"/>
-    <mergeCell ref="AF4:AH5"/>
-    <mergeCell ref="AI4:AK5"/>
-    <mergeCell ref="O37:P37"/>
-    <mergeCell ref="A41:B42"/>
-    <mergeCell ref="C41:H42"/>
-    <mergeCell ref="I41:L42"/>
-    <mergeCell ref="M41:N42"/>
-    <mergeCell ref="Q41:R42"/>
-    <mergeCell ref="A4:H5"/>
-    <mergeCell ref="I4:O5"/>
-    <mergeCell ref="P4:R5"/>
-    <mergeCell ref="S4:Y5"/>
-    <mergeCell ref="Z4:AB5"/>
-    <mergeCell ref="AC4:AE5"/>
-    <mergeCell ref="Y43:AK43"/>
     <mergeCell ref="A1:AK1"/>
     <mergeCell ref="A3:H3"/>
     <mergeCell ref="I3:O3"/>
@@ -8180,2494 +11143,114 @@
     <mergeCell ref="AC3:AE3"/>
     <mergeCell ref="AF3:AH3"/>
     <mergeCell ref="AI3:AK3"/>
-  </mergeCells>
-  <phoneticPr fontId="2"/>
-  <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.19685039370078741" header="0.51181102362204722" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
-  <headerFooter alignWithMargins="0"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81980269-4B89-CA4B-B703-7E6B1AF9D3E8}">
-  <dimension ref="A1:AQ59"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="131" zoomScaleNormal="135" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="W35" sqref="W35"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
-  <cols>
-    <col min="1" max="4" width="4.1640625" style="1" customWidth="1"/>
-    <col min="5" max="6" width="4.1640625" style="18" customWidth="1"/>
-    <col min="7" max="33" width="4.1640625" style="1" customWidth="1"/>
-    <col min="34" max="37" width="4.1640625" style="19" customWidth="1"/>
-    <col min="38" max="41" width="4" style="1" customWidth="1"/>
-    <col min="42" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:37" ht="12.75" customHeight="1">
-      <c r="A1" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
-      <c r="N1" s="28"/>
-      <c r="O1" s="28"/>
-      <c r="P1" s="28"/>
-      <c r="Q1" s="28"/>
-      <c r="R1" s="28"/>
-      <c r="S1" s="28"/>
-      <c r="T1" s="28"/>
-      <c r="U1" s="28"/>
-      <c r="V1" s="28"/>
-      <c r="W1" s="28"/>
-      <c r="X1" s="28"/>
-      <c r="Y1" s="28"/>
-      <c r="Z1" s="28"/>
-      <c r="AA1" s="28"/>
-      <c r="AB1" s="28"/>
-      <c r="AC1" s="28"/>
-      <c r="AD1" s="28"/>
-      <c r="AE1" s="28"/>
-      <c r="AF1" s="28"/>
-      <c r="AG1" s="28"/>
-      <c r="AH1" s="28"/>
-      <c r="AI1" s="28"/>
-      <c r="AJ1" s="28"/>
-      <c r="AK1" s="28"/>
-    </row>
-    <row r="2" spans="1:37" ht="6" customHeight="1">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
-      <c r="U2" s="2"/>
-      <c r="V2" s="2"/>
-      <c r="W2" s="2"/>
-      <c r="X2" s="2"/>
-      <c r="Y2" s="2"/>
-      <c r="Z2" s="2"/>
-      <c r="AA2" s="2"/>
-      <c r="AB2" s="2"/>
-      <c r="AC2" s="2"/>
-      <c r="AD2" s="2"/>
-      <c r="AE2" s="2"/>
-      <c r="AF2" s="2"/>
-      <c r="AG2" s="2"/>
-      <c r="AH2" s="2"/>
-      <c r="AI2" s="2"/>
-      <c r="AJ2" s="2"/>
-      <c r="AK2" s="2"/>
-    </row>
-    <row r="3" spans="1:37" ht="14">
-      <c r="A3" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="29" t="s">
-        <v>2</v>
-      </c>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30"/>
-      <c r="M3" s="30"/>
-      <c r="N3" s="30"/>
-      <c r="O3" s="31"/>
-      <c r="P3" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q3" s="30"/>
-      <c r="R3" s="31"/>
-      <c r="S3" s="29" t="s">
-        <v>4</v>
-      </c>
-      <c r="T3" s="30"/>
-      <c r="U3" s="30"/>
-      <c r="V3" s="30"/>
-      <c r="W3" s="30"/>
-      <c r="X3" s="30"/>
-      <c r="Y3" s="31"/>
-      <c r="Z3" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA3" s="30"/>
-      <c r="AB3" s="31"/>
-      <c r="AC3" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD3" s="30"/>
-      <c r="AE3" s="31"/>
-      <c r="AF3" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="AG3" s="30"/>
-      <c r="AH3" s="31"/>
-      <c r="AI3" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="AJ3" s="30"/>
-      <c r="AK3" s="31"/>
-    </row>
-    <row r="4" spans="1:37" ht="12" customHeight="1">
-      <c r="A4" s="43" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="43"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="43"/>
-      <c r="I4" s="44" t="s">
-        <v>46</v>
-      </c>
-      <c r="J4" s="44"/>
-      <c r="K4" s="44"/>
-      <c r="L4" s="44"/>
-      <c r="M4" s="44"/>
-      <c r="N4" s="44"/>
-      <c r="O4" s="45"/>
-      <c r="P4" s="48" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q4" s="44"/>
-      <c r="R4" s="45"/>
-      <c r="S4" s="50" t="s">
-        <v>46</v>
-      </c>
-      <c r="T4" s="51"/>
-      <c r="U4" s="51"/>
-      <c r="V4" s="51"/>
-      <c r="W4" s="51"/>
-      <c r="X4" s="51"/>
-      <c r="Y4" s="52"/>
-      <c r="Z4" s="48" t="s">
-        <v>34</v>
-      </c>
-      <c r="AA4" s="44"/>
-      <c r="AB4" s="45"/>
-      <c r="AC4" s="48" t="s">
-        <v>35</v>
-      </c>
-      <c r="AD4" s="44"/>
-      <c r="AE4" s="45"/>
-      <c r="AF4" s="36" t="s">
-        <v>17</v>
-      </c>
-      <c r="AG4" s="37"/>
-      <c r="AH4" s="38"/>
-      <c r="AI4" s="36" t="s">
-        <v>17</v>
-      </c>
-      <c r="AJ4" s="37"/>
-      <c r="AK4" s="38"/>
-    </row>
-    <row r="5" spans="1:37" ht="14">
-      <c r="A5" s="43"/>
-      <c r="B5" s="43"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="43"/>
-      <c r="H5" s="43"/>
-      <c r="I5" s="46"/>
-      <c r="J5" s="46"/>
-      <c r="K5" s="46"/>
-      <c r="L5" s="46"/>
-      <c r="M5" s="46"/>
-      <c r="N5" s="46"/>
-      <c r="O5" s="47"/>
-      <c r="P5" s="49"/>
-      <c r="Q5" s="46"/>
-      <c r="R5" s="47"/>
-      <c r="S5" s="53"/>
-      <c r="T5" s="54"/>
-      <c r="U5" s="54"/>
-      <c r="V5" s="54"/>
-      <c r="W5" s="54"/>
-      <c r="X5" s="54"/>
-      <c r="Y5" s="55"/>
-      <c r="Z5" s="49"/>
-      <c r="AA5" s="46"/>
-      <c r="AB5" s="47"/>
-      <c r="AC5" s="49"/>
-      <c r="AD5" s="46"/>
-      <c r="AE5" s="47"/>
-      <c r="AF5" s="39"/>
-      <c r="AG5" s="40"/>
-      <c r="AH5" s="41"/>
-      <c r="AI5" s="39"/>
-      <c r="AJ5" s="40"/>
-      <c r="AK5" s="41"/>
-    </row>
-    <row r="6" spans="1:37" ht="14">
-      <c r="A6" s="3"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="25"/>
-      <c r="J6" s="25"/>
-      <c r="K6" s="25"/>
-      <c r="L6" s="25"/>
-      <c r="M6" s="25"/>
-      <c r="N6" s="25"/>
-      <c r="O6" s="25"/>
-      <c r="P6" s="25"/>
-      <c r="Q6" s="25"/>
-      <c r="R6" s="26"/>
-      <c r="S6" s="27"/>
-      <c r="T6" s="27"/>
-      <c r="U6" s="27"/>
-      <c r="V6" s="27"/>
-      <c r="W6" s="27"/>
-      <c r="X6" s="27"/>
-      <c r="Y6" s="27"/>
-      <c r="Z6" s="5"/>
-      <c r="AA6" s="5"/>
-      <c r="AB6" s="5"/>
-      <c r="AC6" s="5"/>
-      <c r="AD6" s="5"/>
-      <c r="AE6" s="5"/>
-      <c r="AF6" s="6"/>
-      <c r="AG6" s="6"/>
-      <c r="AH6" s="6"/>
-      <c r="AI6" s="6"/>
-      <c r="AJ6" s="6"/>
-      <c r="AK6" s="23"/>
-    </row>
-    <row r="7" spans="1:37" ht="12.75" customHeight="1">
-      <c r="A7" s="7"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
-      <c r="N7" s="9"/>
-      <c r="O7" s="9"/>
-      <c r="P7" s="9"/>
-      <c r="Q7" s="9"/>
-      <c r="R7" s="10"/>
-      <c r="S7" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="T7" s="9"/>
-      <c r="U7" s="9"/>
-      <c r="V7" s="9"/>
-      <c r="W7" s="9"/>
-      <c r="X7" s="9"/>
-      <c r="Y7" s="9"/>
-      <c r="Z7" s="9"/>
-      <c r="AA7" s="9"/>
-      <c r="AB7" s="9"/>
-      <c r="AC7" s="9"/>
-      <c r="AD7" s="9"/>
-      <c r="AE7" s="9"/>
-      <c r="AF7" s="9"/>
-      <c r="AG7" s="9"/>
-      <c r="AH7" s="9"/>
-      <c r="AI7" s="9"/>
-      <c r="AJ7" s="9"/>
-      <c r="AK7" s="10"/>
-    </row>
-    <row r="8" spans="1:37" ht="12.75" customHeight="1">
-      <c r="A8" s="7"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="9"/>
-      <c r="N8" s="9"/>
-      <c r="O8" s="9"/>
-      <c r="P8" s="9"/>
-      <c r="Q8" s="9"/>
-      <c r="R8" s="10"/>
-      <c r="S8" s="9"/>
-      <c r="T8" s="9"/>
-      <c r="U8" s="9"/>
-      <c r="V8" s="9"/>
-      <c r="W8" s="9"/>
-      <c r="X8" s="9"/>
-      <c r="Y8" s="9"/>
-      <c r="Z8" s="9"/>
-      <c r="AA8" s="9"/>
-      <c r="AB8" s="9"/>
-      <c r="AC8" s="9"/>
-      <c r="AD8" s="9"/>
-      <c r="AE8" s="9"/>
-      <c r="AF8" s="9"/>
-      <c r="AG8" s="9"/>
-      <c r="AH8" s="9"/>
-      <c r="AI8" s="9"/>
-      <c r="AJ8" s="9"/>
-      <c r="AK8" s="10"/>
-    </row>
-    <row r="9" spans="1:37" ht="12.75" customHeight="1">
-      <c r="A9" s="7"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
-      <c r="N9" s="9"/>
-      <c r="O9" s="9"/>
-      <c r="P9" s="9"/>
-      <c r="Q9" s="9"/>
-      <c r="R9" s="10"/>
-      <c r="S9" s="9"/>
-      <c r="T9" s="9">
-        <v>1</v>
-      </c>
-      <c r="U9" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="V9" s="9"/>
-      <c r="W9" s="9"/>
-      <c r="X9" s="9"/>
-      <c r="Y9" s="9"/>
-      <c r="Z9" s="9"/>
-      <c r="AA9" s="9"/>
-      <c r="AB9" s="9"/>
-      <c r="AC9" s="9"/>
-      <c r="AD9" s="9"/>
-      <c r="AE9" s="9"/>
-      <c r="AF9" s="9"/>
-      <c r="AG9" s="9"/>
-      <c r="AH9" s="9"/>
-      <c r="AI9" s="9"/>
-      <c r="AJ9" s="9"/>
-      <c r="AK9" s="10"/>
-    </row>
-    <row r="10" spans="1:37" ht="12.75" customHeight="1">
-      <c r="A10" s="7"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="9"/>
-      <c r="P10" s="9"/>
-      <c r="Q10" s="9"/>
-      <c r="R10" s="10"/>
-      <c r="S10" s="9"/>
-      <c r="T10" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="U10" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="V10" s="9"/>
-      <c r="W10" s="9"/>
-      <c r="X10" s="9"/>
-      <c r="Y10" s="9"/>
-      <c r="Z10" s="9"/>
-      <c r="AA10" s="9"/>
-      <c r="AB10" s="9"/>
-      <c r="AC10" s="9"/>
-      <c r="AD10" s="9"/>
-      <c r="AE10" s="9"/>
-      <c r="AF10" s="9"/>
-      <c r="AG10" s="9"/>
-      <c r="AH10" s="9"/>
-      <c r="AI10" s="9"/>
-      <c r="AJ10" s="9"/>
-      <c r="AK10" s="10"/>
-    </row>
-    <row r="11" spans="1:37" ht="12.75" customHeight="1">
-      <c r="A11" s="7"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="9"/>
-      <c r="N11" s="9"/>
-      <c r="O11" s="9"/>
-      <c r="P11" s="9"/>
-      <c r="Q11" s="9"/>
-      <c r="R11" s="10"/>
-      <c r="S11" s="9"/>
-      <c r="T11" s="9"/>
-      <c r="U11" s="9"/>
-      <c r="V11" s="9"/>
-      <c r="W11" s="9"/>
-      <c r="X11" s="9"/>
-      <c r="Y11" s="9"/>
-      <c r="Z11" s="9"/>
-      <c r="AA11" s="9"/>
-      <c r="AB11" s="9"/>
-      <c r="AC11" s="9"/>
-      <c r="AD11" s="9"/>
-      <c r="AE11" s="9"/>
-      <c r="AF11" s="9"/>
-      <c r="AG11" s="9"/>
-      <c r="AH11" s="9"/>
-      <c r="AI11" s="9"/>
-      <c r="AJ11" s="9"/>
-      <c r="AK11" s="10"/>
-    </row>
-    <row r="12" spans="1:37" ht="12.75" customHeight="1">
-      <c r="A12" s="7"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="9"/>
-      <c r="N12" s="9"/>
-      <c r="O12" s="9"/>
-      <c r="P12" s="9"/>
-      <c r="Q12" s="9"/>
-      <c r="R12" s="10"/>
-      <c r="S12" s="9"/>
-      <c r="T12" s="9">
-        <v>2</v>
-      </c>
-      <c r="U12" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="V12" s="9"/>
-      <c r="W12" s="9"/>
-      <c r="X12" s="9"/>
-      <c r="Y12" s="9"/>
-      <c r="Z12" s="9"/>
-      <c r="AA12" s="9"/>
-      <c r="AB12" s="9"/>
-      <c r="AC12" s="9"/>
-      <c r="AD12" s="9"/>
-      <c r="AE12" s="9"/>
-      <c r="AF12" s="9"/>
-      <c r="AG12" s="9"/>
-      <c r="AH12" s="9"/>
-      <c r="AI12" s="9"/>
-      <c r="AJ12" s="9"/>
-      <c r="AK12" s="10"/>
-    </row>
-    <row r="13" spans="1:37" ht="12.75" customHeight="1">
-      <c r="A13" s="7"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="9"/>
-      <c r="N13" s="9"/>
-      <c r="O13" s="9"/>
-      <c r="P13" s="9"/>
-      <c r="Q13" s="9"/>
-      <c r="R13" s="10"/>
-      <c r="S13" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="T13" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="U13" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="V13" s="9"/>
-      <c r="W13" s="9"/>
-      <c r="X13" s="9"/>
-      <c r="Y13" s="9"/>
-      <c r="Z13" s="9"/>
-      <c r="AA13" s="9"/>
-      <c r="AB13" s="9"/>
-      <c r="AC13" s="9"/>
-      <c r="AD13" s="9"/>
-      <c r="AE13" s="9"/>
-      <c r="AF13" s="9"/>
-      <c r="AG13" s="9"/>
-      <c r="AH13" s="9"/>
-      <c r="AI13" s="9"/>
-      <c r="AJ13" s="9"/>
-      <c r="AK13" s="10"/>
-    </row>
-    <row r="14" spans="1:37" ht="12.75" customHeight="1">
-      <c r="A14" s="7"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="9"/>
-      <c r="O14" s="9"/>
-      <c r="P14" s="9"/>
-      <c r="Q14" s="9"/>
-      <c r="R14" s="10"/>
-      <c r="S14" s="9"/>
-      <c r="T14" s="9"/>
-      <c r="U14" s="9"/>
-      <c r="V14" s="9"/>
-      <c r="W14" s="9"/>
-      <c r="X14" s="9"/>
-      <c r="Y14" s="9"/>
-      <c r="Z14" s="9"/>
-      <c r="AA14" s="9"/>
-      <c r="AB14" s="9"/>
-      <c r="AC14" s="9"/>
-      <c r="AD14" s="9"/>
-      <c r="AE14" s="9"/>
-      <c r="AF14" s="9"/>
-      <c r="AG14" s="9"/>
-      <c r="AH14" s="9"/>
-      <c r="AI14" s="9"/>
-      <c r="AJ14" s="9"/>
-      <c r="AK14" s="10"/>
-    </row>
-    <row r="15" spans="1:37" ht="12.75" customHeight="1">
-      <c r="A15" s="7"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="9"/>
-      <c r="N15" s="9"/>
-      <c r="O15" s="9"/>
-      <c r="P15" s="9"/>
-      <c r="Q15" s="9"/>
-      <c r="R15" s="10"/>
-      <c r="S15" s="9"/>
-      <c r="V15" s="9"/>
-      <c r="W15" s="9"/>
-      <c r="X15" s="9"/>
-      <c r="Y15" s="9"/>
-      <c r="Z15" s="9"/>
-      <c r="AA15" s="9"/>
-      <c r="AB15" s="9"/>
-      <c r="AC15" s="9"/>
-      <c r="AD15" s="9"/>
-      <c r="AE15" s="9"/>
-      <c r="AF15" s="9"/>
-      <c r="AG15" s="9"/>
-      <c r="AH15" s="9"/>
-      <c r="AI15" s="9"/>
-      <c r="AJ15" s="9"/>
-      <c r="AK15" s="10"/>
-    </row>
-    <row r="16" spans="1:37" ht="12.75" customHeight="1">
-      <c r="A16" s="7"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="9"/>
-      <c r="N16" s="9"/>
-      <c r="O16" s="9"/>
-      <c r="P16" s="9"/>
-      <c r="Q16" s="9"/>
-      <c r="R16" s="10"/>
-      <c r="S16" s="9"/>
-      <c r="V16" s="9"/>
-      <c r="W16" s="9"/>
-      <c r="X16" s="9"/>
-      <c r="Y16" s="9"/>
-      <c r="Z16" s="9"/>
-      <c r="AA16" s="9"/>
-      <c r="AB16" s="9"/>
-      <c r="AC16" s="9"/>
-      <c r="AD16" s="9"/>
-      <c r="AE16" s="9"/>
-      <c r="AF16" s="9"/>
-      <c r="AG16" s="9"/>
-      <c r="AH16" s="9"/>
-      <c r="AI16" s="9"/>
-      <c r="AJ16" s="9"/>
-      <c r="AK16" s="10"/>
-    </row>
-    <row r="17" spans="1:37" ht="12.75" customHeight="1">
-      <c r="A17" s="7"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="9"/>
-      <c r="M17" s="9"/>
-      <c r="N17" s="9"/>
-      <c r="O17" s="9"/>
-      <c r="P17" s="9"/>
-      <c r="Q17" s="9"/>
-      <c r="R17" s="10"/>
-      <c r="S17" s="9"/>
-      <c r="T17" s="9"/>
-      <c r="U17" s="9"/>
-      <c r="V17" s="9"/>
-      <c r="W17" s="9"/>
-      <c r="X17" s="9"/>
-      <c r="Y17" s="9"/>
-      <c r="Z17" s="9"/>
-      <c r="AA17" s="9"/>
-      <c r="AB17" s="9"/>
-      <c r="AC17" s="9"/>
-      <c r="AD17" s="9"/>
-      <c r="AE17" s="9"/>
-      <c r="AF17" s="9"/>
-      <c r="AG17" s="9"/>
-      <c r="AH17" s="9"/>
-      <c r="AI17" s="9"/>
-      <c r="AJ17" s="9"/>
-      <c r="AK17" s="10"/>
-    </row>
-    <row r="18" spans="1:37" ht="12.75" customHeight="1">
-      <c r="A18" s="7"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="9"/>
-      <c r="M18" s="9"/>
-      <c r="N18" s="12"/>
-      <c r="O18" s="9"/>
-      <c r="P18" s="9"/>
-      <c r="Q18" s="9"/>
-      <c r="R18" s="10"/>
-      <c r="S18" s="9"/>
-      <c r="T18" s="9"/>
-      <c r="U18" s="9"/>
-      <c r="V18" s="9"/>
-      <c r="W18" s="9"/>
-      <c r="X18" s="9"/>
-      <c r="Y18" s="9"/>
-      <c r="Z18" s="9"/>
-      <c r="AA18" s="9"/>
-      <c r="AB18" s="9"/>
-      <c r="AC18" s="9"/>
-      <c r="AD18" s="9"/>
-      <c r="AE18" s="9"/>
-      <c r="AF18" s="9"/>
-      <c r="AG18" s="9"/>
-      <c r="AH18" s="9"/>
-      <c r="AI18" s="9"/>
-      <c r="AJ18" s="9"/>
-      <c r="AK18" s="10"/>
-    </row>
-    <row r="19" spans="1:37" ht="12.75" customHeight="1">
-      <c r="A19" s="7"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="9"/>
-      <c r="M19" s="9"/>
-      <c r="N19" s="12"/>
-      <c r="O19" s="9"/>
-      <c r="P19" s="9"/>
-      <c r="Q19" s="9"/>
-      <c r="R19" s="10"/>
-      <c r="S19" s="9"/>
-      <c r="T19" s="9"/>
-      <c r="U19" s="9"/>
-      <c r="V19" s="9"/>
-      <c r="W19" s="9"/>
-      <c r="X19" s="9"/>
-      <c r="Y19" s="9"/>
-      <c r="Z19" s="9"/>
-      <c r="AA19" s="9"/>
-      <c r="AB19" s="9"/>
-      <c r="AC19" s="9"/>
-      <c r="AD19" s="9"/>
-      <c r="AE19" s="9"/>
-      <c r="AF19" s="9"/>
-      <c r="AG19" s="9"/>
-      <c r="AH19" s="9"/>
-      <c r="AI19" s="9"/>
-      <c r="AJ19" s="9"/>
-      <c r="AK19" s="10"/>
-    </row>
-    <row r="20" spans="1:37" ht="12.75" customHeight="1">
-      <c r="A20" s="7"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="9"/>
-      <c r="M20" s="9"/>
-      <c r="N20" s="13"/>
-      <c r="O20" s="9"/>
-      <c r="P20" s="9"/>
-      <c r="Q20" s="9"/>
-      <c r="R20" s="10"/>
-      <c r="S20" s="9"/>
-      <c r="T20" s="9"/>
-      <c r="U20" s="9"/>
-      <c r="V20" s="9"/>
-      <c r="W20" s="9"/>
-      <c r="X20" s="9"/>
-      <c r="Y20" s="9"/>
-      <c r="Z20" s="9"/>
-      <c r="AA20" s="9"/>
-      <c r="AB20" s="9"/>
-      <c r="AC20" s="9"/>
-      <c r="AD20" s="9"/>
-      <c r="AE20" s="9"/>
-      <c r="AF20" s="9"/>
-      <c r="AG20" s="9"/>
-      <c r="AH20" s="9"/>
-      <c r="AI20" s="9"/>
-      <c r="AJ20" s="9"/>
-      <c r="AK20" s="10"/>
-    </row>
-    <row r="21" spans="1:37" ht="12.75" customHeight="1">
-      <c r="A21" s="7"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
-      <c r="L21" s="9"/>
-      <c r="M21" s="9"/>
-      <c r="N21" s="12"/>
-      <c r="O21" s="9"/>
-      <c r="P21" s="9"/>
-      <c r="Q21" s="9"/>
-      <c r="R21" s="10"/>
-      <c r="S21" s="9"/>
-      <c r="T21" s="9"/>
-      <c r="V21" s="9"/>
-      <c r="W21" s="9"/>
-      <c r="X21" s="9"/>
-      <c r="Y21" s="9"/>
-      <c r="Z21" s="9"/>
-      <c r="AA21" s="9"/>
-      <c r="AB21" s="9"/>
-      <c r="AC21" s="9"/>
-      <c r="AD21" s="9"/>
-      <c r="AE21" s="9"/>
-      <c r="AF21" s="9"/>
-      <c r="AG21" s="9"/>
-      <c r="AH21" s="9"/>
-      <c r="AI21" s="9"/>
-      <c r="AJ21" s="9"/>
-      <c r="AK21" s="10"/>
-    </row>
-    <row r="22" spans="1:37" ht="12.75" customHeight="1">
-      <c r="A22" s="7"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9"/>
-      <c r="L22" s="9"/>
-      <c r="M22" s="9"/>
-      <c r="N22" s="9"/>
-      <c r="O22" s="9"/>
-      <c r="P22" s="9"/>
-      <c r="Q22" s="9"/>
-      <c r="R22" s="10"/>
-      <c r="S22" s="9"/>
-      <c r="T22" s="9"/>
-      <c r="U22" s="9"/>
-      <c r="V22" s="9"/>
-      <c r="W22" s="9"/>
-      <c r="X22" s="9"/>
-      <c r="Y22" s="9"/>
-      <c r="Z22" s="9"/>
-      <c r="AA22" s="9"/>
-      <c r="AB22" s="9"/>
-      <c r="AC22" s="9"/>
-      <c r="AD22" s="9"/>
-      <c r="AE22" s="9"/>
-      <c r="AF22" s="9"/>
-      <c r="AG22" s="9"/>
-      <c r="AH22" s="9"/>
-      <c r="AI22" s="9"/>
-      <c r="AJ22" s="9"/>
-      <c r="AK22" s="10"/>
-    </row>
-    <row r="23" spans="1:37" ht="12.75" customHeight="1">
-      <c r="A23" s="7"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="9"/>
-      <c r="L23" s="9"/>
-      <c r="M23" s="9"/>
-      <c r="N23" s="9"/>
-      <c r="O23" s="9"/>
-      <c r="P23" s="9"/>
-      <c r="Q23" s="9"/>
-      <c r="R23" s="10"/>
-      <c r="S23" s="9"/>
-      <c r="T23" s="9"/>
-      <c r="U23" s="9"/>
-      <c r="V23" s="9"/>
-      <c r="W23" s="9"/>
-      <c r="X23" s="9"/>
-      <c r="Y23" s="9"/>
-      <c r="Z23" s="9"/>
-      <c r="AA23" s="9"/>
-      <c r="AB23" s="9"/>
-      <c r="AC23" s="9"/>
-      <c r="AD23" s="9"/>
-      <c r="AE23" s="9"/>
-      <c r="AF23" s="9"/>
-      <c r="AG23" s="9"/>
-      <c r="AH23" s="9"/>
-      <c r="AI23" s="9"/>
-      <c r="AJ23" s="9"/>
-      <c r="AK23" s="10"/>
-    </row>
-    <row r="24" spans="1:37" ht="12.75" customHeight="1">
-      <c r="A24" s="7"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="9"/>
-      <c r="L24" s="9"/>
-      <c r="M24" s="9"/>
-      <c r="N24" s="9"/>
-      <c r="O24" s="9"/>
-      <c r="P24" s="9"/>
-      <c r="Q24" s="9"/>
-      <c r="R24" s="10"/>
-      <c r="S24" s="9"/>
-      <c r="T24" s="9"/>
-      <c r="U24" s="9"/>
-      <c r="V24" s="9"/>
-      <c r="W24" s="9"/>
-      <c r="X24" s="9"/>
-      <c r="Y24" s="9"/>
-      <c r="Z24" s="9"/>
-      <c r="AA24" s="9"/>
-      <c r="AB24" s="9"/>
-      <c r="AC24" s="9"/>
-      <c r="AD24" s="9"/>
-      <c r="AE24" s="9"/>
-      <c r="AF24" s="9"/>
-      <c r="AG24" s="9"/>
-      <c r="AH24" s="9"/>
-      <c r="AI24" s="9"/>
-      <c r="AJ24" s="9"/>
-      <c r="AK24" s="10"/>
-    </row>
-    <row r="25" spans="1:37" ht="12.75" customHeight="1">
-      <c r="A25" s="7"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="9"/>
-      <c r="K25" s="9"/>
-      <c r="L25" s="9"/>
-      <c r="M25" s="9"/>
-      <c r="N25" s="9"/>
-      <c r="O25" s="9"/>
-      <c r="P25" s="9"/>
-      <c r="Q25" s="9"/>
-      <c r="R25" s="10"/>
-      <c r="S25" s="9"/>
-      <c r="T25" s="9"/>
-      <c r="U25" s="9"/>
-      <c r="V25" s="9"/>
-      <c r="W25" s="9"/>
-      <c r="X25" s="9"/>
-      <c r="Y25" s="9"/>
-      <c r="Z25" s="9"/>
-      <c r="AA25" s="9"/>
-      <c r="AB25" s="9"/>
-      <c r="AC25" s="9"/>
-      <c r="AD25" s="9"/>
-      <c r="AE25" s="9"/>
-      <c r="AF25" s="9"/>
-      <c r="AG25" s="9"/>
-      <c r="AH25" s="9"/>
-      <c r="AI25" s="9"/>
-      <c r="AJ25" s="9"/>
-      <c r="AK25" s="10"/>
-    </row>
-    <row r="26" spans="1:37" ht="12.75" customHeight="1">
-      <c r="A26" s="7"/>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="11"/>
-      <c r="K26" s="9"/>
-      <c r="L26" s="9"/>
-      <c r="N26" s="12"/>
-      <c r="O26" s="9"/>
-      <c r="P26" s="9"/>
-      <c r="Q26" s="9"/>
-      <c r="R26" s="10"/>
-      <c r="S26" s="9"/>
-      <c r="T26" s="9"/>
-      <c r="U26" s="9"/>
-      <c r="V26" s="9"/>
-      <c r="W26" s="9"/>
-      <c r="X26" s="9"/>
-      <c r="Y26" s="9"/>
-      <c r="Z26" s="9"/>
-      <c r="AA26" s="9"/>
-      <c r="AB26" s="9"/>
-      <c r="AC26" s="9"/>
-      <c r="AD26" s="9"/>
-      <c r="AE26" s="9"/>
-      <c r="AF26" s="9"/>
-      <c r="AG26" s="9"/>
-      <c r="AH26" s="9"/>
-      <c r="AI26" s="9"/>
-      <c r="AJ26" s="9"/>
-      <c r="AK26" s="10"/>
-    </row>
-    <row r="27" spans="1:37" ht="12.75" customHeight="1">
-      <c r="A27" s="7"/>
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
-      <c r="J27" s="9"/>
-      <c r="K27" s="9"/>
-      <c r="L27" s="9"/>
-      <c r="M27" s="9"/>
-      <c r="N27" s="9"/>
-      <c r="O27" s="9"/>
-      <c r="P27" s="9"/>
-      <c r="Q27" s="9"/>
-      <c r="R27" s="10"/>
-      <c r="S27" s="9"/>
-      <c r="T27" s="9"/>
-      <c r="U27" s="9"/>
-      <c r="V27" s="9"/>
-      <c r="W27" s="9"/>
-      <c r="X27" s="9"/>
-      <c r="Y27" s="9"/>
-      <c r="Z27" s="9"/>
-      <c r="AA27" s="9"/>
-      <c r="AB27" s="9"/>
-      <c r="AC27" s="9"/>
-      <c r="AD27" s="9"/>
-      <c r="AE27" s="9"/>
-      <c r="AF27" s="9"/>
-      <c r="AG27" s="9"/>
-      <c r="AH27" s="9"/>
-      <c r="AI27" s="9"/>
-      <c r="AJ27" s="9"/>
-      <c r="AK27" s="10"/>
-    </row>
-    <row r="28" spans="1:37" ht="12.75" customHeight="1">
-      <c r="A28" s="7"/>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="9"/>
-      <c r="J28" s="9"/>
-      <c r="K28" s="9"/>
-      <c r="L28" s="9"/>
-      <c r="M28" s="8"/>
-      <c r="N28" s="8"/>
-      <c r="O28" s="9"/>
-      <c r="P28" s="9"/>
-      <c r="Q28" s="9"/>
-      <c r="R28" s="10"/>
-      <c r="S28" s="9"/>
-      <c r="T28" s="9"/>
-      <c r="U28" s="9"/>
-      <c r="V28" s="9"/>
-      <c r="W28" s="9"/>
-      <c r="X28" s="9"/>
-      <c r="Y28" s="9"/>
-      <c r="Z28" s="9"/>
-      <c r="AA28" s="9"/>
-      <c r="AB28" s="9"/>
-      <c r="AC28" s="9"/>
-      <c r="AD28" s="9"/>
-      <c r="AE28" s="9"/>
-      <c r="AF28" s="9"/>
-      <c r="AG28" s="9"/>
-      <c r="AH28" s="9"/>
-      <c r="AI28" s="9"/>
-      <c r="AJ28" s="9"/>
-      <c r="AK28" s="10"/>
-    </row>
-    <row r="29" spans="1:37" ht="12.75" customHeight="1">
-      <c r="A29" s="7"/>
-      <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="9"/>
-      <c r="J29" s="9"/>
-      <c r="K29" s="9"/>
-      <c r="L29" s="9"/>
-      <c r="M29" s="8"/>
-      <c r="N29" s="8"/>
-      <c r="O29" s="9"/>
-      <c r="P29" s="9"/>
-      <c r="Q29" s="9"/>
-      <c r="R29" s="10"/>
-      <c r="S29" s="9"/>
-      <c r="T29" s="9"/>
-      <c r="U29" s="9"/>
-      <c r="V29" s="9"/>
-      <c r="W29" s="9"/>
-      <c r="X29" s="9"/>
-      <c r="Y29" s="9"/>
-      <c r="Z29" s="9"/>
-      <c r="AA29" s="9"/>
-      <c r="AB29" s="9"/>
-      <c r="AC29" s="9"/>
-      <c r="AD29" s="9"/>
-      <c r="AE29" s="9"/>
-      <c r="AF29" s="9"/>
-      <c r="AG29" s="9"/>
-      <c r="AH29" s="9"/>
-      <c r="AI29" s="9"/>
-      <c r="AJ29" s="9"/>
-      <c r="AK29" s="10"/>
-    </row>
-    <row r="30" spans="1:37" ht="12.75" customHeight="1">
-      <c r="A30" s="7"/>
-      <c r="B30" s="9"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="13"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="9"/>
-      <c r="J30" s="9"/>
-      <c r="K30" s="9"/>
-      <c r="L30" s="9"/>
-      <c r="M30" s="8"/>
-      <c r="N30" s="8"/>
-      <c r="O30" s="9"/>
-      <c r="P30" s="9"/>
-      <c r="Q30" s="9"/>
-      <c r="R30" s="10"/>
-      <c r="S30" s="9"/>
-      <c r="T30" s="9"/>
-      <c r="U30" s="9"/>
-      <c r="V30" s="9"/>
-      <c r="W30" s="9"/>
-      <c r="X30" s="9"/>
-      <c r="Y30" s="9"/>
-      <c r="Z30" s="9"/>
-      <c r="AA30" s="9"/>
-      <c r="AB30" s="9"/>
-      <c r="AC30" s="9"/>
-      <c r="AD30" s="9"/>
-      <c r="AE30" s="9"/>
-      <c r="AF30" s="9"/>
-      <c r="AG30" s="9"/>
-      <c r="AH30" s="9"/>
-      <c r="AI30" s="9"/>
-      <c r="AJ30" s="9"/>
-      <c r="AK30" s="10"/>
-    </row>
-    <row r="31" spans="1:37" ht="12.75" customHeight="1">
-      <c r="A31" s="7"/>
-      <c r="B31" s="9"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="13"/>
-      <c r="H31" s="9"/>
-      <c r="I31" s="9"/>
-      <c r="J31" s="9"/>
-      <c r="K31" s="9"/>
-      <c r="L31" s="9"/>
-      <c r="M31" s="8"/>
-      <c r="N31" s="8"/>
-      <c r="O31" s="9"/>
-      <c r="P31" s="9"/>
-      <c r="Q31" s="9"/>
-      <c r="R31" s="10"/>
-      <c r="S31" s="9"/>
-      <c r="T31" s="9"/>
-      <c r="U31" s="9"/>
-      <c r="V31" s="9"/>
-      <c r="W31" s="9"/>
-      <c r="X31" s="9"/>
-      <c r="Y31" s="9"/>
-      <c r="Z31" s="9"/>
-      <c r="AA31" s="9"/>
-      <c r="AB31" s="9"/>
-      <c r="AC31" s="9"/>
-      <c r="AD31" s="9"/>
-      <c r="AE31" s="9"/>
-      <c r="AF31" s="9"/>
-      <c r="AG31" s="9"/>
-      <c r="AH31" s="9"/>
-      <c r="AI31" s="9"/>
-      <c r="AJ31" s="9"/>
-      <c r="AK31" s="10"/>
-    </row>
-    <row r="32" spans="1:37" ht="12.75" customHeight="1">
-      <c r="A32" s="7"/>
-      <c r="B32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="9"/>
-      <c r="J32" s="9"/>
-      <c r="K32" s="9"/>
-      <c r="L32" s="9"/>
-      <c r="M32" s="9"/>
-      <c r="N32" s="9"/>
-      <c r="Q32" s="9"/>
-      <c r="R32" s="10"/>
-      <c r="S32" s="9"/>
-      <c r="T32" s="9"/>
-      <c r="U32" s="9"/>
-      <c r="V32" s="9"/>
-      <c r="W32" s="9"/>
-      <c r="X32" s="9"/>
-      <c r="Y32" s="9"/>
-      <c r="Z32" s="9"/>
-      <c r="AA32" s="9"/>
-      <c r="AB32" s="9"/>
-      <c r="AC32" s="9"/>
-      <c r="AD32" s="9"/>
-      <c r="AE32" s="9"/>
-      <c r="AF32" s="9"/>
-      <c r="AG32" s="9"/>
-      <c r="AH32" s="9"/>
-      <c r="AI32" s="9"/>
-      <c r="AJ32" s="9"/>
-      <c r="AK32" s="10"/>
-    </row>
-    <row r="33" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A33" s="7"/>
-      <c r="B33" s="9"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
-      <c r="H33" s="9"/>
-      <c r="I33" s="9"/>
-      <c r="J33" s="9"/>
-      <c r="K33" s="9"/>
-      <c r="L33" s="9"/>
-      <c r="M33" s="9"/>
-      <c r="N33" s="9"/>
-      <c r="Q33" s="9"/>
-      <c r="R33" s="10"/>
-      <c r="S33" s="9"/>
-      <c r="T33" s="9"/>
-      <c r="U33" s="9"/>
-      <c r="V33" s="9"/>
-      <c r="W33" s="9"/>
-      <c r="X33" s="9"/>
-      <c r="Y33" s="9"/>
-      <c r="Z33" s="9"/>
-      <c r="AA33" s="9"/>
-      <c r="AB33" s="9"/>
-      <c r="AC33" s="9"/>
-      <c r="AD33" s="9"/>
-      <c r="AE33" s="9"/>
-      <c r="AF33" s="9"/>
-      <c r="AG33" s="9"/>
-      <c r="AH33" s="9"/>
-      <c r="AI33" s="9"/>
-      <c r="AJ33" s="9"/>
-      <c r="AK33" s="10"/>
-    </row>
-    <row r="34" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A34" s="7"/>
-      <c r="B34" s="9"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
-      <c r="H34" s="9"/>
-      <c r="I34" s="9"/>
-      <c r="J34" s="9"/>
-      <c r="K34" s="9"/>
-      <c r="L34" s="9"/>
-      <c r="M34" s="9"/>
-      <c r="N34" s="9"/>
-      <c r="O34" s="9"/>
-      <c r="P34" s="9"/>
-      <c r="Q34" s="9"/>
-      <c r="R34" s="10"/>
-      <c r="S34" s="9"/>
-      <c r="T34" s="9"/>
-      <c r="U34" s="9"/>
-      <c r="V34" s="9"/>
-      <c r="W34" s="9"/>
-      <c r="X34" s="9"/>
-      <c r="Y34" s="9"/>
-      <c r="Z34" s="9"/>
-      <c r="AA34" s="9"/>
-      <c r="AB34" s="9"/>
-      <c r="AC34" s="9"/>
-      <c r="AD34" s="9"/>
-      <c r="AE34" s="9"/>
-      <c r="AF34" s="9"/>
-      <c r="AG34" s="9"/>
-      <c r="AH34" s="9"/>
-      <c r="AI34" s="9"/>
-      <c r="AJ34" s="9"/>
-      <c r="AK34" s="10"/>
-    </row>
-    <row r="35" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A35" s="7"/>
-      <c r="B35" s="9"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="9"/>
-      <c r="F35" s="9"/>
-      <c r="G35" s="9"/>
-      <c r="H35" s="9"/>
-      <c r="I35" s="9"/>
-      <c r="J35" s="9"/>
-      <c r="K35" s="9"/>
-      <c r="L35" s="9"/>
-      <c r="M35" s="9"/>
-      <c r="N35" s="9"/>
-      <c r="O35" s="9"/>
-      <c r="P35" s="9"/>
-      <c r="Q35" s="9"/>
-      <c r="R35" s="10"/>
-      <c r="S35" s="9"/>
-      <c r="T35" s="9"/>
-      <c r="U35" s="9"/>
-      <c r="V35" s="9"/>
-      <c r="W35" s="9"/>
-      <c r="X35" s="9"/>
-      <c r="Y35" s="9"/>
-      <c r="Z35" s="9"/>
-      <c r="AA35" s="9"/>
-      <c r="AB35" s="9"/>
-      <c r="AC35" s="9"/>
-      <c r="AD35" s="9"/>
-      <c r="AE35" s="9"/>
-      <c r="AF35" s="9"/>
-      <c r="AG35" s="9"/>
-      <c r="AH35" s="9"/>
-      <c r="AI35" s="9"/>
-      <c r="AJ35" s="9"/>
-      <c r="AK35" s="10"/>
-    </row>
-    <row r="36" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A36" s="7"/>
-      <c r="B36" s="9"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="9"/>
-      <c r="F36" s="9"/>
-      <c r="G36" s="9"/>
-      <c r="H36" s="9"/>
-      <c r="I36" s="9"/>
-      <c r="J36" s="9"/>
-      <c r="K36" s="9"/>
-      <c r="L36" s="9"/>
-      <c r="M36" s="9"/>
-      <c r="N36" s="9"/>
-      <c r="O36" s="9"/>
-      <c r="P36" s="9"/>
-      <c r="Q36" s="9"/>
-      <c r="R36" s="10"/>
-      <c r="S36" s="9"/>
-      <c r="T36" s="9"/>
-      <c r="U36" s="9"/>
-      <c r="V36" s="9"/>
-      <c r="W36" s="9"/>
-      <c r="X36" s="9"/>
-      <c r="Y36" s="9"/>
-      <c r="Z36" s="9"/>
-      <c r="AA36" s="9"/>
-      <c r="AB36" s="9"/>
-      <c r="AC36" s="9"/>
-      <c r="AD36" s="9"/>
-      <c r="AE36" s="9"/>
-      <c r="AF36" s="9"/>
-      <c r="AG36" s="9"/>
-      <c r="AH36" s="9"/>
-      <c r="AI36" s="9"/>
-      <c r="AJ36" s="9"/>
-      <c r="AK36" s="10"/>
-    </row>
-    <row r="37" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A37" s="7"/>
-      <c r="B37" s="9"/>
-      <c r="C37" s="9"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="9"/>
-      <c r="F37" s="9"/>
-      <c r="G37" s="9"/>
-      <c r="H37" s="9"/>
-      <c r="I37" s="9"/>
-      <c r="J37" s="9"/>
-      <c r="K37" s="9"/>
-      <c r="L37" s="9"/>
-      <c r="M37" s="9"/>
-      <c r="N37" s="9"/>
-      <c r="O37" s="42"/>
-      <c r="P37" s="42"/>
-      <c r="Q37" s="9"/>
-      <c r="R37" s="10"/>
-      <c r="S37" s="9"/>
-      <c r="T37" s="9"/>
-      <c r="U37" s="9"/>
-      <c r="V37" s="9"/>
-      <c r="W37" s="9"/>
-      <c r="X37" s="9"/>
-      <c r="Y37" s="9"/>
-      <c r="Z37" s="9"/>
-      <c r="AA37" s="9"/>
-      <c r="AB37" s="9"/>
-      <c r="AC37" s="9"/>
-      <c r="AD37" s="9"/>
-      <c r="AE37" s="9"/>
-      <c r="AF37" s="9"/>
-      <c r="AG37" s="9"/>
-      <c r="AH37" s="9"/>
-      <c r="AI37" s="9"/>
-      <c r="AJ37" s="9"/>
-      <c r="AK37" s="10"/>
-    </row>
-    <row r="38" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A38" s="7"/>
-      <c r="B38" s="9"/>
-      <c r="C38" s="9"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="9"/>
-      <c r="F38" s="9"/>
-      <c r="G38" s="9"/>
-      <c r="H38" s="9"/>
-      <c r="I38" s="9"/>
-      <c r="J38" s="9"/>
-      <c r="K38" s="9"/>
-      <c r="L38" s="9"/>
-      <c r="M38" s="9"/>
-      <c r="N38" s="9"/>
-      <c r="O38" s="9"/>
-      <c r="P38" s="9"/>
-      <c r="Q38" s="9"/>
-      <c r="R38" s="10"/>
-      <c r="S38" s="9"/>
-      <c r="T38" s="9"/>
-      <c r="U38" s="9"/>
-      <c r="V38" s="9"/>
-      <c r="W38" s="9"/>
-      <c r="X38" s="9"/>
-      <c r="Y38" s="9"/>
-      <c r="Z38" s="9"/>
-      <c r="AA38" s="9"/>
-      <c r="AB38" s="9"/>
-      <c r="AC38" s="9"/>
-      <c r="AD38" s="9"/>
-      <c r="AE38" s="9"/>
-      <c r="AF38" s="9"/>
-      <c r="AG38" s="9"/>
-      <c r="AH38" s="9"/>
-      <c r="AI38" s="9"/>
-      <c r="AJ38" s="9"/>
-      <c r="AK38" s="10"/>
-    </row>
-    <row r="39" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A39" s="7"/>
-      <c r="B39" s="9"/>
-      <c r="C39" s="9"/>
-      <c r="D39" s="9"/>
-      <c r="E39" s="9"/>
-      <c r="F39" s="9"/>
-      <c r="G39" s="9"/>
-      <c r="H39" s="9"/>
-      <c r="I39" s="9"/>
-      <c r="J39" s="9"/>
-      <c r="K39" s="9"/>
-      <c r="L39" s="9"/>
-      <c r="M39" s="9"/>
-      <c r="N39" s="9"/>
-      <c r="O39" s="9"/>
-      <c r="P39" s="9"/>
-      <c r="Q39" s="9"/>
-      <c r="R39" s="10"/>
-      <c r="S39" s="9"/>
-      <c r="T39" s="9"/>
-      <c r="U39" s="9"/>
-      <c r="V39" s="9"/>
-      <c r="W39" s="9"/>
-      <c r="X39" s="9"/>
-      <c r="Y39" s="9"/>
-      <c r="Z39" s="9"/>
-      <c r="AA39" s="9"/>
-      <c r="AB39" s="9"/>
-      <c r="AC39" s="9"/>
-      <c r="AD39" s="9"/>
-      <c r="AE39" s="9"/>
-      <c r="AF39" s="9"/>
-      <c r="AG39" s="9"/>
-      <c r="AH39" s="9"/>
-      <c r="AI39" s="9"/>
-      <c r="AJ39" s="9"/>
-      <c r="AK39" s="10"/>
-    </row>
-    <row r="40" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A40" s="14"/>
-      <c r="B40" s="15"/>
-      <c r="C40" s="15"/>
-      <c r="D40" s="15"/>
-      <c r="E40" s="15"/>
-      <c r="F40" s="15"/>
-      <c r="G40" s="15"/>
-      <c r="H40" s="15"/>
-      <c r="I40" s="15"/>
-      <c r="J40" s="15"/>
-      <c r="K40" s="15"/>
-      <c r="L40" s="15"/>
-      <c r="M40" s="15"/>
-      <c r="N40" s="15"/>
-      <c r="O40" s="15"/>
-      <c r="P40" s="15"/>
-      <c r="Q40" s="15"/>
-      <c r="R40" s="16"/>
-      <c r="S40" s="15"/>
-      <c r="T40" s="15"/>
-      <c r="U40" s="15"/>
-      <c r="V40" s="15"/>
-      <c r="W40" s="15"/>
-      <c r="X40" s="15"/>
-      <c r="Y40" s="15"/>
-      <c r="Z40" s="15"/>
-      <c r="AA40" s="15"/>
-      <c r="AB40" s="15"/>
-      <c r="AC40" s="15"/>
-      <c r="AD40" s="15"/>
-      <c r="AE40" s="15"/>
-      <c r="AF40" s="15"/>
-      <c r="AG40" s="15"/>
-      <c r="AH40" s="15"/>
-      <c r="AI40" s="15"/>
-      <c r="AJ40" s="15"/>
-      <c r="AK40" s="16"/>
-    </row>
-    <row r="41" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A41" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="B41" s="38"/>
-      <c r="C41" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="D41" s="37"/>
-      <c r="E41" s="37"/>
-      <c r="F41" s="37"/>
-      <c r="G41" s="37"/>
-      <c r="H41" s="38"/>
-      <c r="I41" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="J41" s="37"/>
-      <c r="K41" s="37"/>
-      <c r="L41" s="38"/>
-      <c r="M41" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="N41" s="38"/>
-      <c r="O41" s="36" t="s">
-        <v>13</v>
-      </c>
-      <c r="P41" s="38"/>
-      <c r="Q41" s="35" t="s">
-        <v>14</v>
-      </c>
-      <c r="R41" s="35"/>
-      <c r="S41" s="36" t="s">
-        <v>19</v>
-      </c>
-      <c r="T41" s="37"/>
-      <c r="U41" s="38"/>
-      <c r="V41" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="W41" s="37"/>
-      <c r="X41" s="38"/>
-      <c r="Y41" s="36" t="s">
-        <v>15</v>
-      </c>
-      <c r="Z41" s="37"/>
-      <c r="AA41" s="37"/>
-      <c r="AB41" s="37"/>
-      <c r="AC41" s="37"/>
-      <c r="AD41" s="37"/>
-      <c r="AE41" s="37"/>
-      <c r="AF41" s="37"/>
-      <c r="AG41" s="37"/>
-      <c r="AH41" s="37"/>
-      <c r="AI41" s="37"/>
-      <c r="AJ41" s="37"/>
-      <c r="AK41" s="38"/>
-      <c r="AL41" s="24"/>
-      <c r="AM41" s="24"/>
-      <c r="AN41" s="24"/>
-      <c r="AO41" s="24"/>
-      <c r="AP41" s="24"/>
-      <c r="AQ41" s="24"/>
-    </row>
-    <row r="42" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A42" s="39"/>
-      <c r="B42" s="41"/>
-      <c r="C42" s="39"/>
-      <c r="D42" s="40"/>
-      <c r="E42" s="40"/>
-      <c r="F42" s="40"/>
-      <c r="G42" s="40"/>
-      <c r="H42" s="41"/>
-      <c r="I42" s="39"/>
-      <c r="J42" s="40"/>
-      <c r="K42" s="40"/>
-      <c r="L42" s="41"/>
-      <c r="M42" s="39"/>
-      <c r="N42" s="41"/>
-      <c r="O42" s="39"/>
-      <c r="P42" s="41"/>
-      <c r="Q42" s="35"/>
-      <c r="R42" s="35"/>
-      <c r="S42" s="39"/>
-      <c r="T42" s="40"/>
-      <c r="U42" s="41"/>
-      <c r="V42" s="39"/>
-      <c r="W42" s="40"/>
-      <c r="X42" s="41"/>
-      <c r="Y42" s="39"/>
-      <c r="Z42" s="40"/>
-      <c r="AA42" s="40"/>
-      <c r="AB42" s="40"/>
-      <c r="AC42" s="40"/>
-      <c r="AD42" s="40"/>
-      <c r="AE42" s="40"/>
-      <c r="AF42" s="40"/>
-      <c r="AG42" s="40"/>
-      <c r="AH42" s="40"/>
-      <c r="AI42" s="40"/>
-      <c r="AJ42" s="40"/>
-      <c r="AK42" s="41"/>
-      <c r="AL42" s="24"/>
-      <c r="AM42" s="24"/>
-      <c r="AN42" s="24"/>
-      <c r="AO42" s="24"/>
-      <c r="AP42" s="24"/>
-      <c r="AQ42" s="24"/>
-    </row>
-    <row r="43" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A43" s="32">
-        <v>1</v>
-      </c>
-      <c r="B43" s="33"/>
-      <c r="C43" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="D43" s="34"/>
-      <c r="E43" s="34"/>
-      <c r="F43" s="34"/>
-      <c r="G43" s="34"/>
-      <c r="H43" s="33"/>
-      <c r="I43" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="J43" s="34"/>
-      <c r="K43" s="34"/>
-      <c r="L43" s="33"/>
-      <c r="M43" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="N43" s="33"/>
-      <c r="O43" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="P43" s="33"/>
-      <c r="Q43" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="R43" s="35"/>
-      <c r="S43" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="T43" s="34"/>
-      <c r="U43" s="33"/>
-      <c r="V43" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="W43" s="34"/>
-      <c r="X43" s="33"/>
-      <c r="Y43" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z43" s="34"/>
-      <c r="AA43" s="34"/>
-      <c r="AB43" s="34"/>
-      <c r="AC43" s="34"/>
-      <c r="AD43" s="34"/>
-      <c r="AE43" s="34"/>
-      <c r="AF43" s="34"/>
-      <c r="AG43" s="34"/>
-      <c r="AH43" s="34"/>
-      <c r="AI43" s="34"/>
-      <c r="AJ43" s="34"/>
-      <c r="AK43" s="33"/>
-      <c r="AL43" s="24"/>
-      <c r="AM43" s="24"/>
-      <c r="AN43" s="24"/>
-      <c r="AO43" s="24"/>
-      <c r="AP43" s="24"/>
-      <c r="AQ43" s="24"/>
-    </row>
-    <row r="44" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A44" s="32">
-        <v>2</v>
-      </c>
-      <c r="B44" s="33"/>
-      <c r="C44" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="D44" s="34"/>
-      <c r="E44" s="34"/>
-      <c r="F44" s="34"/>
-      <c r="G44" s="34"/>
-      <c r="H44" s="33"/>
-      <c r="I44" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="J44" s="34"/>
-      <c r="K44" s="34"/>
-      <c r="L44" s="33"/>
-      <c r="M44" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="N44" s="33"/>
-      <c r="O44" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="P44" s="33"/>
-      <c r="Q44" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="R44" s="35"/>
-      <c r="S44" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="T44" s="34"/>
-      <c r="U44" s="33"/>
-      <c r="V44" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="W44" s="34"/>
-      <c r="X44" s="33"/>
-      <c r="Y44" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="Z44" s="34"/>
-      <c r="AA44" s="34"/>
-      <c r="AB44" s="34"/>
-      <c r="AC44" s="34"/>
-      <c r="AD44" s="34"/>
-      <c r="AE44" s="34"/>
-      <c r="AF44" s="34"/>
-      <c r="AG44" s="34"/>
-      <c r="AH44" s="34"/>
-      <c r="AI44" s="34"/>
-      <c r="AJ44" s="34"/>
-      <c r="AK44" s="33"/>
-      <c r="AL44" s="24"/>
-      <c r="AM44" s="24"/>
-      <c r="AN44" s="24"/>
-      <c r="AO44" s="24"/>
-      <c r="AP44" s="24"/>
-      <c r="AQ44" s="24"/>
-    </row>
-    <row r="45" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A45" s="32">
-        <v>3</v>
-      </c>
-      <c r="B45" s="33"/>
-      <c r="C45" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="D45" s="34"/>
-      <c r="E45" s="34"/>
-      <c r="F45" s="34"/>
-      <c r="G45" s="34"/>
-      <c r="H45" s="33"/>
-      <c r="I45" s="32" t="s">
-        <v>28</v>
-      </c>
-      <c r="J45" s="34"/>
-      <c r="K45" s="34"/>
-      <c r="L45" s="33"/>
-      <c r="M45" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="N45" s="33"/>
-      <c r="O45" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="P45" s="33"/>
-      <c r="Q45" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="R45" s="35"/>
-      <c r="S45" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="T45" s="34"/>
-      <c r="U45" s="33"/>
-      <c r="V45" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="W45" s="34"/>
-      <c r="X45" s="33"/>
-      <c r="Y45" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z45" s="34"/>
-      <c r="AA45" s="34"/>
-      <c r="AB45" s="34"/>
-      <c r="AC45" s="34"/>
-      <c r="AD45" s="34"/>
-      <c r="AE45" s="34"/>
-      <c r="AF45" s="34"/>
-      <c r="AG45" s="34"/>
-      <c r="AH45" s="34"/>
-      <c r="AI45" s="34"/>
-      <c r="AJ45" s="34"/>
-      <c r="AK45" s="33"/>
-      <c r="AL45" s="24"/>
-      <c r="AM45" s="24"/>
-      <c r="AN45" s="24"/>
-      <c r="AO45" s="24"/>
-      <c r="AP45" s="24"/>
-      <c r="AQ45" s="24"/>
-    </row>
-    <row r="46" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A46" s="32">
-        <v>4</v>
-      </c>
-      <c r="B46" s="33"/>
-      <c r="C46" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="D46" s="34"/>
-      <c r="E46" s="34"/>
-      <c r="F46" s="34"/>
-      <c r="G46" s="34"/>
-      <c r="H46" s="33"/>
-      <c r="I46" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="J46" s="34"/>
-      <c r="K46" s="34"/>
-      <c r="L46" s="33"/>
-      <c r="M46" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="N46" s="33"/>
-      <c r="O46" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="P46" s="33"/>
-      <c r="Q46" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="R46" s="33"/>
-      <c r="S46" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="T46" s="34"/>
-      <c r="U46" s="33"/>
-      <c r="V46" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="W46" s="34"/>
-      <c r="X46" s="33"/>
-      <c r="Y46" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="Z46" s="34"/>
-      <c r="AA46" s="34"/>
-      <c r="AB46" s="34"/>
-      <c r="AC46" s="34"/>
-      <c r="AD46" s="34"/>
-      <c r="AE46" s="34"/>
-      <c r="AF46" s="34"/>
-      <c r="AG46" s="34"/>
-      <c r="AH46" s="34"/>
-      <c r="AI46" s="34"/>
-      <c r="AJ46" s="34"/>
-      <c r="AK46" s="33"/>
-      <c r="AL46" s="24"/>
-      <c r="AM46" s="24"/>
-      <c r="AN46" s="24"/>
-      <c r="AO46" s="24"/>
-      <c r="AP46" s="24"/>
-      <c r="AQ46" s="24"/>
-    </row>
-    <row r="47" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A47" s="32">
-        <v>5</v>
-      </c>
-      <c r="B47" s="33"/>
-      <c r="C47" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="D47" s="34"/>
-      <c r="E47" s="34"/>
-      <c r="F47" s="34"/>
-      <c r="G47" s="34"/>
-      <c r="H47" s="33"/>
-      <c r="I47" s="32" t="s">
-        <v>43</v>
-      </c>
-      <c r="J47" s="34"/>
-      <c r="K47" s="34"/>
-      <c r="L47" s="33"/>
-      <c r="M47" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="N47" s="33"/>
-      <c r="O47" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="P47" s="33"/>
-      <c r="Q47" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="R47" s="35"/>
-      <c r="S47" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="T47" s="34"/>
-      <c r="U47" s="33"/>
-      <c r="V47" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="W47" s="34"/>
-      <c r="X47" s="33"/>
-      <c r="Y47" s="32" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z47" s="34"/>
-      <c r="AA47" s="34"/>
-      <c r="AB47" s="34"/>
-      <c r="AC47" s="34"/>
-      <c r="AD47" s="34"/>
-      <c r="AE47" s="34"/>
-      <c r="AF47" s="34"/>
-      <c r="AG47" s="34"/>
-      <c r="AH47" s="34"/>
-      <c r="AI47" s="34"/>
-      <c r="AJ47" s="34"/>
-      <c r="AK47" s="33"/>
-      <c r="AL47" s="24"/>
-      <c r="AM47" s="24"/>
-      <c r="AN47" s="24"/>
-      <c r="AO47" s="24"/>
-      <c r="AP47" s="24"/>
-      <c r="AQ47" s="24"/>
-    </row>
-    <row r="48" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A48" s="32">
-        <v>6</v>
-      </c>
-      <c r="B48" s="33"/>
-      <c r="C48" s="32" t="s">
-        <v>50</v>
-      </c>
-      <c r="D48" s="34"/>
-      <c r="E48" s="34"/>
-      <c r="F48" s="34"/>
-      <c r="G48" s="34"/>
-      <c r="H48" s="33"/>
-      <c r="I48" s="32" t="s">
-        <v>43</v>
-      </c>
-      <c r="J48" s="34"/>
-      <c r="K48" s="34"/>
-      <c r="L48" s="33"/>
-      <c r="M48" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="N48" s="33"/>
-      <c r="O48" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="P48" s="33"/>
-      <c r="Q48" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="R48" s="35"/>
-      <c r="S48" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="T48" s="34"/>
-      <c r="U48" s="33"/>
-      <c r="V48" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="W48" s="34"/>
-      <c r="X48" s="33"/>
-      <c r="Y48" s="32" t="s">
-        <v>51</v>
-      </c>
-      <c r="Z48" s="34"/>
-      <c r="AA48" s="34"/>
-      <c r="AB48" s="34"/>
-      <c r="AC48" s="34"/>
-      <c r="AD48" s="34"/>
-      <c r="AE48" s="34"/>
-      <c r="AF48" s="34"/>
-      <c r="AG48" s="34"/>
-      <c r="AH48" s="34"/>
-      <c r="AI48" s="34"/>
-      <c r="AJ48" s="34"/>
-      <c r="AK48" s="33"/>
-      <c r="AL48" s="24"/>
-      <c r="AM48" s="24"/>
-      <c r="AN48" s="24"/>
-      <c r="AO48" s="24"/>
-      <c r="AP48" s="24"/>
-      <c r="AQ48" s="24"/>
-    </row>
-    <row r="49" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A49" s="35">
-        <v>7</v>
-      </c>
-      <c r="B49" s="35"/>
-      <c r="C49" s="35" t="s">
-        <v>24</v>
-      </c>
-      <c r="D49" s="35"/>
-      <c r="E49" s="35"/>
-      <c r="F49" s="35"/>
-      <c r="G49" s="35"/>
-      <c r="H49" s="35"/>
-      <c r="I49" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="J49" s="35"/>
-      <c r="K49" s="35"/>
-      <c r="L49" s="35"/>
-      <c r="M49" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="N49" s="35"/>
-      <c r="O49" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="P49" s="33"/>
-      <c r="Q49" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="R49" s="35"/>
-      <c r="S49" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="T49" s="34"/>
-      <c r="U49" s="33"/>
-      <c r="V49" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="W49" s="34"/>
-      <c r="X49" s="33"/>
-      <c r="Y49" s="32" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z49" s="34"/>
-      <c r="AA49" s="34"/>
-      <c r="AB49" s="34"/>
-      <c r="AC49" s="34"/>
-      <c r="AD49" s="34"/>
-      <c r="AE49" s="34"/>
-      <c r="AF49" s="34"/>
-      <c r="AG49" s="34"/>
-      <c r="AH49" s="34"/>
-      <c r="AI49" s="34"/>
-      <c r="AJ49" s="34"/>
-      <c r="AK49" s="33"/>
-      <c r="AL49" s="24"/>
-      <c r="AM49" s="24"/>
-      <c r="AN49" s="24"/>
-      <c r="AO49" s="24"/>
-      <c r="AP49" s="24"/>
-      <c r="AQ49" s="24"/>
-    </row>
-    <row r="50" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A50" s="35">
-        <v>8</v>
-      </c>
-      <c r="B50" s="35"/>
-      <c r="C50" s="35"/>
-      <c r="D50" s="35"/>
-      <c r="E50" s="35"/>
-      <c r="F50" s="35"/>
-      <c r="G50" s="35"/>
-      <c r="H50" s="35"/>
-      <c r="I50" s="35"/>
-      <c r="J50" s="35"/>
-      <c r="K50" s="35"/>
-      <c r="L50" s="35"/>
-      <c r="M50" s="35"/>
-      <c r="N50" s="35"/>
-      <c r="O50" s="32"/>
-      <c r="P50" s="33"/>
-      <c r="Q50" s="35"/>
-      <c r="R50" s="35"/>
-      <c r="S50" s="32"/>
-      <c r="T50" s="34"/>
-      <c r="U50" s="33"/>
-      <c r="V50" s="32"/>
-      <c r="W50" s="34"/>
-      <c r="X50" s="33"/>
-      <c r="Y50" s="32"/>
-      <c r="Z50" s="34"/>
-      <c r="AA50" s="34"/>
-      <c r="AB50" s="34"/>
-      <c r="AC50" s="34"/>
-      <c r="AD50" s="34"/>
-      <c r="AE50" s="34"/>
-      <c r="AF50" s="34"/>
-      <c r="AG50" s="34"/>
-      <c r="AH50" s="34"/>
-      <c r="AI50" s="34"/>
-      <c r="AJ50" s="34"/>
-      <c r="AK50" s="33"/>
-      <c r="AL50" s="24"/>
-      <c r="AM50" s="24"/>
-      <c r="AN50" s="24"/>
-      <c r="AO50" s="24"/>
-      <c r="AP50" s="24"/>
-      <c r="AQ50" s="24"/>
-    </row>
-    <row r="51" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A51" s="35">
-        <v>9</v>
-      </c>
-      <c r="B51" s="35"/>
-      <c r="C51" s="35"/>
-      <c r="D51" s="35"/>
-      <c r="E51" s="35"/>
-      <c r="F51" s="35"/>
-      <c r="G51" s="35"/>
-      <c r="H51" s="35"/>
-      <c r="I51" s="35"/>
-      <c r="J51" s="35"/>
-      <c r="K51" s="35"/>
-      <c r="L51" s="35"/>
-      <c r="M51" s="35"/>
-      <c r="N51" s="35"/>
-      <c r="O51" s="32"/>
-      <c r="P51" s="33"/>
-      <c r="Q51" s="35"/>
-      <c r="R51" s="35"/>
-      <c r="S51" s="32"/>
-      <c r="T51" s="34"/>
-      <c r="U51" s="33"/>
-      <c r="V51" s="32"/>
-      <c r="W51" s="34"/>
-      <c r="X51" s="33"/>
-      <c r="Y51" s="32"/>
-      <c r="Z51" s="34"/>
-      <c r="AA51" s="34"/>
-      <c r="AB51" s="34"/>
-      <c r="AC51" s="34"/>
-      <c r="AD51" s="34"/>
-      <c r="AE51" s="34"/>
-      <c r="AF51" s="34"/>
-      <c r="AG51" s="34"/>
-      <c r="AH51" s="34"/>
-      <c r="AI51" s="34"/>
-      <c r="AJ51" s="34"/>
-      <c r="AK51" s="33"/>
-      <c r="AL51" s="24"/>
-      <c r="AM51" s="24"/>
-      <c r="AN51" s="24"/>
-      <c r="AO51" s="24"/>
-      <c r="AP51" s="24"/>
-      <c r="AQ51" s="24"/>
-    </row>
-    <row r="52" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A52" s="56"/>
-      <c r="B52" s="57"/>
-      <c r="C52" s="56"/>
-      <c r="D52" s="58"/>
-      <c r="E52" s="58"/>
-      <c r="F52" s="58"/>
-      <c r="G52" s="58"/>
-      <c r="H52" s="57"/>
-      <c r="I52" s="56"/>
-      <c r="J52" s="58"/>
-      <c r="K52" s="58"/>
-      <c r="L52" s="57"/>
-      <c r="M52" s="56"/>
-      <c r="N52" s="57"/>
-      <c r="O52" s="56"/>
-      <c r="P52" s="57"/>
-      <c r="Q52" s="59"/>
-      <c r="R52" s="59"/>
-      <c r="S52" s="56"/>
-      <c r="T52" s="58"/>
-      <c r="U52" s="58"/>
-      <c r="V52" s="59"/>
-      <c r="W52" s="59"/>
-      <c r="X52" s="59"/>
-      <c r="Y52" s="56"/>
-      <c r="Z52" s="58"/>
-      <c r="AA52" s="58"/>
-      <c r="AB52" s="58"/>
-      <c r="AC52" s="58"/>
-      <c r="AD52" s="58"/>
-      <c r="AE52" s="58"/>
-      <c r="AF52" s="58"/>
-      <c r="AG52" s="58"/>
-      <c r="AH52" s="58"/>
-      <c r="AI52" s="58"/>
-      <c r="AJ52" s="58"/>
-      <c r="AK52" s="57"/>
-    </row>
-    <row r="53" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A53" s="56"/>
-      <c r="B53" s="57"/>
-      <c r="C53" s="56"/>
-      <c r="D53" s="58"/>
-      <c r="E53" s="58"/>
-      <c r="F53" s="58"/>
-      <c r="G53" s="58"/>
-      <c r="H53" s="57"/>
-      <c r="I53" s="56"/>
-      <c r="J53" s="58"/>
-      <c r="K53" s="58"/>
-      <c r="L53" s="57"/>
-      <c r="M53" s="56"/>
-      <c r="N53" s="57"/>
-      <c r="O53" s="56"/>
-      <c r="P53" s="57"/>
-      <c r="Q53" s="56"/>
-      <c r="R53" s="57"/>
-      <c r="S53" s="56"/>
-      <c r="T53" s="58"/>
-      <c r="U53" s="58"/>
-      <c r="V53" s="59"/>
-      <c r="W53" s="59"/>
-      <c r="X53" s="59"/>
-      <c r="Y53" s="56"/>
-      <c r="Z53" s="58"/>
-      <c r="AA53" s="58"/>
-      <c r="AB53" s="58"/>
-      <c r="AC53" s="58"/>
-      <c r="AD53" s="58"/>
-      <c r="AE53" s="58"/>
-      <c r="AF53" s="58"/>
-      <c r="AG53" s="58"/>
-      <c r="AH53" s="58"/>
-      <c r="AI53" s="58"/>
-      <c r="AJ53" s="58"/>
-      <c r="AK53" s="57"/>
-    </row>
-    <row r="54" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A54" s="56"/>
-      <c r="B54" s="57"/>
-      <c r="C54" s="56"/>
-      <c r="D54" s="58"/>
-      <c r="E54" s="58"/>
-      <c r="F54" s="58"/>
-      <c r="G54" s="58"/>
-      <c r="H54" s="57"/>
-      <c r="I54" s="56"/>
-      <c r="J54" s="58"/>
-      <c r="K54" s="58"/>
-      <c r="L54" s="57"/>
-      <c r="M54" s="56"/>
-      <c r="N54" s="57"/>
-      <c r="O54" s="56"/>
-      <c r="P54" s="57"/>
-      <c r="Q54" s="59"/>
-      <c r="R54" s="59"/>
-      <c r="S54" s="56"/>
-      <c r="T54" s="58"/>
-      <c r="U54" s="58"/>
-      <c r="V54" s="59"/>
-      <c r="W54" s="59"/>
-      <c r="X54" s="59"/>
-      <c r="Y54" s="56"/>
-      <c r="Z54" s="58"/>
-      <c r="AA54" s="58"/>
-      <c r="AB54" s="58"/>
-      <c r="AC54" s="58"/>
-      <c r="AD54" s="58"/>
-      <c r="AE54" s="58"/>
-      <c r="AF54" s="58"/>
-      <c r="AG54" s="58"/>
-      <c r="AH54" s="58"/>
-      <c r="AI54" s="58"/>
-      <c r="AJ54" s="58"/>
-      <c r="AK54" s="57"/>
-    </row>
-    <row r="55" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A55" s="56"/>
-      <c r="B55" s="57"/>
-      <c r="C55" s="56"/>
-      <c r="D55" s="58"/>
-      <c r="E55" s="58"/>
-      <c r="F55" s="58"/>
-      <c r="G55" s="58"/>
-      <c r="H55" s="57"/>
-      <c r="I55" s="56"/>
-      <c r="J55" s="58"/>
-      <c r="K55" s="58"/>
-      <c r="L55" s="57"/>
-      <c r="M55" s="56"/>
-      <c r="N55" s="57"/>
-      <c r="O55" s="56"/>
-      <c r="P55" s="57"/>
-      <c r="Q55" s="56"/>
-      <c r="R55" s="57"/>
-      <c r="S55" s="56"/>
-      <c r="T55" s="58"/>
-      <c r="U55" s="58"/>
-      <c r="V55" s="59"/>
-      <c r="W55" s="59"/>
-      <c r="X55" s="59"/>
-      <c r="Y55" s="56"/>
-      <c r="Z55" s="58"/>
-      <c r="AA55" s="58"/>
-      <c r="AB55" s="58"/>
-      <c r="AC55" s="58"/>
-      <c r="AD55" s="58"/>
-      <c r="AE55" s="58"/>
-      <c r="AF55" s="58"/>
-      <c r="AG55" s="58"/>
-      <c r="AH55" s="58"/>
-      <c r="AI55" s="58"/>
-      <c r="AJ55" s="58"/>
-      <c r="AK55" s="57"/>
-    </row>
-    <row r="56" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A56" s="56"/>
-      <c r="B56" s="57"/>
-      <c r="C56" s="56"/>
-      <c r="D56" s="58"/>
-      <c r="E56" s="58"/>
-      <c r="F56" s="58"/>
-      <c r="G56" s="58"/>
-      <c r="H56" s="57"/>
-      <c r="I56" s="56"/>
-      <c r="J56" s="58"/>
-      <c r="K56" s="58"/>
-      <c r="L56" s="57"/>
-      <c r="M56" s="56"/>
-      <c r="N56" s="57"/>
-      <c r="O56" s="56"/>
-      <c r="P56" s="57"/>
-      <c r="Q56" s="56"/>
-      <c r="R56" s="57"/>
-      <c r="S56" s="56"/>
-      <c r="T56" s="58"/>
-      <c r="U56" s="58"/>
-      <c r="V56" s="59"/>
-      <c r="W56" s="59"/>
-      <c r="X56" s="59"/>
-      <c r="Y56" s="56"/>
-      <c r="Z56" s="58"/>
-      <c r="AA56" s="58"/>
-      <c r="AB56" s="58"/>
-      <c r="AC56" s="58"/>
-      <c r="AD56" s="58"/>
-      <c r="AE56" s="58"/>
-      <c r="AF56" s="58"/>
-      <c r="AG56" s="58"/>
-      <c r="AH56" s="58"/>
-      <c r="AI56" s="58"/>
-      <c r="AJ56" s="58"/>
-      <c r="AK56" s="57"/>
-    </row>
-    <row r="59" spans="1:43" ht="12.75" customHeight="1">
-      <c r="B59" s="17"/>
-    </row>
-  </sheetData>
-  <mergeCells count="153">
-    <mergeCell ref="Y55:AK55"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="C56:H56"/>
-    <mergeCell ref="I56:L56"/>
-    <mergeCell ref="M56:N56"/>
-    <mergeCell ref="O56:P56"/>
-    <mergeCell ref="Q56:R56"/>
-    <mergeCell ref="S56:U56"/>
-    <mergeCell ref="V56:X56"/>
-    <mergeCell ref="Y56:AK56"/>
-    <mergeCell ref="V54:X54"/>
-    <mergeCell ref="Y54:AK54"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="C55:H55"/>
-    <mergeCell ref="I55:L55"/>
-    <mergeCell ref="M55:N55"/>
-    <mergeCell ref="O55:P55"/>
-    <mergeCell ref="Q55:R55"/>
-    <mergeCell ref="S55:U55"/>
-    <mergeCell ref="V55:X55"/>
+    <mergeCell ref="AF4:AH5"/>
+    <mergeCell ref="AI4:AK5"/>
+    <mergeCell ref="O37:P37"/>
+    <mergeCell ref="A41:B42"/>
+    <mergeCell ref="C41:H42"/>
+    <mergeCell ref="I41:L42"/>
+    <mergeCell ref="M41:N42"/>
+    <mergeCell ref="O41:P42"/>
+    <mergeCell ref="Q41:R42"/>
+    <mergeCell ref="S41:U42"/>
+    <mergeCell ref="A4:H5"/>
+    <mergeCell ref="I4:O5"/>
+    <mergeCell ref="P4:R5"/>
+    <mergeCell ref="S4:Y5"/>
+    <mergeCell ref="Z4:AB5"/>
+    <mergeCell ref="AC4:AE5"/>
+    <mergeCell ref="V41:X42"/>
+    <mergeCell ref="Y41:AK42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:H43"/>
+    <mergeCell ref="I43:L43"/>
+    <mergeCell ref="M43:N43"/>
+    <mergeCell ref="O43:P43"/>
+    <mergeCell ref="Q43:R43"/>
+    <mergeCell ref="S43:U43"/>
+    <mergeCell ref="V43:X43"/>
+    <mergeCell ref="Y43:AK43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:H44"/>
+    <mergeCell ref="I44:L44"/>
+    <mergeCell ref="M44:N44"/>
+    <mergeCell ref="O44:P44"/>
+    <mergeCell ref="Q44:R44"/>
+    <mergeCell ref="S44:U44"/>
+    <mergeCell ref="V44:X44"/>
+    <mergeCell ref="Y44:AK44"/>
+    <mergeCell ref="S45:U45"/>
+    <mergeCell ref="V45:X45"/>
+    <mergeCell ref="Y45:AK45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:H46"/>
+    <mergeCell ref="I46:L46"/>
+    <mergeCell ref="M46:N46"/>
+    <mergeCell ref="O46:P46"/>
+    <mergeCell ref="Q46:R46"/>
+    <mergeCell ref="S46:U46"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:H45"/>
+    <mergeCell ref="I45:L45"/>
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="O45:P45"/>
+    <mergeCell ref="Q45:R45"/>
+    <mergeCell ref="V46:X46"/>
+    <mergeCell ref="Y46:AK46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:H47"/>
+    <mergeCell ref="I47:L47"/>
+    <mergeCell ref="M47:N47"/>
+    <mergeCell ref="O47:P47"/>
+    <mergeCell ref="Q47:R47"/>
+    <mergeCell ref="S47:U47"/>
+    <mergeCell ref="V47:X47"/>
+    <mergeCell ref="Y47:AK47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:H48"/>
+    <mergeCell ref="I48:L48"/>
+    <mergeCell ref="M48:N48"/>
+    <mergeCell ref="O48:P48"/>
+    <mergeCell ref="Q48:R48"/>
+    <mergeCell ref="S48:U48"/>
+    <mergeCell ref="V48:X48"/>
+    <mergeCell ref="Y48:AK48"/>
+    <mergeCell ref="S49:U49"/>
+    <mergeCell ref="V49:X49"/>
+    <mergeCell ref="Y49:AK49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:H50"/>
+    <mergeCell ref="I50:L50"/>
+    <mergeCell ref="M50:N50"/>
+    <mergeCell ref="O50:P50"/>
+    <mergeCell ref="Q50:R50"/>
+    <mergeCell ref="S50:U50"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:H49"/>
+    <mergeCell ref="I49:L49"/>
+    <mergeCell ref="M49:N49"/>
+    <mergeCell ref="O49:P49"/>
+    <mergeCell ref="Q49:R49"/>
+    <mergeCell ref="V50:X50"/>
+    <mergeCell ref="Y50:AK50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:H51"/>
+    <mergeCell ref="I51:L51"/>
+    <mergeCell ref="M51:N51"/>
+    <mergeCell ref="O51:P51"/>
+    <mergeCell ref="Q51:R51"/>
+    <mergeCell ref="S51:U51"/>
+    <mergeCell ref="V51:X51"/>
+    <mergeCell ref="Y51:AK51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:H52"/>
+    <mergeCell ref="I52:L52"/>
+    <mergeCell ref="M52:N52"/>
+    <mergeCell ref="O52:P52"/>
+    <mergeCell ref="Q52:R52"/>
+    <mergeCell ref="S52:U52"/>
+    <mergeCell ref="V52:X52"/>
+    <mergeCell ref="Y52:AK52"/>
     <mergeCell ref="S53:U53"/>
     <mergeCell ref="V53:X53"/>
     <mergeCell ref="Y53:AK53"/>
@@ -10684,123 +11267,26 @@
     <mergeCell ref="M53:N53"/>
     <mergeCell ref="O53:P53"/>
     <mergeCell ref="Q53:R53"/>
-    <mergeCell ref="Y51:AK51"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="C52:H52"/>
-    <mergeCell ref="I52:L52"/>
-    <mergeCell ref="M52:N52"/>
-    <mergeCell ref="O52:P52"/>
-    <mergeCell ref="Q52:R52"/>
-    <mergeCell ref="S52:U52"/>
-    <mergeCell ref="V52:X52"/>
-    <mergeCell ref="Y52:AK52"/>
-    <mergeCell ref="V50:X50"/>
-    <mergeCell ref="Y50:AK50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="C51:H51"/>
-    <mergeCell ref="I51:L51"/>
-    <mergeCell ref="M51:N51"/>
-    <mergeCell ref="O51:P51"/>
-    <mergeCell ref="Q51:R51"/>
-    <mergeCell ref="S51:U51"/>
-    <mergeCell ref="V51:X51"/>
-    <mergeCell ref="S49:U49"/>
-    <mergeCell ref="V49:X49"/>
-    <mergeCell ref="Y49:AK49"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="C50:H50"/>
-    <mergeCell ref="I50:L50"/>
-    <mergeCell ref="M50:N50"/>
-    <mergeCell ref="O50:P50"/>
-    <mergeCell ref="Q50:R50"/>
-    <mergeCell ref="S50:U50"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="C49:H49"/>
-    <mergeCell ref="I49:L49"/>
-    <mergeCell ref="M49:N49"/>
-    <mergeCell ref="O49:P49"/>
-    <mergeCell ref="Q49:R49"/>
-    <mergeCell ref="Y47:AK47"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="C48:H48"/>
-    <mergeCell ref="I48:L48"/>
-    <mergeCell ref="M48:N48"/>
-    <mergeCell ref="O48:P48"/>
-    <mergeCell ref="Q48:R48"/>
-    <mergeCell ref="S48:U48"/>
-    <mergeCell ref="V48:X48"/>
-    <mergeCell ref="Y48:AK48"/>
-    <mergeCell ref="V46:X46"/>
-    <mergeCell ref="Y46:AK46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="C47:H47"/>
-    <mergeCell ref="I47:L47"/>
-    <mergeCell ref="M47:N47"/>
-    <mergeCell ref="O47:P47"/>
-    <mergeCell ref="Q47:R47"/>
-    <mergeCell ref="S47:U47"/>
-    <mergeCell ref="V47:X47"/>
-    <mergeCell ref="S45:U45"/>
-    <mergeCell ref="V45:X45"/>
-    <mergeCell ref="Y45:AK45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="C46:H46"/>
-    <mergeCell ref="I46:L46"/>
-    <mergeCell ref="M46:N46"/>
-    <mergeCell ref="O46:P46"/>
-    <mergeCell ref="Q46:R46"/>
-    <mergeCell ref="S46:U46"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="C45:H45"/>
-    <mergeCell ref="I45:L45"/>
-    <mergeCell ref="M45:N45"/>
-    <mergeCell ref="O45:P45"/>
-    <mergeCell ref="Q45:R45"/>
-    <mergeCell ref="Y43:AK43"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="C44:H44"/>
-    <mergeCell ref="I44:L44"/>
-    <mergeCell ref="M44:N44"/>
-    <mergeCell ref="O44:P44"/>
-    <mergeCell ref="Q44:R44"/>
-    <mergeCell ref="S44:U44"/>
-    <mergeCell ref="V44:X44"/>
-    <mergeCell ref="Y44:AK44"/>
-    <mergeCell ref="V41:X42"/>
-    <mergeCell ref="Y41:AK42"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="C43:H43"/>
-    <mergeCell ref="I43:L43"/>
-    <mergeCell ref="M43:N43"/>
-    <mergeCell ref="O43:P43"/>
-    <mergeCell ref="Q43:R43"/>
-    <mergeCell ref="S43:U43"/>
-    <mergeCell ref="V43:X43"/>
-    <mergeCell ref="AF4:AH5"/>
-    <mergeCell ref="AI4:AK5"/>
-    <mergeCell ref="O37:P37"/>
-    <mergeCell ref="A41:B42"/>
-    <mergeCell ref="C41:H42"/>
-    <mergeCell ref="I41:L42"/>
-    <mergeCell ref="M41:N42"/>
-    <mergeCell ref="O41:P42"/>
-    <mergeCell ref="Q41:R42"/>
-    <mergeCell ref="S41:U42"/>
-    <mergeCell ref="A4:H5"/>
-    <mergeCell ref="I4:O5"/>
-    <mergeCell ref="P4:R5"/>
-    <mergeCell ref="S4:Y5"/>
-    <mergeCell ref="Z4:AB5"/>
-    <mergeCell ref="AC4:AE5"/>
-    <mergeCell ref="A1:AK1"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="I3:O3"/>
-    <mergeCell ref="P3:R3"/>
-    <mergeCell ref="S3:Y3"/>
-    <mergeCell ref="Z3:AB3"/>
-    <mergeCell ref="AC3:AE3"/>
-    <mergeCell ref="AF3:AH3"/>
-    <mergeCell ref="AI3:AK3"/>
+    <mergeCell ref="V54:X54"/>
+    <mergeCell ref="Y54:AK54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="C55:H55"/>
+    <mergeCell ref="I55:L55"/>
+    <mergeCell ref="M55:N55"/>
+    <mergeCell ref="O55:P55"/>
+    <mergeCell ref="Q55:R55"/>
+    <mergeCell ref="S55:U55"/>
+    <mergeCell ref="V55:X55"/>
+    <mergeCell ref="Y55:AK55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="C56:H56"/>
+    <mergeCell ref="I56:L56"/>
+    <mergeCell ref="M56:N56"/>
+    <mergeCell ref="O56:P56"/>
+    <mergeCell ref="Q56:R56"/>
+    <mergeCell ref="S56:U56"/>
+    <mergeCell ref="V56:X56"/>
+    <mergeCell ref="Y56:AK56"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>

--- a/設計書/画面レイアウト/チャット選択面（変更）.xlsx
+++ b/設計書/画面レイアウト/チャット選択面（変更）.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81702\Desktop\SAKURA\設計書\画面レイアウト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0CC73ED-0D12-4A69-8E0D-65B668C4F23A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{985BE689-A82D-4F25-BB3F-1B6E357959F6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="（G6-1)チャット選択画面" sheetId="12" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="62">
   <si>
     <t>画面レイアウト</t>
     <rPh sb="0" eb="2">
@@ -334,34 +334,11 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>④の入力フォームに文字を打ち込み⑤の送信ボタンで相手へ送信する</t>
-    <rPh sb="2" eb="4">
-      <t>ノニュウリョクフ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>ソウシn</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>チャット画面</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>G6-3</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>①のプロフィール画像を押下し相手のプロフィール閲覧画面へ遷移する</t>
-    <rPh sb="14" eb="16">
-      <t>シアイテ</t>
-    </rPh>
-    <rPh sb="23" eb="27">
-      <t>エツラn</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>センイ</t>
-    </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -376,22 +353,7 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>　・</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>　</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>プロフィール画像押下　→ プロフィール閲覧画面</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>戻るボタン（⑤）を押下　→ チャット選択画面</t>
-    <rPh sb="0" eb="1">
-      <t>モドル</t>
-    </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -455,6 +417,61 @@
     <t>④を押下した時に押下した相手とのチャット画面へ遷移する</t>
     <rPh sb="2" eb="4">
       <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>④の入力フォームに文字を打ち込み、送信ボタンを押下</t>
+    <rPh sb="2" eb="4">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ソウシン</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>→メッセージとしてチャット画面に反映</t>
+    <rPh sb="13" eb="15">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ハンエイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>⑥戻るを押下する</t>
+    <rPh sb="1" eb="2">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>→チャット選択画面へ遷移</t>
+    <rPh sb="5" eb="7">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>センイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -739,13 +756,28 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -764,21 +796,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -823,18 +840,6 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -843,6 +848,18 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2015,8 +2032,8 @@
       <xdr:rowOff>152981</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>290116</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1479</xdr:colOff>
       <xdr:row>37</xdr:row>
       <xdr:rowOff>128253</xdr:rowOff>
     </xdr:to>
@@ -2360,8 +2377,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3236059" y="1886683"/>
-          <a:ext cx="409085" cy="250337"/>
+          <a:off x="3187213" y="1929239"/>
+          <a:ext cx="404644" cy="259958"/>
           <a:chOff x="3601569" y="1953932"/>
           <a:chExt cx="298610" cy="205399"/>
         </a:xfrm>
@@ -2559,8 +2576,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2890498" y="2367594"/>
-          <a:ext cx="427542" cy="205399"/>
+          <a:off x="2850533" y="2424581"/>
+          <a:ext cx="418661" cy="210210"/>
           <a:chOff x="3378960" y="2459180"/>
           <a:chExt cx="427542" cy="205399"/>
         </a:xfrm>
@@ -3332,15 +3349,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>38316</xdr:colOff>
+      <xdr:colOff>38315</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>9616</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>166733</xdr:colOff>
+      <xdr:colOff>217713</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>33847</xdr:rowOff>
+      <xdr:rowOff>145143</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3355,8 +3372,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="358240" y="746410"/>
-          <a:ext cx="5247195" cy="5162399"/>
+          <a:off x="328601" y="699045"/>
+          <a:ext cx="4823969" cy="5318336"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3531,14 +3548,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>281144</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>87620</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>58170</xdr:rowOff>
+      <xdr:rowOff>78619</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>242367</xdr:colOff>
+      <xdr:colOff>266096</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>106641</xdr:rowOff>
     </xdr:to>
@@ -3555,8 +3572,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="281144" y="2365498"/>
-          <a:ext cx="601070" cy="513815"/>
+          <a:off x="377906" y="2334381"/>
+          <a:ext cx="468761" cy="499736"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3827,13 +3844,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>48473</xdr:colOff>
+      <xdr:colOff>48472</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>96948</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>164810</xdr:colOff>
+      <xdr:colOff>205618</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>87253</xdr:rowOff>
     </xdr:to>
@@ -3850,8 +3867,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="368397" y="1473589"/>
-          <a:ext cx="5235115" cy="610763"/>
+          <a:off x="338758" y="1409281"/>
+          <a:ext cx="4801717" cy="619258"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4030,15 +4047,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>71509</xdr:colOff>
+      <xdr:colOff>119890</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>67862</xdr:rowOff>
+      <xdr:rowOff>98100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>184197</xdr:colOff>
+      <xdr:colOff>232578</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>77557</xdr:rowOff>
+      <xdr:rowOff>107795</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4070,8 +4087,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="391433" y="2375190"/>
-          <a:ext cx="432611" cy="475039"/>
+          <a:off x="410176" y="2353862"/>
+          <a:ext cx="402973" cy="481409"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -4157,15 +4174,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>174504</xdr:colOff>
+      <xdr:colOff>277314</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>67864</xdr:rowOff>
+      <xdr:rowOff>152530</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>9695</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>145421</xdr:rowOff>
+      <xdr:colOff>112505</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>72849</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4180,8 +4197,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="814351" y="2840536"/>
-          <a:ext cx="2074657" cy="387786"/>
+          <a:off x="857885" y="2880006"/>
+          <a:ext cx="1867191" cy="392033"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
           <a:avLst>
@@ -4303,15 +4320,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>19389</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>135725</xdr:rowOff>
+      <xdr:colOff>104055</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>2677</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>132077</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>145421</xdr:rowOff>
+      <xdr:colOff>216743</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>12373</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4343,8 +4360,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="339313" y="3839084"/>
-          <a:ext cx="432611" cy="475039"/>
+          <a:off x="394341" y="3830820"/>
+          <a:ext cx="402973" cy="481410"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -4430,15 +4447,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>122384</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>126033</xdr:rowOff>
+      <xdr:colOff>237289</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>17175</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>277499</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>102119</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>48475</xdr:rowOff>
+      <xdr:rowOff>96855</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4453,8 +4470,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="762231" y="4294735"/>
-          <a:ext cx="2074657" cy="387786"/>
+          <a:off x="817860" y="4317032"/>
+          <a:ext cx="1896830" cy="394156"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
           <a:avLst>
@@ -4503,13 +4520,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>48473</xdr:colOff>
+      <xdr:colOff>102902</xdr:colOff>
       <xdr:row>35</xdr:row>
       <xdr:rowOff>145420</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>29083</xdr:colOff>
+      <xdr:colOff>90714</xdr:colOff>
       <xdr:row>38</xdr:row>
       <xdr:rowOff>48473</xdr:rowOff>
     </xdr:to>
@@ -4526,8 +4543,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="368397" y="5555038"/>
-          <a:ext cx="5099388" cy="368397"/>
+          <a:off x="393188" y="5545944"/>
+          <a:ext cx="4632383" cy="374767"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -4571,15 +4588,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>126031</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>155114</xdr:rowOff>
+      <xdr:colOff>145143</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>30237</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>38779</xdr:colOff>
+      <xdr:colOff>36285</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>9694</xdr:rowOff>
+      <xdr:rowOff>15740</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4594,8 +4611,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4604962" y="5564732"/>
-          <a:ext cx="872519" cy="319924"/>
+          <a:off x="4209143" y="5587999"/>
+          <a:ext cx="761999" cy="299979"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -4627,7 +4644,11 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>　送信</a:t>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+            <a:t>送信</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -4637,15 +4658,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>74842</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>152402</xdr:rowOff>
+      <xdr:colOff>232080</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>102810</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>116336</xdr:colOff>
+      <xdr:colOff>175381</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>96947</xdr:rowOff>
+      <xdr:rowOff>115090</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4660,8 +4681,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="714689" y="2769959"/>
-          <a:ext cx="2280960" cy="565003"/>
+          <a:off x="812651" y="2830286"/>
+          <a:ext cx="1975301" cy="483994"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4703,15 +4724,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>123317</xdr:colOff>
+      <xdr:colOff>153555</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>16676</xdr:rowOff>
+      <xdr:rowOff>101343</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>315950</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>30502</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>63324</xdr:rowOff>
+      <xdr:rowOff>147991</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4726,8 +4747,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3002630" y="2634233"/>
-          <a:ext cx="192633" cy="201763"/>
+          <a:off x="2766126" y="2671581"/>
+          <a:ext cx="167233" cy="203886"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4774,15 +4795,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>290377</xdr:colOff>
+      <xdr:colOff>284239</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>116257</xdr:rowOff>
+      <xdr:rowOff>139094</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>11948</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>272144</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>60802</xdr:rowOff>
+      <xdr:rowOff>18143</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4797,8 +4818,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3169690" y="3509387"/>
-          <a:ext cx="2280960" cy="565003"/>
+          <a:off x="2896810" y="3495523"/>
+          <a:ext cx="2019905" cy="508001"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4911,15 +4932,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>9694</xdr:colOff>
+      <xdr:colOff>106456</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>38778</xdr:rowOff>
+      <xdr:rowOff>50873</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>122382</xdr:colOff>
+      <xdr:colOff>219144</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>48474</xdr:rowOff>
+      <xdr:rowOff>60569</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4951,8 +4972,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="329618" y="4672824"/>
-          <a:ext cx="432611" cy="475039"/>
+          <a:off x="396742" y="4665206"/>
+          <a:ext cx="402973" cy="481411"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -4964,15 +4985,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>112689</xdr:colOff>
+      <xdr:colOff>233642</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>38781</xdr:rowOff>
+      <xdr:rowOff>44829</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>19389</xdr:colOff>
+      <xdr:colOff>140342</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>87252</xdr:rowOff>
+      <xdr:rowOff>93300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4987,8 +5008,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="752536" y="5138170"/>
-          <a:ext cx="2466090" cy="358700"/>
+          <a:off x="814213" y="5130877"/>
+          <a:ext cx="2228986" cy="362947"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
           <a:avLst>
@@ -5036,16 +5057,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>222976</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>169333</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>9694</xdr:rowOff>
+      <xdr:rowOff>24190</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>116336</xdr:colOff>
+      <xdr:colOff>13526</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>67862</xdr:rowOff>
+      <xdr:rowOff>13433</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5060,8 +5081,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="222976" y="5574427"/>
-          <a:ext cx="4372291" cy="368397"/>
+          <a:off x="459619" y="5581952"/>
+          <a:ext cx="3617907" cy="303719"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5104,14 +5125,14 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>222977</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>110577</xdr:rowOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>12947</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>241106</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>87822</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>29084</xdr:rowOff>
+      <xdr:rowOff>29085</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -5122,12 +5143,14 @@
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="77" idx="2"/>
+        </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="4062061" y="5365081"/>
-          <a:ext cx="18129" cy="228736"/>
+          <a:off x="3706406" y="5413471"/>
+          <a:ext cx="155130" cy="173376"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -5157,16 +5180,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>145419</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>6325</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>87252</xdr:rowOff>
+      <xdr:rowOff>123537</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>18128</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>133900</xdr:rowOff>
+      <xdr:colOff>169319</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>12947</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5181,8 +5204,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3984503" y="5186641"/>
-          <a:ext cx="192633" cy="201763"/>
+          <a:off x="3780039" y="5209585"/>
+          <a:ext cx="162994" cy="203886"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5234,15 +5257,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>27823</xdr:colOff>
+      <xdr:colOff>38779</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>52409</xdr:rowOff>
+      <xdr:rowOff>96276</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>38778</xdr:colOff>
+      <xdr:colOff>158177</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>58168</xdr:rowOff>
+      <xdr:rowOff>58169</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -5253,12 +5276,14 @@
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="80" idx="2"/>
+        </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="5146602" y="5306913"/>
-          <a:ext cx="10955" cy="160873"/>
+        <a:xfrm flipV="1">
+          <a:off x="4683350" y="5339562"/>
+          <a:ext cx="119398" cy="119131"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -5288,16 +5313,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>252061</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>76680</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>19390</xdr:rowOff>
+      <xdr:rowOff>49628</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>124770</xdr:colOff>
+      <xdr:colOff>239674</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>66038</xdr:rowOff>
+      <xdr:rowOff>96276</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5312,8 +5337,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5050916" y="5118779"/>
-          <a:ext cx="192633" cy="201763"/>
+          <a:off x="4721251" y="5135676"/>
+          <a:ext cx="162994" cy="203886"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5360,15 +5385,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>126031</xdr:colOff>
+      <xdr:colOff>114905</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>67863</xdr:rowOff>
+      <xdr:rowOff>84666</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>126031</xdr:colOff>
+      <xdr:colOff>59507</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>67862</xdr:rowOff>
+      <xdr:rowOff>79957</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5383,8 +5408,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4604962" y="5477481"/>
-          <a:ext cx="959771" cy="465343"/>
+          <a:off x="4178905" y="5485190"/>
+          <a:ext cx="815459" cy="467005"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5425,16 +5450,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>135726</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>145420</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>100263</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>28447</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>145420</xdr:colOff>
+      <xdr:colOff>142039</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>77557</xdr:rowOff>
+      <xdr:rowOff>50132</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5449,8 +5474,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="135726" y="1522061"/>
-          <a:ext cx="969465" cy="397481"/>
+          <a:off x="392697" y="1498973"/>
+          <a:ext cx="626645" cy="339185"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5618,13 +5643,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>232672</xdr:colOff>
+      <xdr:colOff>232671</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>9694</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>100262</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>96946</xdr:rowOff>
     </xdr:to>
@@ -5641,8 +5666,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1832290" y="1541450"/>
-          <a:ext cx="2006794" cy="397481"/>
+          <a:off x="1694842" y="1480220"/>
+          <a:ext cx="1914631" cy="404752"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6109,8 +6134,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB6FAF31-7FA1-4843-A935-57F7BF0F397F}">
   <dimension ref="A1:AQ59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="104" zoomScaleNormal="135" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="Y46" sqref="Y46:AK46"/>
+    <sheetView zoomScale="66" zoomScaleNormal="135" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="T9" sqref="T9:AB11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
@@ -6124,45 +6149,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="12.75" customHeight="1">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
-      <c r="J1" s="56"/>
-      <c r="K1" s="56"/>
-      <c r="L1" s="56"/>
-      <c r="M1" s="56"/>
-      <c r="N1" s="56"/>
-      <c r="O1" s="56"/>
-      <c r="P1" s="56"/>
-      <c r="Q1" s="56"/>
-      <c r="R1" s="56"/>
-      <c r="S1" s="56"/>
-      <c r="T1" s="56"/>
-      <c r="U1" s="56"/>
-      <c r="V1" s="56"/>
-      <c r="W1" s="56"/>
-      <c r="X1" s="56"/>
-      <c r="Y1" s="56"/>
-      <c r="Z1" s="56"/>
-      <c r="AA1" s="56"/>
-      <c r="AB1" s="56"/>
-      <c r="AC1" s="56"/>
-      <c r="AD1" s="56"/>
-      <c r="AE1" s="56"/>
-      <c r="AF1" s="56"/>
-      <c r="AG1" s="56"/>
-      <c r="AH1" s="56"/>
-      <c r="AI1" s="56"/>
-      <c r="AJ1" s="56"/>
-      <c r="AK1" s="56"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="28"/>
+      <c r="P1" s="28"/>
+      <c r="Q1" s="28"/>
+      <c r="R1" s="28"/>
+      <c r="S1" s="28"/>
+      <c r="T1" s="28"/>
+      <c r="U1" s="28"/>
+      <c r="V1" s="28"/>
+      <c r="W1" s="28"/>
+      <c r="X1" s="28"/>
+      <c r="Y1" s="28"/>
+      <c r="Z1" s="28"/>
+      <c r="AA1" s="28"/>
+      <c r="AB1" s="28"/>
+      <c r="AC1" s="28"/>
+      <c r="AD1" s="28"/>
+      <c r="AE1" s="28"/>
+      <c r="AF1" s="28"/>
+      <c r="AG1" s="28"/>
+      <c r="AH1" s="28"/>
+      <c r="AI1" s="28"/>
+      <c r="AJ1" s="28"/>
+      <c r="AK1" s="28"/>
     </row>
     <row r="2" spans="1:37" ht="6" customHeight="1">
       <c r="A2" s="2"/>
@@ -6204,59 +6229,59 @@
       <c r="AK2" s="2"/>
     </row>
     <row r="3" spans="1:37" ht="12">
-      <c r="A3" s="57" t="s">
+      <c r="A3" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="58"/>
-      <c r="C3" s="58"/>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="59"/>
-      <c r="I3" s="57" t="s">
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="J3" s="58"/>
-      <c r="K3" s="58"/>
-      <c r="L3" s="58"/>
-      <c r="M3" s="58"/>
-      <c r="N3" s="58"/>
-      <c r="O3" s="59"/>
-      <c r="P3" s="57" t="s">
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="30"/>
+      <c r="N3" s="30"/>
+      <c r="O3" s="31"/>
+      <c r="P3" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="Q3" s="58"/>
-      <c r="R3" s="59"/>
-      <c r="S3" s="57" t="s">
+      <c r="Q3" s="30"/>
+      <c r="R3" s="31"/>
+      <c r="S3" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="T3" s="58"/>
-      <c r="U3" s="58"/>
-      <c r="V3" s="58"/>
-      <c r="W3" s="58"/>
-      <c r="X3" s="58"/>
-      <c r="Y3" s="59"/>
-      <c r="Z3" s="57" t="s">
+      <c r="T3" s="30"/>
+      <c r="U3" s="30"/>
+      <c r="V3" s="30"/>
+      <c r="W3" s="30"/>
+      <c r="X3" s="30"/>
+      <c r="Y3" s="31"/>
+      <c r="Z3" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="AA3" s="58"/>
-      <c r="AB3" s="59"/>
-      <c r="AC3" s="57" t="s">
+      <c r="AA3" s="30"/>
+      <c r="AB3" s="31"/>
+      <c r="AC3" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="AD3" s="58"/>
-      <c r="AE3" s="59"/>
-      <c r="AF3" s="57" t="s">
+      <c r="AD3" s="30"/>
+      <c r="AE3" s="31"/>
+      <c r="AF3" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="AG3" s="58"/>
-      <c r="AH3" s="59"/>
-      <c r="AI3" s="57" t="s">
+      <c r="AG3" s="30"/>
+      <c r="AH3" s="31"/>
+      <c r="AI3" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="AJ3" s="58"/>
-      <c r="AK3" s="59"/>
+      <c r="AJ3" s="30"/>
+      <c r="AK3" s="31"/>
     </row>
     <row r="4" spans="1:37" ht="12" customHeight="1">
       <c r="A4" s="43" t="s">
@@ -6302,16 +6327,16 @@
       </c>
       <c r="AD4" s="44"/>
       <c r="AE4" s="45"/>
-      <c r="AF4" s="31" t="s">
+      <c r="AF4" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="AG4" s="32"/>
-      <c r="AH4" s="33"/>
-      <c r="AI4" s="31" t="s">
+      <c r="AG4" s="37"/>
+      <c r="AH4" s="38"/>
+      <c r="AI4" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="AJ4" s="32"/>
-      <c r="AK4" s="33"/>
+      <c r="AJ4" s="37"/>
+      <c r="AK4" s="38"/>
     </row>
     <row r="5" spans="1:37" ht="12">
       <c r="A5" s="43"/>
@@ -6345,12 +6370,12 @@
       <c r="AC5" s="49"/>
       <c r="AD5" s="46"/>
       <c r="AE5" s="47"/>
-      <c r="AF5" s="34"/>
-      <c r="AG5" s="35"/>
-      <c r="AH5" s="36"/>
-      <c r="AI5" s="34"/>
-      <c r="AJ5" s="35"/>
-      <c r="AK5" s="36"/>
+      <c r="AF5" s="39"/>
+      <c r="AG5" s="40"/>
+      <c r="AH5" s="41"/>
+      <c r="AI5" s="39"/>
+      <c r="AJ5" s="40"/>
+      <c r="AK5" s="41"/>
     </row>
     <row r="6" spans="1:37" ht="12">
       <c r="A6" s="3"/>
@@ -6495,7 +6520,7 @@
         <v>1</v>
       </c>
       <c r="U9" s="9" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="V9" s="9"/>
       <c r="W9" s="9"/>
@@ -6534,7 +6559,7 @@
       <c r="Q10" s="9"/>
       <c r="R10" s="10"/>
       <c r="S10" s="9" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="V10" s="9"/>
       <c r="W10" s="9"/>
@@ -6575,7 +6600,7 @@
       <c r="S11" s="9"/>
       <c r="T11" s="9"/>
       <c r="U11" s="9" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="V11" s="9"/>
       <c r="W11" s="9"/>
@@ -6653,13 +6678,13 @@
       <c r="Q13" s="9"/>
       <c r="R13" s="10"/>
       <c r="S13" s="9" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="T13" s="9">
         <v>2</v>
       </c>
       <c r="U13" s="9" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="V13" s="9"/>
       <c r="W13" s="9"/>
@@ -6738,7 +6763,7 @@
       <c r="R15" s="10"/>
       <c r="S15" s="9"/>
       <c r="U15" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="V15" s="9"/>
       <c r="W15" s="9"/>
@@ -7719,61 +7744,61 @@
       <c r="AK40" s="16"/>
     </row>
     <row r="41" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A41" s="31" t="s">
+      <c r="A41" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="B41" s="33"/>
-      <c r="C41" s="31" t="s">
+      <c r="B41" s="38"/>
+      <c r="C41" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="D41" s="32"/>
-      <c r="E41" s="32"/>
-      <c r="F41" s="32"/>
-      <c r="G41" s="32"/>
-      <c r="H41" s="33"/>
-      <c r="I41" s="31" t="s">
+      <c r="D41" s="37"/>
+      <c r="E41" s="37"/>
+      <c r="F41" s="37"/>
+      <c r="G41" s="37"/>
+      <c r="H41" s="38"/>
+      <c r="I41" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="J41" s="32"/>
-      <c r="K41" s="32"/>
-      <c r="L41" s="33"/>
-      <c r="M41" s="31" t="s">
+      <c r="J41" s="37"/>
+      <c r="K41" s="37"/>
+      <c r="L41" s="38"/>
+      <c r="M41" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="N41" s="33"/>
-      <c r="O41" s="31" t="s">
+      <c r="N41" s="38"/>
+      <c r="O41" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="P41" s="33"/>
-      <c r="Q41" s="41" t="s">
+      <c r="P41" s="38"/>
+      <c r="Q41" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="R41" s="41"/>
-      <c r="S41" s="31" t="s">
+      <c r="R41" s="35"/>
+      <c r="S41" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="T41" s="32"/>
-      <c r="U41" s="33"/>
-      <c r="V41" s="31" t="s">
+      <c r="T41" s="37"/>
+      <c r="U41" s="38"/>
+      <c r="V41" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="W41" s="32"/>
-      <c r="X41" s="33"/>
-      <c r="Y41" s="31" t="s">
+      <c r="W41" s="37"/>
+      <c r="X41" s="38"/>
+      <c r="Y41" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="Z41" s="32"/>
-      <c r="AA41" s="32"/>
-      <c r="AB41" s="32"/>
-      <c r="AC41" s="32"/>
-      <c r="AD41" s="32"/>
-      <c r="AE41" s="32"/>
-      <c r="AF41" s="32"/>
-      <c r="AG41" s="32"/>
-      <c r="AH41" s="32"/>
-      <c r="AI41" s="32"/>
-      <c r="AJ41" s="32"/>
-      <c r="AK41" s="33"/>
+      <c r="Z41" s="37"/>
+      <c r="AA41" s="37"/>
+      <c r="AB41" s="37"/>
+      <c r="AC41" s="37"/>
+      <c r="AD41" s="37"/>
+      <c r="AE41" s="37"/>
+      <c r="AF41" s="37"/>
+      <c r="AG41" s="37"/>
+      <c r="AH41" s="37"/>
+      <c r="AI41" s="37"/>
+      <c r="AJ41" s="37"/>
+      <c r="AK41" s="38"/>
       <c r="AL41" s="24"/>
       <c r="AM41" s="24"/>
       <c r="AN41" s="24"/>
@@ -7782,43 +7807,43 @@
       <c r="AQ41" s="24"/>
     </row>
     <row r="42" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A42" s="34"/>
-      <c r="B42" s="36"/>
-      <c r="C42" s="34"/>
-      <c r="D42" s="35"/>
-      <c r="E42" s="35"/>
-      <c r="F42" s="35"/>
-      <c r="G42" s="35"/>
-      <c r="H42" s="36"/>
-      <c r="I42" s="34"/>
-      <c r="J42" s="35"/>
-      <c r="K42" s="35"/>
-      <c r="L42" s="36"/>
-      <c r="M42" s="34"/>
-      <c r="N42" s="36"/>
-      <c r="O42" s="34"/>
-      <c r="P42" s="36"/>
-      <c r="Q42" s="41"/>
-      <c r="R42" s="41"/>
-      <c r="S42" s="34"/>
-      <c r="T42" s="35"/>
-      <c r="U42" s="36"/>
-      <c r="V42" s="34"/>
-      <c r="W42" s="35"/>
-      <c r="X42" s="36"/>
-      <c r="Y42" s="34"/>
-      <c r="Z42" s="35"/>
-      <c r="AA42" s="35"/>
-      <c r="AB42" s="35"/>
-      <c r="AC42" s="35"/>
-      <c r="AD42" s="35"/>
-      <c r="AE42" s="35"/>
-      <c r="AF42" s="35"/>
-      <c r="AG42" s="35"/>
-      <c r="AH42" s="35"/>
-      <c r="AI42" s="35"/>
-      <c r="AJ42" s="35"/>
-      <c r="AK42" s="36"/>
+      <c r="A42" s="39"/>
+      <c r="B42" s="41"/>
+      <c r="C42" s="39"/>
+      <c r="D42" s="40"/>
+      <c r="E42" s="40"/>
+      <c r="F42" s="40"/>
+      <c r="G42" s="40"/>
+      <c r="H42" s="41"/>
+      <c r="I42" s="39"/>
+      <c r="J42" s="40"/>
+      <c r="K42" s="40"/>
+      <c r="L42" s="41"/>
+      <c r="M42" s="39"/>
+      <c r="N42" s="41"/>
+      <c r="O42" s="39"/>
+      <c r="P42" s="41"/>
+      <c r="Q42" s="35"/>
+      <c r="R42" s="35"/>
+      <c r="S42" s="39"/>
+      <c r="T42" s="40"/>
+      <c r="U42" s="41"/>
+      <c r="V42" s="39"/>
+      <c r="W42" s="40"/>
+      <c r="X42" s="41"/>
+      <c r="Y42" s="39"/>
+      <c r="Z42" s="40"/>
+      <c r="AA42" s="40"/>
+      <c r="AB42" s="40"/>
+      <c r="AC42" s="40"/>
+      <c r="AD42" s="40"/>
+      <c r="AE42" s="40"/>
+      <c r="AF42" s="40"/>
+      <c r="AG42" s="40"/>
+      <c r="AH42" s="40"/>
+      <c r="AI42" s="40"/>
+      <c r="AJ42" s="40"/>
+      <c r="AK42" s="41"/>
       <c r="AL42" s="24"/>
       <c r="AM42" s="24"/>
       <c r="AN42" s="24"/>
@@ -7827,61 +7852,61 @@
       <c r="AQ42" s="24"/>
     </row>
     <row r="43" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A43" s="28">
+      <c r="A43" s="32">
         <v>1</v>
       </c>
-      <c r="B43" s="30"/>
-      <c r="C43" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="D43" s="29"/>
-      <c r="E43" s="29"/>
-      <c r="F43" s="29"/>
-      <c r="G43" s="29"/>
-      <c r="H43" s="30"/>
-      <c r="I43" s="28" t="s">
+      <c r="B43" s="33"/>
+      <c r="C43" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="D43" s="34"/>
+      <c r="E43" s="34"/>
+      <c r="F43" s="34"/>
+      <c r="G43" s="34"/>
+      <c r="H43" s="33"/>
+      <c r="I43" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="J43" s="29"/>
-      <c r="K43" s="29"/>
-      <c r="L43" s="30"/>
-      <c r="M43" s="28" t="s">
+      <c r="J43" s="34"/>
+      <c r="K43" s="34"/>
+      <c r="L43" s="33"/>
+      <c r="M43" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="N43" s="30"/>
-      <c r="O43" s="28" t="s">
+      <c r="N43" s="33"/>
+      <c r="O43" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="P43" s="30"/>
-      <c r="Q43" s="41" t="s">
+      <c r="P43" s="33"/>
+      <c r="Q43" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="R43" s="41"/>
-      <c r="S43" s="28" t="s">
+      <c r="R43" s="35"/>
+      <c r="S43" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="T43" s="29"/>
-      <c r="U43" s="30"/>
-      <c r="V43" s="28" t="s">
+      <c r="T43" s="34"/>
+      <c r="U43" s="33"/>
+      <c r="V43" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="W43" s="29"/>
-      <c r="X43" s="30"/>
-      <c r="Y43" s="60" t="s">
+      <c r="W43" s="34"/>
+      <c r="X43" s="33"/>
+      <c r="Y43" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="Z43" s="61"/>
-      <c r="AA43" s="61"/>
-      <c r="AB43" s="61"/>
-      <c r="AC43" s="61"/>
-      <c r="AD43" s="61"/>
-      <c r="AE43" s="61"/>
-      <c r="AF43" s="61"/>
-      <c r="AG43" s="61"/>
-      <c r="AH43" s="61"/>
-      <c r="AI43" s="61"/>
-      <c r="AJ43" s="61"/>
-      <c r="AK43" s="62"/>
+      <c r="Z43" s="57"/>
+      <c r="AA43" s="57"/>
+      <c r="AB43" s="57"/>
+      <c r="AC43" s="57"/>
+      <c r="AD43" s="57"/>
+      <c r="AE43" s="57"/>
+      <c r="AF43" s="57"/>
+      <c r="AG43" s="57"/>
+      <c r="AH43" s="57"/>
+      <c r="AI43" s="57"/>
+      <c r="AJ43" s="57"/>
+      <c r="AK43" s="58"/>
       <c r="AL43" s="24"/>
       <c r="AM43" s="24"/>
       <c r="AN43" s="24"/>
@@ -7890,61 +7915,61 @@
       <c r="AQ43" s="24"/>
     </row>
     <row r="44" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A44" s="28">
+      <c r="A44" s="32">
         <v>2</v>
       </c>
-      <c r="B44" s="30"/>
-      <c r="C44" s="28" t="s">
+      <c r="B44" s="33"/>
+      <c r="C44" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="D44" s="29"/>
-      <c r="E44" s="29"/>
-      <c r="F44" s="29"/>
-      <c r="G44" s="29"/>
-      <c r="H44" s="30"/>
-      <c r="I44" s="28" t="s">
+      <c r="D44" s="34"/>
+      <c r="E44" s="34"/>
+      <c r="F44" s="34"/>
+      <c r="G44" s="34"/>
+      <c r="H44" s="33"/>
+      <c r="I44" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="J44" s="29"/>
-      <c r="K44" s="29"/>
-      <c r="L44" s="30"/>
-      <c r="M44" s="28" t="s">
+      <c r="J44" s="34"/>
+      <c r="K44" s="34"/>
+      <c r="L44" s="33"/>
+      <c r="M44" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="N44" s="30"/>
-      <c r="O44" s="28" t="s">
+      <c r="N44" s="33"/>
+      <c r="O44" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="P44" s="30"/>
-      <c r="Q44" s="41" t="s">
+      <c r="P44" s="33"/>
+      <c r="Q44" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="R44" s="41"/>
-      <c r="S44" s="28" t="s">
+      <c r="R44" s="35"/>
+      <c r="S44" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="T44" s="29"/>
-      <c r="U44" s="30"/>
-      <c r="V44" s="28" t="s">
+      <c r="T44" s="34"/>
+      <c r="U44" s="33"/>
+      <c r="V44" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="W44" s="29"/>
-      <c r="X44" s="30"/>
-      <c r="Y44" s="60" t="s">
+      <c r="W44" s="34"/>
+      <c r="X44" s="33"/>
+      <c r="Y44" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="Z44" s="61"/>
-      <c r="AA44" s="61"/>
-      <c r="AB44" s="61"/>
-      <c r="AC44" s="61"/>
-      <c r="AD44" s="61"/>
-      <c r="AE44" s="61"/>
-      <c r="AF44" s="61"/>
-      <c r="AG44" s="61"/>
-      <c r="AH44" s="61"/>
-      <c r="AI44" s="61"/>
-      <c r="AJ44" s="61"/>
-      <c r="AK44" s="62"/>
+      <c r="Z44" s="57"/>
+      <c r="AA44" s="57"/>
+      <c r="AB44" s="57"/>
+      <c r="AC44" s="57"/>
+      <c r="AD44" s="57"/>
+      <c r="AE44" s="57"/>
+      <c r="AF44" s="57"/>
+      <c r="AG44" s="57"/>
+      <c r="AH44" s="57"/>
+      <c r="AI44" s="57"/>
+      <c r="AJ44" s="57"/>
+      <c r="AK44" s="58"/>
       <c r="AL44" s="24"/>
       <c r="AM44" s="24"/>
       <c r="AN44" s="24"/>
@@ -7953,61 +7978,61 @@
       <c r="AQ44" s="24"/>
     </row>
     <row r="45" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A45" s="28">
+      <c r="A45" s="32">
         <v>3</v>
       </c>
-      <c r="B45" s="30"/>
-      <c r="C45" s="28" t="s">
+      <c r="B45" s="33"/>
+      <c r="C45" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="D45" s="29"/>
-      <c r="E45" s="29"/>
-      <c r="F45" s="29"/>
-      <c r="G45" s="29"/>
-      <c r="H45" s="30"/>
-      <c r="I45" s="28" t="s">
+      <c r="D45" s="34"/>
+      <c r="E45" s="34"/>
+      <c r="F45" s="34"/>
+      <c r="G45" s="34"/>
+      <c r="H45" s="33"/>
+      <c r="I45" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="J45" s="29"/>
-      <c r="K45" s="29"/>
-      <c r="L45" s="30"/>
-      <c r="M45" s="28" t="s">
+      <c r="J45" s="34"/>
+      <c r="K45" s="34"/>
+      <c r="L45" s="33"/>
+      <c r="M45" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="N45" s="30"/>
-      <c r="O45" s="28" t="s">
+      <c r="N45" s="33"/>
+      <c r="O45" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="P45" s="30"/>
-      <c r="Q45" s="41" t="s">
+      <c r="P45" s="33"/>
+      <c r="Q45" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="R45" s="41"/>
-      <c r="S45" s="28" t="s">
+      <c r="R45" s="35"/>
+      <c r="S45" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="T45" s="29"/>
-      <c r="U45" s="30"/>
-      <c r="V45" s="28" t="s">
+      <c r="T45" s="34"/>
+      <c r="U45" s="33"/>
+      <c r="V45" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="W45" s="29"/>
-      <c r="X45" s="30"/>
-      <c r="Y45" s="60" t="s">
+      <c r="W45" s="34"/>
+      <c r="X45" s="33"/>
+      <c r="Y45" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="Z45" s="61"/>
-      <c r="AA45" s="61"/>
-      <c r="AB45" s="61"/>
-      <c r="AC45" s="61"/>
-      <c r="AD45" s="61"/>
-      <c r="AE45" s="61"/>
-      <c r="AF45" s="61"/>
-      <c r="AG45" s="61"/>
-      <c r="AH45" s="61"/>
-      <c r="AI45" s="61"/>
-      <c r="AJ45" s="61"/>
-      <c r="AK45" s="62"/>
+      <c r="Z45" s="57"/>
+      <c r="AA45" s="57"/>
+      <c r="AB45" s="57"/>
+      <c r="AC45" s="57"/>
+      <c r="AD45" s="57"/>
+      <c r="AE45" s="57"/>
+      <c r="AF45" s="57"/>
+      <c r="AG45" s="57"/>
+      <c r="AH45" s="57"/>
+      <c r="AI45" s="57"/>
+      <c r="AJ45" s="57"/>
+      <c r="AK45" s="58"/>
       <c r="AL45" s="24"/>
       <c r="AM45" s="24"/>
       <c r="AN45" s="24"/>
@@ -8016,61 +8041,61 @@
       <c r="AQ45" s="24"/>
     </row>
     <row r="46" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A46" s="28">
+      <c r="A46" s="32">
         <v>4</v>
       </c>
-      <c r="B46" s="30"/>
-      <c r="C46" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="D46" s="29"/>
-      <c r="E46" s="29"/>
-      <c r="F46" s="29"/>
-      <c r="G46" s="29"/>
-      <c r="H46" s="30"/>
-      <c r="I46" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="J46" s="29"/>
-      <c r="K46" s="29"/>
-      <c r="L46" s="30"/>
-      <c r="M46" s="28" t="s">
+      <c r="B46" s="33"/>
+      <c r="C46" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="D46" s="34"/>
+      <c r="E46" s="34"/>
+      <c r="F46" s="34"/>
+      <c r="G46" s="34"/>
+      <c r="H46" s="33"/>
+      <c r="I46" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="J46" s="34"/>
+      <c r="K46" s="34"/>
+      <c r="L46" s="33"/>
+      <c r="M46" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="N46" s="30"/>
-      <c r="O46" s="28" t="s">
+      <c r="N46" s="33"/>
+      <c r="O46" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="P46" s="30"/>
-      <c r="Q46" s="28" t="s">
+      <c r="P46" s="33"/>
+      <c r="Q46" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="R46" s="30"/>
-      <c r="S46" s="28" t="s">
+      <c r="R46" s="33"/>
+      <c r="S46" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="T46" s="29"/>
-      <c r="U46" s="30"/>
-      <c r="V46" s="28" t="s">
+      <c r="T46" s="34"/>
+      <c r="U46" s="33"/>
+      <c r="V46" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="W46" s="29"/>
-      <c r="X46" s="30"/>
-      <c r="Y46" s="60" t="s">
-        <v>62</v>
-      </c>
-      <c r="Z46" s="61"/>
-      <c r="AA46" s="61"/>
-      <c r="AB46" s="61"/>
-      <c r="AC46" s="61"/>
-      <c r="AD46" s="61"/>
-      <c r="AE46" s="61"/>
-      <c r="AF46" s="61"/>
-      <c r="AG46" s="61"/>
-      <c r="AH46" s="61"/>
-      <c r="AI46" s="61"/>
-      <c r="AJ46" s="61"/>
-      <c r="AK46" s="62"/>
+      <c r="W46" s="34"/>
+      <c r="X46" s="33"/>
+      <c r="Y46" s="56" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z46" s="57"/>
+      <c r="AA46" s="57"/>
+      <c r="AB46" s="57"/>
+      <c r="AC46" s="57"/>
+      <c r="AD46" s="57"/>
+      <c r="AE46" s="57"/>
+      <c r="AF46" s="57"/>
+      <c r="AG46" s="57"/>
+      <c r="AH46" s="57"/>
+      <c r="AI46" s="57"/>
+      <c r="AJ46" s="57"/>
+      <c r="AK46" s="58"/>
       <c r="AL46" s="24"/>
       <c r="AM46" s="24"/>
       <c r="AN46" s="24"/>
@@ -8079,45 +8104,45 @@
       <c r="AQ46" s="24"/>
     </row>
     <row r="47" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A47" s="28">
+      <c r="A47" s="32">
         <v>5</v>
       </c>
-      <c r="B47" s="30"/>
-      <c r="C47" s="28"/>
-      <c r="D47" s="29"/>
-      <c r="E47" s="29"/>
-      <c r="F47" s="29"/>
-      <c r="G47" s="29"/>
-      <c r="H47" s="30"/>
-      <c r="I47" s="28"/>
-      <c r="J47" s="29"/>
-      <c r="K47" s="29"/>
-      <c r="L47" s="30"/>
-      <c r="M47" s="28"/>
-      <c r="N47" s="30"/>
-      <c r="O47" s="28"/>
-      <c r="P47" s="30"/>
-      <c r="Q47" s="41"/>
-      <c r="R47" s="41"/>
-      <c r="S47" s="28"/>
-      <c r="T47" s="29"/>
-      <c r="U47" s="30"/>
-      <c r="V47" s="28"/>
-      <c r="W47" s="29"/>
-      <c r="X47" s="30"/>
-      <c r="Y47" s="28"/>
-      <c r="Z47" s="29"/>
-      <c r="AA47" s="29"/>
-      <c r="AB47" s="29"/>
-      <c r="AC47" s="29"/>
-      <c r="AD47" s="29"/>
-      <c r="AE47" s="29"/>
-      <c r="AF47" s="29"/>
-      <c r="AG47" s="29"/>
-      <c r="AH47" s="29"/>
-      <c r="AI47" s="29"/>
-      <c r="AJ47" s="29"/>
-      <c r="AK47" s="30"/>
+      <c r="B47" s="33"/>
+      <c r="C47" s="32"/>
+      <c r="D47" s="34"/>
+      <c r="E47" s="34"/>
+      <c r="F47" s="34"/>
+      <c r="G47" s="34"/>
+      <c r="H47" s="33"/>
+      <c r="I47" s="32"/>
+      <c r="J47" s="34"/>
+      <c r="K47" s="34"/>
+      <c r="L47" s="33"/>
+      <c r="M47" s="32"/>
+      <c r="N47" s="33"/>
+      <c r="O47" s="32"/>
+      <c r="P47" s="33"/>
+      <c r="Q47" s="35"/>
+      <c r="R47" s="35"/>
+      <c r="S47" s="32"/>
+      <c r="T47" s="34"/>
+      <c r="U47" s="33"/>
+      <c r="V47" s="32"/>
+      <c r="W47" s="34"/>
+      <c r="X47" s="33"/>
+      <c r="Y47" s="32"/>
+      <c r="Z47" s="34"/>
+      <c r="AA47" s="34"/>
+      <c r="AB47" s="34"/>
+      <c r="AC47" s="34"/>
+      <c r="AD47" s="34"/>
+      <c r="AE47" s="34"/>
+      <c r="AF47" s="34"/>
+      <c r="AG47" s="34"/>
+      <c r="AH47" s="34"/>
+      <c r="AI47" s="34"/>
+      <c r="AJ47" s="34"/>
+      <c r="AK47" s="33"/>
       <c r="AL47" s="24"/>
       <c r="AM47" s="24"/>
       <c r="AN47" s="24"/>
@@ -8126,45 +8151,45 @@
       <c r="AQ47" s="24"/>
     </row>
     <row r="48" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A48" s="28">
+      <c r="A48" s="32">
         <v>6</v>
       </c>
-      <c r="B48" s="30"/>
-      <c r="C48" s="28"/>
-      <c r="D48" s="29"/>
-      <c r="E48" s="29"/>
-      <c r="F48" s="29"/>
-      <c r="G48" s="29"/>
-      <c r="H48" s="30"/>
-      <c r="I48" s="28"/>
-      <c r="J48" s="29"/>
-      <c r="K48" s="29"/>
-      <c r="L48" s="30"/>
-      <c r="M48" s="28"/>
-      <c r="N48" s="30"/>
-      <c r="O48" s="28"/>
-      <c r="P48" s="30"/>
-      <c r="Q48" s="41"/>
-      <c r="R48" s="41"/>
-      <c r="S48" s="28"/>
-      <c r="T48" s="29"/>
-      <c r="U48" s="30"/>
-      <c r="V48" s="28"/>
-      <c r="W48" s="29"/>
-      <c r="X48" s="30"/>
-      <c r="Y48" s="28"/>
-      <c r="Z48" s="29"/>
-      <c r="AA48" s="29"/>
-      <c r="AB48" s="29"/>
-      <c r="AC48" s="29"/>
-      <c r="AD48" s="29"/>
-      <c r="AE48" s="29"/>
-      <c r="AF48" s="29"/>
-      <c r="AG48" s="29"/>
-      <c r="AH48" s="29"/>
-      <c r="AI48" s="29"/>
-      <c r="AJ48" s="29"/>
-      <c r="AK48" s="30"/>
+      <c r="B48" s="33"/>
+      <c r="C48" s="32"/>
+      <c r="D48" s="34"/>
+      <c r="E48" s="34"/>
+      <c r="F48" s="34"/>
+      <c r="G48" s="34"/>
+      <c r="H48" s="33"/>
+      <c r="I48" s="32"/>
+      <c r="J48" s="34"/>
+      <c r="K48" s="34"/>
+      <c r="L48" s="33"/>
+      <c r="M48" s="32"/>
+      <c r="N48" s="33"/>
+      <c r="O48" s="32"/>
+      <c r="P48" s="33"/>
+      <c r="Q48" s="35"/>
+      <c r="R48" s="35"/>
+      <c r="S48" s="32"/>
+      <c r="T48" s="34"/>
+      <c r="U48" s="33"/>
+      <c r="V48" s="32"/>
+      <c r="W48" s="34"/>
+      <c r="X48" s="33"/>
+      <c r="Y48" s="32"/>
+      <c r="Z48" s="34"/>
+      <c r="AA48" s="34"/>
+      <c r="AB48" s="34"/>
+      <c r="AC48" s="34"/>
+      <c r="AD48" s="34"/>
+      <c r="AE48" s="34"/>
+      <c r="AF48" s="34"/>
+      <c r="AG48" s="34"/>
+      <c r="AH48" s="34"/>
+      <c r="AI48" s="34"/>
+      <c r="AJ48" s="34"/>
+      <c r="AK48" s="33"/>
       <c r="AL48" s="24"/>
       <c r="AM48" s="24"/>
       <c r="AN48" s="24"/>
@@ -8173,45 +8198,45 @@
       <c r="AQ48" s="24"/>
     </row>
     <row r="49" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A49" s="41">
+      <c r="A49" s="35">
         <v>7</v>
       </c>
-      <c r="B49" s="41"/>
-      <c r="C49" s="41"/>
-      <c r="D49" s="41"/>
-      <c r="E49" s="41"/>
-      <c r="F49" s="41"/>
-      <c r="G49" s="41"/>
-      <c r="H49" s="41"/>
-      <c r="I49" s="41"/>
-      <c r="J49" s="41"/>
-      <c r="K49" s="41"/>
-      <c r="L49" s="41"/>
-      <c r="M49" s="41"/>
-      <c r="N49" s="41"/>
-      <c r="O49" s="28"/>
-      <c r="P49" s="30"/>
-      <c r="Q49" s="41"/>
-      <c r="R49" s="41"/>
-      <c r="S49" s="28"/>
-      <c r="T49" s="29"/>
-      <c r="U49" s="30"/>
-      <c r="V49" s="28"/>
-      <c r="W49" s="29"/>
-      <c r="X49" s="30"/>
-      <c r="Y49" s="28"/>
-      <c r="Z49" s="29"/>
-      <c r="AA49" s="29"/>
-      <c r="AB49" s="29"/>
-      <c r="AC49" s="29"/>
-      <c r="AD49" s="29"/>
-      <c r="AE49" s="29"/>
-      <c r="AF49" s="29"/>
-      <c r="AG49" s="29"/>
-      <c r="AH49" s="29"/>
-      <c r="AI49" s="29"/>
-      <c r="AJ49" s="29"/>
-      <c r="AK49" s="30"/>
+      <c r="B49" s="35"/>
+      <c r="C49" s="35"/>
+      <c r="D49" s="35"/>
+      <c r="E49" s="35"/>
+      <c r="F49" s="35"/>
+      <c r="G49" s="35"/>
+      <c r="H49" s="35"/>
+      <c r="I49" s="35"/>
+      <c r="J49" s="35"/>
+      <c r="K49" s="35"/>
+      <c r="L49" s="35"/>
+      <c r="M49" s="35"/>
+      <c r="N49" s="35"/>
+      <c r="O49" s="32"/>
+      <c r="P49" s="33"/>
+      <c r="Q49" s="35"/>
+      <c r="R49" s="35"/>
+      <c r="S49" s="32"/>
+      <c r="T49" s="34"/>
+      <c r="U49" s="33"/>
+      <c r="V49" s="32"/>
+      <c r="W49" s="34"/>
+      <c r="X49" s="33"/>
+      <c r="Y49" s="32"/>
+      <c r="Z49" s="34"/>
+      <c r="AA49" s="34"/>
+      <c r="AB49" s="34"/>
+      <c r="AC49" s="34"/>
+      <c r="AD49" s="34"/>
+      <c r="AE49" s="34"/>
+      <c r="AF49" s="34"/>
+      <c r="AG49" s="34"/>
+      <c r="AH49" s="34"/>
+      <c r="AI49" s="34"/>
+      <c r="AJ49" s="34"/>
+      <c r="AK49" s="33"/>
       <c r="AL49" s="24"/>
       <c r="AM49" s="24"/>
       <c r="AN49" s="24"/>
@@ -8220,45 +8245,45 @@
       <c r="AQ49" s="24"/>
     </row>
     <row r="50" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A50" s="41">
+      <c r="A50" s="35">
         <v>8</v>
       </c>
-      <c r="B50" s="41"/>
-      <c r="C50" s="41"/>
-      <c r="D50" s="41"/>
-      <c r="E50" s="41"/>
-      <c r="F50" s="41"/>
-      <c r="G50" s="41"/>
-      <c r="H50" s="41"/>
-      <c r="I50" s="41"/>
-      <c r="J50" s="41"/>
-      <c r="K50" s="41"/>
-      <c r="L50" s="41"/>
-      <c r="M50" s="41"/>
-      <c r="N50" s="41"/>
-      <c r="O50" s="28"/>
-      <c r="P50" s="30"/>
-      <c r="Q50" s="41"/>
-      <c r="R50" s="41"/>
-      <c r="S50" s="28"/>
-      <c r="T50" s="29"/>
-      <c r="U50" s="30"/>
-      <c r="V50" s="28"/>
-      <c r="W50" s="29"/>
-      <c r="X50" s="30"/>
-      <c r="Y50" s="28"/>
-      <c r="Z50" s="29"/>
-      <c r="AA50" s="29"/>
-      <c r="AB50" s="29"/>
-      <c r="AC50" s="29"/>
-      <c r="AD50" s="29"/>
-      <c r="AE50" s="29"/>
-      <c r="AF50" s="29"/>
-      <c r="AG50" s="29"/>
-      <c r="AH50" s="29"/>
-      <c r="AI50" s="29"/>
-      <c r="AJ50" s="29"/>
-      <c r="AK50" s="30"/>
+      <c r="B50" s="35"/>
+      <c r="C50" s="35"/>
+      <c r="D50" s="35"/>
+      <c r="E50" s="35"/>
+      <c r="F50" s="35"/>
+      <c r="G50" s="35"/>
+      <c r="H50" s="35"/>
+      <c r="I50" s="35"/>
+      <c r="J50" s="35"/>
+      <c r="K50" s="35"/>
+      <c r="L50" s="35"/>
+      <c r="M50" s="35"/>
+      <c r="N50" s="35"/>
+      <c r="O50" s="32"/>
+      <c r="P50" s="33"/>
+      <c r="Q50" s="35"/>
+      <c r="R50" s="35"/>
+      <c r="S50" s="32"/>
+      <c r="T50" s="34"/>
+      <c r="U50" s="33"/>
+      <c r="V50" s="32"/>
+      <c r="W50" s="34"/>
+      <c r="X50" s="33"/>
+      <c r="Y50" s="32"/>
+      <c r="Z50" s="34"/>
+      <c r="AA50" s="34"/>
+      <c r="AB50" s="34"/>
+      <c r="AC50" s="34"/>
+      <c r="AD50" s="34"/>
+      <c r="AE50" s="34"/>
+      <c r="AF50" s="34"/>
+      <c r="AG50" s="34"/>
+      <c r="AH50" s="34"/>
+      <c r="AI50" s="34"/>
+      <c r="AJ50" s="34"/>
+      <c r="AK50" s="33"/>
       <c r="AL50" s="24"/>
       <c r="AM50" s="24"/>
       <c r="AN50" s="24"/>
@@ -8267,45 +8292,45 @@
       <c r="AQ50" s="24"/>
     </row>
     <row r="51" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A51" s="41">
+      <c r="A51" s="35">
         <v>9</v>
       </c>
-      <c r="B51" s="41"/>
-      <c r="C51" s="41"/>
-      <c r="D51" s="41"/>
-      <c r="E51" s="41"/>
-      <c r="F51" s="41"/>
-      <c r="G51" s="41"/>
-      <c r="H51" s="41"/>
-      <c r="I51" s="41"/>
-      <c r="J51" s="41"/>
-      <c r="K51" s="41"/>
-      <c r="L51" s="41"/>
-      <c r="M51" s="41"/>
-      <c r="N51" s="41"/>
-      <c r="O51" s="28"/>
-      <c r="P51" s="30"/>
-      <c r="Q51" s="41"/>
-      <c r="R51" s="41"/>
-      <c r="S51" s="28"/>
-      <c r="T51" s="29"/>
-      <c r="U51" s="30"/>
-      <c r="V51" s="28"/>
-      <c r="W51" s="29"/>
-      <c r="X51" s="30"/>
-      <c r="Y51" s="28"/>
-      <c r="Z51" s="29"/>
-      <c r="AA51" s="29"/>
-      <c r="AB51" s="29"/>
-      <c r="AC51" s="29"/>
-      <c r="AD51" s="29"/>
-      <c r="AE51" s="29"/>
-      <c r="AF51" s="29"/>
-      <c r="AG51" s="29"/>
-      <c r="AH51" s="29"/>
-      <c r="AI51" s="29"/>
-      <c r="AJ51" s="29"/>
-      <c r="AK51" s="30"/>
+      <c r="B51" s="35"/>
+      <c r="C51" s="35"/>
+      <c r="D51" s="35"/>
+      <c r="E51" s="35"/>
+      <c r="F51" s="35"/>
+      <c r="G51" s="35"/>
+      <c r="H51" s="35"/>
+      <c r="I51" s="35"/>
+      <c r="J51" s="35"/>
+      <c r="K51" s="35"/>
+      <c r="L51" s="35"/>
+      <c r="M51" s="35"/>
+      <c r="N51" s="35"/>
+      <c r="O51" s="32"/>
+      <c r="P51" s="33"/>
+      <c r="Q51" s="35"/>
+      <c r="R51" s="35"/>
+      <c r="S51" s="32"/>
+      <c r="T51" s="34"/>
+      <c r="U51" s="33"/>
+      <c r="V51" s="32"/>
+      <c r="W51" s="34"/>
+      <c r="X51" s="33"/>
+      <c r="Y51" s="32"/>
+      <c r="Z51" s="34"/>
+      <c r="AA51" s="34"/>
+      <c r="AB51" s="34"/>
+      <c r="AC51" s="34"/>
+      <c r="AD51" s="34"/>
+      <c r="AE51" s="34"/>
+      <c r="AF51" s="34"/>
+      <c r="AG51" s="34"/>
+      <c r="AH51" s="34"/>
+      <c r="AI51" s="34"/>
+      <c r="AJ51" s="34"/>
+      <c r="AK51" s="33"/>
       <c r="AL51" s="24"/>
       <c r="AM51" s="24"/>
       <c r="AN51" s="24"/>
@@ -8314,214 +8339,329 @@
       <c r="AQ51" s="24"/>
     </row>
     <row r="52" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A52" s="37"/>
-      <c r="B52" s="38"/>
-      <c r="C52" s="37"/>
-      <c r="D52" s="39"/>
-      <c r="E52" s="39"/>
-      <c r="F52" s="39"/>
-      <c r="G52" s="39"/>
-      <c r="H52" s="38"/>
-      <c r="I52" s="37"/>
-      <c r="J52" s="39"/>
-      <c r="K52" s="39"/>
-      <c r="L52" s="38"/>
-      <c r="M52" s="37"/>
-      <c r="N52" s="38"/>
-      <c r="O52" s="37"/>
-      <c r="P52" s="38"/>
-      <c r="Q52" s="40"/>
-      <c r="R52" s="40"/>
-      <c r="S52" s="37"/>
-      <c r="T52" s="39"/>
-      <c r="U52" s="39"/>
-      <c r="V52" s="40"/>
-      <c r="W52" s="40"/>
-      <c r="X52" s="40"/>
-      <c r="Y52" s="37"/>
-      <c r="Z52" s="39"/>
-      <c r="AA52" s="39"/>
-      <c r="AB52" s="39"/>
-      <c r="AC52" s="39"/>
-      <c r="AD52" s="39"/>
-      <c r="AE52" s="39"/>
-      <c r="AF52" s="39"/>
-      <c r="AG52" s="39"/>
-      <c r="AH52" s="39"/>
-      <c r="AI52" s="39"/>
-      <c r="AJ52" s="39"/>
-      <c r="AK52" s="38"/>
+      <c r="A52" s="59"/>
+      <c r="B52" s="60"/>
+      <c r="C52" s="59"/>
+      <c r="D52" s="61"/>
+      <c r="E52" s="61"/>
+      <c r="F52" s="61"/>
+      <c r="G52" s="61"/>
+      <c r="H52" s="60"/>
+      <c r="I52" s="59"/>
+      <c r="J52" s="61"/>
+      <c r="K52" s="61"/>
+      <c r="L52" s="60"/>
+      <c r="M52" s="59"/>
+      <c r="N52" s="60"/>
+      <c r="O52" s="59"/>
+      <c r="P52" s="60"/>
+      <c r="Q52" s="62"/>
+      <c r="R52" s="62"/>
+      <c r="S52" s="59"/>
+      <c r="T52" s="61"/>
+      <c r="U52" s="61"/>
+      <c r="V52" s="62"/>
+      <c r="W52" s="62"/>
+      <c r="X52" s="62"/>
+      <c r="Y52" s="59"/>
+      <c r="Z52" s="61"/>
+      <c r="AA52" s="61"/>
+      <c r="AB52" s="61"/>
+      <c r="AC52" s="61"/>
+      <c r="AD52" s="61"/>
+      <c r="AE52" s="61"/>
+      <c r="AF52" s="61"/>
+      <c r="AG52" s="61"/>
+      <c r="AH52" s="61"/>
+      <c r="AI52" s="61"/>
+      <c r="AJ52" s="61"/>
+      <c r="AK52" s="60"/>
     </row>
     <row r="53" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A53" s="37"/>
-      <c r="B53" s="38"/>
-      <c r="C53" s="37"/>
-      <c r="D53" s="39"/>
-      <c r="E53" s="39"/>
-      <c r="F53" s="39"/>
-      <c r="G53" s="39"/>
-      <c r="H53" s="38"/>
-      <c r="I53" s="37"/>
-      <c r="J53" s="39"/>
-      <c r="K53" s="39"/>
-      <c r="L53" s="38"/>
-      <c r="M53" s="37"/>
-      <c r="N53" s="38"/>
-      <c r="O53" s="37"/>
-      <c r="P53" s="38"/>
-      <c r="Q53" s="37"/>
-      <c r="R53" s="38"/>
-      <c r="S53" s="37"/>
-      <c r="T53" s="39"/>
-      <c r="U53" s="39"/>
-      <c r="V53" s="40"/>
-      <c r="W53" s="40"/>
-      <c r="X53" s="40"/>
-      <c r="Y53" s="37"/>
-      <c r="Z53" s="39"/>
-      <c r="AA53" s="39"/>
-      <c r="AB53" s="39"/>
-      <c r="AC53" s="39"/>
-      <c r="AD53" s="39"/>
-      <c r="AE53" s="39"/>
-      <c r="AF53" s="39"/>
-      <c r="AG53" s="39"/>
-      <c r="AH53" s="39"/>
-      <c r="AI53" s="39"/>
-      <c r="AJ53" s="39"/>
-      <c r="AK53" s="38"/>
+      <c r="A53" s="59"/>
+      <c r="B53" s="60"/>
+      <c r="C53" s="59"/>
+      <c r="D53" s="61"/>
+      <c r="E53" s="61"/>
+      <c r="F53" s="61"/>
+      <c r="G53" s="61"/>
+      <c r="H53" s="60"/>
+      <c r="I53" s="59"/>
+      <c r="J53" s="61"/>
+      <c r="K53" s="61"/>
+      <c r="L53" s="60"/>
+      <c r="M53" s="59"/>
+      <c r="N53" s="60"/>
+      <c r="O53" s="59"/>
+      <c r="P53" s="60"/>
+      <c r="Q53" s="59"/>
+      <c r="R53" s="60"/>
+      <c r="S53" s="59"/>
+      <c r="T53" s="61"/>
+      <c r="U53" s="61"/>
+      <c r="V53" s="62"/>
+      <c r="W53" s="62"/>
+      <c r="X53" s="62"/>
+      <c r="Y53" s="59"/>
+      <c r="Z53" s="61"/>
+      <c r="AA53" s="61"/>
+      <c r="AB53" s="61"/>
+      <c r="AC53" s="61"/>
+      <c r="AD53" s="61"/>
+      <c r="AE53" s="61"/>
+      <c r="AF53" s="61"/>
+      <c r="AG53" s="61"/>
+      <c r="AH53" s="61"/>
+      <c r="AI53" s="61"/>
+      <c r="AJ53" s="61"/>
+      <c r="AK53" s="60"/>
     </row>
     <row r="54" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A54" s="37"/>
-      <c r="B54" s="38"/>
-      <c r="C54" s="37"/>
-      <c r="D54" s="39"/>
-      <c r="E54" s="39"/>
-      <c r="F54" s="39"/>
-      <c r="G54" s="39"/>
-      <c r="H54" s="38"/>
-      <c r="I54" s="37"/>
-      <c r="J54" s="39"/>
-      <c r="K54" s="39"/>
-      <c r="L54" s="38"/>
-      <c r="M54" s="37"/>
-      <c r="N54" s="38"/>
-      <c r="O54" s="37"/>
-      <c r="P54" s="38"/>
-      <c r="Q54" s="40"/>
-      <c r="R54" s="40"/>
-      <c r="S54" s="37"/>
-      <c r="T54" s="39"/>
-      <c r="U54" s="39"/>
-      <c r="V54" s="40"/>
-      <c r="W54" s="40"/>
-      <c r="X54" s="40"/>
-      <c r="Y54" s="37"/>
-      <c r="Z54" s="39"/>
-      <c r="AA54" s="39"/>
-      <c r="AB54" s="39"/>
-      <c r="AC54" s="39"/>
-      <c r="AD54" s="39"/>
-      <c r="AE54" s="39"/>
-      <c r="AF54" s="39"/>
-      <c r="AG54" s="39"/>
-      <c r="AH54" s="39"/>
-      <c r="AI54" s="39"/>
-      <c r="AJ54" s="39"/>
-      <c r="AK54" s="38"/>
+      <c r="A54" s="59"/>
+      <c r="B54" s="60"/>
+      <c r="C54" s="59"/>
+      <c r="D54" s="61"/>
+      <c r="E54" s="61"/>
+      <c r="F54" s="61"/>
+      <c r="G54" s="61"/>
+      <c r="H54" s="60"/>
+      <c r="I54" s="59"/>
+      <c r="J54" s="61"/>
+      <c r="K54" s="61"/>
+      <c r="L54" s="60"/>
+      <c r="M54" s="59"/>
+      <c r="N54" s="60"/>
+      <c r="O54" s="59"/>
+      <c r="P54" s="60"/>
+      <c r="Q54" s="62"/>
+      <c r="R54" s="62"/>
+      <c r="S54" s="59"/>
+      <c r="T54" s="61"/>
+      <c r="U54" s="61"/>
+      <c r="V54" s="62"/>
+      <c r="W54" s="62"/>
+      <c r="X54" s="62"/>
+      <c r="Y54" s="59"/>
+      <c r="Z54" s="61"/>
+      <c r="AA54" s="61"/>
+      <c r="AB54" s="61"/>
+      <c r="AC54" s="61"/>
+      <c r="AD54" s="61"/>
+      <c r="AE54" s="61"/>
+      <c r="AF54" s="61"/>
+      <c r="AG54" s="61"/>
+      <c r="AH54" s="61"/>
+      <c r="AI54" s="61"/>
+      <c r="AJ54" s="61"/>
+      <c r="AK54" s="60"/>
     </row>
     <row r="55" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A55" s="37"/>
-      <c r="B55" s="38"/>
-      <c r="C55" s="37"/>
-      <c r="D55" s="39"/>
-      <c r="E55" s="39"/>
-      <c r="F55" s="39"/>
-      <c r="G55" s="39"/>
-      <c r="H55" s="38"/>
-      <c r="I55" s="37"/>
-      <c r="J55" s="39"/>
-      <c r="K55" s="39"/>
-      <c r="L55" s="38"/>
-      <c r="M55" s="37"/>
-      <c r="N55" s="38"/>
-      <c r="O55" s="37"/>
-      <c r="P55" s="38"/>
-      <c r="Q55" s="37"/>
-      <c r="R55" s="38"/>
-      <c r="S55" s="37"/>
-      <c r="T55" s="39"/>
-      <c r="U55" s="39"/>
-      <c r="V55" s="40"/>
-      <c r="W55" s="40"/>
-      <c r="X55" s="40"/>
-      <c r="Y55" s="37"/>
-      <c r="Z55" s="39"/>
-      <c r="AA55" s="39"/>
-      <c r="AB55" s="39"/>
-      <c r="AC55" s="39"/>
-      <c r="AD55" s="39"/>
-      <c r="AE55" s="39"/>
-      <c r="AF55" s="39"/>
-      <c r="AG55" s="39"/>
-      <c r="AH55" s="39"/>
-      <c r="AI55" s="39"/>
-      <c r="AJ55" s="39"/>
-      <c r="AK55" s="38"/>
+      <c r="A55" s="59"/>
+      <c r="B55" s="60"/>
+      <c r="C55" s="59"/>
+      <c r="D55" s="61"/>
+      <c r="E55" s="61"/>
+      <c r="F55" s="61"/>
+      <c r="G55" s="61"/>
+      <c r="H55" s="60"/>
+      <c r="I55" s="59"/>
+      <c r="J55" s="61"/>
+      <c r="K55" s="61"/>
+      <c r="L55" s="60"/>
+      <c r="M55" s="59"/>
+      <c r="N55" s="60"/>
+      <c r="O55" s="59"/>
+      <c r="P55" s="60"/>
+      <c r="Q55" s="59"/>
+      <c r="R55" s="60"/>
+      <c r="S55" s="59"/>
+      <c r="T55" s="61"/>
+      <c r="U55" s="61"/>
+      <c r="V55" s="62"/>
+      <c r="W55" s="62"/>
+      <c r="X55" s="62"/>
+      <c r="Y55" s="59"/>
+      <c r="Z55" s="61"/>
+      <c r="AA55" s="61"/>
+      <c r="AB55" s="61"/>
+      <c r="AC55" s="61"/>
+      <c r="AD55" s="61"/>
+      <c r="AE55" s="61"/>
+      <c r="AF55" s="61"/>
+      <c r="AG55" s="61"/>
+      <c r="AH55" s="61"/>
+      <c r="AI55" s="61"/>
+      <c r="AJ55" s="61"/>
+      <c r="AK55" s="60"/>
     </row>
     <row r="56" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A56" s="37"/>
-      <c r="B56" s="38"/>
-      <c r="C56" s="37"/>
-      <c r="D56" s="39"/>
-      <c r="E56" s="39"/>
-      <c r="F56" s="39"/>
-      <c r="G56" s="39"/>
-      <c r="H56" s="38"/>
-      <c r="I56" s="37"/>
-      <c r="J56" s="39"/>
-      <c r="K56" s="39"/>
-      <c r="L56" s="38"/>
-      <c r="M56" s="37"/>
-      <c r="N56" s="38"/>
-      <c r="O56" s="37"/>
-      <c r="P56" s="38"/>
-      <c r="Q56" s="37"/>
-      <c r="R56" s="38"/>
-      <c r="S56" s="37"/>
-      <c r="T56" s="39"/>
-      <c r="U56" s="39"/>
-      <c r="V56" s="40"/>
-      <c r="W56" s="40"/>
-      <c r="X56" s="40"/>
-      <c r="Y56" s="37"/>
-      <c r="Z56" s="39"/>
-      <c r="AA56" s="39"/>
-      <c r="AB56" s="39"/>
-      <c r="AC56" s="39"/>
-      <c r="AD56" s="39"/>
-      <c r="AE56" s="39"/>
-      <c r="AF56" s="39"/>
-      <c r="AG56" s="39"/>
-      <c r="AH56" s="39"/>
-      <c r="AI56" s="39"/>
-      <c r="AJ56" s="39"/>
-      <c r="AK56" s="38"/>
+      <c r="A56" s="59"/>
+      <c r="B56" s="60"/>
+      <c r="C56" s="59"/>
+      <c r="D56" s="61"/>
+      <c r="E56" s="61"/>
+      <c r="F56" s="61"/>
+      <c r="G56" s="61"/>
+      <c r="H56" s="60"/>
+      <c r="I56" s="59"/>
+      <c r="J56" s="61"/>
+      <c r="K56" s="61"/>
+      <c r="L56" s="60"/>
+      <c r="M56" s="59"/>
+      <c r="N56" s="60"/>
+      <c r="O56" s="59"/>
+      <c r="P56" s="60"/>
+      <c r="Q56" s="59"/>
+      <c r="R56" s="60"/>
+      <c r="S56" s="59"/>
+      <c r="T56" s="61"/>
+      <c r="U56" s="61"/>
+      <c r="V56" s="62"/>
+      <c r="W56" s="62"/>
+      <c r="X56" s="62"/>
+      <c r="Y56" s="59"/>
+      <c r="Z56" s="61"/>
+      <c r="AA56" s="61"/>
+      <c r="AB56" s="61"/>
+      <c r="AC56" s="61"/>
+      <c r="AD56" s="61"/>
+      <c r="AE56" s="61"/>
+      <c r="AF56" s="61"/>
+      <c r="AG56" s="61"/>
+      <c r="AH56" s="61"/>
+      <c r="AI56" s="61"/>
+      <c r="AJ56" s="61"/>
+      <c r="AK56" s="60"/>
     </row>
     <row r="59" spans="1:43" ht="12.75" customHeight="1">
       <c r="B59" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="153">
-    <mergeCell ref="A1:AK1"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="I3:O3"/>
-    <mergeCell ref="P3:R3"/>
-    <mergeCell ref="S3:Y3"/>
-    <mergeCell ref="Z3:AB3"/>
-    <mergeCell ref="AC3:AE3"/>
-    <mergeCell ref="AF3:AH3"/>
-    <mergeCell ref="AI3:AK3"/>
+    <mergeCell ref="Y46:AK46"/>
+    <mergeCell ref="Y51:AK51"/>
+    <mergeCell ref="Y50:AK50"/>
+    <mergeCell ref="Y49:AK49"/>
+    <mergeCell ref="Y48:AK48"/>
+    <mergeCell ref="Y47:AK47"/>
+    <mergeCell ref="Y41:AK42"/>
+    <mergeCell ref="Y45:AK45"/>
+    <mergeCell ref="Y44:AK44"/>
+    <mergeCell ref="S46:U46"/>
+    <mergeCell ref="V46:X46"/>
+    <mergeCell ref="O47:P47"/>
+    <mergeCell ref="S47:U47"/>
+    <mergeCell ref="V47:X47"/>
+    <mergeCell ref="O41:P42"/>
+    <mergeCell ref="S41:U42"/>
+    <mergeCell ref="V41:X42"/>
+    <mergeCell ref="O43:P43"/>
+    <mergeCell ref="S43:U43"/>
+    <mergeCell ref="V43:X43"/>
+    <mergeCell ref="S45:U45"/>
+    <mergeCell ref="V45:X45"/>
+    <mergeCell ref="S44:U44"/>
+    <mergeCell ref="V44:X44"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="C56:H56"/>
+    <mergeCell ref="I56:L56"/>
+    <mergeCell ref="M56:N56"/>
+    <mergeCell ref="Q56:R56"/>
+    <mergeCell ref="O56:P56"/>
+    <mergeCell ref="S56:U56"/>
+    <mergeCell ref="V56:X56"/>
+    <mergeCell ref="Y56:AK56"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="C55:H55"/>
+    <mergeCell ref="I55:L55"/>
+    <mergeCell ref="M55:N55"/>
+    <mergeCell ref="Q55:R55"/>
+    <mergeCell ref="O55:P55"/>
+    <mergeCell ref="S55:U55"/>
+    <mergeCell ref="V55:X55"/>
+    <mergeCell ref="Y55:AK55"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="C54:H54"/>
+    <mergeCell ref="I54:L54"/>
+    <mergeCell ref="M54:N54"/>
+    <mergeCell ref="Q54:R54"/>
+    <mergeCell ref="O54:P54"/>
+    <mergeCell ref="S54:U54"/>
+    <mergeCell ref="V54:X54"/>
+    <mergeCell ref="Y54:AK54"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C53:H53"/>
+    <mergeCell ref="I53:L53"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="Q53:R53"/>
+    <mergeCell ref="O53:P53"/>
+    <mergeCell ref="S53:U53"/>
+    <mergeCell ref="V53:X53"/>
+    <mergeCell ref="Y53:AK53"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:H52"/>
+    <mergeCell ref="I52:L52"/>
+    <mergeCell ref="M52:N52"/>
+    <mergeCell ref="Q52:R52"/>
+    <mergeCell ref="O52:P52"/>
+    <mergeCell ref="S52:U52"/>
+    <mergeCell ref="V52:X52"/>
+    <mergeCell ref="Y52:AK52"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:H51"/>
+    <mergeCell ref="I51:L51"/>
+    <mergeCell ref="M51:N51"/>
+    <mergeCell ref="Q51:R51"/>
+    <mergeCell ref="O51:P51"/>
+    <mergeCell ref="S51:U51"/>
+    <mergeCell ref="V51:X51"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:H50"/>
+    <mergeCell ref="I50:L50"/>
+    <mergeCell ref="M50:N50"/>
+    <mergeCell ref="Q50:R50"/>
+    <mergeCell ref="O50:P50"/>
+    <mergeCell ref="S50:U50"/>
+    <mergeCell ref="V50:X50"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:H49"/>
+    <mergeCell ref="I49:L49"/>
+    <mergeCell ref="M49:N49"/>
+    <mergeCell ref="Q49:R49"/>
+    <mergeCell ref="O49:P49"/>
+    <mergeCell ref="S49:U49"/>
+    <mergeCell ref="V49:X49"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:H48"/>
+    <mergeCell ref="I48:L48"/>
+    <mergeCell ref="M48:N48"/>
+    <mergeCell ref="Q48:R48"/>
+    <mergeCell ref="O48:P48"/>
+    <mergeCell ref="S48:U48"/>
+    <mergeCell ref="V48:X48"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:H47"/>
+    <mergeCell ref="I47:L47"/>
+    <mergeCell ref="M47:N47"/>
+    <mergeCell ref="Q47:R47"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:H46"/>
+    <mergeCell ref="I46:L46"/>
+    <mergeCell ref="M46:N46"/>
+    <mergeCell ref="O46:P46"/>
+    <mergeCell ref="Q46:R46"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:H45"/>
+    <mergeCell ref="I45:L45"/>
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="O45:P45"/>
+    <mergeCell ref="Q45:R45"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:H44"/>
+    <mergeCell ref="I44:L44"/>
+    <mergeCell ref="M44:N44"/>
+    <mergeCell ref="Q44:R44"/>
+    <mergeCell ref="O44:P44"/>
     <mergeCell ref="A43:B43"/>
     <mergeCell ref="C43:H43"/>
     <mergeCell ref="I43:L43"/>
@@ -8542,130 +8682,15 @@
     <mergeCell ref="Z4:AB5"/>
     <mergeCell ref="AC4:AE5"/>
     <mergeCell ref="Y43:AK43"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="C45:H45"/>
-    <mergeCell ref="I45:L45"/>
-    <mergeCell ref="M45:N45"/>
-    <mergeCell ref="O45:P45"/>
-    <mergeCell ref="Q45:R45"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="C44:H44"/>
-    <mergeCell ref="I44:L44"/>
-    <mergeCell ref="M44:N44"/>
-    <mergeCell ref="Q44:R44"/>
-    <mergeCell ref="O44:P44"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="C47:H47"/>
-    <mergeCell ref="I47:L47"/>
-    <mergeCell ref="M47:N47"/>
-    <mergeCell ref="Q47:R47"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="C46:H46"/>
-    <mergeCell ref="I46:L46"/>
-    <mergeCell ref="M46:N46"/>
-    <mergeCell ref="O46:P46"/>
-    <mergeCell ref="Q46:R46"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="C49:H49"/>
-    <mergeCell ref="I49:L49"/>
-    <mergeCell ref="M49:N49"/>
-    <mergeCell ref="Q49:R49"/>
-    <mergeCell ref="O49:P49"/>
-    <mergeCell ref="S49:U49"/>
-    <mergeCell ref="V49:X49"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="C48:H48"/>
-    <mergeCell ref="I48:L48"/>
-    <mergeCell ref="M48:N48"/>
-    <mergeCell ref="Q48:R48"/>
-    <mergeCell ref="O48:P48"/>
-    <mergeCell ref="S48:U48"/>
-    <mergeCell ref="V48:X48"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="C51:H51"/>
-    <mergeCell ref="I51:L51"/>
-    <mergeCell ref="M51:N51"/>
-    <mergeCell ref="Q51:R51"/>
-    <mergeCell ref="O51:P51"/>
-    <mergeCell ref="S51:U51"/>
-    <mergeCell ref="V51:X51"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="C50:H50"/>
-    <mergeCell ref="I50:L50"/>
-    <mergeCell ref="M50:N50"/>
-    <mergeCell ref="Q50:R50"/>
-    <mergeCell ref="O50:P50"/>
-    <mergeCell ref="S50:U50"/>
-    <mergeCell ref="V50:X50"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="C52:H52"/>
-    <mergeCell ref="I52:L52"/>
-    <mergeCell ref="M52:N52"/>
-    <mergeCell ref="Q52:R52"/>
-    <mergeCell ref="O52:P52"/>
-    <mergeCell ref="S52:U52"/>
-    <mergeCell ref="V52:X52"/>
-    <mergeCell ref="Y52:AK52"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="C53:H53"/>
-    <mergeCell ref="I53:L53"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="Q53:R53"/>
-    <mergeCell ref="O53:P53"/>
-    <mergeCell ref="S53:U53"/>
-    <mergeCell ref="V53:X53"/>
-    <mergeCell ref="Y53:AK53"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="C54:H54"/>
-    <mergeCell ref="I54:L54"/>
-    <mergeCell ref="M54:N54"/>
-    <mergeCell ref="Q54:R54"/>
-    <mergeCell ref="O54:P54"/>
-    <mergeCell ref="S54:U54"/>
-    <mergeCell ref="V54:X54"/>
-    <mergeCell ref="Y54:AK54"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="C55:H55"/>
-    <mergeCell ref="I55:L55"/>
-    <mergeCell ref="M55:N55"/>
-    <mergeCell ref="Q55:R55"/>
-    <mergeCell ref="O55:P55"/>
-    <mergeCell ref="S55:U55"/>
-    <mergeCell ref="V55:X55"/>
-    <mergeCell ref="Y55:AK55"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="C56:H56"/>
-    <mergeCell ref="I56:L56"/>
-    <mergeCell ref="M56:N56"/>
-    <mergeCell ref="Q56:R56"/>
-    <mergeCell ref="O56:P56"/>
-    <mergeCell ref="S56:U56"/>
-    <mergeCell ref="V56:X56"/>
-    <mergeCell ref="Y56:AK56"/>
-    <mergeCell ref="S46:U46"/>
-    <mergeCell ref="V46:X46"/>
-    <mergeCell ref="O47:P47"/>
-    <mergeCell ref="S47:U47"/>
-    <mergeCell ref="V47:X47"/>
-    <mergeCell ref="O41:P42"/>
-    <mergeCell ref="S41:U42"/>
-    <mergeCell ref="V41:X42"/>
-    <mergeCell ref="O43:P43"/>
-    <mergeCell ref="S43:U43"/>
-    <mergeCell ref="V43:X43"/>
-    <mergeCell ref="S45:U45"/>
-    <mergeCell ref="V45:X45"/>
-    <mergeCell ref="S44:U44"/>
-    <mergeCell ref="V44:X44"/>
-    <mergeCell ref="Y46:AK46"/>
-    <mergeCell ref="Y51:AK51"/>
-    <mergeCell ref="Y50:AK50"/>
-    <mergeCell ref="Y49:AK49"/>
-    <mergeCell ref="Y48:AK48"/>
-    <mergeCell ref="Y47:AK47"/>
-    <mergeCell ref="Y41:AK42"/>
-    <mergeCell ref="Y45:AK45"/>
-    <mergeCell ref="Y44:AK44"/>
+    <mergeCell ref="A1:AK1"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="I3:O3"/>
+    <mergeCell ref="P3:R3"/>
+    <mergeCell ref="S3:Y3"/>
+    <mergeCell ref="Z3:AB3"/>
+    <mergeCell ref="AC3:AE3"/>
+    <mergeCell ref="AF3:AH3"/>
+    <mergeCell ref="AI3:AK3"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
@@ -8680,8 +8705,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81980269-4B89-CA4B-B703-7E6B1AF9D3E8}">
   <dimension ref="A1:AQ59"/>
   <sheetViews>
-    <sheetView zoomScale="83" zoomScaleNormal="135" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="W35" sqref="W35"/>
+    <sheetView tabSelected="1" zoomScale="105" zoomScaleNormal="135" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="X21" sqref="X21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
@@ -8695,45 +8720,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="12.75" customHeight="1">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
-      <c r="J1" s="56"/>
-      <c r="K1" s="56"/>
-      <c r="L1" s="56"/>
-      <c r="M1" s="56"/>
-      <c r="N1" s="56"/>
-      <c r="O1" s="56"/>
-      <c r="P1" s="56"/>
-      <c r="Q1" s="56"/>
-      <c r="R1" s="56"/>
-      <c r="S1" s="56"/>
-      <c r="T1" s="56"/>
-      <c r="U1" s="56"/>
-      <c r="V1" s="56"/>
-      <c r="W1" s="56"/>
-      <c r="X1" s="56"/>
-      <c r="Y1" s="56"/>
-      <c r="Z1" s="56"/>
-      <c r="AA1" s="56"/>
-      <c r="AB1" s="56"/>
-      <c r="AC1" s="56"/>
-      <c r="AD1" s="56"/>
-      <c r="AE1" s="56"/>
-      <c r="AF1" s="56"/>
-      <c r="AG1" s="56"/>
-      <c r="AH1" s="56"/>
-      <c r="AI1" s="56"/>
-      <c r="AJ1" s="56"/>
-      <c r="AK1" s="56"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="28"/>
+      <c r="P1" s="28"/>
+      <c r="Q1" s="28"/>
+      <c r="R1" s="28"/>
+      <c r="S1" s="28"/>
+      <c r="T1" s="28"/>
+      <c r="U1" s="28"/>
+      <c r="V1" s="28"/>
+      <c r="W1" s="28"/>
+      <c r="X1" s="28"/>
+      <c r="Y1" s="28"/>
+      <c r="Z1" s="28"/>
+      <c r="AA1" s="28"/>
+      <c r="AB1" s="28"/>
+      <c r="AC1" s="28"/>
+      <c r="AD1" s="28"/>
+      <c r="AE1" s="28"/>
+      <c r="AF1" s="28"/>
+      <c r="AG1" s="28"/>
+      <c r="AH1" s="28"/>
+      <c r="AI1" s="28"/>
+      <c r="AJ1" s="28"/>
+      <c r="AK1" s="28"/>
     </row>
     <row r="2" spans="1:37" ht="6" customHeight="1">
       <c r="A2" s="2"/>
@@ -8775,59 +8800,59 @@
       <c r="AK2" s="2"/>
     </row>
     <row r="3" spans="1:37" ht="12">
-      <c r="A3" s="57" t="s">
+      <c r="A3" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="58"/>
-      <c r="C3" s="58"/>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="59"/>
-      <c r="I3" s="57" t="s">
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="J3" s="58"/>
-      <c r="K3" s="58"/>
-      <c r="L3" s="58"/>
-      <c r="M3" s="58"/>
-      <c r="N3" s="58"/>
-      <c r="O3" s="59"/>
-      <c r="P3" s="57" t="s">
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="30"/>
+      <c r="M3" s="30"/>
+      <c r="N3" s="30"/>
+      <c r="O3" s="31"/>
+      <c r="P3" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="Q3" s="58"/>
-      <c r="R3" s="59"/>
-      <c r="S3" s="57" t="s">
+      <c r="Q3" s="30"/>
+      <c r="R3" s="31"/>
+      <c r="S3" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="T3" s="58"/>
-      <c r="U3" s="58"/>
-      <c r="V3" s="58"/>
-      <c r="W3" s="58"/>
-      <c r="X3" s="58"/>
-      <c r="Y3" s="59"/>
-      <c r="Z3" s="57" t="s">
+      <c r="T3" s="30"/>
+      <c r="U3" s="30"/>
+      <c r="V3" s="30"/>
+      <c r="W3" s="30"/>
+      <c r="X3" s="30"/>
+      <c r="Y3" s="31"/>
+      <c r="Z3" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="AA3" s="58"/>
-      <c r="AB3" s="59"/>
-      <c r="AC3" s="57" t="s">
+      <c r="AA3" s="30"/>
+      <c r="AB3" s="31"/>
+      <c r="AC3" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="AD3" s="58"/>
-      <c r="AE3" s="59"/>
-      <c r="AF3" s="57" t="s">
+      <c r="AD3" s="30"/>
+      <c r="AE3" s="31"/>
+      <c r="AF3" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="AG3" s="58"/>
-      <c r="AH3" s="59"/>
-      <c r="AI3" s="57" t="s">
+      <c r="AG3" s="30"/>
+      <c r="AH3" s="31"/>
+      <c r="AI3" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="AJ3" s="58"/>
-      <c r="AK3" s="59"/>
+      <c r="AJ3" s="30"/>
+      <c r="AK3" s="31"/>
     </row>
     <row r="4" spans="1:37" ht="12" customHeight="1">
       <c r="A4" s="43" t="s">
@@ -8841,7 +8866,7 @@
       <c r="G4" s="43"/>
       <c r="H4" s="43"/>
       <c r="I4" s="44" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J4" s="44"/>
       <c r="K4" s="44"/>
@@ -8850,12 +8875,12 @@
       <c r="N4" s="44"/>
       <c r="O4" s="45"/>
       <c r="P4" s="48" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q4" s="44"/>
       <c r="R4" s="45"/>
       <c r="S4" s="50" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="T4" s="51"/>
       <c r="U4" s="51"/>
@@ -8873,16 +8898,16 @@
       </c>
       <c r="AD4" s="44"/>
       <c r="AE4" s="45"/>
-      <c r="AF4" s="31" t="s">
+      <c r="AF4" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="AG4" s="32"/>
-      <c r="AH4" s="33"/>
-      <c r="AI4" s="31" t="s">
+      <c r="AG4" s="37"/>
+      <c r="AH4" s="38"/>
+      <c r="AI4" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="AJ4" s="32"/>
-      <c r="AK4" s="33"/>
+      <c r="AJ4" s="37"/>
+      <c r="AK4" s="38"/>
     </row>
     <row r="5" spans="1:37" ht="12">
       <c r="A5" s="43"/>
@@ -8916,12 +8941,12 @@
       <c r="AC5" s="49"/>
       <c r="AD5" s="46"/>
       <c r="AE5" s="47"/>
-      <c r="AF5" s="34"/>
-      <c r="AG5" s="35"/>
-      <c r="AH5" s="36"/>
-      <c r="AI5" s="34"/>
-      <c r="AJ5" s="35"/>
-      <c r="AK5" s="36"/>
+      <c r="AF5" s="39"/>
+      <c r="AG5" s="40"/>
+      <c r="AH5" s="41"/>
+      <c r="AI5" s="39"/>
+      <c r="AJ5" s="40"/>
+      <c r="AK5" s="41"/>
     </row>
     <row r="6" spans="1:37" ht="12">
       <c r="A6" s="3"/>
@@ -9066,7 +9091,7 @@
         <v>1</v>
       </c>
       <c r="U9" s="9" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="V9" s="9"/>
       <c r="W9" s="9"/>
@@ -9105,12 +9130,6 @@
       <c r="Q10" s="9"/>
       <c r="R10" s="10"/>
       <c r="S10" s="9"/>
-      <c r="T10" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="U10" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="V10" s="9"/>
       <c r="W10" s="9"/>
       <c r="X10" s="9"/>
@@ -9149,7 +9168,9 @@
       <c r="R11" s="10"/>
       <c r="S11" s="9"/>
       <c r="T11" s="9"/>
-      <c r="U11" s="9"/>
+      <c r="U11" s="9" t="s">
+        <v>50</v>
+      </c>
       <c r="V11" s="9"/>
       <c r="W11" s="9"/>
       <c r="X11" s="9"/>
@@ -9187,12 +9208,8 @@
       <c r="Q12" s="9"/>
       <c r="R12" s="10"/>
       <c r="S12" s="9"/>
-      <c r="T12" s="9">
-        <v>2</v>
-      </c>
-      <c r="U12" s="9" t="s">
-        <v>43</v>
-      </c>
+      <c r="T12" s="9"/>
+      <c r="U12" s="9"/>
       <c r="V12" s="9"/>
       <c r="W12" s="9"/>
       <c r="X12" s="9"/>
@@ -9230,13 +9247,13 @@
       <c r="Q13" s="9"/>
       <c r="R13" s="10"/>
       <c r="S13" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="T13" s="9" t="s">
-        <v>49</v>
+        <v>47</v>
+      </c>
+      <c r="T13" s="9">
+        <v>2</v>
       </c>
       <c r="U13" s="1" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="V13" s="9"/>
       <c r="W13" s="9"/>
@@ -9314,6 +9331,9 @@
       <c r="Q15" s="9"/>
       <c r="R15" s="10"/>
       <c r="S15" s="9"/>
+      <c r="U15" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="V15" s="9"/>
       <c r="W15" s="9"/>
       <c r="X15" s="9"/>
@@ -9388,8 +9408,12 @@
       <c r="Q17" s="9"/>
       <c r="R17" s="10"/>
       <c r="S17" s="9"/>
-      <c r="T17" s="9"/>
-      <c r="U17" s="9"/>
+      <c r="T17" s="9">
+        <v>3</v>
+      </c>
+      <c r="U17" s="9" t="s">
+        <v>60</v>
+      </c>
       <c r="V17" s="9"/>
       <c r="W17" s="9"/>
       <c r="X17" s="9"/>
@@ -9467,7 +9491,9 @@
       <c r="R19" s="10"/>
       <c r="S19" s="9"/>
       <c r="T19" s="9"/>
-      <c r="U19" s="9"/>
+      <c r="U19" s="9" t="s">
+        <v>61</v>
+      </c>
       <c r="V19" s="9"/>
       <c r="W19" s="9"/>
       <c r="X19" s="9"/>
@@ -10292,61 +10318,61 @@
       <c r="AK40" s="16"/>
     </row>
     <row r="41" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A41" s="31" t="s">
+      <c r="A41" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="B41" s="33"/>
-      <c r="C41" s="31" t="s">
+      <c r="B41" s="38"/>
+      <c r="C41" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="D41" s="32"/>
-      <c r="E41" s="32"/>
-      <c r="F41" s="32"/>
-      <c r="G41" s="32"/>
-      <c r="H41" s="33"/>
-      <c r="I41" s="31" t="s">
+      <c r="D41" s="37"/>
+      <c r="E41" s="37"/>
+      <c r="F41" s="37"/>
+      <c r="G41" s="37"/>
+      <c r="H41" s="38"/>
+      <c r="I41" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="J41" s="32"/>
-      <c r="K41" s="32"/>
-      <c r="L41" s="33"/>
-      <c r="M41" s="31" t="s">
+      <c r="J41" s="37"/>
+      <c r="K41" s="37"/>
+      <c r="L41" s="38"/>
+      <c r="M41" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="N41" s="33"/>
-      <c r="O41" s="31" t="s">
+      <c r="N41" s="38"/>
+      <c r="O41" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="P41" s="33"/>
-      <c r="Q41" s="41" t="s">
+      <c r="P41" s="38"/>
+      <c r="Q41" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="R41" s="41"/>
-      <c r="S41" s="31" t="s">
+      <c r="R41" s="35"/>
+      <c r="S41" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="T41" s="32"/>
-      <c r="U41" s="33"/>
-      <c r="V41" s="31" t="s">
+      <c r="T41" s="37"/>
+      <c r="U41" s="38"/>
+      <c r="V41" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="W41" s="32"/>
-      <c r="X41" s="33"/>
-      <c r="Y41" s="31" t="s">
+      <c r="W41" s="37"/>
+      <c r="X41" s="38"/>
+      <c r="Y41" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="Z41" s="32"/>
-      <c r="AA41" s="32"/>
-      <c r="AB41" s="32"/>
-      <c r="AC41" s="32"/>
-      <c r="AD41" s="32"/>
-      <c r="AE41" s="32"/>
-      <c r="AF41" s="32"/>
-      <c r="AG41" s="32"/>
-      <c r="AH41" s="32"/>
-      <c r="AI41" s="32"/>
-      <c r="AJ41" s="32"/>
-      <c r="AK41" s="33"/>
+      <c r="Z41" s="37"/>
+      <c r="AA41" s="37"/>
+      <c r="AB41" s="37"/>
+      <c r="AC41" s="37"/>
+      <c r="AD41" s="37"/>
+      <c r="AE41" s="37"/>
+      <c r="AF41" s="37"/>
+      <c r="AG41" s="37"/>
+      <c r="AH41" s="37"/>
+      <c r="AI41" s="37"/>
+      <c r="AJ41" s="37"/>
+      <c r="AK41" s="38"/>
       <c r="AL41" s="24"/>
       <c r="AM41" s="24"/>
       <c r="AN41" s="24"/>
@@ -10355,43 +10381,43 @@
       <c r="AQ41" s="24"/>
     </row>
     <row r="42" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A42" s="34"/>
-      <c r="B42" s="36"/>
-      <c r="C42" s="34"/>
-      <c r="D42" s="35"/>
-      <c r="E42" s="35"/>
-      <c r="F42" s="35"/>
-      <c r="G42" s="35"/>
-      <c r="H42" s="36"/>
-      <c r="I42" s="34"/>
-      <c r="J42" s="35"/>
-      <c r="K42" s="35"/>
-      <c r="L42" s="36"/>
-      <c r="M42" s="34"/>
-      <c r="N42" s="36"/>
-      <c r="O42" s="34"/>
-      <c r="P42" s="36"/>
-      <c r="Q42" s="41"/>
-      <c r="R42" s="41"/>
-      <c r="S42" s="34"/>
-      <c r="T42" s="35"/>
-      <c r="U42" s="36"/>
-      <c r="V42" s="34"/>
-      <c r="W42" s="35"/>
-      <c r="X42" s="36"/>
-      <c r="Y42" s="34"/>
-      <c r="Z42" s="35"/>
-      <c r="AA42" s="35"/>
-      <c r="AB42" s="35"/>
-      <c r="AC42" s="35"/>
-      <c r="AD42" s="35"/>
-      <c r="AE42" s="35"/>
-      <c r="AF42" s="35"/>
-      <c r="AG42" s="35"/>
-      <c r="AH42" s="35"/>
-      <c r="AI42" s="35"/>
-      <c r="AJ42" s="35"/>
-      <c r="AK42" s="36"/>
+      <c r="A42" s="39"/>
+      <c r="B42" s="41"/>
+      <c r="C42" s="39"/>
+      <c r="D42" s="40"/>
+      <c r="E42" s="40"/>
+      <c r="F42" s="40"/>
+      <c r="G42" s="40"/>
+      <c r="H42" s="41"/>
+      <c r="I42" s="39"/>
+      <c r="J42" s="40"/>
+      <c r="K42" s="40"/>
+      <c r="L42" s="41"/>
+      <c r="M42" s="39"/>
+      <c r="N42" s="41"/>
+      <c r="O42" s="39"/>
+      <c r="P42" s="41"/>
+      <c r="Q42" s="35"/>
+      <c r="R42" s="35"/>
+      <c r="S42" s="39"/>
+      <c r="T42" s="40"/>
+      <c r="U42" s="41"/>
+      <c r="V42" s="39"/>
+      <c r="W42" s="40"/>
+      <c r="X42" s="41"/>
+      <c r="Y42" s="39"/>
+      <c r="Z42" s="40"/>
+      <c r="AA42" s="40"/>
+      <c r="AB42" s="40"/>
+      <c r="AC42" s="40"/>
+      <c r="AD42" s="40"/>
+      <c r="AE42" s="40"/>
+      <c r="AF42" s="40"/>
+      <c r="AG42" s="40"/>
+      <c r="AH42" s="40"/>
+      <c r="AI42" s="40"/>
+      <c r="AJ42" s="40"/>
+      <c r="AK42" s="41"/>
       <c r="AL42" s="24"/>
       <c r="AM42" s="24"/>
       <c r="AN42" s="24"/>
@@ -10400,61 +10426,61 @@
       <c r="AQ42" s="24"/>
     </row>
     <row r="43" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A43" s="28">
+      <c r="A43" s="32">
         <v>1</v>
       </c>
-      <c r="B43" s="30"/>
-      <c r="C43" s="28" t="s">
+      <c r="B43" s="33"/>
+      <c r="C43" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="D43" s="29"/>
-      <c r="E43" s="29"/>
-      <c r="F43" s="29"/>
-      <c r="G43" s="29"/>
-      <c r="H43" s="30"/>
-      <c r="I43" s="28" t="s">
+      <c r="D43" s="34"/>
+      <c r="E43" s="34"/>
+      <c r="F43" s="34"/>
+      <c r="G43" s="34"/>
+      <c r="H43" s="33"/>
+      <c r="I43" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="J43" s="29"/>
-      <c r="K43" s="29"/>
-      <c r="L43" s="30"/>
-      <c r="M43" s="28" t="s">
+      <c r="J43" s="34"/>
+      <c r="K43" s="34"/>
+      <c r="L43" s="33"/>
+      <c r="M43" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="N43" s="30"/>
-      <c r="O43" s="28" t="s">
+      <c r="N43" s="33"/>
+      <c r="O43" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="P43" s="30"/>
-      <c r="Q43" s="41" t="s">
+      <c r="P43" s="33"/>
+      <c r="Q43" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="R43" s="41"/>
-      <c r="S43" s="28" t="s">
+      <c r="R43" s="35"/>
+      <c r="S43" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="T43" s="29"/>
-      <c r="U43" s="30"/>
-      <c r="V43" s="28" t="s">
+      <c r="T43" s="34"/>
+      <c r="U43" s="33"/>
+      <c r="V43" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="W43" s="29"/>
-      <c r="X43" s="30"/>
-      <c r="Y43" s="28" t="s">
+      <c r="W43" s="34"/>
+      <c r="X43" s="33"/>
+      <c r="Y43" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="Z43" s="29"/>
-      <c r="AA43" s="29"/>
-      <c r="AB43" s="29"/>
-      <c r="AC43" s="29"/>
-      <c r="AD43" s="29"/>
-      <c r="AE43" s="29"/>
-      <c r="AF43" s="29"/>
-      <c r="AG43" s="29"/>
-      <c r="AH43" s="29"/>
-      <c r="AI43" s="29"/>
-      <c r="AJ43" s="29"/>
-      <c r="AK43" s="30"/>
+      <c r="Z43" s="34"/>
+      <c r="AA43" s="34"/>
+      <c r="AB43" s="34"/>
+      <c r="AC43" s="34"/>
+      <c r="AD43" s="34"/>
+      <c r="AE43" s="34"/>
+      <c r="AF43" s="34"/>
+      <c r="AG43" s="34"/>
+      <c r="AH43" s="34"/>
+      <c r="AI43" s="34"/>
+      <c r="AJ43" s="34"/>
+      <c r="AK43" s="33"/>
       <c r="AL43" s="24"/>
       <c r="AM43" s="24"/>
       <c r="AN43" s="24"/>
@@ -10463,61 +10489,61 @@
       <c r="AQ43" s="24"/>
     </row>
     <row r="44" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A44" s="28">
+      <c r="A44" s="32">
         <v>2</v>
       </c>
-      <c r="B44" s="30"/>
-      <c r="C44" s="28" t="s">
+      <c r="B44" s="33"/>
+      <c r="C44" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="D44" s="29"/>
-      <c r="E44" s="29"/>
-      <c r="F44" s="29"/>
-      <c r="G44" s="29"/>
-      <c r="H44" s="30"/>
-      <c r="I44" s="28" t="s">
+      <c r="D44" s="34"/>
+      <c r="E44" s="34"/>
+      <c r="F44" s="34"/>
+      <c r="G44" s="34"/>
+      <c r="H44" s="33"/>
+      <c r="I44" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="J44" s="29"/>
-      <c r="K44" s="29"/>
-      <c r="L44" s="30"/>
-      <c r="M44" s="28" t="s">
+      <c r="J44" s="34"/>
+      <c r="K44" s="34"/>
+      <c r="L44" s="33"/>
+      <c r="M44" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="N44" s="30"/>
-      <c r="O44" s="28" t="s">
+      <c r="N44" s="33"/>
+      <c r="O44" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="P44" s="30"/>
-      <c r="Q44" s="41" t="s">
+      <c r="P44" s="33"/>
+      <c r="Q44" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="R44" s="41"/>
-      <c r="S44" s="28" t="s">
+      <c r="R44" s="35"/>
+      <c r="S44" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="T44" s="29"/>
-      <c r="U44" s="30"/>
-      <c r="V44" s="28" t="s">
+      <c r="T44" s="34"/>
+      <c r="U44" s="33"/>
+      <c r="V44" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="W44" s="29"/>
-      <c r="X44" s="30"/>
-      <c r="Y44" s="28" t="s">
+      <c r="W44" s="34"/>
+      <c r="X44" s="33"/>
+      <c r="Y44" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="Z44" s="29"/>
-      <c r="AA44" s="29"/>
-      <c r="AB44" s="29"/>
-      <c r="AC44" s="29"/>
-      <c r="AD44" s="29"/>
-      <c r="AE44" s="29"/>
-      <c r="AF44" s="29"/>
-      <c r="AG44" s="29"/>
-      <c r="AH44" s="29"/>
-      <c r="AI44" s="29"/>
-      <c r="AJ44" s="29"/>
-      <c r="AK44" s="30"/>
+      <c r="Z44" s="34"/>
+      <c r="AA44" s="34"/>
+      <c r="AB44" s="34"/>
+      <c r="AC44" s="34"/>
+      <c r="AD44" s="34"/>
+      <c r="AE44" s="34"/>
+      <c r="AF44" s="34"/>
+      <c r="AG44" s="34"/>
+      <c r="AH44" s="34"/>
+      <c r="AI44" s="34"/>
+      <c r="AJ44" s="34"/>
+      <c r="AK44" s="33"/>
       <c r="AL44" s="24"/>
       <c r="AM44" s="24"/>
       <c r="AN44" s="24"/>
@@ -10526,61 +10552,61 @@
       <c r="AQ44" s="24"/>
     </row>
     <row r="45" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A45" s="28">
+      <c r="A45" s="32">
         <v>3</v>
       </c>
-      <c r="B45" s="30"/>
-      <c r="C45" s="28" t="s">
+      <c r="B45" s="33"/>
+      <c r="C45" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="D45" s="29"/>
-      <c r="E45" s="29"/>
-      <c r="F45" s="29"/>
-      <c r="G45" s="29"/>
-      <c r="H45" s="30"/>
-      <c r="I45" s="28" t="s">
+      <c r="D45" s="34"/>
+      <c r="E45" s="34"/>
+      <c r="F45" s="34"/>
+      <c r="G45" s="34"/>
+      <c r="H45" s="33"/>
+      <c r="I45" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="J45" s="29"/>
-      <c r="K45" s="29"/>
-      <c r="L45" s="30"/>
-      <c r="M45" s="28" t="s">
+      <c r="J45" s="34"/>
+      <c r="K45" s="34"/>
+      <c r="L45" s="33"/>
+      <c r="M45" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="N45" s="30"/>
-      <c r="O45" s="28" t="s">
+      <c r="N45" s="33"/>
+      <c r="O45" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="P45" s="30"/>
-      <c r="Q45" s="41" t="s">
+      <c r="P45" s="33"/>
+      <c r="Q45" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="R45" s="41"/>
-      <c r="S45" s="28" t="s">
+      <c r="R45" s="35"/>
+      <c r="S45" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="T45" s="29"/>
-      <c r="U45" s="30"/>
-      <c r="V45" s="28" t="s">
+      <c r="T45" s="34"/>
+      <c r="U45" s="33"/>
+      <c r="V45" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="W45" s="29"/>
-      <c r="X45" s="30"/>
-      <c r="Y45" s="28" t="s">
+      <c r="W45" s="34"/>
+      <c r="X45" s="33"/>
+      <c r="Y45" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="Z45" s="29"/>
-      <c r="AA45" s="29"/>
-      <c r="AB45" s="29"/>
-      <c r="AC45" s="29"/>
-      <c r="AD45" s="29"/>
-      <c r="AE45" s="29"/>
-      <c r="AF45" s="29"/>
-      <c r="AG45" s="29"/>
-      <c r="AH45" s="29"/>
-      <c r="AI45" s="29"/>
-      <c r="AJ45" s="29"/>
-      <c r="AK45" s="30"/>
+      <c r="Z45" s="34"/>
+      <c r="AA45" s="34"/>
+      <c r="AB45" s="34"/>
+      <c r="AC45" s="34"/>
+      <c r="AD45" s="34"/>
+      <c r="AE45" s="34"/>
+      <c r="AF45" s="34"/>
+      <c r="AG45" s="34"/>
+      <c r="AH45" s="34"/>
+      <c r="AI45" s="34"/>
+      <c r="AJ45" s="34"/>
+      <c r="AK45" s="33"/>
       <c r="AL45" s="24"/>
       <c r="AM45" s="24"/>
       <c r="AN45" s="24"/>
@@ -10589,61 +10615,61 @@
       <c r="AQ45" s="24"/>
     </row>
     <row r="46" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A46" s="28">
+      <c r="A46" s="32">
         <v>4</v>
       </c>
-      <c r="B46" s="30"/>
-      <c r="C46" s="28" t="s">
+      <c r="B46" s="33"/>
+      <c r="C46" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="D46" s="29"/>
-      <c r="E46" s="29"/>
-      <c r="F46" s="29"/>
-      <c r="G46" s="29"/>
-      <c r="H46" s="30"/>
-      <c r="I46" s="28" t="s">
+      <c r="D46" s="34"/>
+      <c r="E46" s="34"/>
+      <c r="F46" s="34"/>
+      <c r="G46" s="34"/>
+      <c r="H46" s="33"/>
+      <c r="I46" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="J46" s="29"/>
-      <c r="K46" s="29"/>
-      <c r="L46" s="30"/>
-      <c r="M46" s="28" t="s">
+      <c r="J46" s="34"/>
+      <c r="K46" s="34"/>
+      <c r="L46" s="33"/>
+      <c r="M46" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="N46" s="30"/>
-      <c r="O46" s="28" t="s">
+      <c r="N46" s="33"/>
+      <c r="O46" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="P46" s="30"/>
-      <c r="Q46" s="28" t="s">
+      <c r="P46" s="33"/>
+      <c r="Q46" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="R46" s="30"/>
-      <c r="S46" s="28" t="s">
+      <c r="R46" s="33"/>
+      <c r="S46" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="T46" s="29"/>
-      <c r="U46" s="30"/>
-      <c r="V46" s="28" t="s">
+      <c r="T46" s="34"/>
+      <c r="U46" s="33"/>
+      <c r="V46" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="W46" s="29"/>
-      <c r="X46" s="30"/>
-      <c r="Y46" s="28" t="s">
+      <c r="W46" s="34"/>
+      <c r="X46" s="33"/>
+      <c r="Y46" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="Z46" s="29"/>
-      <c r="AA46" s="29"/>
-      <c r="AB46" s="29"/>
-      <c r="AC46" s="29"/>
-      <c r="AD46" s="29"/>
-      <c r="AE46" s="29"/>
-      <c r="AF46" s="29"/>
-      <c r="AG46" s="29"/>
-      <c r="AH46" s="29"/>
-      <c r="AI46" s="29"/>
-      <c r="AJ46" s="29"/>
-      <c r="AK46" s="30"/>
+      <c r="Z46" s="34"/>
+      <c r="AA46" s="34"/>
+      <c r="AB46" s="34"/>
+      <c r="AC46" s="34"/>
+      <c r="AD46" s="34"/>
+      <c r="AE46" s="34"/>
+      <c r="AF46" s="34"/>
+      <c r="AG46" s="34"/>
+      <c r="AH46" s="34"/>
+      <c r="AI46" s="34"/>
+      <c r="AJ46" s="34"/>
+      <c r="AK46" s="33"/>
       <c r="AL46" s="24"/>
       <c r="AM46" s="24"/>
       <c r="AN46" s="24"/>
@@ -10652,61 +10678,61 @@
       <c r="AQ46" s="24"/>
     </row>
     <row r="47" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A47" s="28">
+      <c r="A47" s="32">
         <v>5</v>
       </c>
-      <c r="B47" s="30"/>
-      <c r="C47" s="28" t="s">
+      <c r="B47" s="33"/>
+      <c r="C47" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="29"/>
-      <c r="E47" s="29"/>
-      <c r="F47" s="29"/>
-      <c r="G47" s="29"/>
-      <c r="H47" s="30"/>
-      <c r="I47" s="28" t="s">
+      <c r="D47" s="34"/>
+      <c r="E47" s="34"/>
+      <c r="F47" s="34"/>
+      <c r="G47" s="34"/>
+      <c r="H47" s="33"/>
+      <c r="I47" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="J47" s="29"/>
-      <c r="K47" s="29"/>
-      <c r="L47" s="30"/>
-      <c r="M47" s="28" t="s">
+      <c r="J47" s="34"/>
+      <c r="K47" s="34"/>
+      <c r="L47" s="33"/>
+      <c r="M47" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="N47" s="30"/>
-      <c r="O47" s="28" t="s">
+      <c r="N47" s="33"/>
+      <c r="O47" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="P47" s="30"/>
-      <c r="Q47" s="41" t="s">
+      <c r="P47" s="33"/>
+      <c r="Q47" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="R47" s="41"/>
-      <c r="S47" s="28" t="s">
+      <c r="R47" s="35"/>
+      <c r="S47" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="T47" s="29"/>
-      <c r="U47" s="30"/>
-      <c r="V47" s="28" t="s">
+      <c r="T47" s="34"/>
+      <c r="U47" s="33"/>
+      <c r="V47" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="W47" s="29"/>
-      <c r="X47" s="30"/>
-      <c r="Y47" s="28" t="s">
+      <c r="W47" s="34"/>
+      <c r="X47" s="33"/>
+      <c r="Y47" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="Z47" s="29"/>
-      <c r="AA47" s="29"/>
-      <c r="AB47" s="29"/>
-      <c r="AC47" s="29"/>
-      <c r="AD47" s="29"/>
-      <c r="AE47" s="29"/>
-      <c r="AF47" s="29"/>
-      <c r="AG47" s="29"/>
-      <c r="AH47" s="29"/>
-      <c r="AI47" s="29"/>
-      <c r="AJ47" s="29"/>
-      <c r="AK47" s="30"/>
+      <c r="Z47" s="34"/>
+      <c r="AA47" s="34"/>
+      <c r="AB47" s="34"/>
+      <c r="AC47" s="34"/>
+      <c r="AD47" s="34"/>
+      <c r="AE47" s="34"/>
+      <c r="AF47" s="34"/>
+      <c r="AG47" s="34"/>
+      <c r="AH47" s="34"/>
+      <c r="AI47" s="34"/>
+      <c r="AJ47" s="34"/>
+      <c r="AK47" s="33"/>
       <c r="AL47" s="24"/>
       <c r="AM47" s="24"/>
       <c r="AN47" s="24"/>
@@ -10715,61 +10741,61 @@
       <c r="AQ47" s="24"/>
     </row>
     <row r="48" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A48" s="28">
+      <c r="A48" s="32">
         <v>6</v>
       </c>
-      <c r="B48" s="30"/>
-      <c r="C48" s="28" t="s">
-        <v>47</v>
-      </c>
-      <c r="D48" s="29"/>
-      <c r="E48" s="29"/>
-      <c r="F48" s="29"/>
-      <c r="G48" s="29"/>
-      <c r="H48" s="30"/>
-      <c r="I48" s="28" t="s">
+      <c r="B48" s="33"/>
+      <c r="C48" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="D48" s="34"/>
+      <c r="E48" s="34"/>
+      <c r="F48" s="34"/>
+      <c r="G48" s="34"/>
+      <c r="H48" s="33"/>
+      <c r="I48" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="J48" s="29"/>
-      <c r="K48" s="29"/>
-      <c r="L48" s="30"/>
-      <c r="M48" s="28" t="s">
+      <c r="J48" s="34"/>
+      <c r="K48" s="34"/>
+      <c r="L48" s="33"/>
+      <c r="M48" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="N48" s="30"/>
-      <c r="O48" s="28" t="s">
+      <c r="N48" s="33"/>
+      <c r="O48" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="P48" s="30"/>
-      <c r="Q48" s="41" t="s">
+      <c r="P48" s="33"/>
+      <c r="Q48" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="R48" s="41"/>
-      <c r="S48" s="28" t="s">
+      <c r="R48" s="35"/>
+      <c r="S48" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="T48" s="29"/>
-      <c r="U48" s="30"/>
-      <c r="V48" s="28" t="s">
+      <c r="T48" s="34"/>
+      <c r="U48" s="33"/>
+      <c r="V48" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="W48" s="29"/>
-      <c r="X48" s="30"/>
-      <c r="Y48" s="28" t="s">
-        <v>48</v>
-      </c>
-      <c r="Z48" s="29"/>
-      <c r="AA48" s="29"/>
-      <c r="AB48" s="29"/>
-      <c r="AC48" s="29"/>
-      <c r="AD48" s="29"/>
-      <c r="AE48" s="29"/>
-      <c r="AF48" s="29"/>
-      <c r="AG48" s="29"/>
-      <c r="AH48" s="29"/>
-      <c r="AI48" s="29"/>
-      <c r="AJ48" s="29"/>
-      <c r="AK48" s="30"/>
+      <c r="W48" s="34"/>
+      <c r="X48" s="33"/>
+      <c r="Y48" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z48" s="34"/>
+      <c r="AA48" s="34"/>
+      <c r="AB48" s="34"/>
+      <c r="AC48" s="34"/>
+      <c r="AD48" s="34"/>
+      <c r="AE48" s="34"/>
+      <c r="AF48" s="34"/>
+      <c r="AG48" s="34"/>
+      <c r="AH48" s="34"/>
+      <c r="AI48" s="34"/>
+      <c r="AJ48" s="34"/>
+      <c r="AK48" s="33"/>
       <c r="AL48" s="24"/>
       <c r="AM48" s="24"/>
       <c r="AN48" s="24"/>
@@ -10778,61 +10804,61 @@
       <c r="AQ48" s="24"/>
     </row>
     <row r="49" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A49" s="41">
+      <c r="A49" s="35">
         <v>7</v>
       </c>
-      <c r="B49" s="41"/>
-      <c r="C49" s="41" t="s">
+      <c r="B49" s="35"/>
+      <c r="C49" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="D49" s="41"/>
-      <c r="E49" s="41"/>
-      <c r="F49" s="41"/>
-      <c r="G49" s="41"/>
-      <c r="H49" s="41"/>
-      <c r="I49" s="41" t="s">
-        <v>53</v>
-      </c>
-      <c r="J49" s="41"/>
-      <c r="K49" s="41"/>
-      <c r="L49" s="41"/>
-      <c r="M49" s="41" t="s">
+      <c r="D49" s="35"/>
+      <c r="E49" s="35"/>
+      <c r="F49" s="35"/>
+      <c r="G49" s="35"/>
+      <c r="H49" s="35"/>
+      <c r="I49" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="J49" s="35"/>
+      <c r="K49" s="35"/>
+      <c r="L49" s="35"/>
+      <c r="M49" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="N49" s="41"/>
-      <c r="O49" s="28" t="s">
+      <c r="N49" s="35"/>
+      <c r="O49" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="P49" s="30"/>
-      <c r="Q49" s="41" t="s">
+      <c r="P49" s="33"/>
+      <c r="Q49" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="R49" s="41"/>
-      <c r="S49" s="28" t="s">
+      <c r="R49" s="35"/>
+      <c r="S49" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="T49" s="29"/>
-      <c r="U49" s="30"/>
-      <c r="V49" s="28" t="s">
+      <c r="T49" s="34"/>
+      <c r="U49" s="33"/>
+      <c r="V49" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="W49" s="29"/>
-      <c r="X49" s="30"/>
-      <c r="Y49" s="28" t="s">
-        <v>54</v>
-      </c>
-      <c r="Z49" s="29"/>
-      <c r="AA49" s="29"/>
-      <c r="AB49" s="29"/>
-      <c r="AC49" s="29"/>
-      <c r="AD49" s="29"/>
-      <c r="AE49" s="29"/>
-      <c r="AF49" s="29"/>
-      <c r="AG49" s="29"/>
-      <c r="AH49" s="29"/>
-      <c r="AI49" s="29"/>
-      <c r="AJ49" s="29"/>
-      <c r="AK49" s="30"/>
+      <c r="W49" s="34"/>
+      <c r="X49" s="33"/>
+      <c r="Y49" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z49" s="34"/>
+      <c r="AA49" s="34"/>
+      <c r="AB49" s="34"/>
+      <c r="AC49" s="34"/>
+      <c r="AD49" s="34"/>
+      <c r="AE49" s="34"/>
+      <c r="AF49" s="34"/>
+      <c r="AG49" s="34"/>
+      <c r="AH49" s="34"/>
+      <c r="AI49" s="34"/>
+      <c r="AJ49" s="34"/>
+      <c r="AK49" s="33"/>
       <c r="AL49" s="24"/>
       <c r="AM49" s="24"/>
       <c r="AN49" s="24"/>
@@ -10841,45 +10867,45 @@
       <c r="AQ49" s="24"/>
     </row>
     <row r="50" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A50" s="41">
+      <c r="A50" s="35">
         <v>8</v>
       </c>
-      <c r="B50" s="41"/>
-      <c r="C50" s="41"/>
-      <c r="D50" s="41"/>
-      <c r="E50" s="41"/>
-      <c r="F50" s="41"/>
-      <c r="G50" s="41"/>
-      <c r="H50" s="41"/>
-      <c r="I50" s="41"/>
-      <c r="J50" s="41"/>
-      <c r="K50" s="41"/>
-      <c r="L50" s="41"/>
-      <c r="M50" s="41"/>
-      <c r="N50" s="41"/>
-      <c r="O50" s="28"/>
-      <c r="P50" s="30"/>
-      <c r="Q50" s="41"/>
-      <c r="R50" s="41"/>
-      <c r="S50" s="28"/>
-      <c r="T50" s="29"/>
-      <c r="U50" s="30"/>
-      <c r="V50" s="28"/>
-      <c r="W50" s="29"/>
-      <c r="X50" s="30"/>
-      <c r="Y50" s="28"/>
-      <c r="Z50" s="29"/>
-      <c r="AA50" s="29"/>
-      <c r="AB50" s="29"/>
-      <c r="AC50" s="29"/>
-      <c r="AD50" s="29"/>
-      <c r="AE50" s="29"/>
-      <c r="AF50" s="29"/>
-      <c r="AG50" s="29"/>
-      <c r="AH50" s="29"/>
-      <c r="AI50" s="29"/>
-      <c r="AJ50" s="29"/>
-      <c r="AK50" s="30"/>
+      <c r="B50" s="35"/>
+      <c r="C50" s="35"/>
+      <c r="D50" s="35"/>
+      <c r="E50" s="35"/>
+      <c r="F50" s="35"/>
+      <c r="G50" s="35"/>
+      <c r="H50" s="35"/>
+      <c r="I50" s="35"/>
+      <c r="J50" s="35"/>
+      <c r="K50" s="35"/>
+      <c r="L50" s="35"/>
+      <c r="M50" s="35"/>
+      <c r="N50" s="35"/>
+      <c r="O50" s="32"/>
+      <c r="P50" s="33"/>
+      <c r="Q50" s="35"/>
+      <c r="R50" s="35"/>
+      <c r="S50" s="32"/>
+      <c r="T50" s="34"/>
+      <c r="U50" s="33"/>
+      <c r="V50" s="32"/>
+      <c r="W50" s="34"/>
+      <c r="X50" s="33"/>
+      <c r="Y50" s="32"/>
+      <c r="Z50" s="34"/>
+      <c r="AA50" s="34"/>
+      <c r="AB50" s="34"/>
+      <c r="AC50" s="34"/>
+      <c r="AD50" s="34"/>
+      <c r="AE50" s="34"/>
+      <c r="AF50" s="34"/>
+      <c r="AG50" s="34"/>
+      <c r="AH50" s="34"/>
+      <c r="AI50" s="34"/>
+      <c r="AJ50" s="34"/>
+      <c r="AK50" s="33"/>
       <c r="AL50" s="24"/>
       <c r="AM50" s="24"/>
       <c r="AN50" s="24"/>
@@ -10888,45 +10914,45 @@
       <c r="AQ50" s="24"/>
     </row>
     <row r="51" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A51" s="41">
+      <c r="A51" s="35">
         <v>9</v>
       </c>
-      <c r="B51" s="41"/>
-      <c r="C51" s="41"/>
-      <c r="D51" s="41"/>
-      <c r="E51" s="41"/>
-      <c r="F51" s="41"/>
-      <c r="G51" s="41"/>
-      <c r="H51" s="41"/>
-      <c r="I51" s="41"/>
-      <c r="J51" s="41"/>
-      <c r="K51" s="41"/>
-      <c r="L51" s="41"/>
-      <c r="M51" s="41"/>
-      <c r="N51" s="41"/>
-      <c r="O51" s="28"/>
-      <c r="P51" s="30"/>
-      <c r="Q51" s="41"/>
-      <c r="R51" s="41"/>
-      <c r="S51" s="28"/>
-      <c r="T51" s="29"/>
-      <c r="U51" s="30"/>
-      <c r="V51" s="28"/>
-      <c r="W51" s="29"/>
-      <c r="X51" s="30"/>
-      <c r="Y51" s="28"/>
-      <c r="Z51" s="29"/>
-      <c r="AA51" s="29"/>
-      <c r="AB51" s="29"/>
-      <c r="AC51" s="29"/>
-      <c r="AD51" s="29"/>
-      <c r="AE51" s="29"/>
-      <c r="AF51" s="29"/>
-      <c r="AG51" s="29"/>
-      <c r="AH51" s="29"/>
-      <c r="AI51" s="29"/>
-      <c r="AJ51" s="29"/>
-      <c r="AK51" s="30"/>
+      <c r="B51" s="35"/>
+      <c r="C51" s="35"/>
+      <c r="D51" s="35"/>
+      <c r="E51" s="35"/>
+      <c r="F51" s="35"/>
+      <c r="G51" s="35"/>
+      <c r="H51" s="35"/>
+      <c r="I51" s="35"/>
+      <c r="J51" s="35"/>
+      <c r="K51" s="35"/>
+      <c r="L51" s="35"/>
+      <c r="M51" s="35"/>
+      <c r="N51" s="35"/>
+      <c r="O51" s="32"/>
+      <c r="P51" s="33"/>
+      <c r="Q51" s="35"/>
+      <c r="R51" s="35"/>
+      <c r="S51" s="32"/>
+      <c r="T51" s="34"/>
+      <c r="U51" s="33"/>
+      <c r="V51" s="32"/>
+      <c r="W51" s="34"/>
+      <c r="X51" s="33"/>
+      <c r="Y51" s="32"/>
+      <c r="Z51" s="34"/>
+      <c r="AA51" s="34"/>
+      <c r="AB51" s="34"/>
+      <c r="AC51" s="34"/>
+      <c r="AD51" s="34"/>
+      <c r="AE51" s="34"/>
+      <c r="AF51" s="34"/>
+      <c r="AG51" s="34"/>
+      <c r="AH51" s="34"/>
+      <c r="AI51" s="34"/>
+      <c r="AJ51" s="34"/>
+      <c r="AK51" s="33"/>
       <c r="AL51" s="24"/>
       <c r="AM51" s="24"/>
       <c r="AN51" s="24"/>
@@ -10935,214 +10961,331 @@
       <c r="AQ51" s="24"/>
     </row>
     <row r="52" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A52" s="37"/>
-      <c r="B52" s="38"/>
-      <c r="C52" s="37"/>
-      <c r="D52" s="39"/>
-      <c r="E52" s="39"/>
-      <c r="F52" s="39"/>
-      <c r="G52" s="39"/>
-      <c r="H52" s="38"/>
-      <c r="I52" s="37"/>
-      <c r="J52" s="39"/>
-      <c r="K52" s="39"/>
-      <c r="L52" s="38"/>
-      <c r="M52" s="37"/>
-      <c r="N52" s="38"/>
-      <c r="O52" s="37"/>
-      <c r="P52" s="38"/>
-      <c r="Q52" s="40"/>
-      <c r="R52" s="40"/>
-      <c r="S52" s="37"/>
-      <c r="T52" s="39"/>
-      <c r="U52" s="39"/>
-      <c r="V52" s="40"/>
-      <c r="W52" s="40"/>
-      <c r="X52" s="40"/>
-      <c r="Y52" s="37"/>
-      <c r="Z52" s="39"/>
-      <c r="AA52" s="39"/>
-      <c r="AB52" s="39"/>
-      <c r="AC52" s="39"/>
-      <c r="AD52" s="39"/>
-      <c r="AE52" s="39"/>
-      <c r="AF52" s="39"/>
-      <c r="AG52" s="39"/>
-      <c r="AH52" s="39"/>
-      <c r="AI52" s="39"/>
-      <c r="AJ52" s="39"/>
-      <c r="AK52" s="38"/>
+      <c r="A52" s="59"/>
+      <c r="B52" s="60"/>
+      <c r="C52" s="59"/>
+      <c r="D52" s="61"/>
+      <c r="E52" s="61"/>
+      <c r="F52" s="61"/>
+      <c r="G52" s="61"/>
+      <c r="H52" s="60"/>
+      <c r="I52" s="59"/>
+      <c r="J52" s="61"/>
+      <c r="K52" s="61"/>
+      <c r="L52" s="60"/>
+      <c r="M52" s="59"/>
+      <c r="N52" s="60"/>
+      <c r="O52" s="59"/>
+      <c r="P52" s="60"/>
+      <c r="Q52" s="62"/>
+      <c r="R52" s="62"/>
+      <c r="S52" s="59"/>
+      <c r="T52" s="61"/>
+      <c r="U52" s="61"/>
+      <c r="V52" s="62"/>
+      <c r="W52" s="62"/>
+      <c r="X52" s="62"/>
+      <c r="Y52" s="59"/>
+      <c r="Z52" s="61"/>
+      <c r="AA52" s="61"/>
+      <c r="AB52" s="61"/>
+      <c r="AC52" s="61"/>
+      <c r="AD52" s="61"/>
+      <c r="AE52" s="61"/>
+      <c r="AF52" s="61"/>
+      <c r="AG52" s="61"/>
+      <c r="AH52" s="61"/>
+      <c r="AI52" s="61"/>
+      <c r="AJ52" s="61"/>
+      <c r="AK52" s="60"/>
     </row>
     <row r="53" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A53" s="37"/>
-      <c r="B53" s="38"/>
-      <c r="C53" s="37"/>
-      <c r="D53" s="39"/>
-      <c r="E53" s="39"/>
-      <c r="F53" s="39"/>
-      <c r="G53" s="39"/>
-      <c r="H53" s="38"/>
-      <c r="I53" s="37"/>
-      <c r="J53" s="39"/>
-      <c r="K53" s="39"/>
-      <c r="L53" s="38"/>
-      <c r="M53" s="37"/>
-      <c r="N53" s="38"/>
-      <c r="O53" s="37"/>
-      <c r="P53" s="38"/>
-      <c r="Q53" s="37"/>
-      <c r="R53" s="38"/>
-      <c r="S53" s="37"/>
-      <c r="T53" s="39"/>
-      <c r="U53" s="39"/>
-      <c r="V53" s="40"/>
-      <c r="W53" s="40"/>
-      <c r="X53" s="40"/>
-      <c r="Y53" s="37"/>
-      <c r="Z53" s="39"/>
-      <c r="AA53" s="39"/>
-      <c r="AB53" s="39"/>
-      <c r="AC53" s="39"/>
-      <c r="AD53" s="39"/>
-      <c r="AE53" s="39"/>
-      <c r="AF53" s="39"/>
-      <c r="AG53" s="39"/>
-      <c r="AH53" s="39"/>
-      <c r="AI53" s="39"/>
-      <c r="AJ53" s="39"/>
-      <c r="AK53" s="38"/>
+      <c r="A53" s="59"/>
+      <c r="B53" s="60"/>
+      <c r="C53" s="59"/>
+      <c r="D53" s="61"/>
+      <c r="E53" s="61"/>
+      <c r="F53" s="61"/>
+      <c r="G53" s="61"/>
+      <c r="H53" s="60"/>
+      <c r="I53" s="59"/>
+      <c r="J53" s="61"/>
+      <c r="K53" s="61"/>
+      <c r="L53" s="60"/>
+      <c r="M53" s="59"/>
+      <c r="N53" s="60"/>
+      <c r="O53" s="59"/>
+      <c r="P53" s="60"/>
+      <c r="Q53" s="59"/>
+      <c r="R53" s="60"/>
+      <c r="S53" s="59"/>
+      <c r="T53" s="61"/>
+      <c r="U53" s="61"/>
+      <c r="V53" s="62"/>
+      <c r="W53" s="62"/>
+      <c r="X53" s="62"/>
+      <c r="Y53" s="59"/>
+      <c r="Z53" s="61"/>
+      <c r="AA53" s="61"/>
+      <c r="AB53" s="61"/>
+      <c r="AC53" s="61"/>
+      <c r="AD53" s="61"/>
+      <c r="AE53" s="61"/>
+      <c r="AF53" s="61"/>
+      <c r="AG53" s="61"/>
+      <c r="AH53" s="61"/>
+      <c r="AI53" s="61"/>
+      <c r="AJ53" s="61"/>
+      <c r="AK53" s="60"/>
     </row>
     <row r="54" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A54" s="37"/>
-      <c r="B54" s="38"/>
-      <c r="C54" s="37"/>
-      <c r="D54" s="39"/>
-      <c r="E54" s="39"/>
-      <c r="F54" s="39"/>
-      <c r="G54" s="39"/>
-      <c r="H54" s="38"/>
-      <c r="I54" s="37"/>
-      <c r="J54" s="39"/>
-      <c r="K54" s="39"/>
-      <c r="L54" s="38"/>
-      <c r="M54" s="37"/>
-      <c r="N54" s="38"/>
-      <c r="O54" s="37"/>
-      <c r="P54" s="38"/>
-      <c r="Q54" s="40"/>
-      <c r="R54" s="40"/>
-      <c r="S54" s="37"/>
-      <c r="T54" s="39"/>
-      <c r="U54" s="39"/>
-      <c r="V54" s="40"/>
-      <c r="W54" s="40"/>
-      <c r="X54" s="40"/>
-      <c r="Y54" s="37"/>
-      <c r="Z54" s="39"/>
-      <c r="AA54" s="39"/>
-      <c r="AB54" s="39"/>
-      <c r="AC54" s="39"/>
-      <c r="AD54" s="39"/>
-      <c r="AE54" s="39"/>
-      <c r="AF54" s="39"/>
-      <c r="AG54" s="39"/>
-      <c r="AH54" s="39"/>
-      <c r="AI54" s="39"/>
-      <c r="AJ54" s="39"/>
-      <c r="AK54" s="38"/>
+      <c r="A54" s="59"/>
+      <c r="B54" s="60"/>
+      <c r="C54" s="59"/>
+      <c r="D54" s="61"/>
+      <c r="E54" s="61"/>
+      <c r="F54" s="61"/>
+      <c r="G54" s="61"/>
+      <c r="H54" s="60"/>
+      <c r="I54" s="59"/>
+      <c r="J54" s="61"/>
+      <c r="K54" s="61"/>
+      <c r="L54" s="60"/>
+      <c r="M54" s="59"/>
+      <c r="N54" s="60"/>
+      <c r="O54" s="59"/>
+      <c r="P54" s="60"/>
+      <c r="Q54" s="62"/>
+      <c r="R54" s="62"/>
+      <c r="S54" s="59"/>
+      <c r="T54" s="61"/>
+      <c r="U54" s="61"/>
+      <c r="V54" s="62"/>
+      <c r="W54" s="62"/>
+      <c r="X54" s="62"/>
+      <c r="Y54" s="59"/>
+      <c r="Z54" s="61"/>
+      <c r="AA54" s="61"/>
+      <c r="AB54" s="61"/>
+      <c r="AC54" s="61"/>
+      <c r="AD54" s="61"/>
+      <c r="AE54" s="61"/>
+      <c r="AF54" s="61"/>
+      <c r="AG54" s="61"/>
+      <c r="AH54" s="61"/>
+      <c r="AI54" s="61"/>
+      <c r="AJ54" s="61"/>
+      <c r="AK54" s="60"/>
     </row>
     <row r="55" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A55" s="37"/>
-      <c r="B55" s="38"/>
-      <c r="C55" s="37"/>
-      <c r="D55" s="39"/>
-      <c r="E55" s="39"/>
-      <c r="F55" s="39"/>
-      <c r="G55" s="39"/>
-      <c r="H55" s="38"/>
-      <c r="I55" s="37"/>
-      <c r="J55" s="39"/>
-      <c r="K55" s="39"/>
-      <c r="L55" s="38"/>
-      <c r="M55" s="37"/>
-      <c r="N55" s="38"/>
-      <c r="O55" s="37"/>
-      <c r="P55" s="38"/>
-      <c r="Q55" s="37"/>
-      <c r="R55" s="38"/>
-      <c r="S55" s="37"/>
-      <c r="T55" s="39"/>
-      <c r="U55" s="39"/>
-      <c r="V55" s="40"/>
-      <c r="W55" s="40"/>
-      <c r="X55" s="40"/>
-      <c r="Y55" s="37"/>
-      <c r="Z55" s="39"/>
-      <c r="AA55" s="39"/>
-      <c r="AB55" s="39"/>
-      <c r="AC55" s="39"/>
-      <c r="AD55" s="39"/>
-      <c r="AE55" s="39"/>
-      <c r="AF55" s="39"/>
-      <c r="AG55" s="39"/>
-      <c r="AH55" s="39"/>
-      <c r="AI55" s="39"/>
-      <c r="AJ55" s="39"/>
-      <c r="AK55" s="38"/>
+      <c r="A55" s="59"/>
+      <c r="B55" s="60"/>
+      <c r="C55" s="59"/>
+      <c r="D55" s="61"/>
+      <c r="E55" s="61"/>
+      <c r="F55" s="61"/>
+      <c r="G55" s="61"/>
+      <c r="H55" s="60"/>
+      <c r="I55" s="59"/>
+      <c r="J55" s="61"/>
+      <c r="K55" s="61"/>
+      <c r="L55" s="60"/>
+      <c r="M55" s="59"/>
+      <c r="N55" s="60"/>
+      <c r="O55" s="59"/>
+      <c r="P55" s="60"/>
+      <c r="Q55" s="59"/>
+      <c r="R55" s="60"/>
+      <c r="S55" s="59"/>
+      <c r="T55" s="61"/>
+      <c r="U55" s="61"/>
+      <c r="V55" s="62"/>
+      <c r="W55" s="62"/>
+      <c r="X55" s="62"/>
+      <c r="Y55" s="59"/>
+      <c r="Z55" s="61"/>
+      <c r="AA55" s="61"/>
+      <c r="AB55" s="61"/>
+      <c r="AC55" s="61"/>
+      <c r="AD55" s="61"/>
+      <c r="AE55" s="61"/>
+      <c r="AF55" s="61"/>
+      <c r="AG55" s="61"/>
+      <c r="AH55" s="61"/>
+      <c r="AI55" s="61"/>
+      <c r="AJ55" s="61"/>
+      <c r="AK55" s="60"/>
     </row>
     <row r="56" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A56" s="37"/>
-      <c r="B56" s="38"/>
-      <c r="C56" s="37"/>
-      <c r="D56" s="39"/>
-      <c r="E56" s="39"/>
-      <c r="F56" s="39"/>
-      <c r="G56" s="39"/>
-      <c r="H56" s="38"/>
-      <c r="I56" s="37"/>
-      <c r="J56" s="39"/>
-      <c r="K56" s="39"/>
-      <c r="L56" s="38"/>
-      <c r="M56" s="37"/>
-      <c r="N56" s="38"/>
-      <c r="O56" s="37"/>
-      <c r="P56" s="38"/>
-      <c r="Q56" s="37"/>
-      <c r="R56" s="38"/>
-      <c r="S56" s="37"/>
-      <c r="T56" s="39"/>
-      <c r="U56" s="39"/>
-      <c r="V56" s="40"/>
-      <c r="W56" s="40"/>
-      <c r="X56" s="40"/>
-      <c r="Y56" s="37"/>
-      <c r="Z56" s="39"/>
-      <c r="AA56" s="39"/>
-      <c r="AB56" s="39"/>
-      <c r="AC56" s="39"/>
-      <c r="AD56" s="39"/>
-      <c r="AE56" s="39"/>
-      <c r="AF56" s="39"/>
-      <c r="AG56" s="39"/>
-      <c r="AH56" s="39"/>
-      <c r="AI56" s="39"/>
-      <c r="AJ56" s="39"/>
-      <c r="AK56" s="38"/>
+      <c r="A56" s="59"/>
+      <c r="B56" s="60"/>
+      <c r="C56" s="59"/>
+      <c r="D56" s="61"/>
+      <c r="E56" s="61"/>
+      <c r="F56" s="61"/>
+      <c r="G56" s="61"/>
+      <c r="H56" s="60"/>
+      <c r="I56" s="59"/>
+      <c r="J56" s="61"/>
+      <c r="K56" s="61"/>
+      <c r="L56" s="60"/>
+      <c r="M56" s="59"/>
+      <c r="N56" s="60"/>
+      <c r="O56" s="59"/>
+      <c r="P56" s="60"/>
+      <c r="Q56" s="59"/>
+      <c r="R56" s="60"/>
+      <c r="S56" s="59"/>
+      <c r="T56" s="61"/>
+      <c r="U56" s="61"/>
+      <c r="V56" s="62"/>
+      <c r="W56" s="62"/>
+      <c r="X56" s="62"/>
+      <c r="Y56" s="59"/>
+      <c r="Z56" s="61"/>
+      <c r="AA56" s="61"/>
+      <c r="AB56" s="61"/>
+      <c r="AC56" s="61"/>
+      <c r="AD56" s="61"/>
+      <c r="AE56" s="61"/>
+      <c r="AF56" s="61"/>
+      <c r="AG56" s="61"/>
+      <c r="AH56" s="61"/>
+      <c r="AI56" s="61"/>
+      <c r="AJ56" s="61"/>
+      <c r="AK56" s="60"/>
     </row>
     <row r="59" spans="1:43" ht="12.75" customHeight="1">
       <c r="B59" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="153">
-    <mergeCell ref="A1:AK1"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="I3:O3"/>
-    <mergeCell ref="P3:R3"/>
-    <mergeCell ref="S3:Y3"/>
-    <mergeCell ref="Z3:AB3"/>
-    <mergeCell ref="AC3:AE3"/>
-    <mergeCell ref="AF3:AH3"/>
-    <mergeCell ref="AI3:AK3"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="C56:H56"/>
+    <mergeCell ref="I56:L56"/>
+    <mergeCell ref="M56:N56"/>
+    <mergeCell ref="O56:P56"/>
+    <mergeCell ref="Q56:R56"/>
+    <mergeCell ref="S56:U56"/>
+    <mergeCell ref="V56:X56"/>
+    <mergeCell ref="Y56:AK56"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="C55:H55"/>
+    <mergeCell ref="I55:L55"/>
+    <mergeCell ref="M55:N55"/>
+    <mergeCell ref="O55:P55"/>
+    <mergeCell ref="Q55:R55"/>
+    <mergeCell ref="S55:U55"/>
+    <mergeCell ref="V55:X55"/>
+    <mergeCell ref="Y55:AK55"/>
+    <mergeCell ref="S53:U53"/>
+    <mergeCell ref="V53:X53"/>
+    <mergeCell ref="Y53:AK53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="C54:H54"/>
+    <mergeCell ref="I54:L54"/>
+    <mergeCell ref="M54:N54"/>
+    <mergeCell ref="O54:P54"/>
+    <mergeCell ref="Q54:R54"/>
+    <mergeCell ref="S54:U54"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C53:H53"/>
+    <mergeCell ref="I53:L53"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="O53:P53"/>
+    <mergeCell ref="Q53:R53"/>
+    <mergeCell ref="V54:X54"/>
+    <mergeCell ref="Y54:AK54"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:H52"/>
+    <mergeCell ref="I52:L52"/>
+    <mergeCell ref="M52:N52"/>
+    <mergeCell ref="O52:P52"/>
+    <mergeCell ref="Q52:R52"/>
+    <mergeCell ref="S52:U52"/>
+    <mergeCell ref="V52:X52"/>
+    <mergeCell ref="Y52:AK52"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:H51"/>
+    <mergeCell ref="I51:L51"/>
+    <mergeCell ref="M51:N51"/>
+    <mergeCell ref="O51:P51"/>
+    <mergeCell ref="Q51:R51"/>
+    <mergeCell ref="S51:U51"/>
+    <mergeCell ref="V51:X51"/>
+    <mergeCell ref="Y51:AK51"/>
+    <mergeCell ref="S49:U49"/>
+    <mergeCell ref="V49:X49"/>
+    <mergeCell ref="Y49:AK49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:H50"/>
+    <mergeCell ref="I50:L50"/>
+    <mergeCell ref="M50:N50"/>
+    <mergeCell ref="O50:P50"/>
+    <mergeCell ref="Q50:R50"/>
+    <mergeCell ref="S50:U50"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:H49"/>
+    <mergeCell ref="I49:L49"/>
+    <mergeCell ref="M49:N49"/>
+    <mergeCell ref="O49:P49"/>
+    <mergeCell ref="Q49:R49"/>
+    <mergeCell ref="V50:X50"/>
+    <mergeCell ref="Y50:AK50"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:H48"/>
+    <mergeCell ref="I48:L48"/>
+    <mergeCell ref="M48:N48"/>
+    <mergeCell ref="O48:P48"/>
+    <mergeCell ref="Q48:R48"/>
+    <mergeCell ref="S48:U48"/>
+    <mergeCell ref="V48:X48"/>
+    <mergeCell ref="Y48:AK48"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:H47"/>
+    <mergeCell ref="I47:L47"/>
+    <mergeCell ref="M47:N47"/>
+    <mergeCell ref="O47:P47"/>
+    <mergeCell ref="Q47:R47"/>
+    <mergeCell ref="S47:U47"/>
+    <mergeCell ref="V47:X47"/>
+    <mergeCell ref="Y47:AK47"/>
+    <mergeCell ref="S45:U45"/>
+    <mergeCell ref="V45:X45"/>
+    <mergeCell ref="Y45:AK45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:H46"/>
+    <mergeCell ref="I46:L46"/>
+    <mergeCell ref="M46:N46"/>
+    <mergeCell ref="O46:P46"/>
+    <mergeCell ref="Q46:R46"/>
+    <mergeCell ref="S46:U46"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:H45"/>
+    <mergeCell ref="I45:L45"/>
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="O45:P45"/>
+    <mergeCell ref="Q45:R45"/>
+    <mergeCell ref="V46:X46"/>
+    <mergeCell ref="Y46:AK46"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:H44"/>
+    <mergeCell ref="I44:L44"/>
+    <mergeCell ref="M44:N44"/>
+    <mergeCell ref="O44:P44"/>
+    <mergeCell ref="Q44:R44"/>
+    <mergeCell ref="S44:U44"/>
+    <mergeCell ref="V44:X44"/>
+    <mergeCell ref="Y44:AK44"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:H43"/>
+    <mergeCell ref="I43:L43"/>
+    <mergeCell ref="M43:N43"/>
+    <mergeCell ref="O43:P43"/>
+    <mergeCell ref="Q43:R43"/>
+    <mergeCell ref="S43:U43"/>
+    <mergeCell ref="V43:X43"/>
+    <mergeCell ref="Y43:AK43"/>
     <mergeCell ref="AF4:AH5"/>
     <mergeCell ref="AI4:AK5"/>
     <mergeCell ref="O37:P37"/>
@@ -11161,132 +11304,15 @@
     <mergeCell ref="AC4:AE5"/>
     <mergeCell ref="V41:X42"/>
     <mergeCell ref="Y41:AK42"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="C43:H43"/>
-    <mergeCell ref="I43:L43"/>
-    <mergeCell ref="M43:N43"/>
-    <mergeCell ref="O43:P43"/>
-    <mergeCell ref="Q43:R43"/>
-    <mergeCell ref="S43:U43"/>
-    <mergeCell ref="V43:X43"/>
-    <mergeCell ref="Y43:AK43"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="C44:H44"/>
-    <mergeCell ref="I44:L44"/>
-    <mergeCell ref="M44:N44"/>
-    <mergeCell ref="O44:P44"/>
-    <mergeCell ref="Q44:R44"/>
-    <mergeCell ref="S44:U44"/>
-    <mergeCell ref="V44:X44"/>
-    <mergeCell ref="Y44:AK44"/>
-    <mergeCell ref="S45:U45"/>
-    <mergeCell ref="V45:X45"/>
-    <mergeCell ref="Y45:AK45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="C46:H46"/>
-    <mergeCell ref="I46:L46"/>
-    <mergeCell ref="M46:N46"/>
-    <mergeCell ref="O46:P46"/>
-    <mergeCell ref="Q46:R46"/>
-    <mergeCell ref="S46:U46"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="C45:H45"/>
-    <mergeCell ref="I45:L45"/>
-    <mergeCell ref="M45:N45"/>
-    <mergeCell ref="O45:P45"/>
-    <mergeCell ref="Q45:R45"/>
-    <mergeCell ref="V46:X46"/>
-    <mergeCell ref="Y46:AK46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="C47:H47"/>
-    <mergeCell ref="I47:L47"/>
-    <mergeCell ref="M47:N47"/>
-    <mergeCell ref="O47:P47"/>
-    <mergeCell ref="Q47:R47"/>
-    <mergeCell ref="S47:U47"/>
-    <mergeCell ref="V47:X47"/>
-    <mergeCell ref="Y47:AK47"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="C48:H48"/>
-    <mergeCell ref="I48:L48"/>
-    <mergeCell ref="M48:N48"/>
-    <mergeCell ref="O48:P48"/>
-    <mergeCell ref="Q48:R48"/>
-    <mergeCell ref="S48:U48"/>
-    <mergeCell ref="V48:X48"/>
-    <mergeCell ref="Y48:AK48"/>
-    <mergeCell ref="S49:U49"/>
-    <mergeCell ref="V49:X49"/>
-    <mergeCell ref="Y49:AK49"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="C50:H50"/>
-    <mergeCell ref="I50:L50"/>
-    <mergeCell ref="M50:N50"/>
-    <mergeCell ref="O50:P50"/>
-    <mergeCell ref="Q50:R50"/>
-    <mergeCell ref="S50:U50"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="C49:H49"/>
-    <mergeCell ref="I49:L49"/>
-    <mergeCell ref="M49:N49"/>
-    <mergeCell ref="O49:P49"/>
-    <mergeCell ref="Q49:R49"/>
-    <mergeCell ref="V50:X50"/>
-    <mergeCell ref="Y50:AK50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="C51:H51"/>
-    <mergeCell ref="I51:L51"/>
-    <mergeCell ref="M51:N51"/>
-    <mergeCell ref="O51:P51"/>
-    <mergeCell ref="Q51:R51"/>
-    <mergeCell ref="S51:U51"/>
-    <mergeCell ref="V51:X51"/>
-    <mergeCell ref="Y51:AK51"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="C52:H52"/>
-    <mergeCell ref="I52:L52"/>
-    <mergeCell ref="M52:N52"/>
-    <mergeCell ref="O52:P52"/>
-    <mergeCell ref="Q52:R52"/>
-    <mergeCell ref="S52:U52"/>
-    <mergeCell ref="V52:X52"/>
-    <mergeCell ref="Y52:AK52"/>
-    <mergeCell ref="S53:U53"/>
-    <mergeCell ref="V53:X53"/>
-    <mergeCell ref="Y53:AK53"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="C54:H54"/>
-    <mergeCell ref="I54:L54"/>
-    <mergeCell ref="M54:N54"/>
-    <mergeCell ref="O54:P54"/>
-    <mergeCell ref="Q54:R54"/>
-    <mergeCell ref="S54:U54"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="C53:H53"/>
-    <mergeCell ref="I53:L53"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="O53:P53"/>
-    <mergeCell ref="Q53:R53"/>
-    <mergeCell ref="V54:X54"/>
-    <mergeCell ref="Y54:AK54"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="C55:H55"/>
-    <mergeCell ref="I55:L55"/>
-    <mergeCell ref="M55:N55"/>
-    <mergeCell ref="O55:P55"/>
-    <mergeCell ref="Q55:R55"/>
-    <mergeCell ref="S55:U55"/>
-    <mergeCell ref="V55:X55"/>
-    <mergeCell ref="Y55:AK55"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="C56:H56"/>
-    <mergeCell ref="I56:L56"/>
-    <mergeCell ref="M56:N56"/>
-    <mergeCell ref="O56:P56"/>
-    <mergeCell ref="Q56:R56"/>
-    <mergeCell ref="S56:U56"/>
-    <mergeCell ref="V56:X56"/>
-    <mergeCell ref="Y56:AK56"/>
+    <mergeCell ref="A1:AK1"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="I3:O3"/>
+    <mergeCell ref="P3:R3"/>
+    <mergeCell ref="S3:Y3"/>
+    <mergeCell ref="Z3:AB3"/>
+    <mergeCell ref="AC3:AE3"/>
+    <mergeCell ref="AF3:AH3"/>
+    <mergeCell ref="AI3:AK3"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>

--- a/設計書/画面レイアウト/チャット選択面（変更）.xlsx
+++ b/設計書/画面レイアウト/チャット選択面（変更）.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81702\Desktop\SAKURA\設計書\画面レイアウト\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{985BE689-A82D-4F25-BB3F-1B6E357959F6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4AAA58D-502C-4088-BB60-DB18046AAA78}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -756,28 +756,22 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -796,6 +790,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -840,26 +849,17 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3850,9 +3850,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>205618</xdr:colOff>
+      <xdr:colOff>227463</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>87253</xdr:rowOff>
+      <xdr:rowOff>37911</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3867,8 +3867,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="338758" y="1409281"/>
-          <a:ext cx="4801717" cy="619258"/>
+          <a:off x="342278" y="1423814"/>
+          <a:ext cx="4879886" cy="585440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6135,7 +6135,7 @@
   <dimension ref="A1:AQ59"/>
   <sheetViews>
     <sheetView zoomScale="66" zoomScaleNormal="135" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="T9" sqref="T9:AB11"/>
+      <selection activeCell="Z23" sqref="Z23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
@@ -6143,51 +6143,52 @@
     <col min="1" max="4" width="4.1796875" style="1" customWidth="1"/>
     <col min="5" max="6" width="4.1796875" style="18" customWidth="1"/>
     <col min="7" max="33" width="4.1796875" style="1" customWidth="1"/>
-    <col min="34" max="37" width="4.1796875" style="19" customWidth="1"/>
+    <col min="34" max="36" width="4.1796875" style="19" customWidth="1"/>
+    <col min="37" max="37" width="5" style="19" customWidth="1"/>
     <col min="38" max="41" width="4" style="1" customWidth="1"/>
     <col min="42" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="12.75" customHeight="1">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
-      <c r="N1" s="28"/>
-      <c r="O1" s="28"/>
-      <c r="P1" s="28"/>
-      <c r="Q1" s="28"/>
-      <c r="R1" s="28"/>
-      <c r="S1" s="28"/>
-      <c r="T1" s="28"/>
-      <c r="U1" s="28"/>
-      <c r="V1" s="28"/>
-      <c r="W1" s="28"/>
-      <c r="X1" s="28"/>
-      <c r="Y1" s="28"/>
-      <c r="Z1" s="28"/>
-      <c r="AA1" s="28"/>
-      <c r="AB1" s="28"/>
-      <c r="AC1" s="28"/>
-      <c r="AD1" s="28"/>
-      <c r="AE1" s="28"/>
-      <c r="AF1" s="28"/>
-      <c r="AG1" s="28"/>
-      <c r="AH1" s="28"/>
-      <c r="AI1" s="28"/>
-      <c r="AJ1" s="28"/>
-      <c r="AK1" s="28"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
+      <c r="M1" s="59"/>
+      <c r="N1" s="59"/>
+      <c r="O1" s="59"/>
+      <c r="P1" s="59"/>
+      <c r="Q1" s="59"/>
+      <c r="R1" s="59"/>
+      <c r="S1" s="59"/>
+      <c r="T1" s="59"/>
+      <c r="U1" s="59"/>
+      <c r="V1" s="59"/>
+      <c r="W1" s="59"/>
+      <c r="X1" s="59"/>
+      <c r="Y1" s="59"/>
+      <c r="Z1" s="59"/>
+      <c r="AA1" s="59"/>
+      <c r="AB1" s="59"/>
+      <c r="AC1" s="59"/>
+      <c r="AD1" s="59"/>
+      <c r="AE1" s="59"/>
+      <c r="AF1" s="59"/>
+      <c r="AG1" s="59"/>
+      <c r="AH1" s="59"/>
+      <c r="AI1" s="59"/>
+      <c r="AJ1" s="59"/>
+      <c r="AK1" s="59"/>
     </row>
     <row r="2" spans="1:37" ht="6" customHeight="1">
       <c r="A2" s="2"/>
@@ -6229,153 +6230,153 @@
       <c r="AK2" s="2"/>
     </row>
     <row r="3" spans="1:37" ht="12">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="29" t="s">
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30"/>
-      <c r="M3" s="30"/>
-      <c r="N3" s="30"/>
-      <c r="O3" s="31"/>
-      <c r="P3" s="29" t="s">
+      <c r="J3" s="61"/>
+      <c r="K3" s="61"/>
+      <c r="L3" s="61"/>
+      <c r="M3" s="61"/>
+      <c r="N3" s="61"/>
+      <c r="O3" s="62"/>
+      <c r="P3" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="Q3" s="30"/>
-      <c r="R3" s="31"/>
-      <c r="S3" s="29" t="s">
+      <c r="Q3" s="61"/>
+      <c r="R3" s="62"/>
+      <c r="S3" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="T3" s="30"/>
-      <c r="U3" s="30"/>
-      <c r="V3" s="30"/>
-      <c r="W3" s="30"/>
-      <c r="X3" s="30"/>
-      <c r="Y3" s="31"/>
-      <c r="Z3" s="29" t="s">
+      <c r="T3" s="61"/>
+      <c r="U3" s="61"/>
+      <c r="V3" s="61"/>
+      <c r="W3" s="61"/>
+      <c r="X3" s="61"/>
+      <c r="Y3" s="62"/>
+      <c r="Z3" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="AA3" s="30"/>
-      <c r="AB3" s="31"/>
-      <c r="AC3" s="29" t="s">
+      <c r="AA3" s="61"/>
+      <c r="AB3" s="62"/>
+      <c r="AC3" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="AD3" s="30"/>
-      <c r="AE3" s="31"/>
-      <c r="AF3" s="29" t="s">
+      <c r="AD3" s="61"/>
+      <c r="AE3" s="62"/>
+      <c r="AF3" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="AG3" s="30"/>
-      <c r="AH3" s="31"/>
-      <c r="AI3" s="29" t="s">
+      <c r="AG3" s="61"/>
+      <c r="AH3" s="62"/>
+      <c r="AI3" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="AJ3" s="30"/>
-      <c r="AK3" s="31"/>
+      <c r="AJ3" s="61"/>
+      <c r="AK3" s="62"/>
     </row>
     <row r="4" spans="1:37" ht="12" customHeight="1">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="43"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="43"/>
-      <c r="I4" s="44" t="s">
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="J4" s="44"/>
-      <c r="K4" s="44"/>
-      <c r="L4" s="44"/>
-      <c r="M4" s="44"/>
-      <c r="N4" s="44"/>
-      <c r="O4" s="45"/>
-      <c r="P4" s="48" t="s">
+      <c r="J4" s="47"/>
+      <c r="K4" s="47"/>
+      <c r="L4" s="47"/>
+      <c r="M4" s="47"/>
+      <c r="N4" s="47"/>
+      <c r="O4" s="48"/>
+      <c r="P4" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="Q4" s="44"/>
-      <c r="R4" s="45"/>
-      <c r="S4" s="50" t="s">
+      <c r="Q4" s="47"/>
+      <c r="R4" s="48"/>
+      <c r="S4" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="T4" s="51"/>
-      <c r="U4" s="51"/>
-      <c r="V4" s="51"/>
-      <c r="W4" s="51"/>
-      <c r="X4" s="51"/>
-      <c r="Y4" s="52"/>
-      <c r="Z4" s="48" t="s">
+      <c r="T4" s="54"/>
+      <c r="U4" s="54"/>
+      <c r="V4" s="54"/>
+      <c r="W4" s="54"/>
+      <c r="X4" s="54"/>
+      <c r="Y4" s="55"/>
+      <c r="Z4" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="AA4" s="44"/>
-      <c r="AB4" s="45"/>
-      <c r="AC4" s="48" t="s">
+      <c r="AA4" s="47"/>
+      <c r="AB4" s="48"/>
+      <c r="AC4" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="AD4" s="44"/>
-      <c r="AE4" s="45"/>
-      <c r="AF4" s="36" t="s">
+      <c r="AD4" s="47"/>
+      <c r="AE4" s="48"/>
+      <c r="AF4" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="AG4" s="37"/>
-      <c r="AH4" s="38"/>
-      <c r="AI4" s="36" t="s">
+      <c r="AG4" s="35"/>
+      <c r="AH4" s="36"/>
+      <c r="AI4" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="AJ4" s="37"/>
-      <c r="AK4" s="38"/>
+      <c r="AJ4" s="35"/>
+      <c r="AK4" s="36"/>
     </row>
     <row r="5" spans="1:37" ht="12">
-      <c r="A5" s="43"/>
-      <c r="B5" s="43"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="43"/>
-      <c r="H5" s="43"/>
-      <c r="I5" s="46"/>
-      <c r="J5" s="46"/>
-      <c r="K5" s="46"/>
-      <c r="L5" s="46"/>
-      <c r="M5" s="46"/>
-      <c r="N5" s="46"/>
-      <c r="O5" s="47"/>
-      <c r="P5" s="49"/>
-      <c r="Q5" s="46"/>
-      <c r="R5" s="47"/>
-      <c r="S5" s="53"/>
-      <c r="T5" s="54"/>
-      <c r="U5" s="54"/>
-      <c r="V5" s="54"/>
-      <c r="W5" s="54"/>
-      <c r="X5" s="54"/>
-      <c r="Y5" s="55"/>
-      <c r="Z5" s="49"/>
-      <c r="AA5" s="46"/>
-      <c r="AB5" s="47"/>
-      <c r="AC5" s="49"/>
-      <c r="AD5" s="46"/>
-      <c r="AE5" s="47"/>
-      <c r="AF5" s="39"/>
-      <c r="AG5" s="40"/>
-      <c r="AH5" s="41"/>
-      <c r="AI5" s="39"/>
-      <c r="AJ5" s="40"/>
-      <c r="AK5" s="41"/>
+      <c r="A5" s="46"/>
+      <c r="B5" s="46"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="49"/>
+      <c r="J5" s="49"/>
+      <c r="K5" s="49"/>
+      <c r="L5" s="49"/>
+      <c r="M5" s="49"/>
+      <c r="N5" s="49"/>
+      <c r="O5" s="50"/>
+      <c r="P5" s="52"/>
+      <c r="Q5" s="49"/>
+      <c r="R5" s="50"/>
+      <c r="S5" s="56"/>
+      <c r="T5" s="57"/>
+      <c r="U5" s="57"/>
+      <c r="V5" s="57"/>
+      <c r="W5" s="57"/>
+      <c r="X5" s="57"/>
+      <c r="Y5" s="58"/>
+      <c r="Z5" s="52"/>
+      <c r="AA5" s="49"/>
+      <c r="AB5" s="50"/>
+      <c r="AC5" s="52"/>
+      <c r="AD5" s="49"/>
+      <c r="AE5" s="50"/>
+      <c r="AF5" s="37"/>
+      <c r="AG5" s="38"/>
+      <c r="AH5" s="39"/>
+      <c r="AI5" s="37"/>
+      <c r="AJ5" s="38"/>
+      <c r="AK5" s="39"/>
     </row>
     <row r="6" spans="1:37" ht="12">
       <c r="A6" s="3"/>
@@ -7602,8 +7603,8 @@
       <c r="L37" s="9"/>
       <c r="M37" s="9"/>
       <c r="N37" s="9"/>
-      <c r="O37" s="42"/>
-      <c r="P37" s="42"/>
+      <c r="O37" s="45"/>
+      <c r="P37" s="45"/>
       <c r="Q37" s="9"/>
       <c r="R37" s="10"/>
       <c r="S37" s="9"/>
@@ -7744,61 +7745,61 @@
       <c r="AK40" s="16"/>
     </row>
     <row r="41" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A41" s="36" t="s">
+      <c r="A41" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="B41" s="38"/>
-      <c r="C41" s="36" t="s">
+      <c r="B41" s="36"/>
+      <c r="C41" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="D41" s="37"/>
-      <c r="E41" s="37"/>
-      <c r="F41" s="37"/>
-      <c r="G41" s="37"/>
-      <c r="H41" s="38"/>
-      <c r="I41" s="36" t="s">
+      <c r="D41" s="35"/>
+      <c r="E41" s="35"/>
+      <c r="F41" s="35"/>
+      <c r="G41" s="35"/>
+      <c r="H41" s="36"/>
+      <c r="I41" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="J41" s="37"/>
-      <c r="K41" s="37"/>
-      <c r="L41" s="38"/>
-      <c r="M41" s="36" t="s">
+      <c r="J41" s="35"/>
+      <c r="K41" s="35"/>
+      <c r="L41" s="36"/>
+      <c r="M41" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="N41" s="38"/>
-      <c r="O41" s="36" t="s">
+      <c r="N41" s="36"/>
+      <c r="O41" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="P41" s="38"/>
-      <c r="Q41" s="35" t="s">
+      <c r="P41" s="36"/>
+      <c r="Q41" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="R41" s="35"/>
-      <c r="S41" s="36" t="s">
+      <c r="R41" s="44"/>
+      <c r="S41" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="T41" s="37"/>
-      <c r="U41" s="38"/>
-      <c r="V41" s="36" t="s">
+      <c r="T41" s="35"/>
+      <c r="U41" s="36"/>
+      <c r="V41" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="W41" s="37"/>
-      <c r="X41" s="38"/>
-      <c r="Y41" s="36" t="s">
+      <c r="W41" s="35"/>
+      <c r="X41" s="36"/>
+      <c r="Y41" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="Z41" s="37"/>
-      <c r="AA41" s="37"/>
-      <c r="AB41" s="37"/>
-      <c r="AC41" s="37"/>
-      <c r="AD41" s="37"/>
-      <c r="AE41" s="37"/>
-      <c r="AF41" s="37"/>
-      <c r="AG41" s="37"/>
-      <c r="AH41" s="37"/>
-      <c r="AI41" s="37"/>
-      <c r="AJ41" s="37"/>
-      <c r="AK41" s="38"/>
+      <c r="Z41" s="35"/>
+      <c r="AA41" s="35"/>
+      <c r="AB41" s="35"/>
+      <c r="AC41" s="35"/>
+      <c r="AD41" s="35"/>
+      <c r="AE41" s="35"/>
+      <c r="AF41" s="35"/>
+      <c r="AG41" s="35"/>
+      <c r="AH41" s="35"/>
+      <c r="AI41" s="35"/>
+      <c r="AJ41" s="35"/>
+      <c r="AK41" s="36"/>
       <c r="AL41" s="24"/>
       <c r="AM41" s="24"/>
       <c r="AN41" s="24"/>
@@ -7807,43 +7808,43 @@
       <c r="AQ41" s="24"/>
     </row>
     <row r="42" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A42" s="39"/>
-      <c r="B42" s="41"/>
-      <c r="C42" s="39"/>
-      <c r="D42" s="40"/>
-      <c r="E42" s="40"/>
-      <c r="F42" s="40"/>
-      <c r="G42" s="40"/>
-      <c r="H42" s="41"/>
-      <c r="I42" s="39"/>
-      <c r="J42" s="40"/>
-      <c r="K42" s="40"/>
-      <c r="L42" s="41"/>
-      <c r="M42" s="39"/>
-      <c r="N42" s="41"/>
-      <c r="O42" s="39"/>
-      <c r="P42" s="41"/>
-      <c r="Q42" s="35"/>
-      <c r="R42" s="35"/>
-      <c r="S42" s="39"/>
-      <c r="T42" s="40"/>
-      <c r="U42" s="41"/>
-      <c r="V42" s="39"/>
-      <c r="W42" s="40"/>
-      <c r="X42" s="41"/>
-      <c r="Y42" s="39"/>
-      <c r="Z42" s="40"/>
-      <c r="AA42" s="40"/>
-      <c r="AB42" s="40"/>
-      <c r="AC42" s="40"/>
-      <c r="AD42" s="40"/>
-      <c r="AE42" s="40"/>
-      <c r="AF42" s="40"/>
-      <c r="AG42" s="40"/>
-      <c r="AH42" s="40"/>
-      <c r="AI42" s="40"/>
-      <c r="AJ42" s="40"/>
-      <c r="AK42" s="41"/>
+      <c r="A42" s="37"/>
+      <c r="B42" s="39"/>
+      <c r="C42" s="37"/>
+      <c r="D42" s="38"/>
+      <c r="E42" s="38"/>
+      <c r="F42" s="38"/>
+      <c r="G42" s="38"/>
+      <c r="H42" s="39"/>
+      <c r="I42" s="37"/>
+      <c r="J42" s="38"/>
+      <c r="K42" s="38"/>
+      <c r="L42" s="39"/>
+      <c r="M42" s="37"/>
+      <c r="N42" s="39"/>
+      <c r="O42" s="37"/>
+      <c r="P42" s="39"/>
+      <c r="Q42" s="44"/>
+      <c r="R42" s="44"/>
+      <c r="S42" s="37"/>
+      <c r="T42" s="38"/>
+      <c r="U42" s="39"/>
+      <c r="V42" s="37"/>
+      <c r="W42" s="38"/>
+      <c r="X42" s="39"/>
+      <c r="Y42" s="37"/>
+      <c r="Z42" s="38"/>
+      <c r="AA42" s="38"/>
+      <c r="AB42" s="38"/>
+      <c r="AC42" s="38"/>
+      <c r="AD42" s="38"/>
+      <c r="AE42" s="38"/>
+      <c r="AF42" s="38"/>
+      <c r="AG42" s="38"/>
+      <c r="AH42" s="38"/>
+      <c r="AI42" s="38"/>
+      <c r="AJ42" s="38"/>
+      <c r="AK42" s="39"/>
       <c r="AL42" s="24"/>
       <c r="AM42" s="24"/>
       <c r="AN42" s="24"/>
@@ -7852,61 +7853,61 @@
       <c r="AQ42" s="24"/>
     </row>
     <row r="43" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A43" s="32">
+      <c r="A43" s="31">
         <v>1</v>
       </c>
       <c r="B43" s="33"/>
-      <c r="C43" s="32" t="s">
+      <c r="C43" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="D43" s="34"/>
-      <c r="E43" s="34"/>
-      <c r="F43" s="34"/>
-      <c r="G43" s="34"/>
+      <c r="D43" s="32"/>
+      <c r="E43" s="32"/>
+      <c r="F43" s="32"/>
+      <c r="G43" s="32"/>
       <c r="H43" s="33"/>
-      <c r="I43" s="32" t="s">
+      <c r="I43" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="J43" s="34"/>
-      <c r="K43" s="34"/>
+      <c r="J43" s="32"/>
+      <c r="K43" s="32"/>
       <c r="L43" s="33"/>
-      <c r="M43" s="32" t="s">
+      <c r="M43" s="31" t="s">
         <v>16</v>
       </c>
       <c r="N43" s="33"/>
-      <c r="O43" s="32" t="s">
+      <c r="O43" s="31" t="s">
         <v>16</v>
       </c>
       <c r="P43" s="33"/>
-      <c r="Q43" s="35" t="s">
+      <c r="Q43" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="R43" s="35"/>
-      <c r="S43" s="32" t="s">
+      <c r="R43" s="44"/>
+      <c r="S43" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="T43" s="34"/>
+      <c r="T43" s="32"/>
       <c r="U43" s="33"/>
-      <c r="V43" s="32" t="s">
+      <c r="V43" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="W43" s="34"/>
+      <c r="W43" s="32"/>
       <c r="X43" s="33"/>
-      <c r="Y43" s="56" t="s">
+      <c r="Y43" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="Z43" s="57"/>
-      <c r="AA43" s="57"/>
-      <c r="AB43" s="57"/>
-      <c r="AC43" s="57"/>
-      <c r="AD43" s="57"/>
-      <c r="AE43" s="57"/>
-      <c r="AF43" s="57"/>
-      <c r="AG43" s="57"/>
-      <c r="AH43" s="57"/>
-      <c r="AI43" s="57"/>
-      <c r="AJ43" s="57"/>
-      <c r="AK43" s="58"/>
+      <c r="Z43" s="29"/>
+      <c r="AA43" s="29"/>
+      <c r="AB43" s="29"/>
+      <c r="AC43" s="29"/>
+      <c r="AD43" s="29"/>
+      <c r="AE43" s="29"/>
+      <c r="AF43" s="29"/>
+      <c r="AG43" s="29"/>
+      <c r="AH43" s="29"/>
+      <c r="AI43" s="29"/>
+      <c r="AJ43" s="29"/>
+      <c r="AK43" s="30"/>
       <c r="AL43" s="24"/>
       <c r="AM43" s="24"/>
       <c r="AN43" s="24"/>
@@ -7915,61 +7916,61 @@
       <c r="AQ43" s="24"/>
     </row>
     <row r="44" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A44" s="32">
+      <c r="A44" s="31">
         <v>2</v>
       </c>
       <c r="B44" s="33"/>
-      <c r="C44" s="32" t="s">
+      <c r="C44" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="D44" s="34"/>
-      <c r="E44" s="34"/>
-      <c r="F44" s="34"/>
-      <c r="G44" s="34"/>
+      <c r="D44" s="32"/>
+      <c r="E44" s="32"/>
+      <c r="F44" s="32"/>
+      <c r="G44" s="32"/>
       <c r="H44" s="33"/>
-      <c r="I44" s="32" t="s">
+      <c r="I44" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="J44" s="34"/>
-      <c r="K44" s="34"/>
+      <c r="J44" s="32"/>
+      <c r="K44" s="32"/>
       <c r="L44" s="33"/>
-      <c r="M44" s="32" t="s">
+      <c r="M44" s="31" t="s">
         <v>16</v>
       </c>
       <c r="N44" s="33"/>
-      <c r="O44" s="32" t="s">
+      <c r="O44" s="31" t="s">
         <v>16</v>
       </c>
       <c r="P44" s="33"/>
-      <c r="Q44" s="35" t="s">
+      <c r="Q44" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="R44" s="35"/>
-      <c r="S44" s="32" t="s">
+      <c r="R44" s="44"/>
+      <c r="S44" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="T44" s="34"/>
+      <c r="T44" s="32"/>
       <c r="U44" s="33"/>
-      <c r="V44" s="32" t="s">
+      <c r="V44" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="W44" s="34"/>
+      <c r="W44" s="32"/>
       <c r="X44" s="33"/>
-      <c r="Y44" s="56" t="s">
+      <c r="Y44" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="Z44" s="57"/>
-      <c r="AA44" s="57"/>
-      <c r="AB44" s="57"/>
-      <c r="AC44" s="57"/>
-      <c r="AD44" s="57"/>
-      <c r="AE44" s="57"/>
-      <c r="AF44" s="57"/>
-      <c r="AG44" s="57"/>
-      <c r="AH44" s="57"/>
-      <c r="AI44" s="57"/>
-      <c r="AJ44" s="57"/>
-      <c r="AK44" s="58"/>
+      <c r="Z44" s="29"/>
+      <c r="AA44" s="29"/>
+      <c r="AB44" s="29"/>
+      <c r="AC44" s="29"/>
+      <c r="AD44" s="29"/>
+      <c r="AE44" s="29"/>
+      <c r="AF44" s="29"/>
+      <c r="AG44" s="29"/>
+      <c r="AH44" s="29"/>
+      <c r="AI44" s="29"/>
+      <c r="AJ44" s="29"/>
+      <c r="AK44" s="30"/>
       <c r="AL44" s="24"/>
       <c r="AM44" s="24"/>
       <c r="AN44" s="24"/>
@@ -7978,61 +7979,61 @@
       <c r="AQ44" s="24"/>
     </row>
     <row r="45" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A45" s="32">
+      <c r="A45" s="31">
         <v>3</v>
       </c>
       <c r="B45" s="33"/>
-      <c r="C45" s="32" t="s">
+      <c r="C45" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="D45" s="34"/>
-      <c r="E45" s="34"/>
-      <c r="F45" s="34"/>
-      <c r="G45" s="34"/>
+      <c r="D45" s="32"/>
+      <c r="E45" s="32"/>
+      <c r="F45" s="32"/>
+      <c r="G45" s="32"/>
       <c r="H45" s="33"/>
-      <c r="I45" s="32" t="s">
+      <c r="I45" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="J45" s="34"/>
-      <c r="K45" s="34"/>
+      <c r="J45" s="32"/>
+      <c r="K45" s="32"/>
       <c r="L45" s="33"/>
-      <c r="M45" s="32" t="s">
+      <c r="M45" s="31" t="s">
         <v>16</v>
       </c>
       <c r="N45" s="33"/>
-      <c r="O45" s="32" t="s">
+      <c r="O45" s="31" t="s">
         <v>16</v>
       </c>
       <c r="P45" s="33"/>
-      <c r="Q45" s="35" t="s">
+      <c r="Q45" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="R45" s="35"/>
-      <c r="S45" s="32" t="s">
+      <c r="R45" s="44"/>
+      <c r="S45" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="T45" s="34"/>
+      <c r="T45" s="32"/>
       <c r="U45" s="33"/>
-      <c r="V45" s="32" t="s">
+      <c r="V45" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="W45" s="34"/>
+      <c r="W45" s="32"/>
       <c r="X45" s="33"/>
-      <c r="Y45" s="56" t="s">
+      <c r="Y45" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="Z45" s="57"/>
-      <c r="AA45" s="57"/>
-      <c r="AB45" s="57"/>
-      <c r="AC45" s="57"/>
-      <c r="AD45" s="57"/>
-      <c r="AE45" s="57"/>
-      <c r="AF45" s="57"/>
-      <c r="AG45" s="57"/>
-      <c r="AH45" s="57"/>
-      <c r="AI45" s="57"/>
-      <c r="AJ45" s="57"/>
-      <c r="AK45" s="58"/>
+      <c r="Z45" s="29"/>
+      <c r="AA45" s="29"/>
+      <c r="AB45" s="29"/>
+      <c r="AC45" s="29"/>
+      <c r="AD45" s="29"/>
+      <c r="AE45" s="29"/>
+      <c r="AF45" s="29"/>
+      <c r="AG45" s="29"/>
+      <c r="AH45" s="29"/>
+      <c r="AI45" s="29"/>
+      <c r="AJ45" s="29"/>
+      <c r="AK45" s="30"/>
       <c r="AL45" s="24"/>
       <c r="AM45" s="24"/>
       <c r="AN45" s="24"/>
@@ -8041,61 +8042,61 @@
       <c r="AQ45" s="24"/>
     </row>
     <row r="46" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A46" s="32">
+      <c r="A46" s="31">
         <v>4</v>
       </c>
       <c r="B46" s="33"/>
-      <c r="C46" s="32" t="s">
+      <c r="C46" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="D46" s="34"/>
-      <c r="E46" s="34"/>
-      <c r="F46" s="34"/>
-      <c r="G46" s="34"/>
+      <c r="D46" s="32"/>
+      <c r="E46" s="32"/>
+      <c r="F46" s="32"/>
+      <c r="G46" s="32"/>
       <c r="H46" s="33"/>
-      <c r="I46" s="32" t="s">
+      <c r="I46" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="J46" s="34"/>
-      <c r="K46" s="34"/>
+      <c r="J46" s="32"/>
+      <c r="K46" s="32"/>
       <c r="L46" s="33"/>
-      <c r="M46" s="32" t="s">
+      <c r="M46" s="31" t="s">
         <v>16</v>
       </c>
       <c r="N46" s="33"/>
-      <c r="O46" s="32" t="s">
+      <c r="O46" s="31" t="s">
         <v>16</v>
       </c>
       <c r="P46" s="33"/>
-      <c r="Q46" s="32" t="s">
+      <c r="Q46" s="31" t="s">
         <v>16</v>
       </c>
       <c r="R46" s="33"/>
-      <c r="S46" s="32" t="s">
+      <c r="S46" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="T46" s="34"/>
+      <c r="T46" s="32"/>
       <c r="U46" s="33"/>
-      <c r="V46" s="32" t="s">
+      <c r="V46" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="W46" s="34"/>
+      <c r="W46" s="32"/>
       <c r="X46" s="33"/>
-      <c r="Y46" s="56" t="s">
+      <c r="Y46" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="Z46" s="57"/>
-      <c r="AA46" s="57"/>
-      <c r="AB46" s="57"/>
-      <c r="AC46" s="57"/>
-      <c r="AD46" s="57"/>
-      <c r="AE46" s="57"/>
-      <c r="AF46" s="57"/>
-      <c r="AG46" s="57"/>
-      <c r="AH46" s="57"/>
-      <c r="AI46" s="57"/>
-      <c r="AJ46" s="57"/>
-      <c r="AK46" s="58"/>
+      <c r="Z46" s="29"/>
+      <c r="AA46" s="29"/>
+      <c r="AB46" s="29"/>
+      <c r="AC46" s="29"/>
+      <c r="AD46" s="29"/>
+      <c r="AE46" s="29"/>
+      <c r="AF46" s="29"/>
+      <c r="AG46" s="29"/>
+      <c r="AH46" s="29"/>
+      <c r="AI46" s="29"/>
+      <c r="AJ46" s="29"/>
+      <c r="AK46" s="30"/>
       <c r="AL46" s="24"/>
       <c r="AM46" s="24"/>
       <c r="AN46" s="24"/>
@@ -8104,44 +8105,44 @@
       <c r="AQ46" s="24"/>
     </row>
     <row r="47" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A47" s="32">
+      <c r="A47" s="31">
         <v>5</v>
       </c>
       <c r="B47" s="33"/>
-      <c r="C47" s="32"/>
-      <c r="D47" s="34"/>
-      <c r="E47" s="34"/>
-      <c r="F47" s="34"/>
-      <c r="G47" s="34"/>
+      <c r="C47" s="31"/>
+      <c r="D47" s="32"/>
+      <c r="E47" s="32"/>
+      <c r="F47" s="32"/>
+      <c r="G47" s="32"/>
       <c r="H47" s="33"/>
-      <c r="I47" s="32"/>
-      <c r="J47" s="34"/>
-      <c r="K47" s="34"/>
+      <c r="I47" s="31"/>
+      <c r="J47" s="32"/>
+      <c r="K47" s="32"/>
       <c r="L47" s="33"/>
-      <c r="M47" s="32"/>
+      <c r="M47" s="31"/>
       <c r="N47" s="33"/>
-      <c r="O47" s="32"/>
+      <c r="O47" s="31"/>
       <c r="P47" s="33"/>
-      <c r="Q47" s="35"/>
-      <c r="R47" s="35"/>
-      <c r="S47" s="32"/>
-      <c r="T47" s="34"/>
+      <c r="Q47" s="44"/>
+      <c r="R47" s="44"/>
+      <c r="S47" s="31"/>
+      <c r="T47" s="32"/>
       <c r="U47" s="33"/>
-      <c r="V47" s="32"/>
-      <c r="W47" s="34"/>
+      <c r="V47" s="31"/>
+      <c r="W47" s="32"/>
       <c r="X47" s="33"/>
-      <c r="Y47" s="32"/>
-      <c r="Z47" s="34"/>
-      <c r="AA47" s="34"/>
-      <c r="AB47" s="34"/>
-      <c r="AC47" s="34"/>
-      <c r="AD47" s="34"/>
-      <c r="AE47" s="34"/>
-      <c r="AF47" s="34"/>
-      <c r="AG47" s="34"/>
-      <c r="AH47" s="34"/>
-      <c r="AI47" s="34"/>
-      <c r="AJ47" s="34"/>
+      <c r="Y47" s="31"/>
+      <c r="Z47" s="32"/>
+      <c r="AA47" s="32"/>
+      <c r="AB47" s="32"/>
+      <c r="AC47" s="32"/>
+      <c r="AD47" s="32"/>
+      <c r="AE47" s="32"/>
+      <c r="AF47" s="32"/>
+      <c r="AG47" s="32"/>
+      <c r="AH47" s="32"/>
+      <c r="AI47" s="32"/>
+      <c r="AJ47" s="32"/>
       <c r="AK47" s="33"/>
       <c r="AL47" s="24"/>
       <c r="AM47" s="24"/>
@@ -8151,44 +8152,44 @@
       <c r="AQ47" s="24"/>
     </row>
     <row r="48" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A48" s="32">
+      <c r="A48" s="31">
         <v>6</v>
       </c>
       <c r="B48" s="33"/>
-      <c r="C48" s="32"/>
-      <c r="D48" s="34"/>
-      <c r="E48" s="34"/>
-      <c r="F48" s="34"/>
-      <c r="G48" s="34"/>
+      <c r="C48" s="31"/>
+      <c r="D48" s="32"/>
+      <c r="E48" s="32"/>
+      <c r="F48" s="32"/>
+      <c r="G48" s="32"/>
       <c r="H48" s="33"/>
-      <c r="I48" s="32"/>
-      <c r="J48" s="34"/>
-      <c r="K48" s="34"/>
+      <c r="I48" s="31"/>
+      <c r="J48" s="32"/>
+      <c r="K48" s="32"/>
       <c r="L48" s="33"/>
-      <c r="M48" s="32"/>
+      <c r="M48" s="31"/>
       <c r="N48" s="33"/>
-      <c r="O48" s="32"/>
+      <c r="O48" s="31"/>
       <c r="P48" s="33"/>
-      <c r="Q48" s="35"/>
-      <c r="R48" s="35"/>
-      <c r="S48" s="32"/>
-      <c r="T48" s="34"/>
+      <c r="Q48" s="44"/>
+      <c r="R48" s="44"/>
+      <c r="S48" s="31"/>
+      <c r="T48" s="32"/>
       <c r="U48" s="33"/>
-      <c r="V48" s="32"/>
-      <c r="W48" s="34"/>
+      <c r="V48" s="31"/>
+      <c r="W48" s="32"/>
       <c r="X48" s="33"/>
-      <c r="Y48" s="32"/>
-      <c r="Z48" s="34"/>
-      <c r="AA48" s="34"/>
-      <c r="AB48" s="34"/>
-      <c r="AC48" s="34"/>
-      <c r="AD48" s="34"/>
-      <c r="AE48" s="34"/>
-      <c r="AF48" s="34"/>
-      <c r="AG48" s="34"/>
-      <c r="AH48" s="34"/>
-      <c r="AI48" s="34"/>
-      <c r="AJ48" s="34"/>
+      <c r="Y48" s="31"/>
+      <c r="Z48" s="32"/>
+      <c r="AA48" s="32"/>
+      <c r="AB48" s="32"/>
+      <c r="AC48" s="32"/>
+      <c r="AD48" s="32"/>
+      <c r="AE48" s="32"/>
+      <c r="AF48" s="32"/>
+      <c r="AG48" s="32"/>
+      <c r="AH48" s="32"/>
+      <c r="AI48" s="32"/>
+      <c r="AJ48" s="32"/>
       <c r="AK48" s="33"/>
       <c r="AL48" s="24"/>
       <c r="AM48" s="24"/>
@@ -8198,44 +8199,44 @@
       <c r="AQ48" s="24"/>
     </row>
     <row r="49" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A49" s="35">
+      <c r="A49" s="44">
         <v>7</v>
       </c>
-      <c r="B49" s="35"/>
-      <c r="C49" s="35"/>
-      <c r="D49" s="35"/>
-      <c r="E49" s="35"/>
-      <c r="F49" s="35"/>
-      <c r="G49" s="35"/>
-      <c r="H49" s="35"/>
-      <c r="I49" s="35"/>
-      <c r="J49" s="35"/>
-      <c r="K49" s="35"/>
-      <c r="L49" s="35"/>
-      <c r="M49" s="35"/>
-      <c r="N49" s="35"/>
-      <c r="O49" s="32"/>
+      <c r="B49" s="44"/>
+      <c r="C49" s="44"/>
+      <c r="D49" s="44"/>
+      <c r="E49" s="44"/>
+      <c r="F49" s="44"/>
+      <c r="G49" s="44"/>
+      <c r="H49" s="44"/>
+      <c r="I49" s="44"/>
+      <c r="J49" s="44"/>
+      <c r="K49" s="44"/>
+      <c r="L49" s="44"/>
+      <c r="M49" s="44"/>
+      <c r="N49" s="44"/>
+      <c r="O49" s="31"/>
       <c r="P49" s="33"/>
-      <c r="Q49" s="35"/>
-      <c r="R49" s="35"/>
-      <c r="S49" s="32"/>
-      <c r="T49" s="34"/>
+      <c r="Q49" s="44"/>
+      <c r="R49" s="44"/>
+      <c r="S49" s="31"/>
+      <c r="T49" s="32"/>
       <c r="U49" s="33"/>
-      <c r="V49" s="32"/>
-      <c r="W49" s="34"/>
+      <c r="V49" s="31"/>
+      <c r="W49" s="32"/>
       <c r="X49" s="33"/>
-      <c r="Y49" s="32"/>
-      <c r="Z49" s="34"/>
-      <c r="AA49" s="34"/>
-      <c r="AB49" s="34"/>
-      <c r="AC49" s="34"/>
-      <c r="AD49" s="34"/>
-      <c r="AE49" s="34"/>
-      <c r="AF49" s="34"/>
-      <c r="AG49" s="34"/>
-      <c r="AH49" s="34"/>
-      <c r="AI49" s="34"/>
-      <c r="AJ49" s="34"/>
+      <c r="Y49" s="31"/>
+      <c r="Z49" s="32"/>
+      <c r="AA49" s="32"/>
+      <c r="AB49" s="32"/>
+      <c r="AC49" s="32"/>
+      <c r="AD49" s="32"/>
+      <c r="AE49" s="32"/>
+      <c r="AF49" s="32"/>
+      <c r="AG49" s="32"/>
+      <c r="AH49" s="32"/>
+      <c r="AI49" s="32"/>
+      <c r="AJ49" s="32"/>
       <c r="AK49" s="33"/>
       <c r="AL49" s="24"/>
       <c r="AM49" s="24"/>
@@ -8245,44 +8246,44 @@
       <c r="AQ49" s="24"/>
     </row>
     <row r="50" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A50" s="35">
+      <c r="A50" s="44">
         <v>8</v>
       </c>
-      <c r="B50" s="35"/>
-      <c r="C50" s="35"/>
-      <c r="D50" s="35"/>
-      <c r="E50" s="35"/>
-      <c r="F50" s="35"/>
-      <c r="G50" s="35"/>
-      <c r="H50" s="35"/>
-      <c r="I50" s="35"/>
-      <c r="J50" s="35"/>
-      <c r="K50" s="35"/>
-      <c r="L50" s="35"/>
-      <c r="M50" s="35"/>
-      <c r="N50" s="35"/>
-      <c r="O50" s="32"/>
+      <c r="B50" s="44"/>
+      <c r="C50" s="44"/>
+      <c r="D50" s="44"/>
+      <c r="E50" s="44"/>
+      <c r="F50" s="44"/>
+      <c r="G50" s="44"/>
+      <c r="H50" s="44"/>
+      <c r="I50" s="44"/>
+      <c r="J50" s="44"/>
+      <c r="K50" s="44"/>
+      <c r="L50" s="44"/>
+      <c r="M50" s="44"/>
+      <c r="N50" s="44"/>
+      <c r="O50" s="31"/>
       <c r="P50" s="33"/>
-      <c r="Q50" s="35"/>
-      <c r="R50" s="35"/>
-      <c r="S50" s="32"/>
-      <c r="T50" s="34"/>
+      <c r="Q50" s="44"/>
+      <c r="R50" s="44"/>
+      <c r="S50" s="31"/>
+      <c r="T50" s="32"/>
       <c r="U50" s="33"/>
-      <c r="V50" s="32"/>
-      <c r="W50" s="34"/>
+      <c r="V50" s="31"/>
+      <c r="W50" s="32"/>
       <c r="X50" s="33"/>
-      <c r="Y50" s="32"/>
-      <c r="Z50" s="34"/>
-      <c r="AA50" s="34"/>
-      <c r="AB50" s="34"/>
-      <c r="AC50" s="34"/>
-      <c r="AD50" s="34"/>
-      <c r="AE50" s="34"/>
-      <c r="AF50" s="34"/>
-      <c r="AG50" s="34"/>
-      <c r="AH50" s="34"/>
-      <c r="AI50" s="34"/>
-      <c r="AJ50" s="34"/>
+      <c r="Y50" s="31"/>
+      <c r="Z50" s="32"/>
+      <c r="AA50" s="32"/>
+      <c r="AB50" s="32"/>
+      <c r="AC50" s="32"/>
+      <c r="AD50" s="32"/>
+      <c r="AE50" s="32"/>
+      <c r="AF50" s="32"/>
+      <c r="AG50" s="32"/>
+      <c r="AH50" s="32"/>
+      <c r="AI50" s="32"/>
+      <c r="AJ50" s="32"/>
       <c r="AK50" s="33"/>
       <c r="AL50" s="24"/>
       <c r="AM50" s="24"/>
@@ -8292,44 +8293,44 @@
       <c r="AQ50" s="24"/>
     </row>
     <row r="51" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A51" s="35">
+      <c r="A51" s="44">
         <v>9</v>
       </c>
-      <c r="B51" s="35"/>
-      <c r="C51" s="35"/>
-      <c r="D51" s="35"/>
-      <c r="E51" s="35"/>
-      <c r="F51" s="35"/>
-      <c r="G51" s="35"/>
-      <c r="H51" s="35"/>
-      <c r="I51" s="35"/>
-      <c r="J51" s="35"/>
-      <c r="K51" s="35"/>
-      <c r="L51" s="35"/>
-      <c r="M51" s="35"/>
-      <c r="N51" s="35"/>
-      <c r="O51" s="32"/>
+      <c r="B51" s="44"/>
+      <c r="C51" s="44"/>
+      <c r="D51" s="44"/>
+      <c r="E51" s="44"/>
+      <c r="F51" s="44"/>
+      <c r="G51" s="44"/>
+      <c r="H51" s="44"/>
+      <c r="I51" s="44"/>
+      <c r="J51" s="44"/>
+      <c r="K51" s="44"/>
+      <c r="L51" s="44"/>
+      <c r="M51" s="44"/>
+      <c r="N51" s="44"/>
+      <c r="O51" s="31"/>
       <c r="P51" s="33"/>
-      <c r="Q51" s="35"/>
-      <c r="R51" s="35"/>
-      <c r="S51" s="32"/>
-      <c r="T51" s="34"/>
+      <c r="Q51" s="44"/>
+      <c r="R51" s="44"/>
+      <c r="S51" s="31"/>
+      <c r="T51" s="32"/>
       <c r="U51" s="33"/>
-      <c r="V51" s="32"/>
-      <c r="W51" s="34"/>
+      <c r="V51" s="31"/>
+      <c r="W51" s="32"/>
       <c r="X51" s="33"/>
-      <c r="Y51" s="32"/>
-      <c r="Z51" s="34"/>
-      <c r="AA51" s="34"/>
-      <c r="AB51" s="34"/>
-      <c r="AC51" s="34"/>
-      <c r="AD51" s="34"/>
-      <c r="AE51" s="34"/>
-      <c r="AF51" s="34"/>
-      <c r="AG51" s="34"/>
-      <c r="AH51" s="34"/>
-      <c r="AI51" s="34"/>
-      <c r="AJ51" s="34"/>
+      <c r="Y51" s="31"/>
+      <c r="Z51" s="32"/>
+      <c r="AA51" s="32"/>
+      <c r="AB51" s="32"/>
+      <c r="AC51" s="32"/>
+      <c r="AD51" s="32"/>
+      <c r="AE51" s="32"/>
+      <c r="AF51" s="32"/>
+      <c r="AG51" s="32"/>
+      <c r="AH51" s="32"/>
+      <c r="AI51" s="32"/>
+      <c r="AJ51" s="32"/>
       <c r="AK51" s="33"/>
       <c r="AL51" s="24"/>
       <c r="AM51" s="24"/>
@@ -8339,329 +8340,214 @@
       <c r="AQ51" s="24"/>
     </row>
     <row r="52" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A52" s="59"/>
-      <c r="B52" s="60"/>
-      <c r="C52" s="59"/>
-      <c r="D52" s="61"/>
-      <c r="E52" s="61"/>
-      <c r="F52" s="61"/>
-      <c r="G52" s="61"/>
-      <c r="H52" s="60"/>
-      <c r="I52" s="59"/>
-      <c r="J52" s="61"/>
-      <c r="K52" s="61"/>
-      <c r="L52" s="60"/>
-      <c r="M52" s="59"/>
-      <c r="N52" s="60"/>
-      <c r="O52" s="59"/>
-      <c r="P52" s="60"/>
-      <c r="Q52" s="62"/>
-      <c r="R52" s="62"/>
-      <c r="S52" s="59"/>
-      <c r="T52" s="61"/>
-      <c r="U52" s="61"/>
-      <c r="V52" s="62"/>
-      <c r="W52" s="62"/>
-      <c r="X52" s="62"/>
-      <c r="Y52" s="59"/>
-      <c r="Z52" s="61"/>
-      <c r="AA52" s="61"/>
-      <c r="AB52" s="61"/>
-      <c r="AC52" s="61"/>
-      <c r="AD52" s="61"/>
-      <c r="AE52" s="61"/>
-      <c r="AF52" s="61"/>
-      <c r="AG52" s="61"/>
-      <c r="AH52" s="61"/>
-      <c r="AI52" s="61"/>
-      <c r="AJ52" s="61"/>
-      <c r="AK52" s="60"/>
+      <c r="A52" s="40"/>
+      <c r="B52" s="41"/>
+      <c r="C52" s="40"/>
+      <c r="D52" s="42"/>
+      <c r="E52" s="42"/>
+      <c r="F52" s="42"/>
+      <c r="G52" s="42"/>
+      <c r="H52" s="41"/>
+      <c r="I52" s="40"/>
+      <c r="J52" s="42"/>
+      <c r="K52" s="42"/>
+      <c r="L52" s="41"/>
+      <c r="M52" s="40"/>
+      <c r="N52" s="41"/>
+      <c r="O52" s="40"/>
+      <c r="P52" s="41"/>
+      <c r="Q52" s="43"/>
+      <c r="R52" s="43"/>
+      <c r="S52" s="40"/>
+      <c r="T52" s="42"/>
+      <c r="U52" s="42"/>
+      <c r="V52" s="43"/>
+      <c r="W52" s="43"/>
+      <c r="X52" s="43"/>
+      <c r="Y52" s="40"/>
+      <c r="Z52" s="42"/>
+      <c r="AA52" s="42"/>
+      <c r="AB52" s="42"/>
+      <c r="AC52" s="42"/>
+      <c r="AD52" s="42"/>
+      <c r="AE52" s="42"/>
+      <c r="AF52" s="42"/>
+      <c r="AG52" s="42"/>
+      <c r="AH52" s="42"/>
+      <c r="AI52" s="42"/>
+      <c r="AJ52" s="42"/>
+      <c r="AK52" s="41"/>
     </row>
     <row r="53" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A53" s="59"/>
-      <c r="B53" s="60"/>
-      <c r="C53" s="59"/>
-      <c r="D53" s="61"/>
-      <c r="E53" s="61"/>
-      <c r="F53" s="61"/>
-      <c r="G53" s="61"/>
-      <c r="H53" s="60"/>
-      <c r="I53" s="59"/>
-      <c r="J53" s="61"/>
-      <c r="K53" s="61"/>
-      <c r="L53" s="60"/>
-      <c r="M53" s="59"/>
-      <c r="N53" s="60"/>
-      <c r="O53" s="59"/>
-      <c r="P53" s="60"/>
-      <c r="Q53" s="59"/>
-      <c r="R53" s="60"/>
-      <c r="S53" s="59"/>
-      <c r="T53" s="61"/>
-      <c r="U53" s="61"/>
-      <c r="V53" s="62"/>
-      <c r="W53" s="62"/>
-      <c r="X53" s="62"/>
-      <c r="Y53" s="59"/>
-      <c r="Z53" s="61"/>
-      <c r="AA53" s="61"/>
-      <c r="AB53" s="61"/>
-      <c r="AC53" s="61"/>
-      <c r="AD53" s="61"/>
-      <c r="AE53" s="61"/>
-      <c r="AF53" s="61"/>
-      <c r="AG53" s="61"/>
-      <c r="AH53" s="61"/>
-      <c r="AI53" s="61"/>
-      <c r="AJ53" s="61"/>
-      <c r="AK53" s="60"/>
+      <c r="A53" s="40"/>
+      <c r="B53" s="41"/>
+      <c r="C53" s="40"/>
+      <c r="D53" s="42"/>
+      <c r="E53" s="42"/>
+      <c r="F53" s="42"/>
+      <c r="G53" s="42"/>
+      <c r="H53" s="41"/>
+      <c r="I53" s="40"/>
+      <c r="J53" s="42"/>
+      <c r="K53" s="42"/>
+      <c r="L53" s="41"/>
+      <c r="M53" s="40"/>
+      <c r="N53" s="41"/>
+      <c r="O53" s="40"/>
+      <c r="P53" s="41"/>
+      <c r="Q53" s="40"/>
+      <c r="R53" s="41"/>
+      <c r="S53" s="40"/>
+      <c r="T53" s="42"/>
+      <c r="U53" s="42"/>
+      <c r="V53" s="43"/>
+      <c r="W53" s="43"/>
+      <c r="X53" s="43"/>
+      <c r="Y53" s="40"/>
+      <c r="Z53" s="42"/>
+      <c r="AA53" s="42"/>
+      <c r="AB53" s="42"/>
+      <c r="AC53" s="42"/>
+      <c r="AD53" s="42"/>
+      <c r="AE53" s="42"/>
+      <c r="AF53" s="42"/>
+      <c r="AG53" s="42"/>
+      <c r="AH53" s="42"/>
+      <c r="AI53" s="42"/>
+      <c r="AJ53" s="42"/>
+      <c r="AK53" s="41"/>
     </row>
     <row r="54" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A54" s="59"/>
-      <c r="B54" s="60"/>
-      <c r="C54" s="59"/>
-      <c r="D54" s="61"/>
-      <c r="E54" s="61"/>
-      <c r="F54" s="61"/>
-      <c r="G54" s="61"/>
-      <c r="H54" s="60"/>
-      <c r="I54" s="59"/>
-      <c r="J54" s="61"/>
-      <c r="K54" s="61"/>
-      <c r="L54" s="60"/>
-      <c r="M54" s="59"/>
-      <c r="N54" s="60"/>
-      <c r="O54" s="59"/>
-      <c r="P54" s="60"/>
-      <c r="Q54" s="62"/>
-      <c r="R54" s="62"/>
-      <c r="S54" s="59"/>
-      <c r="T54" s="61"/>
-      <c r="U54" s="61"/>
-      <c r="V54" s="62"/>
-      <c r="W54" s="62"/>
-      <c r="X54" s="62"/>
-      <c r="Y54" s="59"/>
-      <c r="Z54" s="61"/>
-      <c r="AA54" s="61"/>
-      <c r="AB54" s="61"/>
-      <c r="AC54" s="61"/>
-      <c r="AD54" s="61"/>
-      <c r="AE54" s="61"/>
-      <c r="AF54" s="61"/>
-      <c r="AG54" s="61"/>
-      <c r="AH54" s="61"/>
-      <c r="AI54" s="61"/>
-      <c r="AJ54" s="61"/>
-      <c r="AK54" s="60"/>
+      <c r="A54" s="40"/>
+      <c r="B54" s="41"/>
+      <c r="C54" s="40"/>
+      <c r="D54" s="42"/>
+      <c r="E54" s="42"/>
+      <c r="F54" s="42"/>
+      <c r="G54" s="42"/>
+      <c r="H54" s="41"/>
+      <c r="I54" s="40"/>
+      <c r="J54" s="42"/>
+      <c r="K54" s="42"/>
+      <c r="L54" s="41"/>
+      <c r="M54" s="40"/>
+      <c r="N54" s="41"/>
+      <c r="O54" s="40"/>
+      <c r="P54" s="41"/>
+      <c r="Q54" s="43"/>
+      <c r="R54" s="43"/>
+      <c r="S54" s="40"/>
+      <c r="T54" s="42"/>
+      <c r="U54" s="42"/>
+      <c r="V54" s="43"/>
+      <c r="W54" s="43"/>
+      <c r="X54" s="43"/>
+      <c r="Y54" s="40"/>
+      <c r="Z54" s="42"/>
+      <c r="AA54" s="42"/>
+      <c r="AB54" s="42"/>
+      <c r="AC54" s="42"/>
+      <c r="AD54" s="42"/>
+      <c r="AE54" s="42"/>
+      <c r="AF54" s="42"/>
+      <c r="AG54" s="42"/>
+      <c r="AH54" s="42"/>
+      <c r="AI54" s="42"/>
+      <c r="AJ54" s="42"/>
+      <c r="AK54" s="41"/>
     </row>
     <row r="55" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A55" s="59"/>
-      <c r="B55" s="60"/>
-      <c r="C55" s="59"/>
-      <c r="D55" s="61"/>
-      <c r="E55" s="61"/>
-      <c r="F55" s="61"/>
-      <c r="G55" s="61"/>
-      <c r="H55" s="60"/>
-      <c r="I55" s="59"/>
-      <c r="J55" s="61"/>
-      <c r="K55" s="61"/>
-      <c r="L55" s="60"/>
-      <c r="M55" s="59"/>
-      <c r="N55" s="60"/>
-      <c r="O55" s="59"/>
-      <c r="P55" s="60"/>
-      <c r="Q55" s="59"/>
-      <c r="R55" s="60"/>
-      <c r="S55" s="59"/>
-      <c r="T55" s="61"/>
-      <c r="U55" s="61"/>
-      <c r="V55" s="62"/>
-      <c r="W55" s="62"/>
-      <c r="X55" s="62"/>
-      <c r="Y55" s="59"/>
-      <c r="Z55" s="61"/>
-      <c r="AA55" s="61"/>
-      <c r="AB55" s="61"/>
-      <c r="AC55" s="61"/>
-      <c r="AD55" s="61"/>
-      <c r="AE55" s="61"/>
-      <c r="AF55" s="61"/>
-      <c r="AG55" s="61"/>
-      <c r="AH55" s="61"/>
-      <c r="AI55" s="61"/>
-      <c r="AJ55" s="61"/>
-      <c r="AK55" s="60"/>
+      <c r="A55" s="40"/>
+      <c r="B55" s="41"/>
+      <c r="C55" s="40"/>
+      <c r="D55" s="42"/>
+      <c r="E55" s="42"/>
+      <c r="F55" s="42"/>
+      <c r="G55" s="42"/>
+      <c r="H55" s="41"/>
+      <c r="I55" s="40"/>
+      <c r="J55" s="42"/>
+      <c r="K55" s="42"/>
+      <c r="L55" s="41"/>
+      <c r="M55" s="40"/>
+      <c r="N55" s="41"/>
+      <c r="O55" s="40"/>
+      <c r="P55" s="41"/>
+      <c r="Q55" s="40"/>
+      <c r="R55" s="41"/>
+      <c r="S55" s="40"/>
+      <c r="T55" s="42"/>
+      <c r="U55" s="42"/>
+      <c r="V55" s="43"/>
+      <c r="W55" s="43"/>
+      <c r="X55" s="43"/>
+      <c r="Y55" s="40"/>
+      <c r="Z55" s="42"/>
+      <c r="AA55" s="42"/>
+      <c r="AB55" s="42"/>
+      <c r="AC55" s="42"/>
+      <c r="AD55" s="42"/>
+      <c r="AE55" s="42"/>
+      <c r="AF55" s="42"/>
+      <c r="AG55" s="42"/>
+      <c r="AH55" s="42"/>
+      <c r="AI55" s="42"/>
+      <c r="AJ55" s="42"/>
+      <c r="AK55" s="41"/>
     </row>
     <row r="56" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A56" s="59"/>
-      <c r="B56" s="60"/>
-      <c r="C56" s="59"/>
-      <c r="D56" s="61"/>
-      <c r="E56" s="61"/>
-      <c r="F56" s="61"/>
-      <c r="G56" s="61"/>
-      <c r="H56" s="60"/>
-      <c r="I56" s="59"/>
-      <c r="J56" s="61"/>
-      <c r="K56" s="61"/>
-      <c r="L56" s="60"/>
-      <c r="M56" s="59"/>
-      <c r="N56" s="60"/>
-      <c r="O56" s="59"/>
-      <c r="P56" s="60"/>
-      <c r="Q56" s="59"/>
-      <c r="R56" s="60"/>
-      <c r="S56" s="59"/>
-      <c r="T56" s="61"/>
-      <c r="U56" s="61"/>
-      <c r="V56" s="62"/>
-      <c r="W56" s="62"/>
-      <c r="X56" s="62"/>
-      <c r="Y56" s="59"/>
-      <c r="Z56" s="61"/>
-      <c r="AA56" s="61"/>
-      <c r="AB56" s="61"/>
-      <c r="AC56" s="61"/>
-      <c r="AD56" s="61"/>
-      <c r="AE56" s="61"/>
-      <c r="AF56" s="61"/>
-      <c r="AG56" s="61"/>
-      <c r="AH56" s="61"/>
-      <c r="AI56" s="61"/>
-      <c r="AJ56" s="61"/>
-      <c r="AK56" s="60"/>
+      <c r="A56" s="40"/>
+      <c r="B56" s="41"/>
+      <c r="C56" s="40"/>
+      <c r="D56" s="42"/>
+      <c r="E56" s="42"/>
+      <c r="F56" s="42"/>
+      <c r="G56" s="42"/>
+      <c r="H56" s="41"/>
+      <c r="I56" s="40"/>
+      <c r="J56" s="42"/>
+      <c r="K56" s="42"/>
+      <c r="L56" s="41"/>
+      <c r="M56" s="40"/>
+      <c r="N56" s="41"/>
+      <c r="O56" s="40"/>
+      <c r="P56" s="41"/>
+      <c r="Q56" s="40"/>
+      <c r="R56" s="41"/>
+      <c r="S56" s="40"/>
+      <c r="T56" s="42"/>
+      <c r="U56" s="42"/>
+      <c r="V56" s="43"/>
+      <c r="W56" s="43"/>
+      <c r="X56" s="43"/>
+      <c r="Y56" s="40"/>
+      <c r="Z56" s="42"/>
+      <c r="AA56" s="42"/>
+      <c r="AB56" s="42"/>
+      <c r="AC56" s="42"/>
+      <c r="AD56" s="42"/>
+      <c r="AE56" s="42"/>
+      <c r="AF56" s="42"/>
+      <c r="AG56" s="42"/>
+      <c r="AH56" s="42"/>
+      <c r="AI56" s="42"/>
+      <c r="AJ56" s="42"/>
+      <c r="AK56" s="41"/>
     </row>
     <row r="59" spans="1:43" ht="12.75" customHeight="1">
       <c r="B59" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="153">
-    <mergeCell ref="Y46:AK46"/>
-    <mergeCell ref="Y51:AK51"/>
-    <mergeCell ref="Y50:AK50"/>
-    <mergeCell ref="Y49:AK49"/>
-    <mergeCell ref="Y48:AK48"/>
-    <mergeCell ref="Y47:AK47"/>
-    <mergeCell ref="Y41:AK42"/>
-    <mergeCell ref="Y45:AK45"/>
-    <mergeCell ref="Y44:AK44"/>
-    <mergeCell ref="S46:U46"/>
-    <mergeCell ref="V46:X46"/>
-    <mergeCell ref="O47:P47"/>
-    <mergeCell ref="S47:U47"/>
-    <mergeCell ref="V47:X47"/>
-    <mergeCell ref="O41:P42"/>
-    <mergeCell ref="S41:U42"/>
-    <mergeCell ref="V41:X42"/>
-    <mergeCell ref="O43:P43"/>
-    <mergeCell ref="S43:U43"/>
-    <mergeCell ref="V43:X43"/>
-    <mergeCell ref="S45:U45"/>
-    <mergeCell ref="V45:X45"/>
-    <mergeCell ref="S44:U44"/>
-    <mergeCell ref="V44:X44"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="C56:H56"/>
-    <mergeCell ref="I56:L56"/>
-    <mergeCell ref="M56:N56"/>
-    <mergeCell ref="Q56:R56"/>
-    <mergeCell ref="O56:P56"/>
-    <mergeCell ref="S56:U56"/>
-    <mergeCell ref="V56:X56"/>
-    <mergeCell ref="Y56:AK56"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="C55:H55"/>
-    <mergeCell ref="I55:L55"/>
-    <mergeCell ref="M55:N55"/>
-    <mergeCell ref="Q55:R55"/>
-    <mergeCell ref="O55:P55"/>
-    <mergeCell ref="S55:U55"/>
-    <mergeCell ref="V55:X55"/>
-    <mergeCell ref="Y55:AK55"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="C54:H54"/>
-    <mergeCell ref="I54:L54"/>
-    <mergeCell ref="M54:N54"/>
-    <mergeCell ref="Q54:R54"/>
-    <mergeCell ref="O54:P54"/>
-    <mergeCell ref="S54:U54"/>
-    <mergeCell ref="V54:X54"/>
-    <mergeCell ref="Y54:AK54"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="C53:H53"/>
-    <mergeCell ref="I53:L53"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="Q53:R53"/>
-    <mergeCell ref="O53:P53"/>
-    <mergeCell ref="S53:U53"/>
-    <mergeCell ref="V53:X53"/>
-    <mergeCell ref="Y53:AK53"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="C52:H52"/>
-    <mergeCell ref="I52:L52"/>
-    <mergeCell ref="M52:N52"/>
-    <mergeCell ref="Q52:R52"/>
-    <mergeCell ref="O52:P52"/>
-    <mergeCell ref="S52:U52"/>
-    <mergeCell ref="V52:X52"/>
-    <mergeCell ref="Y52:AK52"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="C51:H51"/>
-    <mergeCell ref="I51:L51"/>
-    <mergeCell ref="M51:N51"/>
-    <mergeCell ref="Q51:R51"/>
-    <mergeCell ref="O51:P51"/>
-    <mergeCell ref="S51:U51"/>
-    <mergeCell ref="V51:X51"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="C50:H50"/>
-    <mergeCell ref="I50:L50"/>
-    <mergeCell ref="M50:N50"/>
-    <mergeCell ref="Q50:R50"/>
-    <mergeCell ref="O50:P50"/>
-    <mergeCell ref="S50:U50"/>
-    <mergeCell ref="V50:X50"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="C49:H49"/>
-    <mergeCell ref="I49:L49"/>
-    <mergeCell ref="M49:N49"/>
-    <mergeCell ref="Q49:R49"/>
-    <mergeCell ref="O49:P49"/>
-    <mergeCell ref="S49:U49"/>
-    <mergeCell ref="V49:X49"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="C48:H48"/>
-    <mergeCell ref="I48:L48"/>
-    <mergeCell ref="M48:N48"/>
-    <mergeCell ref="Q48:R48"/>
-    <mergeCell ref="O48:P48"/>
-    <mergeCell ref="S48:U48"/>
-    <mergeCell ref="V48:X48"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="C47:H47"/>
-    <mergeCell ref="I47:L47"/>
-    <mergeCell ref="M47:N47"/>
-    <mergeCell ref="Q47:R47"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="C46:H46"/>
-    <mergeCell ref="I46:L46"/>
-    <mergeCell ref="M46:N46"/>
-    <mergeCell ref="O46:P46"/>
-    <mergeCell ref="Q46:R46"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="C45:H45"/>
-    <mergeCell ref="I45:L45"/>
-    <mergeCell ref="M45:N45"/>
-    <mergeCell ref="O45:P45"/>
-    <mergeCell ref="Q45:R45"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="C44:H44"/>
-    <mergeCell ref="I44:L44"/>
-    <mergeCell ref="M44:N44"/>
-    <mergeCell ref="Q44:R44"/>
-    <mergeCell ref="O44:P44"/>
+    <mergeCell ref="A1:AK1"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="I3:O3"/>
+    <mergeCell ref="P3:R3"/>
+    <mergeCell ref="S3:Y3"/>
+    <mergeCell ref="Z3:AB3"/>
+    <mergeCell ref="AC3:AE3"/>
+    <mergeCell ref="AF3:AH3"/>
+    <mergeCell ref="AI3:AK3"/>
     <mergeCell ref="A43:B43"/>
     <mergeCell ref="C43:H43"/>
     <mergeCell ref="I43:L43"/>
@@ -8682,15 +8568,130 @@
     <mergeCell ref="Z4:AB5"/>
     <mergeCell ref="AC4:AE5"/>
     <mergeCell ref="Y43:AK43"/>
-    <mergeCell ref="A1:AK1"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="I3:O3"/>
-    <mergeCell ref="P3:R3"/>
-    <mergeCell ref="S3:Y3"/>
-    <mergeCell ref="Z3:AB3"/>
-    <mergeCell ref="AC3:AE3"/>
-    <mergeCell ref="AF3:AH3"/>
-    <mergeCell ref="AI3:AK3"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:H45"/>
+    <mergeCell ref="I45:L45"/>
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="O45:P45"/>
+    <mergeCell ref="Q45:R45"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:H44"/>
+    <mergeCell ref="I44:L44"/>
+    <mergeCell ref="M44:N44"/>
+    <mergeCell ref="Q44:R44"/>
+    <mergeCell ref="O44:P44"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:H47"/>
+    <mergeCell ref="I47:L47"/>
+    <mergeCell ref="M47:N47"/>
+    <mergeCell ref="Q47:R47"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:H46"/>
+    <mergeCell ref="I46:L46"/>
+    <mergeCell ref="M46:N46"/>
+    <mergeCell ref="O46:P46"/>
+    <mergeCell ref="Q46:R46"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:H49"/>
+    <mergeCell ref="I49:L49"/>
+    <mergeCell ref="M49:N49"/>
+    <mergeCell ref="Q49:R49"/>
+    <mergeCell ref="O49:P49"/>
+    <mergeCell ref="S49:U49"/>
+    <mergeCell ref="V49:X49"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:H48"/>
+    <mergeCell ref="I48:L48"/>
+    <mergeCell ref="M48:N48"/>
+    <mergeCell ref="Q48:R48"/>
+    <mergeCell ref="O48:P48"/>
+    <mergeCell ref="S48:U48"/>
+    <mergeCell ref="V48:X48"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:H51"/>
+    <mergeCell ref="I51:L51"/>
+    <mergeCell ref="M51:N51"/>
+    <mergeCell ref="Q51:R51"/>
+    <mergeCell ref="O51:P51"/>
+    <mergeCell ref="S51:U51"/>
+    <mergeCell ref="V51:X51"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:H50"/>
+    <mergeCell ref="I50:L50"/>
+    <mergeCell ref="M50:N50"/>
+    <mergeCell ref="Q50:R50"/>
+    <mergeCell ref="O50:P50"/>
+    <mergeCell ref="S50:U50"/>
+    <mergeCell ref="V50:X50"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:H52"/>
+    <mergeCell ref="I52:L52"/>
+    <mergeCell ref="M52:N52"/>
+    <mergeCell ref="Q52:R52"/>
+    <mergeCell ref="O52:P52"/>
+    <mergeCell ref="S52:U52"/>
+    <mergeCell ref="V52:X52"/>
+    <mergeCell ref="Y52:AK52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C53:H53"/>
+    <mergeCell ref="I53:L53"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="Q53:R53"/>
+    <mergeCell ref="O53:P53"/>
+    <mergeCell ref="S53:U53"/>
+    <mergeCell ref="V53:X53"/>
+    <mergeCell ref="Y53:AK53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="C54:H54"/>
+    <mergeCell ref="I54:L54"/>
+    <mergeCell ref="M54:N54"/>
+    <mergeCell ref="Q54:R54"/>
+    <mergeCell ref="O54:P54"/>
+    <mergeCell ref="S54:U54"/>
+    <mergeCell ref="V54:X54"/>
+    <mergeCell ref="Y54:AK54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="C55:H55"/>
+    <mergeCell ref="I55:L55"/>
+    <mergeCell ref="M55:N55"/>
+    <mergeCell ref="Q55:R55"/>
+    <mergeCell ref="O55:P55"/>
+    <mergeCell ref="S55:U55"/>
+    <mergeCell ref="V55:X55"/>
+    <mergeCell ref="Y55:AK55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="C56:H56"/>
+    <mergeCell ref="I56:L56"/>
+    <mergeCell ref="M56:N56"/>
+    <mergeCell ref="Q56:R56"/>
+    <mergeCell ref="O56:P56"/>
+    <mergeCell ref="S56:U56"/>
+    <mergeCell ref="V56:X56"/>
+    <mergeCell ref="Y56:AK56"/>
+    <mergeCell ref="S46:U46"/>
+    <mergeCell ref="V46:X46"/>
+    <mergeCell ref="O47:P47"/>
+    <mergeCell ref="S47:U47"/>
+    <mergeCell ref="V47:X47"/>
+    <mergeCell ref="O41:P42"/>
+    <mergeCell ref="S41:U42"/>
+    <mergeCell ref="V41:X42"/>
+    <mergeCell ref="O43:P43"/>
+    <mergeCell ref="S43:U43"/>
+    <mergeCell ref="V43:X43"/>
+    <mergeCell ref="S45:U45"/>
+    <mergeCell ref="V45:X45"/>
+    <mergeCell ref="S44:U44"/>
+    <mergeCell ref="V44:X44"/>
+    <mergeCell ref="Y46:AK46"/>
+    <mergeCell ref="Y51:AK51"/>
+    <mergeCell ref="Y50:AK50"/>
+    <mergeCell ref="Y49:AK49"/>
+    <mergeCell ref="Y48:AK48"/>
+    <mergeCell ref="Y47:AK47"/>
+    <mergeCell ref="Y41:AK42"/>
+    <mergeCell ref="Y45:AK45"/>
+    <mergeCell ref="Y44:AK44"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
@@ -8705,8 +8706,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81980269-4B89-CA4B-B703-7E6B1AF9D3E8}">
   <dimension ref="A1:AQ59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="105" zoomScaleNormal="135" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="X21" sqref="X21"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="67" zoomScaleNormal="135" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AC32" sqref="AC32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
@@ -8720,45 +8721,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="12.75" customHeight="1">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
-      <c r="N1" s="28"/>
-      <c r="O1" s="28"/>
-      <c r="P1" s="28"/>
-      <c r="Q1" s="28"/>
-      <c r="R1" s="28"/>
-      <c r="S1" s="28"/>
-      <c r="T1" s="28"/>
-      <c r="U1" s="28"/>
-      <c r="V1" s="28"/>
-      <c r="W1" s="28"/>
-      <c r="X1" s="28"/>
-      <c r="Y1" s="28"/>
-      <c r="Z1" s="28"/>
-      <c r="AA1" s="28"/>
-      <c r="AB1" s="28"/>
-      <c r="AC1" s="28"/>
-      <c r="AD1" s="28"/>
-      <c r="AE1" s="28"/>
-      <c r="AF1" s="28"/>
-      <c r="AG1" s="28"/>
-      <c r="AH1" s="28"/>
-      <c r="AI1" s="28"/>
-      <c r="AJ1" s="28"/>
-      <c r="AK1" s="28"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
+      <c r="M1" s="59"/>
+      <c r="N1" s="59"/>
+      <c r="O1" s="59"/>
+      <c r="P1" s="59"/>
+      <c r="Q1" s="59"/>
+      <c r="R1" s="59"/>
+      <c r="S1" s="59"/>
+      <c r="T1" s="59"/>
+      <c r="U1" s="59"/>
+      <c r="V1" s="59"/>
+      <c r="W1" s="59"/>
+      <c r="X1" s="59"/>
+      <c r="Y1" s="59"/>
+      <c r="Z1" s="59"/>
+      <c r="AA1" s="59"/>
+      <c r="AB1" s="59"/>
+      <c r="AC1" s="59"/>
+      <c r="AD1" s="59"/>
+      <c r="AE1" s="59"/>
+      <c r="AF1" s="59"/>
+      <c r="AG1" s="59"/>
+      <c r="AH1" s="59"/>
+      <c r="AI1" s="59"/>
+      <c r="AJ1" s="59"/>
+      <c r="AK1" s="59"/>
     </row>
     <row r="2" spans="1:37" ht="6" customHeight="1">
       <c r="A2" s="2"/>
@@ -8800,153 +8801,153 @@
       <c r="AK2" s="2"/>
     </row>
     <row r="3" spans="1:37" ht="12">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="29" t="s">
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30"/>
-      <c r="M3" s="30"/>
-      <c r="N3" s="30"/>
-      <c r="O3" s="31"/>
-      <c r="P3" s="29" t="s">
+      <c r="J3" s="61"/>
+      <c r="K3" s="61"/>
+      <c r="L3" s="61"/>
+      <c r="M3" s="61"/>
+      <c r="N3" s="61"/>
+      <c r="O3" s="62"/>
+      <c r="P3" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="Q3" s="30"/>
-      <c r="R3" s="31"/>
-      <c r="S3" s="29" t="s">
+      <c r="Q3" s="61"/>
+      <c r="R3" s="62"/>
+      <c r="S3" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="T3" s="30"/>
-      <c r="U3" s="30"/>
-      <c r="V3" s="30"/>
-      <c r="W3" s="30"/>
-      <c r="X3" s="30"/>
-      <c r="Y3" s="31"/>
-      <c r="Z3" s="29" t="s">
+      <c r="T3" s="61"/>
+      <c r="U3" s="61"/>
+      <c r="V3" s="61"/>
+      <c r="W3" s="61"/>
+      <c r="X3" s="61"/>
+      <c r="Y3" s="62"/>
+      <c r="Z3" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="AA3" s="30"/>
-      <c r="AB3" s="31"/>
-      <c r="AC3" s="29" t="s">
+      <c r="AA3" s="61"/>
+      <c r="AB3" s="62"/>
+      <c r="AC3" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="AD3" s="30"/>
-      <c r="AE3" s="31"/>
-      <c r="AF3" s="29" t="s">
+      <c r="AD3" s="61"/>
+      <c r="AE3" s="62"/>
+      <c r="AF3" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="AG3" s="30"/>
-      <c r="AH3" s="31"/>
-      <c r="AI3" s="29" t="s">
+      <c r="AG3" s="61"/>
+      <c r="AH3" s="62"/>
+      <c r="AI3" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="AJ3" s="30"/>
-      <c r="AK3" s="31"/>
+      <c r="AJ3" s="61"/>
+      <c r="AK3" s="62"/>
     </row>
     <row r="4" spans="1:37" ht="12" customHeight="1">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="43"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="43"/>
-      <c r="I4" s="44" t="s">
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="47" t="s">
         <v>43</v>
       </c>
-      <c r="J4" s="44"/>
-      <c r="K4" s="44"/>
-      <c r="L4" s="44"/>
-      <c r="M4" s="44"/>
-      <c r="N4" s="44"/>
-      <c r="O4" s="45"/>
-      <c r="P4" s="48" t="s">
+      <c r="J4" s="47"/>
+      <c r="K4" s="47"/>
+      <c r="L4" s="47"/>
+      <c r="M4" s="47"/>
+      <c r="N4" s="47"/>
+      <c r="O4" s="48"/>
+      <c r="P4" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="Q4" s="44"/>
-      <c r="R4" s="45"/>
-      <c r="S4" s="50" t="s">
+      <c r="Q4" s="47"/>
+      <c r="R4" s="48"/>
+      <c r="S4" s="53" t="s">
         <v>43</v>
       </c>
-      <c r="T4" s="51"/>
-      <c r="U4" s="51"/>
-      <c r="V4" s="51"/>
-      <c r="W4" s="51"/>
-      <c r="X4" s="51"/>
-      <c r="Y4" s="52"/>
-      <c r="Z4" s="48" t="s">
+      <c r="T4" s="54"/>
+      <c r="U4" s="54"/>
+      <c r="V4" s="54"/>
+      <c r="W4" s="54"/>
+      <c r="X4" s="54"/>
+      <c r="Y4" s="55"/>
+      <c r="Z4" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="AA4" s="44"/>
-      <c r="AB4" s="45"/>
-      <c r="AC4" s="48" t="s">
+      <c r="AA4" s="47"/>
+      <c r="AB4" s="48"/>
+      <c r="AC4" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="AD4" s="44"/>
-      <c r="AE4" s="45"/>
-      <c r="AF4" s="36" t="s">
+      <c r="AD4" s="47"/>
+      <c r="AE4" s="48"/>
+      <c r="AF4" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="AG4" s="37"/>
-      <c r="AH4" s="38"/>
-      <c r="AI4" s="36" t="s">
+      <c r="AG4" s="35"/>
+      <c r="AH4" s="36"/>
+      <c r="AI4" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="AJ4" s="37"/>
-      <c r="AK4" s="38"/>
+      <c r="AJ4" s="35"/>
+      <c r="AK4" s="36"/>
     </row>
     <row r="5" spans="1:37" ht="12">
-      <c r="A5" s="43"/>
-      <c r="B5" s="43"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="43"/>
-      <c r="H5" s="43"/>
-      <c r="I5" s="46"/>
-      <c r="J5" s="46"/>
-      <c r="K5" s="46"/>
-      <c r="L5" s="46"/>
-      <c r="M5" s="46"/>
-      <c r="N5" s="46"/>
-      <c r="O5" s="47"/>
-      <c r="P5" s="49"/>
-      <c r="Q5" s="46"/>
-      <c r="R5" s="47"/>
-      <c r="S5" s="53"/>
-      <c r="T5" s="54"/>
-      <c r="U5" s="54"/>
-      <c r="V5" s="54"/>
-      <c r="W5" s="54"/>
-      <c r="X5" s="54"/>
-      <c r="Y5" s="55"/>
-      <c r="Z5" s="49"/>
-      <c r="AA5" s="46"/>
-      <c r="AB5" s="47"/>
-      <c r="AC5" s="49"/>
-      <c r="AD5" s="46"/>
-      <c r="AE5" s="47"/>
-      <c r="AF5" s="39"/>
-      <c r="AG5" s="40"/>
-      <c r="AH5" s="41"/>
-      <c r="AI5" s="39"/>
-      <c r="AJ5" s="40"/>
-      <c r="AK5" s="41"/>
+      <c r="A5" s="46"/>
+      <c r="B5" s="46"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="49"/>
+      <c r="J5" s="49"/>
+      <c r="K5" s="49"/>
+      <c r="L5" s="49"/>
+      <c r="M5" s="49"/>
+      <c r="N5" s="49"/>
+      <c r="O5" s="50"/>
+      <c r="P5" s="52"/>
+      <c r="Q5" s="49"/>
+      <c r="R5" s="50"/>
+      <c r="S5" s="56"/>
+      <c r="T5" s="57"/>
+      <c r="U5" s="57"/>
+      <c r="V5" s="57"/>
+      <c r="W5" s="57"/>
+      <c r="X5" s="57"/>
+      <c r="Y5" s="58"/>
+      <c r="Z5" s="52"/>
+      <c r="AA5" s="49"/>
+      <c r="AB5" s="50"/>
+      <c r="AC5" s="52"/>
+      <c r="AD5" s="49"/>
+      <c r="AE5" s="50"/>
+      <c r="AF5" s="37"/>
+      <c r="AG5" s="38"/>
+      <c r="AH5" s="39"/>
+      <c r="AI5" s="37"/>
+      <c r="AJ5" s="38"/>
+      <c r="AK5" s="39"/>
     </row>
     <row r="6" spans="1:37" ht="12">
       <c r="A6" s="3"/>
@@ -10176,8 +10177,8 @@
       <c r="L37" s="9"/>
       <c r="M37" s="9"/>
       <c r="N37" s="9"/>
-      <c r="O37" s="42"/>
-      <c r="P37" s="42"/>
+      <c r="O37" s="45"/>
+      <c r="P37" s="45"/>
       <c r="Q37" s="9"/>
       <c r="R37" s="10"/>
       <c r="S37" s="9"/>
@@ -10318,61 +10319,61 @@
       <c r="AK40" s="16"/>
     </row>
     <row r="41" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A41" s="36" t="s">
+      <c r="A41" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="B41" s="38"/>
-      <c r="C41" s="36" t="s">
+      <c r="B41" s="36"/>
+      <c r="C41" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="D41" s="37"/>
-      <c r="E41" s="37"/>
-      <c r="F41" s="37"/>
-      <c r="G41" s="37"/>
-      <c r="H41" s="38"/>
-      <c r="I41" s="36" t="s">
+      <c r="D41" s="35"/>
+      <c r="E41" s="35"/>
+      <c r="F41" s="35"/>
+      <c r="G41" s="35"/>
+      <c r="H41" s="36"/>
+      <c r="I41" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="J41" s="37"/>
-      <c r="K41" s="37"/>
-      <c r="L41" s="38"/>
-      <c r="M41" s="36" t="s">
+      <c r="J41" s="35"/>
+      <c r="K41" s="35"/>
+      <c r="L41" s="36"/>
+      <c r="M41" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="N41" s="38"/>
-      <c r="O41" s="36" t="s">
+      <c r="N41" s="36"/>
+      <c r="O41" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="P41" s="38"/>
-      <c r="Q41" s="35" t="s">
+      <c r="P41" s="36"/>
+      <c r="Q41" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="R41" s="35"/>
-      <c r="S41" s="36" t="s">
+      <c r="R41" s="44"/>
+      <c r="S41" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="T41" s="37"/>
-      <c r="U41" s="38"/>
-      <c r="V41" s="36" t="s">
+      <c r="T41" s="35"/>
+      <c r="U41" s="36"/>
+      <c r="V41" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="W41" s="37"/>
-      <c r="X41" s="38"/>
-      <c r="Y41" s="36" t="s">
+      <c r="W41" s="35"/>
+      <c r="X41" s="36"/>
+      <c r="Y41" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="Z41" s="37"/>
-      <c r="AA41" s="37"/>
-      <c r="AB41" s="37"/>
-      <c r="AC41" s="37"/>
-      <c r="AD41" s="37"/>
-      <c r="AE41" s="37"/>
-      <c r="AF41" s="37"/>
-      <c r="AG41" s="37"/>
-      <c r="AH41" s="37"/>
-      <c r="AI41" s="37"/>
-      <c r="AJ41" s="37"/>
-      <c r="AK41" s="38"/>
+      <c r="Z41" s="35"/>
+      <c r="AA41" s="35"/>
+      <c r="AB41" s="35"/>
+      <c r="AC41" s="35"/>
+      <c r="AD41" s="35"/>
+      <c r="AE41" s="35"/>
+      <c r="AF41" s="35"/>
+      <c r="AG41" s="35"/>
+      <c r="AH41" s="35"/>
+      <c r="AI41" s="35"/>
+      <c r="AJ41" s="35"/>
+      <c r="AK41" s="36"/>
       <c r="AL41" s="24"/>
       <c r="AM41" s="24"/>
       <c r="AN41" s="24"/>
@@ -10381,43 +10382,43 @@
       <c r="AQ41" s="24"/>
     </row>
     <row r="42" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A42" s="39"/>
-      <c r="B42" s="41"/>
-      <c r="C42" s="39"/>
-      <c r="D42" s="40"/>
-      <c r="E42" s="40"/>
-      <c r="F42" s="40"/>
-      <c r="G42" s="40"/>
-      <c r="H42" s="41"/>
-      <c r="I42" s="39"/>
-      <c r="J42" s="40"/>
-      <c r="K42" s="40"/>
-      <c r="L42" s="41"/>
-      <c r="M42" s="39"/>
-      <c r="N42" s="41"/>
-      <c r="O42" s="39"/>
-      <c r="P42" s="41"/>
-      <c r="Q42" s="35"/>
-      <c r="R42" s="35"/>
-      <c r="S42" s="39"/>
-      <c r="T42" s="40"/>
-      <c r="U42" s="41"/>
-      <c r="V42" s="39"/>
-      <c r="W42" s="40"/>
-      <c r="X42" s="41"/>
-      <c r="Y42" s="39"/>
-      <c r="Z42" s="40"/>
-      <c r="AA42" s="40"/>
-      <c r="AB42" s="40"/>
-      <c r="AC42" s="40"/>
-      <c r="AD42" s="40"/>
-      <c r="AE42" s="40"/>
-      <c r="AF42" s="40"/>
-      <c r="AG42" s="40"/>
-      <c r="AH42" s="40"/>
-      <c r="AI42" s="40"/>
-      <c r="AJ42" s="40"/>
-      <c r="AK42" s="41"/>
+      <c r="A42" s="37"/>
+      <c r="B42" s="39"/>
+      <c r="C42" s="37"/>
+      <c r="D42" s="38"/>
+      <c r="E42" s="38"/>
+      <c r="F42" s="38"/>
+      <c r="G42" s="38"/>
+      <c r="H42" s="39"/>
+      <c r="I42" s="37"/>
+      <c r="J42" s="38"/>
+      <c r="K42" s="38"/>
+      <c r="L42" s="39"/>
+      <c r="M42" s="37"/>
+      <c r="N42" s="39"/>
+      <c r="O42" s="37"/>
+      <c r="P42" s="39"/>
+      <c r="Q42" s="44"/>
+      <c r="R42" s="44"/>
+      <c r="S42" s="37"/>
+      <c r="T42" s="38"/>
+      <c r="U42" s="39"/>
+      <c r="V42" s="37"/>
+      <c r="W42" s="38"/>
+      <c r="X42" s="39"/>
+      <c r="Y42" s="37"/>
+      <c r="Z42" s="38"/>
+      <c r="AA42" s="38"/>
+      <c r="AB42" s="38"/>
+      <c r="AC42" s="38"/>
+      <c r="AD42" s="38"/>
+      <c r="AE42" s="38"/>
+      <c r="AF42" s="38"/>
+      <c r="AG42" s="38"/>
+      <c r="AH42" s="38"/>
+      <c r="AI42" s="38"/>
+      <c r="AJ42" s="38"/>
+      <c r="AK42" s="39"/>
       <c r="AL42" s="24"/>
       <c r="AM42" s="24"/>
       <c r="AN42" s="24"/>
@@ -10426,61 +10427,61 @@
       <c r="AQ42" s="24"/>
     </row>
     <row r="43" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A43" s="32">
+      <c r="A43" s="31">
         <v>1</v>
       </c>
       <c r="B43" s="33"/>
-      <c r="C43" s="32" t="s">
+      <c r="C43" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="D43" s="34"/>
-      <c r="E43" s="34"/>
-      <c r="F43" s="34"/>
-      <c r="G43" s="34"/>
+      <c r="D43" s="32"/>
+      <c r="E43" s="32"/>
+      <c r="F43" s="32"/>
+      <c r="G43" s="32"/>
       <c r="H43" s="33"/>
-      <c r="I43" s="32" t="s">
+      <c r="I43" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="J43" s="34"/>
-      <c r="K43" s="34"/>
+      <c r="J43" s="32"/>
+      <c r="K43" s="32"/>
       <c r="L43" s="33"/>
-      <c r="M43" s="32" t="s">
+      <c r="M43" s="31" t="s">
         <v>16</v>
       </c>
       <c r="N43" s="33"/>
-      <c r="O43" s="32" t="s">
+      <c r="O43" s="31" t="s">
         <v>16</v>
       </c>
       <c r="P43" s="33"/>
-      <c r="Q43" s="35" t="s">
+      <c r="Q43" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="R43" s="35"/>
-      <c r="S43" s="32" t="s">
+      <c r="R43" s="44"/>
+      <c r="S43" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="T43" s="34"/>
+      <c r="T43" s="32"/>
       <c r="U43" s="33"/>
-      <c r="V43" s="32" t="s">
+      <c r="V43" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="W43" s="34"/>
+      <c r="W43" s="32"/>
       <c r="X43" s="33"/>
-      <c r="Y43" s="32" t="s">
+      <c r="Y43" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="Z43" s="34"/>
-      <c r="AA43" s="34"/>
-      <c r="AB43" s="34"/>
-      <c r="AC43" s="34"/>
-      <c r="AD43" s="34"/>
-      <c r="AE43" s="34"/>
-      <c r="AF43" s="34"/>
-      <c r="AG43" s="34"/>
-      <c r="AH43" s="34"/>
-      <c r="AI43" s="34"/>
-      <c r="AJ43" s="34"/>
-      <c r="AK43" s="33"/>
+      <c r="Z43" s="29"/>
+      <c r="AA43" s="29"/>
+      <c r="AB43" s="29"/>
+      <c r="AC43" s="29"/>
+      <c r="AD43" s="29"/>
+      <c r="AE43" s="29"/>
+      <c r="AF43" s="29"/>
+      <c r="AG43" s="29"/>
+      <c r="AH43" s="29"/>
+      <c r="AI43" s="29"/>
+      <c r="AJ43" s="29"/>
+      <c r="AK43" s="30"/>
       <c r="AL43" s="24"/>
       <c r="AM43" s="24"/>
       <c r="AN43" s="24"/>
@@ -10489,61 +10490,61 @@
       <c r="AQ43" s="24"/>
     </row>
     <row r="44" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A44" s="32">
+      <c r="A44" s="31">
         <v>2</v>
       </c>
       <c r="B44" s="33"/>
-      <c r="C44" s="32" t="s">
+      <c r="C44" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="D44" s="34"/>
-      <c r="E44" s="34"/>
-      <c r="F44" s="34"/>
-      <c r="G44" s="34"/>
+      <c r="D44" s="32"/>
+      <c r="E44" s="32"/>
+      <c r="F44" s="32"/>
+      <c r="G44" s="32"/>
       <c r="H44" s="33"/>
-      <c r="I44" s="32" t="s">
+      <c r="I44" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="J44" s="34"/>
-      <c r="K44" s="34"/>
+      <c r="J44" s="32"/>
+      <c r="K44" s="32"/>
       <c r="L44" s="33"/>
-      <c r="M44" s="32" t="s">
+      <c r="M44" s="31" t="s">
         <v>16</v>
       </c>
       <c r="N44" s="33"/>
-      <c r="O44" s="32" t="s">
+      <c r="O44" s="31" t="s">
         <v>16</v>
       </c>
       <c r="P44" s="33"/>
-      <c r="Q44" s="35" t="s">
+      <c r="Q44" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="R44" s="35"/>
-      <c r="S44" s="32" t="s">
+      <c r="R44" s="44"/>
+      <c r="S44" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="T44" s="34"/>
+      <c r="T44" s="32"/>
       <c r="U44" s="33"/>
-      <c r="V44" s="32" t="s">
+      <c r="V44" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="W44" s="34"/>
+      <c r="W44" s="32"/>
       <c r="X44" s="33"/>
-      <c r="Y44" s="32" t="s">
+      <c r="Y44" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="Z44" s="34"/>
-      <c r="AA44" s="34"/>
-      <c r="AB44" s="34"/>
-      <c r="AC44" s="34"/>
-      <c r="AD44" s="34"/>
-      <c r="AE44" s="34"/>
-      <c r="AF44" s="34"/>
-      <c r="AG44" s="34"/>
-      <c r="AH44" s="34"/>
-      <c r="AI44" s="34"/>
-      <c r="AJ44" s="34"/>
-      <c r="AK44" s="33"/>
+      <c r="Z44" s="29"/>
+      <c r="AA44" s="29"/>
+      <c r="AB44" s="29"/>
+      <c r="AC44" s="29"/>
+      <c r="AD44" s="29"/>
+      <c r="AE44" s="29"/>
+      <c r="AF44" s="29"/>
+      <c r="AG44" s="29"/>
+      <c r="AH44" s="29"/>
+      <c r="AI44" s="29"/>
+      <c r="AJ44" s="29"/>
+      <c r="AK44" s="30"/>
       <c r="AL44" s="24"/>
       <c r="AM44" s="24"/>
       <c r="AN44" s="24"/>
@@ -10552,61 +10553,61 @@
       <c r="AQ44" s="24"/>
     </row>
     <row r="45" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A45" s="32">
+      <c r="A45" s="31">
         <v>3</v>
       </c>
       <c r="B45" s="33"/>
-      <c r="C45" s="32" t="s">
+      <c r="C45" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="D45" s="34"/>
-      <c r="E45" s="34"/>
-      <c r="F45" s="34"/>
-      <c r="G45" s="34"/>
+      <c r="D45" s="32"/>
+      <c r="E45" s="32"/>
+      <c r="F45" s="32"/>
+      <c r="G45" s="32"/>
       <c r="H45" s="33"/>
-      <c r="I45" s="32" t="s">
+      <c r="I45" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="J45" s="34"/>
-      <c r="K45" s="34"/>
+      <c r="J45" s="32"/>
+      <c r="K45" s="32"/>
       <c r="L45" s="33"/>
-      <c r="M45" s="32" t="s">
+      <c r="M45" s="31" t="s">
         <v>16</v>
       </c>
       <c r="N45" s="33"/>
-      <c r="O45" s="32" t="s">
+      <c r="O45" s="31" t="s">
         <v>16</v>
       </c>
       <c r="P45" s="33"/>
-      <c r="Q45" s="35" t="s">
+      <c r="Q45" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="R45" s="35"/>
-      <c r="S45" s="32" t="s">
+      <c r="R45" s="44"/>
+      <c r="S45" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="T45" s="34"/>
+      <c r="T45" s="32"/>
       <c r="U45" s="33"/>
-      <c r="V45" s="32" t="s">
+      <c r="V45" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="W45" s="34"/>
+      <c r="W45" s="32"/>
       <c r="X45" s="33"/>
-      <c r="Y45" s="32" t="s">
+      <c r="Y45" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="Z45" s="34"/>
-      <c r="AA45" s="34"/>
-      <c r="AB45" s="34"/>
-      <c r="AC45" s="34"/>
-      <c r="AD45" s="34"/>
-      <c r="AE45" s="34"/>
-      <c r="AF45" s="34"/>
-      <c r="AG45" s="34"/>
-      <c r="AH45" s="34"/>
-      <c r="AI45" s="34"/>
-      <c r="AJ45" s="34"/>
-      <c r="AK45" s="33"/>
+      <c r="Z45" s="29"/>
+      <c r="AA45" s="29"/>
+      <c r="AB45" s="29"/>
+      <c r="AC45" s="29"/>
+      <c r="AD45" s="29"/>
+      <c r="AE45" s="29"/>
+      <c r="AF45" s="29"/>
+      <c r="AG45" s="29"/>
+      <c r="AH45" s="29"/>
+      <c r="AI45" s="29"/>
+      <c r="AJ45" s="29"/>
+      <c r="AK45" s="30"/>
       <c r="AL45" s="24"/>
       <c r="AM45" s="24"/>
       <c r="AN45" s="24"/>
@@ -10615,61 +10616,61 @@
       <c r="AQ45" s="24"/>
     </row>
     <row r="46" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A46" s="32">
+      <c r="A46" s="31">
         <v>4</v>
       </c>
       <c r="B46" s="33"/>
-      <c r="C46" s="32" t="s">
+      <c r="C46" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="D46" s="34"/>
-      <c r="E46" s="34"/>
-      <c r="F46" s="34"/>
-      <c r="G46" s="34"/>
+      <c r="D46" s="32"/>
+      <c r="E46" s="32"/>
+      <c r="F46" s="32"/>
+      <c r="G46" s="32"/>
       <c r="H46" s="33"/>
-      <c r="I46" s="32" t="s">
+      <c r="I46" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="J46" s="34"/>
-      <c r="K46" s="34"/>
+      <c r="J46" s="32"/>
+      <c r="K46" s="32"/>
       <c r="L46" s="33"/>
-      <c r="M46" s="32" t="s">
+      <c r="M46" s="31" t="s">
         <v>16</v>
       </c>
       <c r="N46" s="33"/>
-      <c r="O46" s="32" t="s">
+      <c r="O46" s="31" t="s">
         <v>16</v>
       </c>
       <c r="P46" s="33"/>
-      <c r="Q46" s="32" t="s">
+      <c r="Q46" s="31" t="s">
         <v>16</v>
       </c>
       <c r="R46" s="33"/>
-      <c r="S46" s="32" t="s">
+      <c r="S46" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="T46" s="34"/>
+      <c r="T46" s="32"/>
       <c r="U46" s="33"/>
-      <c r="V46" s="32" t="s">
+      <c r="V46" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="W46" s="34"/>
+      <c r="W46" s="32"/>
       <c r="X46" s="33"/>
-      <c r="Y46" s="32" t="s">
+      <c r="Y46" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="Z46" s="34"/>
-      <c r="AA46" s="34"/>
-      <c r="AB46" s="34"/>
-      <c r="AC46" s="34"/>
-      <c r="AD46" s="34"/>
-      <c r="AE46" s="34"/>
-      <c r="AF46" s="34"/>
-      <c r="AG46" s="34"/>
-      <c r="AH46" s="34"/>
-      <c r="AI46" s="34"/>
-      <c r="AJ46" s="34"/>
-      <c r="AK46" s="33"/>
+      <c r="Z46" s="29"/>
+      <c r="AA46" s="29"/>
+      <c r="AB46" s="29"/>
+      <c r="AC46" s="29"/>
+      <c r="AD46" s="29"/>
+      <c r="AE46" s="29"/>
+      <c r="AF46" s="29"/>
+      <c r="AG46" s="29"/>
+      <c r="AH46" s="29"/>
+      <c r="AI46" s="29"/>
+      <c r="AJ46" s="29"/>
+      <c r="AK46" s="30"/>
       <c r="AL46" s="24"/>
       <c r="AM46" s="24"/>
       <c r="AN46" s="24"/>
@@ -10678,61 +10679,61 @@
       <c r="AQ46" s="24"/>
     </row>
     <row r="47" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A47" s="32">
+      <c r="A47" s="31">
         <v>5</v>
       </c>
       <c r="B47" s="33"/>
-      <c r="C47" s="32" t="s">
+      <c r="C47" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="34"/>
-      <c r="E47" s="34"/>
-      <c r="F47" s="34"/>
-      <c r="G47" s="34"/>
+      <c r="D47" s="32"/>
+      <c r="E47" s="32"/>
+      <c r="F47" s="32"/>
+      <c r="G47" s="32"/>
       <c r="H47" s="33"/>
-      <c r="I47" s="32" t="s">
+      <c r="I47" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="J47" s="34"/>
-      <c r="K47" s="34"/>
+      <c r="J47" s="32"/>
+      <c r="K47" s="32"/>
       <c r="L47" s="33"/>
-      <c r="M47" s="32" t="s">
+      <c r="M47" s="31" t="s">
         <v>16</v>
       </c>
       <c r="N47" s="33"/>
-      <c r="O47" s="32" t="s">
+      <c r="O47" s="31" t="s">
         <v>16</v>
       </c>
       <c r="P47" s="33"/>
-      <c r="Q47" s="35" t="s">
+      <c r="Q47" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="R47" s="35"/>
-      <c r="S47" s="32" t="s">
+      <c r="R47" s="44"/>
+      <c r="S47" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="T47" s="34"/>
+      <c r="T47" s="32"/>
       <c r="U47" s="33"/>
-      <c r="V47" s="32" t="s">
+      <c r="V47" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="W47" s="34"/>
+      <c r="W47" s="32"/>
       <c r="X47" s="33"/>
-      <c r="Y47" s="32" t="s">
+      <c r="Y47" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="Z47" s="34"/>
-      <c r="AA47" s="34"/>
-      <c r="AB47" s="34"/>
-      <c r="AC47" s="34"/>
-      <c r="AD47" s="34"/>
-      <c r="AE47" s="34"/>
-      <c r="AF47" s="34"/>
-      <c r="AG47" s="34"/>
-      <c r="AH47" s="34"/>
-      <c r="AI47" s="34"/>
-      <c r="AJ47" s="34"/>
-      <c r="AK47" s="33"/>
+      <c r="Z47" s="29"/>
+      <c r="AA47" s="29"/>
+      <c r="AB47" s="29"/>
+      <c r="AC47" s="29"/>
+      <c r="AD47" s="29"/>
+      <c r="AE47" s="29"/>
+      <c r="AF47" s="29"/>
+      <c r="AG47" s="29"/>
+      <c r="AH47" s="29"/>
+      <c r="AI47" s="29"/>
+      <c r="AJ47" s="29"/>
+      <c r="AK47" s="30"/>
       <c r="AL47" s="24"/>
       <c r="AM47" s="24"/>
       <c r="AN47" s="24"/>
@@ -10741,61 +10742,61 @@
       <c r="AQ47" s="24"/>
     </row>
     <row r="48" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A48" s="32">
+      <c r="A48" s="31">
         <v>6</v>
       </c>
       <c r="B48" s="33"/>
-      <c r="C48" s="32" t="s">
+      <c r="C48" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="D48" s="34"/>
-      <c r="E48" s="34"/>
-      <c r="F48" s="34"/>
-      <c r="G48" s="34"/>
+      <c r="D48" s="32"/>
+      <c r="E48" s="32"/>
+      <c r="F48" s="32"/>
+      <c r="G48" s="32"/>
       <c r="H48" s="33"/>
-      <c r="I48" s="32" t="s">
+      <c r="I48" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="J48" s="34"/>
-      <c r="K48" s="34"/>
+      <c r="J48" s="32"/>
+      <c r="K48" s="32"/>
       <c r="L48" s="33"/>
-      <c r="M48" s="32" t="s">
+      <c r="M48" s="31" t="s">
         <v>16</v>
       </c>
       <c r="N48" s="33"/>
-      <c r="O48" s="32" t="s">
+      <c r="O48" s="31" t="s">
         <v>16</v>
       </c>
       <c r="P48" s="33"/>
-      <c r="Q48" s="35" t="s">
+      <c r="Q48" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="R48" s="35"/>
-      <c r="S48" s="32" t="s">
+      <c r="R48" s="44"/>
+      <c r="S48" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="T48" s="34"/>
+      <c r="T48" s="32"/>
       <c r="U48" s="33"/>
-      <c r="V48" s="32" t="s">
+      <c r="V48" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="W48" s="34"/>
+      <c r="W48" s="32"/>
       <c r="X48" s="33"/>
-      <c r="Y48" s="32" t="s">
+      <c r="Y48" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="Z48" s="34"/>
-      <c r="AA48" s="34"/>
-      <c r="AB48" s="34"/>
-      <c r="AC48" s="34"/>
-      <c r="AD48" s="34"/>
-      <c r="AE48" s="34"/>
-      <c r="AF48" s="34"/>
-      <c r="AG48" s="34"/>
-      <c r="AH48" s="34"/>
-      <c r="AI48" s="34"/>
-      <c r="AJ48" s="34"/>
-      <c r="AK48" s="33"/>
+      <c r="Z48" s="29"/>
+      <c r="AA48" s="29"/>
+      <c r="AB48" s="29"/>
+      <c r="AC48" s="29"/>
+      <c r="AD48" s="29"/>
+      <c r="AE48" s="29"/>
+      <c r="AF48" s="29"/>
+      <c r="AG48" s="29"/>
+      <c r="AH48" s="29"/>
+      <c r="AI48" s="29"/>
+      <c r="AJ48" s="29"/>
+      <c r="AK48" s="30"/>
       <c r="AL48" s="24"/>
       <c r="AM48" s="24"/>
       <c r="AN48" s="24"/>
@@ -10804,61 +10805,61 @@
       <c r="AQ48" s="24"/>
     </row>
     <row r="49" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A49" s="35">
+      <c r="A49" s="44">
         <v>7</v>
       </c>
-      <c r="B49" s="35"/>
-      <c r="C49" s="35" t="s">
+      <c r="B49" s="44"/>
+      <c r="C49" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="D49" s="35"/>
-      <c r="E49" s="35"/>
-      <c r="F49" s="35"/>
-      <c r="G49" s="35"/>
-      <c r="H49" s="35"/>
-      <c r="I49" s="35" t="s">
+      <c r="D49" s="44"/>
+      <c r="E49" s="44"/>
+      <c r="F49" s="44"/>
+      <c r="G49" s="44"/>
+      <c r="H49" s="44"/>
+      <c r="I49" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="J49" s="35"/>
-      <c r="K49" s="35"/>
-      <c r="L49" s="35"/>
-      <c r="M49" s="35" t="s">
+      <c r="J49" s="44"/>
+      <c r="K49" s="44"/>
+      <c r="L49" s="44"/>
+      <c r="M49" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="N49" s="35"/>
-      <c r="O49" s="32" t="s">
+      <c r="N49" s="44"/>
+      <c r="O49" s="31" t="s">
         <v>16</v>
       </c>
       <c r="P49" s="33"/>
-      <c r="Q49" s="35" t="s">
+      <c r="Q49" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="R49" s="35"/>
-      <c r="S49" s="32" t="s">
+      <c r="R49" s="44"/>
+      <c r="S49" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="T49" s="34"/>
+      <c r="T49" s="32"/>
       <c r="U49" s="33"/>
-      <c r="V49" s="32" t="s">
+      <c r="V49" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="W49" s="34"/>
+      <c r="W49" s="32"/>
       <c r="X49" s="33"/>
-      <c r="Y49" s="32" t="s">
+      <c r="Y49" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="Z49" s="34"/>
-      <c r="AA49" s="34"/>
-      <c r="AB49" s="34"/>
-      <c r="AC49" s="34"/>
-      <c r="AD49" s="34"/>
-      <c r="AE49" s="34"/>
-      <c r="AF49" s="34"/>
-      <c r="AG49" s="34"/>
-      <c r="AH49" s="34"/>
-      <c r="AI49" s="34"/>
-      <c r="AJ49" s="34"/>
-      <c r="AK49" s="33"/>
+      <c r="Z49" s="29"/>
+      <c r="AA49" s="29"/>
+      <c r="AB49" s="29"/>
+      <c r="AC49" s="29"/>
+      <c r="AD49" s="29"/>
+      <c r="AE49" s="29"/>
+      <c r="AF49" s="29"/>
+      <c r="AG49" s="29"/>
+      <c r="AH49" s="29"/>
+      <c r="AI49" s="29"/>
+      <c r="AJ49" s="29"/>
+      <c r="AK49" s="30"/>
       <c r="AL49" s="24"/>
       <c r="AM49" s="24"/>
       <c r="AN49" s="24"/>
@@ -10867,44 +10868,44 @@
       <c r="AQ49" s="24"/>
     </row>
     <row r="50" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A50" s="35">
+      <c r="A50" s="44">
         <v>8</v>
       </c>
-      <c r="B50" s="35"/>
-      <c r="C50" s="35"/>
-      <c r="D50" s="35"/>
-      <c r="E50" s="35"/>
-      <c r="F50" s="35"/>
-      <c r="G50" s="35"/>
-      <c r="H50" s="35"/>
-      <c r="I50" s="35"/>
-      <c r="J50" s="35"/>
-      <c r="K50" s="35"/>
-      <c r="L50" s="35"/>
-      <c r="M50" s="35"/>
-      <c r="N50" s="35"/>
-      <c r="O50" s="32"/>
+      <c r="B50" s="44"/>
+      <c r="C50" s="44"/>
+      <c r="D50" s="44"/>
+      <c r="E50" s="44"/>
+      <c r="F50" s="44"/>
+      <c r="G50" s="44"/>
+      <c r="H50" s="44"/>
+      <c r="I50" s="44"/>
+      <c r="J50" s="44"/>
+      <c r="K50" s="44"/>
+      <c r="L50" s="44"/>
+      <c r="M50" s="44"/>
+      <c r="N50" s="44"/>
+      <c r="O50" s="31"/>
       <c r="P50" s="33"/>
-      <c r="Q50" s="35"/>
-      <c r="R50" s="35"/>
-      <c r="S50" s="32"/>
-      <c r="T50" s="34"/>
+      <c r="Q50" s="44"/>
+      <c r="R50" s="44"/>
+      <c r="S50" s="31"/>
+      <c r="T50" s="32"/>
       <c r="U50" s="33"/>
-      <c r="V50" s="32"/>
-      <c r="W50" s="34"/>
+      <c r="V50" s="31"/>
+      <c r="W50" s="32"/>
       <c r="X50" s="33"/>
-      <c r="Y50" s="32"/>
-      <c r="Z50" s="34"/>
-      <c r="AA50" s="34"/>
-      <c r="AB50" s="34"/>
-      <c r="AC50" s="34"/>
-      <c r="AD50" s="34"/>
-      <c r="AE50" s="34"/>
-      <c r="AF50" s="34"/>
-      <c r="AG50" s="34"/>
-      <c r="AH50" s="34"/>
-      <c r="AI50" s="34"/>
-      <c r="AJ50" s="34"/>
+      <c r="Y50" s="31"/>
+      <c r="Z50" s="32"/>
+      <c r="AA50" s="32"/>
+      <c r="AB50" s="32"/>
+      <c r="AC50" s="32"/>
+      <c r="AD50" s="32"/>
+      <c r="AE50" s="32"/>
+      <c r="AF50" s="32"/>
+      <c r="AG50" s="32"/>
+      <c r="AH50" s="32"/>
+      <c r="AI50" s="32"/>
+      <c r="AJ50" s="32"/>
       <c r="AK50" s="33"/>
       <c r="AL50" s="24"/>
       <c r="AM50" s="24"/>
@@ -10914,44 +10915,44 @@
       <c r="AQ50" s="24"/>
     </row>
     <row r="51" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A51" s="35">
+      <c r="A51" s="44">
         <v>9</v>
       </c>
-      <c r="B51" s="35"/>
-      <c r="C51" s="35"/>
-      <c r="D51" s="35"/>
-      <c r="E51" s="35"/>
-      <c r="F51" s="35"/>
-      <c r="G51" s="35"/>
-      <c r="H51" s="35"/>
-      <c r="I51" s="35"/>
-      <c r="J51" s="35"/>
-      <c r="K51" s="35"/>
-      <c r="L51" s="35"/>
-      <c r="M51" s="35"/>
-      <c r="N51" s="35"/>
-      <c r="O51" s="32"/>
+      <c r="B51" s="44"/>
+      <c r="C51" s="44"/>
+      <c r="D51" s="44"/>
+      <c r="E51" s="44"/>
+      <c r="F51" s="44"/>
+      <c r="G51" s="44"/>
+      <c r="H51" s="44"/>
+      <c r="I51" s="44"/>
+      <c r="J51" s="44"/>
+      <c r="K51" s="44"/>
+      <c r="L51" s="44"/>
+      <c r="M51" s="44"/>
+      <c r="N51" s="44"/>
+      <c r="O51" s="31"/>
       <c r="P51" s="33"/>
-      <c r="Q51" s="35"/>
-      <c r="R51" s="35"/>
-      <c r="S51" s="32"/>
-      <c r="T51" s="34"/>
+      <c r="Q51" s="44"/>
+      <c r="R51" s="44"/>
+      <c r="S51" s="31"/>
+      <c r="T51" s="32"/>
       <c r="U51" s="33"/>
-      <c r="V51" s="32"/>
-      <c r="W51" s="34"/>
+      <c r="V51" s="31"/>
+      <c r="W51" s="32"/>
       <c r="X51" s="33"/>
-      <c r="Y51" s="32"/>
-      <c r="Z51" s="34"/>
-      <c r="AA51" s="34"/>
-      <c r="AB51" s="34"/>
-      <c r="AC51" s="34"/>
-      <c r="AD51" s="34"/>
-      <c r="AE51" s="34"/>
-      <c r="AF51" s="34"/>
-      <c r="AG51" s="34"/>
-      <c r="AH51" s="34"/>
-      <c r="AI51" s="34"/>
-      <c r="AJ51" s="34"/>
+      <c r="Y51" s="31"/>
+      <c r="Z51" s="32"/>
+      <c r="AA51" s="32"/>
+      <c r="AB51" s="32"/>
+      <c r="AC51" s="32"/>
+      <c r="AD51" s="32"/>
+      <c r="AE51" s="32"/>
+      <c r="AF51" s="32"/>
+      <c r="AG51" s="32"/>
+      <c r="AH51" s="32"/>
+      <c r="AI51" s="32"/>
+      <c r="AJ51" s="32"/>
       <c r="AK51" s="33"/>
       <c r="AL51" s="24"/>
       <c r="AM51" s="24"/>
@@ -10961,223 +10962,322 @@
       <c r="AQ51" s="24"/>
     </row>
     <row r="52" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A52" s="59"/>
-      <c r="B52" s="60"/>
-      <c r="C52" s="59"/>
-      <c r="D52" s="61"/>
-      <c r="E52" s="61"/>
-      <c r="F52" s="61"/>
-      <c r="G52" s="61"/>
-      <c r="H52" s="60"/>
-      <c r="I52" s="59"/>
-      <c r="J52" s="61"/>
-      <c r="K52" s="61"/>
-      <c r="L52" s="60"/>
-      <c r="M52" s="59"/>
-      <c r="N52" s="60"/>
-      <c r="O52" s="59"/>
-      <c r="P52" s="60"/>
-      <c r="Q52" s="62"/>
-      <c r="R52" s="62"/>
-      <c r="S52" s="59"/>
-      <c r="T52" s="61"/>
-      <c r="U52" s="61"/>
-      <c r="V52" s="62"/>
-      <c r="W52" s="62"/>
-      <c r="X52" s="62"/>
-      <c r="Y52" s="59"/>
-      <c r="Z52" s="61"/>
-      <c r="AA52" s="61"/>
-      <c r="AB52" s="61"/>
-      <c r="AC52" s="61"/>
-      <c r="AD52" s="61"/>
-      <c r="AE52" s="61"/>
-      <c r="AF52" s="61"/>
-      <c r="AG52" s="61"/>
-      <c r="AH52" s="61"/>
-      <c r="AI52" s="61"/>
-      <c r="AJ52" s="61"/>
-      <c r="AK52" s="60"/>
+      <c r="A52" s="40"/>
+      <c r="B52" s="41"/>
+      <c r="C52" s="40"/>
+      <c r="D52" s="42"/>
+      <c r="E52" s="42"/>
+      <c r="F52" s="42"/>
+      <c r="G52" s="42"/>
+      <c r="H52" s="41"/>
+      <c r="I52" s="40"/>
+      <c r="J52" s="42"/>
+      <c r="K52" s="42"/>
+      <c r="L52" s="41"/>
+      <c r="M52" s="40"/>
+      <c r="N52" s="41"/>
+      <c r="O52" s="40"/>
+      <c r="P52" s="41"/>
+      <c r="Q52" s="43"/>
+      <c r="R52" s="43"/>
+      <c r="S52" s="40"/>
+      <c r="T52" s="42"/>
+      <c r="U52" s="42"/>
+      <c r="V52" s="43"/>
+      <c r="W52" s="43"/>
+      <c r="X52" s="43"/>
+      <c r="Y52" s="40"/>
+      <c r="Z52" s="42"/>
+      <c r="AA52" s="42"/>
+      <c r="AB52" s="42"/>
+      <c r="AC52" s="42"/>
+      <c r="AD52" s="42"/>
+      <c r="AE52" s="42"/>
+      <c r="AF52" s="42"/>
+      <c r="AG52" s="42"/>
+      <c r="AH52" s="42"/>
+      <c r="AI52" s="42"/>
+      <c r="AJ52" s="42"/>
+      <c r="AK52" s="41"/>
     </row>
     <row r="53" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A53" s="59"/>
-      <c r="B53" s="60"/>
-      <c r="C53" s="59"/>
-      <c r="D53" s="61"/>
-      <c r="E53" s="61"/>
-      <c r="F53" s="61"/>
-      <c r="G53" s="61"/>
-      <c r="H53" s="60"/>
-      <c r="I53" s="59"/>
-      <c r="J53" s="61"/>
-      <c r="K53" s="61"/>
-      <c r="L53" s="60"/>
-      <c r="M53" s="59"/>
-      <c r="N53" s="60"/>
-      <c r="O53" s="59"/>
-      <c r="P53" s="60"/>
-      <c r="Q53" s="59"/>
-      <c r="R53" s="60"/>
-      <c r="S53" s="59"/>
-      <c r="T53" s="61"/>
-      <c r="U53" s="61"/>
-      <c r="V53" s="62"/>
-      <c r="W53" s="62"/>
-      <c r="X53" s="62"/>
-      <c r="Y53" s="59"/>
-      <c r="Z53" s="61"/>
-      <c r="AA53" s="61"/>
-      <c r="AB53" s="61"/>
-      <c r="AC53" s="61"/>
-      <c r="AD53" s="61"/>
-      <c r="AE53" s="61"/>
-      <c r="AF53" s="61"/>
-      <c r="AG53" s="61"/>
-      <c r="AH53" s="61"/>
-      <c r="AI53" s="61"/>
-      <c r="AJ53" s="61"/>
-      <c r="AK53" s="60"/>
+      <c r="A53" s="40"/>
+      <c r="B53" s="41"/>
+      <c r="C53" s="40"/>
+      <c r="D53" s="42"/>
+      <c r="E53" s="42"/>
+      <c r="F53" s="42"/>
+      <c r="G53" s="42"/>
+      <c r="H53" s="41"/>
+      <c r="I53" s="40"/>
+      <c r="J53" s="42"/>
+      <c r="K53" s="42"/>
+      <c r="L53" s="41"/>
+      <c r="M53" s="40"/>
+      <c r="N53" s="41"/>
+      <c r="O53" s="40"/>
+      <c r="P53" s="41"/>
+      <c r="Q53" s="40"/>
+      <c r="R53" s="41"/>
+      <c r="S53" s="40"/>
+      <c r="T53" s="42"/>
+      <c r="U53" s="42"/>
+      <c r="V53" s="43"/>
+      <c r="W53" s="43"/>
+      <c r="X53" s="43"/>
+      <c r="Y53" s="40"/>
+      <c r="Z53" s="42"/>
+      <c r="AA53" s="42"/>
+      <c r="AB53" s="42"/>
+      <c r="AC53" s="42"/>
+      <c r="AD53" s="42"/>
+      <c r="AE53" s="42"/>
+      <c r="AF53" s="42"/>
+      <c r="AG53" s="42"/>
+      <c r="AH53" s="42"/>
+      <c r="AI53" s="42"/>
+      <c r="AJ53" s="42"/>
+      <c r="AK53" s="41"/>
     </row>
     <row r="54" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A54" s="59"/>
-      <c r="B54" s="60"/>
-      <c r="C54" s="59"/>
-      <c r="D54" s="61"/>
-      <c r="E54" s="61"/>
-      <c r="F54" s="61"/>
-      <c r="G54" s="61"/>
-      <c r="H54" s="60"/>
-      <c r="I54" s="59"/>
-      <c r="J54" s="61"/>
-      <c r="K54" s="61"/>
-      <c r="L54" s="60"/>
-      <c r="M54" s="59"/>
-      <c r="N54" s="60"/>
-      <c r="O54" s="59"/>
-      <c r="P54" s="60"/>
-      <c r="Q54" s="62"/>
-      <c r="R54" s="62"/>
-      <c r="S54" s="59"/>
-      <c r="T54" s="61"/>
-      <c r="U54" s="61"/>
-      <c r="V54" s="62"/>
-      <c r="W54" s="62"/>
-      <c r="X54" s="62"/>
-      <c r="Y54" s="59"/>
-      <c r="Z54" s="61"/>
-      <c r="AA54" s="61"/>
-      <c r="AB54" s="61"/>
-      <c r="AC54" s="61"/>
-      <c r="AD54" s="61"/>
-      <c r="AE54" s="61"/>
-      <c r="AF54" s="61"/>
-      <c r="AG54" s="61"/>
-      <c r="AH54" s="61"/>
-      <c r="AI54" s="61"/>
-      <c r="AJ54" s="61"/>
-      <c r="AK54" s="60"/>
+      <c r="A54" s="40"/>
+      <c r="B54" s="41"/>
+      <c r="C54" s="40"/>
+      <c r="D54" s="42"/>
+      <c r="E54" s="42"/>
+      <c r="F54" s="42"/>
+      <c r="G54" s="42"/>
+      <c r="H54" s="41"/>
+      <c r="I54" s="40"/>
+      <c r="J54" s="42"/>
+      <c r="K54" s="42"/>
+      <c r="L54" s="41"/>
+      <c r="M54" s="40"/>
+      <c r="N54" s="41"/>
+      <c r="O54" s="40"/>
+      <c r="P54" s="41"/>
+      <c r="Q54" s="43"/>
+      <c r="R54" s="43"/>
+      <c r="S54" s="40"/>
+      <c r="T54" s="42"/>
+      <c r="U54" s="42"/>
+      <c r="V54" s="43"/>
+      <c r="W54" s="43"/>
+      <c r="X54" s="43"/>
+      <c r="Y54" s="40"/>
+      <c r="Z54" s="42"/>
+      <c r="AA54" s="42"/>
+      <c r="AB54" s="42"/>
+      <c r="AC54" s="42"/>
+      <c r="AD54" s="42"/>
+      <c r="AE54" s="42"/>
+      <c r="AF54" s="42"/>
+      <c r="AG54" s="42"/>
+      <c r="AH54" s="42"/>
+      <c r="AI54" s="42"/>
+      <c r="AJ54" s="42"/>
+      <c r="AK54" s="41"/>
     </row>
     <row r="55" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A55" s="59"/>
-      <c r="B55" s="60"/>
-      <c r="C55" s="59"/>
-      <c r="D55" s="61"/>
-      <c r="E55" s="61"/>
-      <c r="F55" s="61"/>
-      <c r="G55" s="61"/>
-      <c r="H55" s="60"/>
-      <c r="I55" s="59"/>
-      <c r="J55" s="61"/>
-      <c r="K55" s="61"/>
-      <c r="L55" s="60"/>
-      <c r="M55" s="59"/>
-      <c r="N55" s="60"/>
-      <c r="O55" s="59"/>
-      <c r="P55" s="60"/>
-      <c r="Q55" s="59"/>
-      <c r="R55" s="60"/>
-      <c r="S55" s="59"/>
-      <c r="T55" s="61"/>
-      <c r="U55" s="61"/>
-      <c r="V55" s="62"/>
-      <c r="W55" s="62"/>
-      <c r="X55" s="62"/>
-      <c r="Y55" s="59"/>
-      <c r="Z55" s="61"/>
-      <c r="AA55" s="61"/>
-      <c r="AB55" s="61"/>
-      <c r="AC55" s="61"/>
-      <c r="AD55" s="61"/>
-      <c r="AE55" s="61"/>
-      <c r="AF55" s="61"/>
-      <c r="AG55" s="61"/>
-      <c r="AH55" s="61"/>
-      <c r="AI55" s="61"/>
-      <c r="AJ55" s="61"/>
-      <c r="AK55" s="60"/>
+      <c r="A55" s="40"/>
+      <c r="B55" s="41"/>
+      <c r="C55" s="40"/>
+      <c r="D55" s="42"/>
+      <c r="E55" s="42"/>
+      <c r="F55" s="42"/>
+      <c r="G55" s="42"/>
+      <c r="H55" s="41"/>
+      <c r="I55" s="40"/>
+      <c r="J55" s="42"/>
+      <c r="K55" s="42"/>
+      <c r="L55" s="41"/>
+      <c r="M55" s="40"/>
+      <c r="N55" s="41"/>
+      <c r="O55" s="40"/>
+      <c r="P55" s="41"/>
+      <c r="Q55" s="40"/>
+      <c r="R55" s="41"/>
+      <c r="S55" s="40"/>
+      <c r="T55" s="42"/>
+      <c r="U55" s="42"/>
+      <c r="V55" s="43"/>
+      <c r="W55" s="43"/>
+      <c r="X55" s="43"/>
+      <c r="Y55" s="40"/>
+      <c r="Z55" s="42"/>
+      <c r="AA55" s="42"/>
+      <c r="AB55" s="42"/>
+      <c r="AC55" s="42"/>
+      <c r="AD55" s="42"/>
+      <c r="AE55" s="42"/>
+      <c r="AF55" s="42"/>
+      <c r="AG55" s="42"/>
+      <c r="AH55" s="42"/>
+      <c r="AI55" s="42"/>
+      <c r="AJ55" s="42"/>
+      <c r="AK55" s="41"/>
     </row>
     <row r="56" spans="1:43" ht="12.75" customHeight="1">
-      <c r="A56" s="59"/>
-      <c r="B56" s="60"/>
-      <c r="C56" s="59"/>
-      <c r="D56" s="61"/>
-      <c r="E56" s="61"/>
-      <c r="F56" s="61"/>
-      <c r="G56" s="61"/>
-      <c r="H56" s="60"/>
-      <c r="I56" s="59"/>
-      <c r="J56" s="61"/>
-      <c r="K56" s="61"/>
-      <c r="L56" s="60"/>
-      <c r="M56" s="59"/>
-      <c r="N56" s="60"/>
-      <c r="O56" s="59"/>
-      <c r="P56" s="60"/>
-      <c r="Q56" s="59"/>
-      <c r="R56" s="60"/>
-      <c r="S56" s="59"/>
-      <c r="T56" s="61"/>
-      <c r="U56" s="61"/>
-      <c r="V56" s="62"/>
-      <c r="W56" s="62"/>
-      <c r="X56" s="62"/>
-      <c r="Y56" s="59"/>
-      <c r="Z56" s="61"/>
-      <c r="AA56" s="61"/>
-      <c r="AB56" s="61"/>
-      <c r="AC56" s="61"/>
-      <c r="AD56" s="61"/>
-      <c r="AE56" s="61"/>
-      <c r="AF56" s="61"/>
-      <c r="AG56" s="61"/>
-      <c r="AH56" s="61"/>
-      <c r="AI56" s="61"/>
-      <c r="AJ56" s="61"/>
-      <c r="AK56" s="60"/>
+      <c r="A56" s="40"/>
+      <c r="B56" s="41"/>
+      <c r="C56" s="40"/>
+      <c r="D56" s="42"/>
+      <c r="E56" s="42"/>
+      <c r="F56" s="42"/>
+      <c r="G56" s="42"/>
+      <c r="H56" s="41"/>
+      <c r="I56" s="40"/>
+      <c r="J56" s="42"/>
+      <c r="K56" s="42"/>
+      <c r="L56" s="41"/>
+      <c r="M56" s="40"/>
+      <c r="N56" s="41"/>
+      <c r="O56" s="40"/>
+      <c r="P56" s="41"/>
+      <c r="Q56" s="40"/>
+      <c r="R56" s="41"/>
+      <c r="S56" s="40"/>
+      <c r="T56" s="42"/>
+      <c r="U56" s="42"/>
+      <c r="V56" s="43"/>
+      <c r="W56" s="43"/>
+      <c r="X56" s="43"/>
+      <c r="Y56" s="40"/>
+      <c r="Z56" s="42"/>
+      <c r="AA56" s="42"/>
+      <c r="AB56" s="42"/>
+      <c r="AC56" s="42"/>
+      <c r="AD56" s="42"/>
+      <c r="AE56" s="42"/>
+      <c r="AF56" s="42"/>
+      <c r="AG56" s="42"/>
+      <c r="AH56" s="42"/>
+      <c r="AI56" s="42"/>
+      <c r="AJ56" s="42"/>
+      <c r="AK56" s="41"/>
     </row>
     <row r="59" spans="1:43" ht="12.75" customHeight="1">
       <c r="B59" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="153">
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="C56:H56"/>
-    <mergeCell ref="I56:L56"/>
-    <mergeCell ref="M56:N56"/>
-    <mergeCell ref="O56:P56"/>
-    <mergeCell ref="Q56:R56"/>
-    <mergeCell ref="S56:U56"/>
-    <mergeCell ref="V56:X56"/>
-    <mergeCell ref="Y56:AK56"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="C55:H55"/>
-    <mergeCell ref="I55:L55"/>
-    <mergeCell ref="M55:N55"/>
-    <mergeCell ref="O55:P55"/>
-    <mergeCell ref="Q55:R55"/>
-    <mergeCell ref="S55:U55"/>
-    <mergeCell ref="V55:X55"/>
-    <mergeCell ref="Y55:AK55"/>
+    <mergeCell ref="A1:AK1"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="I3:O3"/>
+    <mergeCell ref="P3:R3"/>
+    <mergeCell ref="S3:Y3"/>
+    <mergeCell ref="Z3:AB3"/>
+    <mergeCell ref="AC3:AE3"/>
+    <mergeCell ref="AF3:AH3"/>
+    <mergeCell ref="AI3:AK3"/>
+    <mergeCell ref="AF4:AH5"/>
+    <mergeCell ref="AI4:AK5"/>
+    <mergeCell ref="O37:P37"/>
+    <mergeCell ref="A41:B42"/>
+    <mergeCell ref="C41:H42"/>
+    <mergeCell ref="I41:L42"/>
+    <mergeCell ref="M41:N42"/>
+    <mergeCell ref="O41:P42"/>
+    <mergeCell ref="Q41:R42"/>
+    <mergeCell ref="S41:U42"/>
+    <mergeCell ref="A4:H5"/>
+    <mergeCell ref="I4:O5"/>
+    <mergeCell ref="P4:R5"/>
+    <mergeCell ref="S4:Y5"/>
+    <mergeCell ref="Z4:AB5"/>
+    <mergeCell ref="AC4:AE5"/>
+    <mergeCell ref="V41:X42"/>
+    <mergeCell ref="Y41:AK42"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:H43"/>
+    <mergeCell ref="I43:L43"/>
+    <mergeCell ref="M43:N43"/>
+    <mergeCell ref="O43:P43"/>
+    <mergeCell ref="Q43:R43"/>
+    <mergeCell ref="S43:U43"/>
+    <mergeCell ref="V43:X43"/>
+    <mergeCell ref="Y43:AK43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:H44"/>
+    <mergeCell ref="I44:L44"/>
+    <mergeCell ref="M44:N44"/>
+    <mergeCell ref="O44:P44"/>
+    <mergeCell ref="Q44:R44"/>
+    <mergeCell ref="S44:U44"/>
+    <mergeCell ref="V44:X44"/>
+    <mergeCell ref="Y44:AK44"/>
+    <mergeCell ref="S45:U45"/>
+    <mergeCell ref="V45:X45"/>
+    <mergeCell ref="Y45:AK45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:H46"/>
+    <mergeCell ref="I46:L46"/>
+    <mergeCell ref="M46:N46"/>
+    <mergeCell ref="O46:P46"/>
+    <mergeCell ref="Q46:R46"/>
+    <mergeCell ref="S46:U46"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:H45"/>
+    <mergeCell ref="I45:L45"/>
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="O45:P45"/>
+    <mergeCell ref="Q45:R45"/>
+    <mergeCell ref="V46:X46"/>
+    <mergeCell ref="Y46:AK46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:H47"/>
+    <mergeCell ref="I47:L47"/>
+    <mergeCell ref="M47:N47"/>
+    <mergeCell ref="O47:P47"/>
+    <mergeCell ref="Q47:R47"/>
+    <mergeCell ref="S47:U47"/>
+    <mergeCell ref="V47:X47"/>
+    <mergeCell ref="Y47:AK47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:H48"/>
+    <mergeCell ref="I48:L48"/>
+    <mergeCell ref="M48:N48"/>
+    <mergeCell ref="O48:P48"/>
+    <mergeCell ref="Q48:R48"/>
+    <mergeCell ref="S48:U48"/>
+    <mergeCell ref="V48:X48"/>
+    <mergeCell ref="Y48:AK48"/>
+    <mergeCell ref="S49:U49"/>
+    <mergeCell ref="V49:X49"/>
+    <mergeCell ref="Y49:AK49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:H50"/>
+    <mergeCell ref="I50:L50"/>
+    <mergeCell ref="M50:N50"/>
+    <mergeCell ref="O50:P50"/>
+    <mergeCell ref="Q50:R50"/>
+    <mergeCell ref="S50:U50"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:H49"/>
+    <mergeCell ref="I49:L49"/>
+    <mergeCell ref="M49:N49"/>
+    <mergeCell ref="O49:P49"/>
+    <mergeCell ref="Q49:R49"/>
+    <mergeCell ref="V50:X50"/>
+    <mergeCell ref="Y50:AK50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:H51"/>
+    <mergeCell ref="I51:L51"/>
+    <mergeCell ref="M51:N51"/>
+    <mergeCell ref="O51:P51"/>
+    <mergeCell ref="Q51:R51"/>
+    <mergeCell ref="S51:U51"/>
+    <mergeCell ref="V51:X51"/>
+    <mergeCell ref="Y51:AK51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:H52"/>
+    <mergeCell ref="I52:L52"/>
+    <mergeCell ref="M52:N52"/>
+    <mergeCell ref="O52:P52"/>
+    <mergeCell ref="Q52:R52"/>
+    <mergeCell ref="S52:U52"/>
+    <mergeCell ref="V52:X52"/>
+    <mergeCell ref="Y52:AK52"/>
     <mergeCell ref="S53:U53"/>
     <mergeCell ref="V53:X53"/>
     <mergeCell ref="Y53:AK53"/>
@@ -11196,123 +11296,24 @@
     <mergeCell ref="Q53:R53"/>
     <mergeCell ref="V54:X54"/>
     <mergeCell ref="Y54:AK54"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="C52:H52"/>
-    <mergeCell ref="I52:L52"/>
-    <mergeCell ref="M52:N52"/>
-    <mergeCell ref="O52:P52"/>
-    <mergeCell ref="Q52:R52"/>
-    <mergeCell ref="S52:U52"/>
-    <mergeCell ref="V52:X52"/>
-    <mergeCell ref="Y52:AK52"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="C51:H51"/>
-    <mergeCell ref="I51:L51"/>
-    <mergeCell ref="M51:N51"/>
-    <mergeCell ref="O51:P51"/>
-    <mergeCell ref="Q51:R51"/>
-    <mergeCell ref="S51:U51"/>
-    <mergeCell ref="V51:X51"/>
-    <mergeCell ref="Y51:AK51"/>
-    <mergeCell ref="S49:U49"/>
-    <mergeCell ref="V49:X49"/>
-    <mergeCell ref="Y49:AK49"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="C50:H50"/>
-    <mergeCell ref="I50:L50"/>
-    <mergeCell ref="M50:N50"/>
-    <mergeCell ref="O50:P50"/>
-    <mergeCell ref="Q50:R50"/>
-    <mergeCell ref="S50:U50"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="C49:H49"/>
-    <mergeCell ref="I49:L49"/>
-    <mergeCell ref="M49:N49"/>
-    <mergeCell ref="O49:P49"/>
-    <mergeCell ref="Q49:R49"/>
-    <mergeCell ref="V50:X50"/>
-    <mergeCell ref="Y50:AK50"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="C48:H48"/>
-    <mergeCell ref="I48:L48"/>
-    <mergeCell ref="M48:N48"/>
-    <mergeCell ref="O48:P48"/>
-    <mergeCell ref="Q48:R48"/>
-    <mergeCell ref="S48:U48"/>
-    <mergeCell ref="V48:X48"/>
-    <mergeCell ref="Y48:AK48"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="C47:H47"/>
-    <mergeCell ref="I47:L47"/>
-    <mergeCell ref="M47:N47"/>
-    <mergeCell ref="O47:P47"/>
-    <mergeCell ref="Q47:R47"/>
-    <mergeCell ref="S47:U47"/>
-    <mergeCell ref="V47:X47"/>
-    <mergeCell ref="Y47:AK47"/>
-    <mergeCell ref="S45:U45"/>
-    <mergeCell ref="V45:X45"/>
-    <mergeCell ref="Y45:AK45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="C46:H46"/>
-    <mergeCell ref="I46:L46"/>
-    <mergeCell ref="M46:N46"/>
-    <mergeCell ref="O46:P46"/>
-    <mergeCell ref="Q46:R46"/>
-    <mergeCell ref="S46:U46"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="C45:H45"/>
-    <mergeCell ref="I45:L45"/>
-    <mergeCell ref="M45:N45"/>
-    <mergeCell ref="O45:P45"/>
-    <mergeCell ref="Q45:R45"/>
-    <mergeCell ref="V46:X46"/>
-    <mergeCell ref="Y46:AK46"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="C44:H44"/>
-    <mergeCell ref="I44:L44"/>
-    <mergeCell ref="M44:N44"/>
-    <mergeCell ref="O44:P44"/>
-    <mergeCell ref="Q44:R44"/>
-    <mergeCell ref="S44:U44"/>
-    <mergeCell ref="V44:X44"/>
-    <mergeCell ref="Y44:AK44"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="C43:H43"/>
-    <mergeCell ref="I43:L43"/>
-    <mergeCell ref="M43:N43"/>
-    <mergeCell ref="O43:P43"/>
-    <mergeCell ref="Q43:R43"/>
-    <mergeCell ref="S43:U43"/>
-    <mergeCell ref="V43:X43"/>
-    <mergeCell ref="Y43:AK43"/>
-    <mergeCell ref="AF4:AH5"/>
-    <mergeCell ref="AI4:AK5"/>
-    <mergeCell ref="O37:P37"/>
-    <mergeCell ref="A41:B42"/>
-    <mergeCell ref="C41:H42"/>
-    <mergeCell ref="I41:L42"/>
-    <mergeCell ref="M41:N42"/>
-    <mergeCell ref="O41:P42"/>
-    <mergeCell ref="Q41:R42"/>
-    <mergeCell ref="S41:U42"/>
-    <mergeCell ref="A4:H5"/>
-    <mergeCell ref="I4:O5"/>
-    <mergeCell ref="P4:R5"/>
-    <mergeCell ref="S4:Y5"/>
-    <mergeCell ref="Z4:AB5"/>
-    <mergeCell ref="AC4:AE5"/>
-    <mergeCell ref="V41:X42"/>
-    <mergeCell ref="Y41:AK42"/>
-    <mergeCell ref="A1:AK1"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="I3:O3"/>
-    <mergeCell ref="P3:R3"/>
-    <mergeCell ref="S3:Y3"/>
-    <mergeCell ref="Z3:AB3"/>
-    <mergeCell ref="AC3:AE3"/>
-    <mergeCell ref="AF3:AH3"/>
-    <mergeCell ref="AI3:AK3"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="C55:H55"/>
+    <mergeCell ref="I55:L55"/>
+    <mergeCell ref="M55:N55"/>
+    <mergeCell ref="O55:P55"/>
+    <mergeCell ref="Q55:R55"/>
+    <mergeCell ref="S55:U55"/>
+    <mergeCell ref="V55:X55"/>
+    <mergeCell ref="Y55:AK55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="C56:H56"/>
+    <mergeCell ref="I56:L56"/>
+    <mergeCell ref="M56:N56"/>
+    <mergeCell ref="O56:P56"/>
+    <mergeCell ref="Q56:R56"/>
+    <mergeCell ref="S56:U56"/>
+    <mergeCell ref="V56:X56"/>
+    <mergeCell ref="Y56:AK56"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
